--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -1273,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ2">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ4">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.57</v>
+        <v>1.15</v>
       </c>
       <c r="AQ5">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="AQ7">
-        <v>2.5</v>
+        <v>2.82</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2503,25 +2503,25 @@
         <v>4.33</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AU8">
         <v>10</v>
@@ -2709,25 +2709,25 @@
         <v>1.5</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.29</v>
+        <v>0.92</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AU9">
         <v>6</v>
@@ -2915,25 +2915,25 @@
         <v>1.36</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AU10">
         <v>8</v>
@@ -3124,22 +3124,22 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AQ11">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>4.57</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3327,25 +3327,25 @@
         <v>1.95</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AQ12">
-        <v>0.67</v>
+        <v>1.15</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3542,16 +3542,16 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AU13">
         <v>3</v>
@@ -3742,22 +3742,22 @@
         <v>1</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ14">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="AR14">
-        <v>2.04</v>
+        <v>1.54</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT14">
-        <v>3.54</v>
+        <v>2.98</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP15">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AQ15">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AT15">
-        <v>2.13</v>
+        <v>2.58</v>
       </c>
       <c r="AU15">
         <v>3</v>
@@ -4151,25 +4151,25 @@
         <v>4.5</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO16">
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="AR16">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="AS16">
-        <v>1.11</v>
+        <v>1.39</v>
       </c>
       <c r="AT16">
-        <v>3.13</v>
+        <v>2.99</v>
       </c>
       <c r="AU16">
         <v>10</v>
@@ -4357,25 +4357,25 @@
         <v>1.02</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO17">
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.57</v>
+        <v>1.15</v>
       </c>
       <c r="AQ17">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AR17">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AS17">
-        <v>1.65</v>
+        <v>2.38</v>
       </c>
       <c r="AT17">
-        <v>2.72</v>
+        <v>3.53</v>
       </c>
       <c r="AU17">
         <v>2</v>
@@ -4563,25 +4563,25 @@
         <v>1.4</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AQ18">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR18">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="AS18">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AT18">
-        <v>2.86</v>
+        <v>2.44</v>
       </c>
       <c r="AU18">
         <v>7</v>
@@ -4775,19 +4775,19 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AQ19">
         <v>1</v>
       </c>
       <c r="AR19">
-        <v>1.1</v>
+        <v>1.43</v>
       </c>
       <c r="AS19">
-        <v>0.6899999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AT19">
-        <v>1.79</v>
+        <v>2.48</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -4975,25 +4975,25 @@
         <v>1.73</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>1.15</v>
       </c>
       <c r="AR20">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="AS20">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AT20">
-        <v>2.78</v>
+        <v>2.36</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5181,25 +5181,25 @@
         <v>1.42</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="AQ21">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR21">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="AS21">
-        <v>0.88</v>
+        <v>1.26</v>
       </c>
       <c r="AT21">
-        <v>2.27</v>
+        <v>2.54</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5387,25 +5387,25 @@
         <v>1.3</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO22">
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.29</v>
+        <v>0.92</v>
       </c>
       <c r="AQ22">
-        <v>2.5</v>
+        <v>2.82</v>
       </c>
       <c r="AR22">
-        <v>1.66</v>
+        <v>1.12</v>
       </c>
       <c r="AS22">
-        <v>1.77</v>
+        <v>1.34</v>
       </c>
       <c r="AT22">
-        <v>3.43</v>
+        <v>2.46</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5596,22 +5596,22 @@
         <v>3</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP23">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="AQ23">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AR23">
-        <v>3.1</v>
+        <v>2.22</v>
       </c>
       <c r="AS23">
-        <v>1.18</v>
+        <v>1.74</v>
       </c>
       <c r="AT23">
-        <v>4.28</v>
+        <v>3.96</v>
       </c>
       <c r="AU23">
         <v>5</v>
@@ -5799,25 +5799,25 @@
         <v>2</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR24">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AS24">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AT24">
-        <v>2.19</v>
+        <v>2.47</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6008,22 +6008,22 @@
         <v>0</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP25">
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="AR25">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="AS25">
-        <v>1.47</v>
+        <v>1.06</v>
       </c>
       <c r="AT25">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6214,22 +6214,22 @@
         <v>3</v>
       </c>
       <c r="AO26">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP26">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AQ26">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR26">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AS26">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AT26">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6420,22 +6420,22 @@
         <v>3</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP27">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR27">
-        <v>2.21</v>
+        <v>1.99</v>
       </c>
       <c r="AS27">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AT27">
-        <v>3.36</v>
+        <v>3.19</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -6626,22 +6626,22 @@
         <v>0.5</v>
       </c>
       <c r="AO28">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP28">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AQ28">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="AR28">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="AS28">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AT28">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -6832,22 +6832,22 @@
         <v>0.5</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1.29</v>
+        <v>0.92</v>
       </c>
       <c r="AQ29">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR29">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AS29">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AT29">
-        <v>2.72</v>
+        <v>2.53</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7035,25 +7035,25 @@
         <v>1.66</v>
       </c>
       <c r="AN30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP30">
-        <v>1.57</v>
+        <v>1.15</v>
       </c>
       <c r="AQ30">
         <v>1</v>
       </c>
       <c r="AR30">
-        <v>0.76</v>
+        <v>1.05</v>
       </c>
       <c r="AS30">
-        <v>0.85</v>
+        <v>1.09</v>
       </c>
       <c r="AT30">
-        <v>1.61</v>
+        <v>2.14</v>
       </c>
       <c r="AU30">
         <v>4</v>
@@ -7244,22 +7244,22 @@
         <v>2</v>
       </c>
       <c r="AO31">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ31">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AR31">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AS31">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="AT31">
-        <v>2.72</v>
+        <v>2.91</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7447,25 +7447,25 @@
         <v>1.75</v>
       </c>
       <c r="AN32">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AP32">
-        <v>1.29</v>
+        <v>0.92</v>
       </c>
       <c r="AQ32">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="AR32">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="AS32">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="AT32">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AU32">
         <v>7</v>
@@ -7653,25 +7653,25 @@
         <v>1.41</v>
       </c>
       <c r="AN33">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AP33">
-        <v>1.57</v>
+        <v>1.15</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR33">
-        <v>0.87</v>
+        <v>1.06</v>
       </c>
       <c r="AS33">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AT33">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -7859,25 +7859,25 @@
         <v>2.25</v>
       </c>
       <c r="AN34">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AO34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ34">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="AR34">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AS34">
-        <v>0.84</v>
+        <v>1.21</v>
       </c>
       <c r="AT34">
-        <v>2.09</v>
+        <v>2.35</v>
       </c>
       <c r="AU34">
         <v>9</v>
@@ -8065,25 +8065,25 @@
         <v>1.66</v>
       </c>
       <c r="AN35">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO35">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP35">
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR35">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="AS35">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="AT35">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8271,25 +8271,25 @@
         <v>1.58</v>
       </c>
       <c r="AN36">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AQ36">
-        <v>0.67</v>
+        <v>1.15</v>
       </c>
       <c r="AR36">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="AS36">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="AT36">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8477,25 +8477,25 @@
         <v>1.45</v>
       </c>
       <c r="AN37">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AO37">
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
-        <v>2.5</v>
+        <v>2.82</v>
       </c>
       <c r="AR37">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="AS37">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AT37">
-        <v>2.92</v>
+        <v>2.65</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -8683,25 +8683,25 @@
         <v>1.04</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO38">
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="AQ38">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AR38">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="AS38">
-        <v>1.78</v>
+        <v>2.01</v>
       </c>
       <c r="AT38">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -8889,25 +8889,25 @@
         <v>2.9</v>
       </c>
       <c r="AN39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="AR39">
-        <v>2.01</v>
+        <v>1.59</v>
       </c>
       <c r="AS39">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AT39">
-        <v>3.33</v>
+        <v>2.79</v>
       </c>
       <c r="AU39">
         <v>5</v>
@@ -9095,25 +9095,25 @@
         <v>1.63</v>
       </c>
       <c r="AN40">
-        <v>1.75</v>
+        <v>1.14</v>
       </c>
       <c r="AO40">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.57</v>
+        <v>1.15</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR40">
-        <v>0.9399999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="AS40">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT40">
-        <v>2.3</v>
+        <v>2.49</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9301,25 +9301,25 @@
         <v>1.77</v>
       </c>
       <c r="AN41">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP41">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AQ41">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR41">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="AS41">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AT41">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="AU41">
         <v>8</v>
@@ -9507,25 +9507,25 @@
         <v>1.62</v>
       </c>
       <c r="AN42">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO42">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>1</v>
       </c>
       <c r="AR42">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="AS42">
-        <v>0.99</v>
+        <v>1.15</v>
       </c>
       <c r="AT42">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -9713,25 +9713,25 @@
         <v>1.02</v>
       </c>
       <c r="AN43">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO43">
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.29</v>
+        <v>0.92</v>
       </c>
       <c r="AQ43">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AR43">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="AS43">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT43">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="AU43">
         <v>6</v>
@@ -9922,22 +9922,22 @@
         <v>3</v>
       </c>
       <c r="AO44">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AP44">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR44">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AS44">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="AT44">
-        <v>2.27</v>
+        <v>2.52</v>
       </c>
       <c r="AU44">
         <v>4</v>
@@ -10125,25 +10125,25 @@
         <v>5.7</v>
       </c>
       <c r="AN45">
-        <v>3</v>
+        <v>2.17</v>
       </c>
       <c r="AO45">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AP45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="AR45">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="AS45">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="AT45">
-        <v>2.87</v>
+        <v>2.66</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10337,19 +10337,19 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="AQ46">
-        <v>2.5</v>
+        <v>2.82</v>
       </c>
       <c r="AR46">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="AS46">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AT46">
-        <v>3.39</v>
+        <v>3.33</v>
       </c>
       <c r="AU46">
         <v>8</v>
@@ -10537,25 +10537,25 @@
         <v>1.57</v>
       </c>
       <c r="AN47">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AO47">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ47">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="AR47">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AS47">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="AT47">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AU47">
         <v>5</v>
@@ -10743,25 +10743,25 @@
         <v>2</v>
       </c>
       <c r="AN48">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
       <c r="AO48">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>1.15</v>
       </c>
       <c r="AR48">
-        <v>1.61</v>
+        <v>1.31</v>
       </c>
       <c r="AS48">
-        <v>1.6</v>
+        <v>1.26</v>
       </c>
       <c r="AT48">
-        <v>3.21</v>
+        <v>2.57</v>
       </c>
       <c r="AU48">
         <v>5</v>
@@ -10949,25 +10949,25 @@
         <v>1.83</v>
       </c>
       <c r="AN49">
-        <v>2.33</v>
+        <v>1.86</v>
       </c>
       <c r="AO49">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AQ49">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR49">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AS49">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AT49">
-        <v>2.58</v>
+        <v>2.69</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11155,25 +11155,25 @@
         <v>1.5</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO50">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AP50">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="AQ50">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="AR50">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="AS50">
-        <v>0.84</v>
+        <v>1.15</v>
       </c>
       <c r="AT50">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AU50">
         <v>8</v>
@@ -11361,25 +11361,25 @@
         <v>1.12</v>
       </c>
       <c r="AN51">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AO51">
-        <v>1.33</v>
+        <v>2.29</v>
       </c>
       <c r="AP51">
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AR51">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AS51">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="AT51">
-        <v>2.61</v>
+        <v>2.88</v>
       </c>
       <c r="AU51">
         <v>4</v>
@@ -11567,25 +11567,25 @@
         <v>2.15</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AO52">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="AP52">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="AR52">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="AS52">
-        <v>1.02</v>
+        <v>1.16</v>
       </c>
       <c r="AT52">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU52">
         <v>5</v>
@@ -11773,25 +11773,25 @@
         <v>1.36</v>
       </c>
       <c r="AN53">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AP53">
-        <v>1.29</v>
+        <v>0.92</v>
       </c>
       <c r="AQ53">
         <v>1</v>
       </c>
       <c r="AR53">
-        <v>1.34</v>
+        <v>1.08</v>
       </c>
       <c r="AS53">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AT53">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="AU53">
         <v>4</v>
@@ -11979,25 +11979,25 @@
         <v>2.2</v>
       </c>
       <c r="AN54">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AO54">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AP54">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR54">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AS54">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AT54">
-        <v>2.49</v>
+        <v>2.39</v>
       </c>
       <c r="AU54">
         <v>6</v>
@@ -12185,25 +12185,25 @@
         <v>1.6</v>
       </c>
       <c r="AN55">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AO55">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP55">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AQ55">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR55">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AS55">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="AT55">
-        <v>2.39</v>
+        <v>2.63</v>
       </c>
       <c r="AU55">
         <v>8</v>
@@ -12391,25 +12391,25 @@
         <v>4</v>
       </c>
       <c r="AN56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO56">
-        <v>0.25</v>
+        <v>0.89</v>
       </c>
       <c r="AP56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
-        <v>0.67</v>
+        <v>1.15</v>
       </c>
       <c r="AR56">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="AS56">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AT56">
-        <v>3.15</v>
+        <v>2.73</v>
       </c>
       <c r="AU56">
         <v>8</v>
@@ -12597,25 +12597,25 @@
         <v>1.02</v>
       </c>
       <c r="AN57">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AO57">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AP57">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AQ57">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AR57">
         <v>1.24</v>
       </c>
       <c r="AS57">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="AT57">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
       <c r="AU57">
         <v>3</v>
@@ -12803,25 +12803,25 @@
         <v>6.25</v>
       </c>
       <c r="AN58">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="AO58">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="AQ58">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR58">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="AS58">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AT58">
-        <v>3.48</v>
+        <v>3.53</v>
       </c>
       <c r="AU58">
         <v>6</v>
@@ -13009,25 +13009,25 @@
         <v>1.67</v>
       </c>
       <c r="AN59">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AO59">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AP59">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ59">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR59">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AS59">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AT59">
-        <v>2.39</v>
+        <v>2.38</v>
       </c>
       <c r="AU59">
         <v>6</v>
@@ -13215,25 +13215,25 @@
         <v>1.93</v>
       </c>
       <c r="AN60">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="AO60">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ60">
         <v>1</v>
       </c>
       <c r="AR60">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="AS60">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AT60">
-        <v>2.71</v>
+        <v>2.48</v>
       </c>
       <c r="AU60">
         <v>6</v>
@@ -13421,25 +13421,25 @@
         <v>1.33</v>
       </c>
       <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
+        <v>0.67</v>
+      </c>
+      <c r="AP61">
+        <v>0.92</v>
+      </c>
+      <c r="AQ61">
+        <v>0.67</v>
+      </c>
+      <c r="AR61">
+        <v>1.09</v>
+      </c>
+      <c r="AS61">
         <v>1.33</v>
       </c>
-      <c r="AO61">
-        <v>0.25</v>
-      </c>
-      <c r="AP61">
-        <v>1.29</v>
-      </c>
-      <c r="AQ61">
-        <v>0.4</v>
-      </c>
-      <c r="AR61">
-        <v>1.31</v>
-      </c>
-      <c r="AS61">
-        <v>1.36</v>
-      </c>
       <c r="AT61">
-        <v>2.67</v>
+        <v>2.42</v>
       </c>
       <c r="AU61">
         <v>3</v>
@@ -13627,25 +13627,25 @@
         <v>2.05</v>
       </c>
       <c r="AN62">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AO62">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.57</v>
+        <v>1.15</v>
       </c>
       <c r="AQ62">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="AR62">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="AS62">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AT62">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="AU62">
         <v>6</v>
@@ -13833,25 +13833,25 @@
         <v>1.25</v>
       </c>
       <c r="AN63">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AO63">
-        <v>1</v>
+        <v>2.11</v>
       </c>
       <c r="AP63">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AQ63">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AR63">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AS63">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="AT63">
-        <v>2.53</v>
+        <v>2.81</v>
       </c>
       <c r="AU63">
         <v>7</v>
@@ -14039,25 +14039,25 @@
         <v>2.05</v>
       </c>
       <c r="AN64">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.57</v>
+        <v>1.15</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="AR64">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AS64">
-        <v>0.77</v>
+        <v>1.1</v>
       </c>
       <c r="AT64">
-        <v>1.9</v>
+        <v>2.28</v>
       </c>
       <c r="AU64">
         <v>4</v>
@@ -14245,25 +14245,25 @@
         <v>1.22</v>
       </c>
       <c r="AN65">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="AO65">
-        <v>0.17</v>
+        <v>0.55</v>
       </c>
       <c r="AP65">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="AQ65">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR65">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AS65">
-        <v>1.12</v>
+        <v>1.32</v>
       </c>
       <c r="AT65">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -14451,25 +14451,25 @@
         <v>1.53</v>
       </c>
       <c r="AN66">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AO66">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AP66">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>1</v>
       </c>
       <c r="AR66">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AS66">
         <v>1.21</v>
       </c>
       <c r="AT66">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU66">
         <v>6</v>
@@ -14657,25 +14657,25 @@
         <v>2</v>
       </c>
       <c r="AN67">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO67">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR67">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AS67">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AT67">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -14863,25 +14863,25 @@
         <v>2.05</v>
       </c>
       <c r="AN68">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AO68">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ68">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="AR68">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS68">
-        <v>0.82</v>
+        <v>1.1</v>
       </c>
       <c r="AT68">
-        <v>2.04</v>
+        <v>2.29</v>
       </c>
       <c r="AU68">
         <v>5</v>
@@ -15069,25 +15069,25 @@
         <v>1.93</v>
       </c>
       <c r="AN69">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AO69">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AP69">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>1.15</v>
       </c>
       <c r="AR69">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AS69">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT69">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15275,25 +15275,25 @@
         <v>1.95</v>
       </c>
       <c r="AN70">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AO70">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP70">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AQ70">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="AR70">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AS70">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AT70">
-        <v>2.27</v>
+        <v>2.41</v>
       </c>
       <c r="AU70">
         <v>5</v>
@@ -15481,25 +15481,25 @@
         <v>2.15</v>
       </c>
       <c r="AN71">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AO71">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AP71">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AQ71">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR71">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AS71">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AT71">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="AU71">
         <v>9</v>
@@ -15687,25 +15687,25 @@
         <v>1.07</v>
       </c>
       <c r="AN72">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AO72">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AP72">
         <v>1</v>
       </c>
       <c r="AQ72">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AR72">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AS72">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="AT72">
-        <v>3.38</v>
+        <v>3.41</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -15893,25 +15893,25 @@
         <v>2.88</v>
       </c>
       <c r="AN73">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="AO73">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR73">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="AS73">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="AT73">
-        <v>2.97</v>
+        <v>2.89</v>
       </c>
       <c r="AU73">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,24 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['19', '83']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['47', '54']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['26', '31', '45+2', '90+2']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -575,6 +593,15 @@
   </si>
   <si>
     <t>['45+4', '71']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['55', '60', '78', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -936,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1273,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1479,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ3">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1607,7 +1634,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1685,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1891,10 +1918,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ5">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2097,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2225,7 +2252,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2303,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ7">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2431,7 +2458,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2509,10 +2536,10 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ8">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR8">
         <v>1.18</v>
@@ -2637,7 +2664,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2715,10 +2742,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ9">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR9">
         <v>1.11</v>
@@ -2843,7 +2870,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2921,10 +2948,10 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AQ10">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR10">
         <v>1.6</v>
@@ -3049,7 +3076,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3127,10 +3154,10 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AQ11">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AR11">
         <v>1.47</v>
@@ -3255,7 +3282,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3333,10 +3360,10 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ12">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR12">
         <v>1.77</v>
@@ -3461,7 +3488,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3539,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ13">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR13">
         <v>0.6899999999999999</v>
@@ -3745,10 +3772,10 @@
         <v>1.5</v>
       </c>
       <c r="AP14">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ14">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR14">
         <v>1.54</v>
@@ -3873,7 +3900,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -3951,10 +3978,10 @@
         <v>2</v>
       </c>
       <c r="AP15">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR15">
         <v>1</v>
@@ -4157,10 +4184,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ16">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR16">
         <v>1.6</v>
@@ -4285,7 +4312,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4363,10 +4390,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ17">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4569,10 +4596,10 @@
         <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ18">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR18">
         <v>1.17</v>
@@ -4775,10 +4802,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR19">
         <v>1.43</v>
@@ -4903,7 +4930,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4981,10 +5008,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AQ20">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR20">
         <v>1.45</v>
@@ -5109,7 +5136,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5187,10 +5214,10 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ21">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR21">
         <v>1.28</v>
@@ -5315,7 +5342,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5393,10 +5420,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ22">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AR22">
         <v>1.12</v>
@@ -5599,10 +5626,10 @@
         <v>2.33</v>
       </c>
       <c r="AP23">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR23">
         <v>2.22</v>
@@ -5727,7 +5754,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5805,10 +5832,10 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ24">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR24">
         <v>1.15</v>
@@ -5933,7 +5960,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6011,10 +6038,10 @@
         <v>0.33</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ25">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR25">
         <v>1.04</v>
@@ -6217,10 +6244,10 @@
         <v>1.75</v>
       </c>
       <c r="AP26">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ26">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR26">
         <v>1.27</v>
@@ -6423,10 +6450,10 @@
         <v>0.25</v>
       </c>
       <c r="AP27">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ27">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR27">
         <v>1.99</v>
@@ -6629,10 +6656,10 @@
         <v>0.75</v>
       </c>
       <c r="AP28">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AQ28">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR28">
         <v>1.08</v>
@@ -6835,10 +6862,10 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR29">
         <v>1.08</v>
@@ -6963,7 +6990,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7041,10 +7068,10 @@
         <v>0.25</v>
       </c>
       <c r="AP30">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR30">
         <v>1.05</v>
@@ -7169,7 +7196,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7247,10 +7274,10 @@
         <v>1.75</v>
       </c>
       <c r="AP31">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR31">
         <v>1.28</v>
@@ -7375,7 +7402,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7453,10 +7480,10 @@
         <v>0.6</v>
       </c>
       <c r="AP32">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ32">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR32">
         <v>1.12</v>
@@ -7581,7 +7608,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7659,10 +7686,10 @@
         <v>0.2</v>
       </c>
       <c r="AP33">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ33">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR33">
         <v>1.06</v>
@@ -7787,7 +7814,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7865,10 +7892,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ34">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR34">
         <v>1.14</v>
@@ -7993,7 +8020,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8071,10 +8098,10 @@
         <v>1.6</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ35">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR35">
         <v>1.12</v>
@@ -8199,7 +8226,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8277,10 +8304,10 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ36">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR36">
         <v>1.34</v>
@@ -8405,7 +8432,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8483,10 +8510,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AQ37">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AR37">
         <v>1.37</v>
@@ -8611,7 +8638,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8689,10 +8716,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ38">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AR38">
         <v>1.15</v>
@@ -8895,10 +8922,10 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ39">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9023,7 +9050,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9101,10 +9128,10 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ40">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR40">
         <v>1.22</v>
@@ -9229,7 +9256,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9307,10 +9334,10 @@
         <v>1.67</v>
       </c>
       <c r="AP41">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AQ41">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR41">
         <v>1.24</v>
@@ -9435,7 +9462,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9513,10 +9540,10 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR42">
         <v>1.46</v>
@@ -9641,7 +9668,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9719,10 +9746,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ43">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AR43">
         <v>1.16</v>
@@ -9847,7 +9874,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -9925,10 +9952,10 @@
         <v>0.29</v>
       </c>
       <c r="AP44">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ44">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR44">
         <v>1.21</v>
@@ -10131,10 +10158,10 @@
         <v>0.57</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ45">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -10259,7 +10286,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10337,10 +10364,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ46">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AR46">
         <v>2.14</v>
@@ -10465,7 +10492,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10543,10 +10570,10 @@
         <v>0.71</v>
       </c>
       <c r="AP47">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ47">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR47">
         <v>1.26</v>
@@ -10749,10 +10776,10 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ48">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -10877,7 +10904,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -10955,10 +10982,10 @@
         <v>0.86</v>
       </c>
       <c r="AP49">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR49">
         <v>1.27</v>
@@ -11161,10 +11188,10 @@
         <v>0.88</v>
       </c>
       <c r="AP50">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ50">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR50">
         <v>1.07</v>
@@ -11367,10 +11394,10 @@
         <v>2.29</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR51">
         <v>1.26</v>
@@ -11495,7 +11522,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11573,10 +11600,10 @@
         <v>0.78</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AQ52">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR52">
         <v>1.41</v>
@@ -11701,7 +11728,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -11779,10 +11806,10 @@
         <v>1.13</v>
       </c>
       <c r="AP53">
+        <v>1.07</v>
+      </c>
+      <c r="AQ53">
         <v>0.92</v>
-      </c>
-      <c r="AQ53">
-        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.08</v>
@@ -11985,10 +12012,10 @@
         <v>1.88</v>
       </c>
       <c r="AP54">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ54">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR54">
         <v>1.16</v>
@@ -12191,10 +12218,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP55">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AQ55">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12319,7 +12346,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>1.62</v>
@@ -12397,10 +12424,10 @@
         <v>0.89</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ56">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR56">
         <v>1.57</v>
@@ -12525,7 +12552,7 @@
         <v>82</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>7.5</v>
@@ -12603,10 +12630,10 @@
         <v>2.75</v>
       </c>
       <c r="AP57">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ57">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AR57">
         <v>1.24</v>
@@ -12809,10 +12836,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR58">
         <v>2.16</v>
@@ -12937,7 +12964,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13015,10 +13042,10 @@
         <v>1.44</v>
       </c>
       <c r="AP59">
+        <v>1.54</v>
+      </c>
+      <c r="AQ59">
         <v>1.58</v>
-      </c>
-      <c r="AQ59">
-        <v>1.73</v>
       </c>
       <c r="AR59">
         <v>1.17</v>
@@ -13143,7 +13170,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13221,10 +13248,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR60">
         <v>1.29</v>
@@ -13427,10 +13454,10 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ61">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR61">
         <v>1.09</v>
@@ -13555,7 +13582,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13633,10 +13660,10 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ62">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR62">
         <v>1.15</v>
@@ -13761,7 +13788,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -13839,10 +13866,10 @@
         <v>2.11</v>
       </c>
       <c r="AP63">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR63">
         <v>1.21</v>
@@ -14045,10 +14072,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ64">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR64">
         <v>1.18</v>
@@ -14173,7 +14200,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14251,10 +14278,10 @@
         <v>0.55</v>
       </c>
       <c r="AP65">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ65">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR65">
         <v>1.17</v>
@@ -14379,7 +14406,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14457,10 +14484,10 @@
         <v>1.2</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR66">
         <v>1.29</v>
@@ -14585,7 +14612,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -14663,10 +14690,10 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AQ67">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR67">
         <v>1.35</v>
@@ -14869,10 +14896,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ68">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR68">
         <v>1.19</v>
@@ -14997,7 +15024,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15075,10 +15102,10 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AQ69">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR69">
         <v>1.37</v>
@@ -15203,7 +15230,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15281,10 +15308,10 @@
         <v>0.83</v>
       </c>
       <c r="AP70">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ70">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR70">
         <v>1.21</v>
@@ -15409,7 +15436,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15487,10 +15514,10 @@
         <v>1.09</v>
       </c>
       <c r="AP71">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR71">
         <v>1.25</v>
@@ -15615,7 +15642,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15693,10 +15720,10 @@
         <v>2.8</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ72">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AR72">
         <v>1.23</v>
@@ -15899,10 +15926,10 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ73">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR73">
         <v>1.6</v>
@@ -15978,6 +16005,1242 @@
       </c>
       <c r="BP73">
         <v>1.73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7480215</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45618.875</v>
+      </c>
+      <c r="F74">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>73</v>
+      </c>
+      <c r="H74" t="s">
+        <v>80</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74" t="s">
+        <v>140</v>
+      </c>
+      <c r="P74" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q74">
+        <v>3.6</v>
+      </c>
+      <c r="R74">
+        <v>2.1</v>
+      </c>
+      <c r="S74">
+        <v>3</v>
+      </c>
+      <c r="T74">
+        <v>1.4</v>
+      </c>
+      <c r="U74">
+        <v>2.75</v>
+      </c>
+      <c r="V74">
+        <v>3</v>
+      </c>
+      <c r="W74">
+        <v>1.36</v>
+      </c>
+      <c r="X74">
+        <v>8</v>
+      </c>
+      <c r="Y74">
+        <v>1.08</v>
+      </c>
+      <c r="Z74">
+        <v>2.53</v>
+      </c>
+      <c r="AA74">
+        <v>3.02</v>
+      </c>
+      <c r="AB74">
+        <v>2.62</v>
+      </c>
+      <c r="AC74">
+        <v>1.05</v>
+      </c>
+      <c r="AD74">
+        <v>11</v>
+      </c>
+      <c r="AE74">
+        <v>1.33</v>
+      </c>
+      <c r="AF74">
+        <v>3.3</v>
+      </c>
+      <c r="AG74">
+        <v>1.96</v>
+      </c>
+      <c r="AH74">
+        <v>1.9</v>
+      </c>
+      <c r="AI74">
+        <v>1.75</v>
+      </c>
+      <c r="AJ74">
+        <v>2</v>
+      </c>
+      <c r="AK74">
+        <v>1.63</v>
+      </c>
+      <c r="AL74">
+        <v>1.25</v>
+      </c>
+      <c r="AM74">
+        <v>1.38</v>
+      </c>
+      <c r="AN74">
+        <v>1.15</v>
+      </c>
+      <c r="AO74">
+        <v>2.82</v>
+      </c>
+      <c r="AP74">
+        <v>1.29</v>
+      </c>
+      <c r="AQ74">
+        <v>2.58</v>
+      </c>
+      <c r="AR74">
+        <v>1.19</v>
+      </c>
+      <c r="AS74">
+        <v>1.32</v>
+      </c>
+      <c r="AT74">
+        <v>2.51</v>
+      </c>
+      <c r="AU74">
+        <v>7</v>
+      </c>
+      <c r="AV74">
+        <v>5</v>
+      </c>
+      <c r="AW74">
+        <v>7</v>
+      </c>
+      <c r="AX74">
+        <v>6</v>
+      </c>
+      <c r="AY74">
+        <v>17</v>
+      </c>
+      <c r="AZ74">
+        <v>16</v>
+      </c>
+      <c r="BA74">
+        <v>7</v>
+      </c>
+      <c r="BB74">
+        <v>3</v>
+      </c>
+      <c r="BC74">
+        <v>10</v>
+      </c>
+      <c r="BD74">
+        <v>1.95</v>
+      </c>
+      <c r="BE74">
+        <v>6.75</v>
+      </c>
+      <c r="BF74">
+        <v>1.93</v>
+      </c>
+      <c r="BG74">
+        <v>1.19</v>
+      </c>
+      <c r="BH74">
+        <v>4.1</v>
+      </c>
+      <c r="BI74">
+        <v>1.33</v>
+      </c>
+      <c r="BJ74">
+        <v>2.95</v>
+      </c>
+      <c r="BK74">
+        <v>1.55</v>
+      </c>
+      <c r="BL74">
+        <v>2.28</v>
+      </c>
+      <c r="BM74">
+        <v>1.86</v>
+      </c>
+      <c r="BN74">
+        <v>1.82</v>
+      </c>
+      <c r="BO74">
+        <v>2.3</v>
+      </c>
+      <c r="BP74">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7480214</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F75">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>75</v>
+      </c>
+      <c r="H75" t="s">
+        <v>81</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75" t="s">
+        <v>141</v>
+      </c>
+      <c r="P75" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q75">
+        <v>3.5</v>
+      </c>
+      <c r="R75">
+        <v>2.2</v>
+      </c>
+      <c r="S75">
+        <v>3</v>
+      </c>
+      <c r="T75">
+        <v>1.4</v>
+      </c>
+      <c r="U75">
+        <v>2.75</v>
+      </c>
+      <c r="V75">
+        <v>2.75</v>
+      </c>
+      <c r="W75">
+        <v>1.4</v>
+      </c>
+      <c r="X75">
+        <v>8</v>
+      </c>
+      <c r="Y75">
+        <v>1.08</v>
+      </c>
+      <c r="Z75">
+        <v>2.34</v>
+      </c>
+      <c r="AA75">
+        <v>5.16</v>
+      </c>
+      <c r="AB75">
+        <v>2.05</v>
+      </c>
+      <c r="AC75">
+        <v>1.05</v>
+      </c>
+      <c r="AD75">
+        <v>11</v>
+      </c>
+      <c r="AE75">
+        <v>1.3</v>
+      </c>
+      <c r="AF75">
+        <v>3.5</v>
+      </c>
+      <c r="AG75">
+        <v>1.89</v>
+      </c>
+      <c r="AH75">
+        <v>1.93</v>
+      </c>
+      <c r="AI75">
+        <v>1.7</v>
+      </c>
+      <c r="AJ75">
+        <v>2.05</v>
+      </c>
+      <c r="AK75">
+        <v>1.68</v>
+      </c>
+      <c r="AL75">
+        <v>1.25</v>
+      </c>
+      <c r="AM75">
+        <v>1.36</v>
+      </c>
+      <c r="AN75">
+        <v>0.77</v>
+      </c>
+      <c r="AO75">
+        <v>1</v>
+      </c>
+      <c r="AP75">
+        <v>0.93</v>
+      </c>
+      <c r="AQ75">
+        <v>0.92</v>
+      </c>
+      <c r="AR75">
+        <v>1.21</v>
+      </c>
+      <c r="AS75">
+        <v>1.28</v>
+      </c>
+      <c r="AT75">
+        <v>2.49</v>
+      </c>
+      <c r="AU75">
+        <v>5</v>
+      </c>
+      <c r="AV75">
+        <v>2</v>
+      </c>
+      <c r="AW75">
+        <v>4</v>
+      </c>
+      <c r="AX75">
+        <v>5</v>
+      </c>
+      <c r="AY75">
+        <v>11</v>
+      </c>
+      <c r="AZ75">
+        <v>13</v>
+      </c>
+      <c r="BA75">
+        <v>4</v>
+      </c>
+      <c r="BB75">
+        <v>14</v>
+      </c>
+      <c r="BC75">
+        <v>18</v>
+      </c>
+      <c r="BD75">
+        <v>2.3</v>
+      </c>
+      <c r="BE75">
+        <v>6.5</v>
+      </c>
+      <c r="BF75">
+        <v>1.66</v>
+      </c>
+      <c r="BG75">
+        <v>1.23</v>
+      </c>
+      <c r="BH75">
+        <v>3.65</v>
+      </c>
+      <c r="BI75">
+        <v>1.41</v>
+      </c>
+      <c r="BJ75">
+        <v>2.65</v>
+      </c>
+      <c r="BK75">
+        <v>1.66</v>
+      </c>
+      <c r="BL75">
+        <v>2.06</v>
+      </c>
+      <c r="BM75">
+        <v>2.05</v>
+      </c>
+      <c r="BN75">
+        <v>1.67</v>
+      </c>
+      <c r="BO75">
+        <v>2.55</v>
+      </c>
+      <c r="BP75">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7480213</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s">
+        <v>71</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>142</v>
+      </c>
+      <c r="P76" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q76">
+        <v>3.4</v>
+      </c>
+      <c r="R76">
+        <v>2.1</v>
+      </c>
+      <c r="S76">
+        <v>3.25</v>
+      </c>
+      <c r="T76">
+        <v>1.44</v>
+      </c>
+      <c r="U76">
+        <v>2.63</v>
+      </c>
+      <c r="V76">
+        <v>3.25</v>
+      </c>
+      <c r="W76">
+        <v>1.33</v>
+      </c>
+      <c r="X76">
+        <v>9</v>
+      </c>
+      <c r="Y76">
+        <v>1.07</v>
+      </c>
+      <c r="Z76">
+        <v>2.66</v>
+      </c>
+      <c r="AA76">
+        <v>3.08</v>
+      </c>
+      <c r="AB76">
+        <v>2.38</v>
+      </c>
+      <c r="AC76">
+        <v>1.06</v>
+      </c>
+      <c r="AD76">
+        <v>9.5</v>
+      </c>
+      <c r="AE76">
+        <v>1.33</v>
+      </c>
+      <c r="AF76">
+        <v>3.2</v>
+      </c>
+      <c r="AG76">
+        <v>2.06</v>
+      </c>
+      <c r="AH76">
+        <v>1.8</v>
+      </c>
+      <c r="AI76">
+        <v>1.8</v>
+      </c>
+      <c r="AJ76">
+        <v>1.95</v>
+      </c>
+      <c r="AK76">
+        <v>1.52</v>
+      </c>
+      <c r="AL76">
+        <v>1.3</v>
+      </c>
+      <c r="AM76">
+        <v>1.45</v>
+      </c>
+      <c r="AN76">
+        <v>0.92</v>
+      </c>
+      <c r="AO76">
+        <v>1.73</v>
+      </c>
+      <c r="AP76">
+        <v>1.07</v>
+      </c>
+      <c r="AQ76">
+        <v>1.58</v>
+      </c>
+      <c r="AR76">
+        <v>1.07</v>
+      </c>
+      <c r="AS76">
+        <v>1.24</v>
+      </c>
+      <c r="AT76">
+        <v>2.31</v>
+      </c>
+      <c r="AU76">
+        <v>5</v>
+      </c>
+      <c r="AV76">
+        <v>4</v>
+      </c>
+      <c r="AW76">
+        <v>4</v>
+      </c>
+      <c r="AX76">
+        <v>4</v>
+      </c>
+      <c r="AY76">
+        <v>17</v>
+      </c>
+      <c r="AZ76">
+        <v>9</v>
+      </c>
+      <c r="BA76">
+        <v>12</v>
+      </c>
+      <c r="BB76">
+        <v>3</v>
+      </c>
+      <c r="BC76">
+        <v>15</v>
+      </c>
+      <c r="BD76">
+        <v>2.15</v>
+      </c>
+      <c r="BE76">
+        <v>6.4</v>
+      </c>
+      <c r="BF76">
+        <v>1.77</v>
+      </c>
+      <c r="BG76">
+        <v>1.25</v>
+      </c>
+      <c r="BH76">
+        <v>3.45</v>
+      </c>
+      <c r="BI76">
+        <v>1.44</v>
+      </c>
+      <c r="BJ76">
+        <v>2.55</v>
+      </c>
+      <c r="BK76">
+        <v>1.71</v>
+      </c>
+      <c r="BL76">
+        <v>2</v>
+      </c>
+      <c r="BM76">
+        <v>2.1</v>
+      </c>
+      <c r="BN76">
+        <v>1.64</v>
+      </c>
+      <c r="BO76">
+        <v>2.65</v>
+      </c>
+      <c r="BP76">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7480212</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s">
+        <v>72</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>143</v>
+      </c>
+      <c r="P77" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q77">
+        <v>1.67</v>
+      </c>
+      <c r="R77">
+        <v>2.75</v>
+      </c>
+      <c r="S77">
+        <v>9</v>
+      </c>
+      <c r="T77">
+        <v>1.25</v>
+      </c>
+      <c r="U77">
+        <v>3.75</v>
+      </c>
+      <c r="V77">
+        <v>2.2</v>
+      </c>
+      <c r="W77">
+        <v>1.62</v>
+      </c>
+      <c r="X77">
+        <v>5</v>
+      </c>
+      <c r="Y77">
+        <v>1.17</v>
+      </c>
+      <c r="Z77">
+        <v>1.62</v>
+      </c>
+      <c r="AA77">
+        <v>5.06</v>
+      </c>
+      <c r="AB77">
+        <v>3.39</v>
+      </c>
+      <c r="AC77">
+        <v>1.01</v>
+      </c>
+      <c r="AD77">
+        <v>19</v>
+      </c>
+      <c r="AE77">
+        <v>1.17</v>
+      </c>
+      <c r="AF77">
+        <v>5</v>
+      </c>
+      <c r="AG77">
+        <v>1.53</v>
+      </c>
+      <c r="AH77">
+        <v>2.35</v>
+      </c>
+      <c r="AI77">
+        <v>1.95</v>
+      </c>
+      <c r="AJ77">
+        <v>1.8</v>
+      </c>
+      <c r="AK77">
+        <v>1.01</v>
+      </c>
+      <c r="AL77">
+        <v>1.1</v>
+      </c>
+      <c r="AM77">
+        <v>3.75</v>
+      </c>
+      <c r="AN77">
+        <v>2</v>
+      </c>
+      <c r="AO77">
+        <v>1.58</v>
+      </c>
+      <c r="AP77">
+        <v>1.92</v>
+      </c>
+      <c r="AQ77">
+        <v>1.54</v>
+      </c>
+      <c r="AR77">
+        <v>1.56</v>
+      </c>
+      <c r="AS77">
+        <v>1.23</v>
+      </c>
+      <c r="AT77">
+        <v>2.79</v>
+      </c>
+      <c r="AU77">
+        <v>10</v>
+      </c>
+      <c r="AV77">
+        <v>2</v>
+      </c>
+      <c r="AW77">
+        <v>12</v>
+      </c>
+      <c r="AX77">
+        <v>3</v>
+      </c>
+      <c r="AY77">
+        <v>31</v>
+      </c>
+      <c r="AZ77">
+        <v>6</v>
+      </c>
+      <c r="BA77">
+        <v>9</v>
+      </c>
+      <c r="BB77">
+        <v>1</v>
+      </c>
+      <c r="BC77">
+        <v>10</v>
+      </c>
+      <c r="BD77">
+        <v>1.14</v>
+      </c>
+      <c r="BE77">
+        <v>9.5</v>
+      </c>
+      <c r="BF77">
+        <v>5.3</v>
+      </c>
+      <c r="BG77">
+        <v>1.17</v>
+      </c>
+      <c r="BH77">
+        <v>4.35</v>
+      </c>
+      <c r="BI77">
+        <v>1.3</v>
+      </c>
+      <c r="BJ77">
+        <v>3.15</v>
+      </c>
+      <c r="BK77">
+        <v>1.49</v>
+      </c>
+      <c r="BL77">
+        <v>2.4</v>
+      </c>
+      <c r="BM77">
+        <v>1.77</v>
+      </c>
+      <c r="BN77">
+        <v>1.92</v>
+      </c>
+      <c r="BO77">
+        <v>2.18</v>
+      </c>
+      <c r="BP77">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7480210</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45619.61458333334</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>78</v>
+      </c>
+      <c r="H78" t="s">
+        <v>79</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>4</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>5</v>
+      </c>
+      <c r="O78" t="s">
+        <v>144</v>
+      </c>
+      <c r="P78" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q78">
+        <v>3.25</v>
+      </c>
+      <c r="R78">
+        <v>2.2</v>
+      </c>
+      <c r="S78">
+        <v>3.1</v>
+      </c>
+      <c r="T78">
+        <v>1.36</v>
+      </c>
+      <c r="U78">
+        <v>3</v>
+      </c>
+      <c r="V78">
+        <v>2.63</v>
+      </c>
+      <c r="W78">
+        <v>1.44</v>
+      </c>
+      <c r="X78">
+        <v>7</v>
+      </c>
+      <c r="Y78">
+        <v>1.1</v>
+      </c>
+      <c r="Z78">
+        <v>2.68</v>
+      </c>
+      <c r="AA78">
+        <v>3.5</v>
+      </c>
+      <c r="AB78">
+        <v>2.38</v>
+      </c>
+      <c r="AC78">
+        <v>1.04</v>
+      </c>
+      <c r="AD78">
+        <v>12</v>
+      </c>
+      <c r="AE78">
+        <v>1.25</v>
+      </c>
+      <c r="AF78">
+        <v>3.75</v>
+      </c>
+      <c r="AG78">
+        <v>1.86</v>
+      </c>
+      <c r="AH78">
+        <v>2.02</v>
+      </c>
+      <c r="AI78">
+        <v>1.62</v>
+      </c>
+      <c r="AJ78">
+        <v>2.2</v>
+      </c>
+      <c r="AK78">
+        <v>1.53</v>
+      </c>
+      <c r="AL78">
+        <v>1.25</v>
+      </c>
+      <c r="AM78">
+        <v>1.47</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
+        <v>0.67</v>
+      </c>
+      <c r="AP78">
+        <v>1.15</v>
+      </c>
+      <c r="AQ78">
+        <v>0.62</v>
+      </c>
+      <c r="AR78">
+        <v>1.31</v>
+      </c>
+      <c r="AS78">
+        <v>1.35</v>
+      </c>
+      <c r="AT78">
+        <v>2.66</v>
+      </c>
+      <c r="AU78">
+        <v>7</v>
+      </c>
+      <c r="AV78">
+        <v>2</v>
+      </c>
+      <c r="AW78">
+        <v>5</v>
+      </c>
+      <c r="AX78">
+        <v>6</v>
+      </c>
+      <c r="AY78">
+        <v>18</v>
+      </c>
+      <c r="AZ78">
+        <v>13</v>
+      </c>
+      <c r="BA78">
+        <v>8</v>
+      </c>
+      <c r="BB78">
+        <v>2</v>
+      </c>
+      <c r="BC78">
+        <v>10</v>
+      </c>
+      <c r="BD78">
+        <v>1.92</v>
+      </c>
+      <c r="BE78">
+        <v>6.5</v>
+      </c>
+      <c r="BF78">
+        <v>1.95</v>
+      </c>
+      <c r="BG78">
+        <v>1.15</v>
+      </c>
+      <c r="BH78">
+        <v>4.6</v>
+      </c>
+      <c r="BI78">
+        <v>1.27</v>
+      </c>
+      <c r="BJ78">
+        <v>3.3</v>
+      </c>
+      <c r="BK78">
+        <v>1.46</v>
+      </c>
+      <c r="BL78">
+        <v>2.5</v>
+      </c>
+      <c r="BM78">
+        <v>1.72</v>
+      </c>
+      <c r="BN78">
+        <v>1.98</v>
+      </c>
+      <c r="BO78">
+        <v>2.1</v>
+      </c>
+      <c r="BP78">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7480211</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45619.69791666666</v>
+      </c>
+      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>70</v>
+      </c>
+      <c r="H79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>4</v>
+      </c>
+      <c r="N79">
+        <v>5</v>
+      </c>
+      <c r="O79" t="s">
+        <v>145</v>
+      </c>
+      <c r="P79" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q79">
+        <v>6.5</v>
+      </c>
+      <c r="R79">
+        <v>2.6</v>
+      </c>
+      <c r="S79">
+        <v>1.83</v>
+      </c>
+      <c r="T79">
+        <v>1.29</v>
+      </c>
+      <c r="U79">
+        <v>3.5</v>
+      </c>
+      <c r="V79">
+        <v>2.25</v>
+      </c>
+      <c r="W79">
+        <v>1.57</v>
+      </c>
+      <c r="X79">
+        <v>5.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.14</v>
+      </c>
+      <c r="Z79">
+        <v>6.6</v>
+      </c>
+      <c r="AA79">
+        <v>5</v>
+      </c>
+      <c r="AB79">
+        <v>1.37</v>
+      </c>
+      <c r="AC79">
+        <v>1.01</v>
+      </c>
+      <c r="AD79">
+        <v>19</v>
+      </c>
+      <c r="AE79">
+        <v>1.16</v>
+      </c>
+      <c r="AF79">
+        <v>5</v>
+      </c>
+      <c r="AG79">
+        <v>1.57</v>
+      </c>
+      <c r="AH79">
+        <v>2.3</v>
+      </c>
+      <c r="AI79">
+        <v>1.75</v>
+      </c>
+      <c r="AJ79">
+        <v>2</v>
+      </c>
+      <c r="AK79">
+        <v>3</v>
+      </c>
+      <c r="AL79">
+        <v>1.12</v>
+      </c>
+      <c r="AM79">
+        <v>1.09</v>
+      </c>
+      <c r="AN79">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO79">
+        <v>2.82</v>
+      </c>
+      <c r="AP79">
+        <v>0.64</v>
+      </c>
+      <c r="AQ79">
+        <v>2.83</v>
+      </c>
+      <c r="AR79">
+        <v>1.23</v>
+      </c>
+      <c r="AS79">
+        <v>2.11</v>
+      </c>
+      <c r="AT79">
+        <v>3.34</v>
+      </c>
+      <c r="AU79">
+        <v>5</v>
+      </c>
+      <c r="AV79">
+        <v>10</v>
+      </c>
+      <c r="AW79">
+        <v>3</v>
+      </c>
+      <c r="AX79">
+        <v>3</v>
+      </c>
+      <c r="AY79">
+        <v>10</v>
+      </c>
+      <c r="AZ79">
+        <v>14</v>
+      </c>
+      <c r="BA79">
+        <v>1</v>
+      </c>
+      <c r="BB79">
+        <v>6</v>
+      </c>
+      <c r="BC79">
+        <v>7</v>
+      </c>
+      <c r="BD79">
+        <v>3.8</v>
+      </c>
+      <c r="BE79">
+        <v>8</v>
+      </c>
+      <c r="BF79">
+        <v>1.25</v>
+      </c>
+      <c r="BG79">
+        <v>1.14</v>
+      </c>
+      <c r="BH79">
+        <v>4.8</v>
+      </c>
+      <c r="BI79">
+        <v>1.26</v>
+      </c>
+      <c r="BJ79">
+        <v>3.4</v>
+      </c>
+      <c r="BK79">
+        <v>1.43</v>
+      </c>
+      <c r="BL79">
+        <v>2.6</v>
+      </c>
+      <c r="BM79">
+        <v>1.67</v>
+      </c>
+      <c r="BN79">
+        <v>2.05</v>
+      </c>
+      <c r="BO79">
+        <v>2.02</v>
+      </c>
+      <c r="BP79">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="187">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,18 +397,18 @@
     <t>['13', '69']</t>
   </si>
   <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['30', '57', '90+3']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['60', '67']</t>
   </si>
   <si>
-    <t>['36']</t>
-  </si>
-  <si>
-    <t>['44']</t>
-  </si>
-  <si>
-    <t>['30', '57', '90+3']</t>
-  </si>
-  <si>
     <t>['31', '74']</t>
   </si>
   <si>
@@ -436,24 +436,6 @@
     <t>['6']</t>
   </si>
   <si>
-    <t>['19', '83']</t>
-  </si>
-  <si>
-    <t>['53']</t>
-  </si>
-  <si>
-    <t>['47', '54']</t>
-  </si>
-  <si>
-    <t>['66']</t>
-  </si>
-  <si>
-    <t>['26', '31', '45+2', '90+2']</t>
-  </si>
-  <si>
-    <t>['82']</t>
-  </si>
-  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -556,21 +538,21 @@
     <t>['39']</t>
   </si>
   <si>
+    <t>['27', '56', '88']</t>
+  </si>
+  <si>
     <t>['26']</t>
   </si>
   <si>
-    <t>['27', '56', '88']</t>
+    <t>['58', '63']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
   <si>
     <t>['23', '74']</t>
   </si>
   <si>
-    <t>['58', '63']</t>
-  </si>
-  <si>
-    <t>['8']</t>
-  </si>
-  <si>
     <t>['63']</t>
   </si>
   <si>
@@ -593,15 +575,6 @@
   </si>
   <si>
     <t>['45+4', '71']</t>
-  </si>
-  <si>
-    <t>['83']</t>
-  </si>
-  <si>
-    <t>['2']</t>
-  </si>
-  <si>
-    <t>['55', '60', '78', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -963,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1300,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.92</v>
+        <v>0.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1506,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>1.07</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1634,7 +1607,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1712,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4">
-        <v>1.15</v>
+        <v>0.83</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1918,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AQ5">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2124,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="AQ6">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2252,7 +2225,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2330,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.93</v>
+        <v>0.6</v>
       </c>
       <c r="AQ7">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2458,7 +2431,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2530,25 +2503,25 @@
         <v>4.33</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.92</v>
+        <v>3</v>
       </c>
       <c r="AQ8">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="AR8">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>10</v>
@@ -2664,7 +2637,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2736,25 +2709,25 @@
         <v>1.5</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AQ9">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>6</v>
@@ -2870,7 +2843,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2942,25 +2915,25 @@
         <v>1.36</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AQ10">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>8</v>
@@ -3076,7 +3049,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3151,22 +3124,22 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="AQ11">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="AR11">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>4.57</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3282,7 +3255,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3354,25 +3327,25 @@
         <v>1.95</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="AQ12">
-        <v>1.29</v>
+        <v>0.67</v>
       </c>
       <c r="AR12">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3488,7 +3461,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3566,19 +3539,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR13">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>3</v>
@@ -3769,22 +3742,22 @@
         <v>1</v>
       </c>
       <c r="AO14">
+        <v>3</v>
+      </c>
+      <c r="AP14">
+        <v>1.67</v>
+      </c>
+      <c r="AQ14">
+        <v>0.88</v>
+      </c>
+      <c r="AR14">
+        <v>2.04</v>
+      </c>
+      <c r="AS14">
         <v>1.5</v>
       </c>
-      <c r="AP14">
-        <v>1.54</v>
-      </c>
-      <c r="AQ14">
-        <v>0.93</v>
-      </c>
-      <c r="AR14">
-        <v>1.54</v>
-      </c>
-      <c r="AS14">
-        <v>1.44</v>
-      </c>
       <c r="AT14">
-        <v>2.98</v>
+        <v>3.54</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -3900,7 +3873,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -3975,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="AQ15">
-        <v>1.15</v>
+        <v>0.83</v>
       </c>
       <c r="AR15">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="AS15">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AT15">
-        <v>2.58</v>
+        <v>2.13</v>
       </c>
       <c r="AU15">
         <v>3</v>
@@ -4178,25 +4151,25 @@
         <v>4.5</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO16">
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.92</v>
+        <v>3</v>
       </c>
       <c r="AQ16">
-        <v>1.07</v>
+        <v>0.5</v>
       </c>
       <c r="AR16">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="AS16">
-        <v>1.39</v>
+        <v>1.11</v>
       </c>
       <c r="AT16">
-        <v>2.99</v>
+        <v>3.13</v>
       </c>
       <c r="AU16">
         <v>10</v>
@@ -4312,7 +4285,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4384,25 +4357,25 @@
         <v>1.02</v>
       </c>
       <c r="AN17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO17">
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AQ17">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="AR17">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AS17">
-        <v>2.38</v>
+        <v>1.65</v>
       </c>
       <c r="AT17">
-        <v>3.53</v>
+        <v>2.72</v>
       </c>
       <c r="AU17">
         <v>2</v>
@@ -4590,25 +4563,25 @@
         <v>1.4</v>
       </c>
       <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>1.67</v>
+      </c>
+      <c r="AQ18">
         <v>0.5</v>
       </c>
-      <c r="AO18">
-        <v>0.5</v>
-      </c>
-      <c r="AP18">
-        <v>1.58</v>
-      </c>
-      <c r="AQ18">
-        <v>0.64</v>
-      </c>
       <c r="AR18">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="AS18">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AT18">
-        <v>2.44</v>
+        <v>2.86</v>
       </c>
       <c r="AU18">
         <v>7</v>
@@ -4802,19 +4775,19 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="AQ19">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR19">
-        <v>1.43</v>
+        <v>1.1</v>
       </c>
       <c r="AS19">
-        <v>1.05</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT19">
-        <v>2.48</v>
+        <v>1.79</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -4930,7 +4903,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5002,25 +4975,25 @@
         <v>1.73</v>
       </c>
       <c r="AN20">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AQ20">
-        <v>1.29</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AS20">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="AT20">
-        <v>2.36</v>
+        <v>2.78</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5136,7 +5109,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5208,25 +5181,25 @@
         <v>1.42</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.93</v>
+        <v>0.6</v>
       </c>
       <c r="AQ21">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="AR21">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="AS21">
-        <v>1.26</v>
+        <v>0.88</v>
       </c>
       <c r="AT21">
-        <v>2.54</v>
+        <v>2.27</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5342,7 +5315,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5414,25 +5387,25 @@
         <v>1.3</v>
       </c>
       <c r="AN22">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO22">
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AQ22">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="AR22">
-        <v>1.12</v>
+        <v>1.66</v>
       </c>
       <c r="AS22">
-        <v>1.34</v>
+        <v>1.77</v>
       </c>
       <c r="AT22">
-        <v>2.46</v>
+        <v>3.43</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5623,22 +5596,22 @@
         <v>3</v>
       </c>
       <c r="AO23">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="AQ23">
-        <v>1.92</v>
+        <v>0.8</v>
       </c>
       <c r="AR23">
-        <v>2.22</v>
+        <v>3.1</v>
       </c>
       <c r="AS23">
-        <v>1.74</v>
+        <v>1.18</v>
       </c>
       <c r="AT23">
-        <v>3.96</v>
+        <v>4.28</v>
       </c>
       <c r="AU23">
         <v>5</v>
@@ -5754,7 +5727,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5826,25 +5799,25 @@
         <v>2</v>
       </c>
       <c r="AN24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AS24">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="AT24">
-        <v>2.47</v>
+        <v>2.19</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -5960,7 +5933,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6035,22 +6008,22 @@
         <v>0</v>
       </c>
       <c r="AO25">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
       <c r="AR25">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="AS25">
-        <v>1.06</v>
+        <v>1.47</v>
       </c>
       <c r="AT25">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6241,22 +6214,22 @@
         <v>3</v>
       </c>
       <c r="AO26">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="AQ26">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="AR26">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="AS26">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AT26">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6447,22 +6420,22 @@
         <v>3</v>
       </c>
       <c r="AO27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="AQ27">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
-        <v>1.99</v>
+        <v>2.21</v>
       </c>
       <c r="AS27">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AT27">
-        <v>3.19</v>
+        <v>3.36</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -6653,22 +6626,22 @@
         <v>0.5</v>
       </c>
       <c r="AO28">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="AQ28">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR28">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="AS28">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AT28">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -6859,22 +6832,22 @@
         <v>0.5</v>
       </c>
       <c r="AO29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AQ29">
-        <v>1.15</v>
+        <v>0.83</v>
       </c>
       <c r="AR29">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AT29">
-        <v>2.53</v>
+        <v>2.72</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -6990,7 +6963,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7062,25 +7035,25 @@
         <v>1.66</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AQ30">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR30">
-        <v>1.05</v>
+        <v>0.76</v>
       </c>
       <c r="AS30">
-        <v>1.09</v>
+        <v>0.85</v>
       </c>
       <c r="AT30">
-        <v>2.14</v>
+        <v>1.61</v>
       </c>
       <c r="AU30">
         <v>4</v>
@@ -7196,7 +7169,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7271,22 +7244,22 @@
         <v>2</v>
       </c>
       <c r="AO31">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
-        <v>1.92</v>
+        <v>0.8</v>
       </c>
       <c r="AR31">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AS31">
-        <v>1.63</v>
+        <v>1.26</v>
       </c>
       <c r="AT31">
-        <v>2.91</v>
+        <v>2.72</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7402,7 +7375,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7474,25 +7447,25 @@
         <v>1.75</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO32">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR32">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="AS32">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="AT32">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU32">
         <v>7</v>
@@ -7608,7 +7581,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7680,25 +7653,25 @@
         <v>1.41</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO33">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AQ33">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
-        <v>1.06</v>
+        <v>0.87</v>
       </c>
       <c r="AS33">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT33">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -7814,7 +7787,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7886,25 +7859,25 @@
         <v>2.25</v>
       </c>
       <c r="AN34">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AO34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.07</v>
+        <v>0.5</v>
       </c>
       <c r="AR34">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AS34">
-        <v>1.21</v>
+        <v>0.84</v>
       </c>
       <c r="AT34">
-        <v>2.35</v>
+        <v>2.09</v>
       </c>
       <c r="AU34">
         <v>9</v>
@@ -8020,7 +7993,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8092,25 +8065,25 @@
         <v>1.66</v>
       </c>
       <c r="AN35">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO35">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP35">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
-        <v>1.12</v>
+        <v>1.32</v>
       </c>
       <c r="AS35">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AT35">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8226,7 +8199,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8298,25 +8271,25 @@
         <v>1.58</v>
       </c>
       <c r="AN36">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO36">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36">
-        <v>1.29</v>
+        <v>0.67</v>
       </c>
       <c r="AR36">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="AS36">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="AT36">
-        <v>2.42</v>
+        <v>2.8</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8432,7 +8405,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8504,25 +8477,25 @@
         <v>1.45</v>
       </c>
       <c r="AN37">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AO37">
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AQ37">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="AR37">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AT37">
-        <v>2.65</v>
+        <v>2.92</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -8638,7 +8611,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8710,25 +8683,25 @@
         <v>1.04</v>
       </c>
       <c r="AN38">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO38">
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.93</v>
+        <v>0.6</v>
       </c>
       <c r="AQ38">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="AR38">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="AS38">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="AT38">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -8916,25 +8889,25 @@
         <v>2.9</v>
       </c>
       <c r="AN39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.92</v>
+        <v>3</v>
       </c>
       <c r="AQ39">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
       <c r="AR39">
-        <v>1.59</v>
+        <v>2.01</v>
       </c>
       <c r="AS39">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AT39">
-        <v>2.79</v>
+        <v>3.33</v>
       </c>
       <c r="AU39">
         <v>5</v>
@@ -9050,7 +9023,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9122,25 +9095,25 @@
         <v>1.63</v>
       </c>
       <c r="AN40">
-        <v>1.14</v>
+        <v>1.75</v>
       </c>
       <c r="AO40">
+        <v>1.67</v>
+      </c>
+      <c r="AP40">
+        <v>1.57</v>
+      </c>
+      <c r="AQ40">
         <v>1.5</v>
       </c>
-      <c r="AP40">
-        <v>1.29</v>
-      </c>
-      <c r="AQ40">
-        <v>1.54</v>
-      </c>
       <c r="AR40">
-        <v>1.22</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS40">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AT40">
-        <v>2.49</v>
+        <v>2.3</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9256,7 +9229,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9328,25 +9301,25 @@
         <v>1.77</v>
       </c>
       <c r="AN41">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AO41">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="AQ41">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="AR41">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="AS41">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT41">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="AU41">
         <v>8</v>
@@ -9462,7 +9435,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9534,25 +9507,25 @@
         <v>1.62</v>
       </c>
       <c r="AN42">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AQ42">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR42">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="AS42">
-        <v>1.15</v>
+        <v>0.99</v>
       </c>
       <c r="AT42">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -9668,7 +9641,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9740,25 +9713,25 @@
         <v>1.02</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO43">
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AQ43">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="AR43">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="AS43">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT43">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="AU43">
         <v>6</v>
@@ -9874,7 +9847,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -9949,22 +9922,22 @@
         <v>3</v>
       </c>
       <c r="AO44">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AP44">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="AQ44">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AS44">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="AT44">
-        <v>2.52</v>
+        <v>2.27</v>
       </c>
       <c r="AU44">
         <v>4</v>
@@ -10152,25 +10125,25 @@
         <v>5.7</v>
       </c>
       <c r="AN45">
-        <v>2.17</v>
+        <v>3</v>
       </c>
       <c r="AO45">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.92</v>
+        <v>3</v>
       </c>
       <c r="AQ45">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR45">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="AS45">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="AT45">
-        <v>2.66</v>
+        <v>2.87</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10286,7 +10259,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10364,19 +10337,19 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="AQ46">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="AR46">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="AS46">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AT46">
-        <v>3.33</v>
+        <v>3.39</v>
       </c>
       <c r="AU46">
         <v>8</v>
@@ -10492,7 +10465,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10564,25 +10537,25 @@
         <v>1.57</v>
       </c>
       <c r="AN47">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AO47">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
       <c r="AR47">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AS47">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AT47">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="AU47">
         <v>5</v>
@@ -10770,25 +10743,25 @@
         <v>2</v>
       </c>
       <c r="AN48">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="AO48">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.29</v>
+        <v>0.67</v>
       </c>
       <c r="AR48">
-        <v>1.31</v>
+        <v>1.61</v>
       </c>
       <c r="AS48">
-        <v>1.26</v>
+        <v>1.6</v>
       </c>
       <c r="AT48">
-        <v>2.57</v>
+        <v>3.21</v>
       </c>
       <c r="AU48">
         <v>5</v>
@@ -10904,7 +10877,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -10976,25 +10949,25 @@
         <v>1.83</v>
       </c>
       <c r="AN49">
-        <v>1.86</v>
+        <v>2.33</v>
       </c>
       <c r="AO49">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>1.15</v>
+        <v>0.83</v>
       </c>
       <c r="AR49">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AS49">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AT49">
-        <v>2.69</v>
+        <v>2.58</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11182,25 +11155,25 @@
         <v>1.5</v>
       </c>
       <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0.67</v>
+      </c>
+      <c r="AP50">
+        <v>0.6</v>
+      </c>
+      <c r="AQ50">
         <v>0.5</v>
       </c>
-      <c r="AO50">
-        <v>0.88</v>
-      </c>
-      <c r="AP50">
-        <v>0.93</v>
-      </c>
-      <c r="AQ50">
-        <v>1.07</v>
-      </c>
       <c r="AR50">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="AS50">
-        <v>1.15</v>
+        <v>0.84</v>
       </c>
       <c r="AT50">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU50">
         <v>8</v>
@@ -11388,25 +11361,25 @@
         <v>1.12</v>
       </c>
       <c r="AN51">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AO51">
-        <v>2.29</v>
+        <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.92</v>
+        <v>0.8</v>
       </c>
       <c r="AR51">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AS51">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="AT51">
-        <v>2.88</v>
+        <v>2.61</v>
       </c>
       <c r="AU51">
         <v>4</v>
@@ -11522,7 +11495,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11594,25 +11567,25 @@
         <v>2.15</v>
       </c>
       <c r="AN52">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AO52">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AP52">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AQ52">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR52">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="AS52">
-        <v>1.16</v>
+        <v>1.02</v>
       </c>
       <c r="AT52">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="AU52">
         <v>5</v>
@@ -11728,7 +11701,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -11800,25 +11773,25 @@
         <v>1.36</v>
       </c>
       <c r="AN53">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AO53">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AQ53">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR53">
-        <v>1.08</v>
+        <v>1.34</v>
       </c>
       <c r="AS53">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AT53">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AU53">
         <v>4</v>
@@ -12006,25 +11979,25 @@
         <v>2.2</v>
       </c>
       <c r="AN54">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AO54">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="AQ54">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="AS54">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AT54">
-        <v>2.39</v>
+        <v>2.49</v>
       </c>
       <c r="AU54">
         <v>6</v>
@@ -12212,25 +12185,25 @@
         <v>1.6</v>
       </c>
       <c r="AN55">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AO55">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP55">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="AQ55">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AS55">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="AT55">
-        <v>2.63</v>
+        <v>2.39</v>
       </c>
       <c r="AU55">
         <v>8</v>
@@ -12304,7 +12277,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7480190</v>
+        <v>7480189</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12319,43 +12292,43 @@
         <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N56">
         <v>3</v>
       </c>
       <c r="O56" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q56">
-        <v>1.62</v>
+        <v>7.5</v>
       </c>
       <c r="R56">
         <v>2.88</v>
       </c>
       <c r="S56">
-        <v>8.5</v>
+        <v>1.67</v>
       </c>
       <c r="T56">
         <v>1.22</v>
@@ -12364,25 +12337,25 @@
         <v>4</v>
       </c>
       <c r="V56">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X56">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Y56">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Z56">
-        <v>1.21</v>
+        <v>7.1</v>
       </c>
       <c r="AA56">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AB56">
-        <v>8.6</v>
+        <v>1.26</v>
       </c>
       <c r="AC56">
         <v>1.01</v>
@@ -12391,118 +12364,118 @@
         <v>17</v>
       </c>
       <c r="AE56">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AF56">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG56">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AH56">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="AI56">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AJ56">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AK56">
-        <v>1.04</v>
+        <v>3.75</v>
       </c>
       <c r="AL56">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AM56">
-        <v>4</v>
+        <v>1.02</v>
       </c>
       <c r="AN56">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO56">
-        <v>0.89</v>
+        <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="AQ56">
-        <v>1.29</v>
+        <v>3</v>
       </c>
       <c r="AR56">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="AS56">
-        <v>1.16</v>
+        <v>2.13</v>
       </c>
       <c r="AT56">
-        <v>2.73</v>
+        <v>3.37</v>
       </c>
       <c r="AU56">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AV56">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AW56">
         <v>5</v>
       </c>
       <c r="AX56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY56">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AZ56">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="BA56">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BB56">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BC56">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD56">
-        <v>1.18</v>
+        <v>3.8</v>
       </c>
       <c r="BE56">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF56">
-        <v>4.6</v>
+        <v>1.25</v>
       </c>
       <c r="BG56">
         <v>1.15</v>
       </c>
       <c r="BH56">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="BI56">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="BJ56">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BK56">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="BL56">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BM56">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="BN56">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="BO56">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="BP56">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -12510,7 +12483,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7480189</v>
+        <v>7480190</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12525,43 +12498,43 @@
         <v>9</v>
       </c>
       <c r="G57" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N57">
         <v>3</v>
       </c>
       <c r="O57" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Q57">
-        <v>7.5</v>
+        <v>1.62</v>
       </c>
       <c r="R57">
         <v>2.88</v>
       </c>
       <c r="S57">
-        <v>1.67</v>
+        <v>8.5</v>
       </c>
       <c r="T57">
         <v>1.22</v>
@@ -12570,25 +12543,25 @@
         <v>4</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W57">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X57">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Y57">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Z57">
-        <v>7.1</v>
+        <v>1.21</v>
       </c>
       <c r="AA57">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AB57">
-        <v>1.26</v>
+        <v>8.6</v>
       </c>
       <c r="AC57">
         <v>1.01</v>
@@ -12597,118 +12570,118 @@
         <v>17</v>
       </c>
       <c r="AE57">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AF57">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG57">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AH57">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="AI57">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ57">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK57">
-        <v>3.75</v>
+        <v>1.04</v>
       </c>
       <c r="AL57">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AM57">
-        <v>1.02</v>
+        <v>4</v>
       </c>
       <c r="AN57">
-        <v>1.63</v>
+        <v>3</v>
       </c>
       <c r="AO57">
-        <v>2.75</v>
+        <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>1.58</v>
+        <v>3</v>
       </c>
       <c r="AQ57">
-        <v>2.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR57">
-        <v>1.24</v>
+        <v>1.86</v>
       </c>
       <c r="AS57">
-        <v>2.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT57">
-        <v>3.39</v>
+        <v>3.15</v>
       </c>
       <c r="AU57">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV57">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AW57">
         <v>5</v>
       </c>
       <c r="AX57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY57">
+        <v>17</v>
+      </c>
+      <c r="AZ57">
+        <v>9</v>
+      </c>
+      <c r="BA57">
+        <v>7</v>
+      </c>
+      <c r="BB57">
+        <v>3</v>
+      </c>
+      <c r="BC57">
         <v>10</v>
       </c>
-      <c r="AZ57">
-        <v>22</v>
-      </c>
-      <c r="BA57">
-        <v>3</v>
-      </c>
-      <c r="BB57">
-        <v>10</v>
-      </c>
-      <c r="BC57">
-        <v>13</v>
-      </c>
       <c r="BD57">
-        <v>3.8</v>
+        <v>1.18</v>
       </c>
       <c r="BE57">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF57">
-        <v>1.25</v>
+        <v>4.6</v>
       </c>
       <c r="BG57">
         <v>1.15</v>
       </c>
       <c r="BH57">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="BI57">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="BJ57">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BK57">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="BL57">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="BM57">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="BN57">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="BO57">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="BP57">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -12716,7 +12689,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7480193</v>
+        <v>7480195</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12728,163 +12701,163 @@
         <v>45595.69791666666</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O58" t="s">
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="Q58">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="R58">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="S58">
-        <v>15</v>
+        <v>4.33</v>
       </c>
       <c r="T58">
+        <v>1.33</v>
+      </c>
+      <c r="U58">
+        <v>3.25</v>
+      </c>
+      <c r="V58">
+        <v>2.63</v>
+      </c>
+      <c r="W58">
+        <v>1.44</v>
+      </c>
+      <c r="X58">
+        <v>6.5</v>
+      </c>
+      <c r="Y58">
+        <v>1.11</v>
+      </c>
+      <c r="Z58">
+        <v>2</v>
+      </c>
+      <c r="AA58">
+        <v>3.08</v>
+      </c>
+      <c r="AB58">
+        <v>3.54</v>
+      </c>
+      <c r="AC58">
+        <v>1.04</v>
+      </c>
+      <c r="AD58">
+        <v>10</v>
+      </c>
+      <c r="AE58">
+        <v>1.22</v>
+      </c>
+      <c r="AF58">
+        <v>4</v>
+      </c>
+      <c r="AG58">
+        <v>1.71</v>
+      </c>
+      <c r="AH58">
+        <v>2.07</v>
+      </c>
+      <c r="AI58">
+        <v>1.67</v>
+      </c>
+      <c r="AJ58">
+        <v>2.1</v>
+      </c>
+      <c r="AK58">
+        <v>1.22</v>
+      </c>
+      <c r="AL58">
+        <v>1.22</v>
+      </c>
+      <c r="AM58">
+        <v>1.93</v>
+      </c>
+      <c r="AN58">
         <v>1.25</v>
       </c>
-      <c r="U58">
-        <v>3.75</v>
-      </c>
-      <c r="V58">
-        <v>2.2</v>
-      </c>
-      <c r="W58">
-        <v>1.62</v>
-      </c>
-      <c r="X58">
-        <v>5</v>
-      </c>
-      <c r="Y58">
+      <c r="AO58">
+        <v>0.8</v>
+      </c>
+      <c r="AP58">
+        <v>1</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
+        <v>1.54</v>
+      </c>
+      <c r="AS58">
         <v>1.17</v>
       </c>
-      <c r="Z58">
-        <v>1.13</v>
-      </c>
-      <c r="AA58">
-        <v>7.67</v>
-      </c>
-      <c r="AB58">
-        <v>10.02</v>
-      </c>
-      <c r="AC58">
-        <v>1.01</v>
-      </c>
-      <c r="AD58">
-        <v>15</v>
-      </c>
-      <c r="AE58">
-        <v>1.16</v>
-      </c>
-      <c r="AF58">
-        <v>5</v>
-      </c>
-      <c r="AG58">
-        <v>1.56</v>
-      </c>
-      <c r="AH58">
-        <v>2.33</v>
-      </c>
-      <c r="AI58">
-        <v>2.75</v>
-      </c>
-      <c r="AJ58">
-        <v>1.4</v>
-      </c>
-      <c r="AK58">
-        <v>1.01</v>
-      </c>
-      <c r="AL58">
-        <v>1.06</v>
-      </c>
-      <c r="AM58">
-        <v>6.25</v>
-      </c>
-      <c r="AN58">
-        <v>2.78</v>
-      </c>
-      <c r="AO58">
-        <v>1</v>
-      </c>
-      <c r="AP58">
-        <v>2.83</v>
-      </c>
-      <c r="AQ58">
-        <v>1.15</v>
-      </c>
-      <c r="AR58">
-        <v>2.16</v>
-      </c>
-      <c r="AS58">
-        <v>1.37</v>
-      </c>
       <c r="AT58">
-        <v>3.53</v>
+        <v>2.71</v>
       </c>
       <c r="AU58">
         <v>6</v>
       </c>
       <c r="AV58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW58">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AX58">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY58">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AZ58">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BA58">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC58">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD58">
-        <v>1.06</v>
+        <v>1.5</v>
       </c>
       <c r="BE58">
-        <v>13</v>
+        <v>6.75</v>
       </c>
       <c r="BF58">
-        <v>9</v>
+        <v>2.65</v>
       </c>
       <c r="BG58">
         <v>1.14</v>
@@ -12893,28 +12866,28 @@
         <v>4.8</v>
       </c>
       <c r="BI58">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="BJ58">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="BK58">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="BL58">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="BM58">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="BN58">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="BO58">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="BP58">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12922,7 +12895,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7480194</v>
+        <v>7480196</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12937,43 +12910,43 @@
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="Q59">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R59">
         <v>2.2</v>
       </c>
       <c r="S59">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="T59">
         <v>1.4</v>
@@ -12994,13 +12967,13 @@
         <v>1.08</v>
       </c>
       <c r="Z59">
-        <v>3.38</v>
+        <v>5.12</v>
       </c>
       <c r="AA59">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AB59">
-        <v>4.48</v>
+        <v>3.07</v>
       </c>
       <c r="AC59">
         <v>1.05</v>
@@ -13015,10 +12988,10 @@
         <v>3.45</v>
       </c>
       <c r="AG59">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AH59">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AI59">
         <v>1.75</v>
@@ -13027,100 +13000,100 @@
         <v>2</v>
       </c>
       <c r="AK59">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AL59">
         <v>1.25</v>
       </c>
       <c r="AM59">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AN59">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO59">
-        <v>1.44</v>
+        <v>0.25</v>
       </c>
       <c r="AP59">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="AQ59">
-        <v>1.58</v>
+        <v>0.4</v>
       </c>
       <c r="AR59">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AS59">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="AT59">
-        <v>2.38</v>
+        <v>2.67</v>
       </c>
       <c r="AU59">
+        <v>3</v>
+      </c>
+      <c r="AV59">
+        <v>3</v>
+      </c>
+      <c r="AW59">
+        <v>7</v>
+      </c>
+      <c r="AX59">
+        <v>8</v>
+      </c>
+      <c r="AY59">
+        <v>14</v>
+      </c>
+      <c r="AZ59">
+        <v>13</v>
+      </c>
+      <c r="BA59">
+        <v>4</v>
+      </c>
+      <c r="BB59">
+        <v>2</v>
+      </c>
+      <c r="BC59">
         <v>6</v>
       </c>
-      <c r="AV59">
-        <v>4</v>
-      </c>
-      <c r="AW59">
-        <v>5</v>
-      </c>
-      <c r="AX59">
-        <v>6</v>
-      </c>
-      <c r="AY59">
-        <v>18</v>
-      </c>
-      <c r="AZ59">
-        <v>10</v>
-      </c>
-      <c r="BA59">
-        <v>11</v>
-      </c>
-      <c r="BB59">
-        <v>3</v>
-      </c>
-      <c r="BC59">
-        <v>14</v>
-      </c>
       <c r="BD59">
-        <v>1.71</v>
+        <v>2.18</v>
       </c>
       <c r="BE59">
         <v>6.75</v>
       </c>
       <c r="BF59">
-        <v>2.18</v>
+        <v>1.72</v>
       </c>
       <c r="BG59">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="BH59">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="BI59">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="BJ59">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="BK59">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="BL59">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="BM59">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="BN59">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="BO59">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="BP59">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13128,7 +13101,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7480195</v>
+        <v>7480197</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13140,46 +13113,46 @@
         <v>45595.69791666666</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q60">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R60">
         <v>2.3</v>
       </c>
       <c r="S60">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T60">
         <v>1.33</v>
@@ -13188,10 +13161,10 @@
         <v>3.25</v>
       </c>
       <c r="V60">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W60">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X60">
         <v>6.5</v>
@@ -13200,31 +13173,31 @@
         <v>1.11</v>
       </c>
       <c r="Z60">
-        <v>2</v>
+        <v>1.54</v>
       </c>
       <c r="AA60">
-        <v>3.08</v>
+        <v>3.7</v>
       </c>
       <c r="AB60">
-        <v>3.54</v>
+        <v>5.23</v>
       </c>
       <c r="AC60">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD60">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE60">
         <v>1.22</v>
       </c>
       <c r="AF60">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AG60">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="AH60">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="AI60">
         <v>1.67</v>
@@ -13236,61 +13209,61 @@
         <v>1.22</v>
       </c>
       <c r="AL60">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM60">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="AN60">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AP60">
-        <v>0.64</v>
+        <v>1.57</v>
       </c>
       <c r="AQ60">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR60">
-        <v>1.29</v>
+        <v>1.06</v>
       </c>
       <c r="AS60">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT60">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="AU60">
         <v>6</v>
       </c>
       <c r="AV60">
+        <v>3</v>
+      </c>
+      <c r="AW60">
         <v>5</v>
       </c>
-      <c r="AW60">
-        <v>6</v>
-      </c>
       <c r="AX60">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AY60">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ60">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BA60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC60">
         <v>11</v>
       </c>
       <c r="BD60">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="BE60">
         <v>6.75</v>
@@ -13299,34 +13272,34 @@
         <v>2.65</v>
       </c>
       <c r="BG60">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="BH60">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="BI60">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="BJ60">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="BK60">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="BL60">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="BM60">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="BN60">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="BO60">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="BP60">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13334,7 +13307,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7480196</v>
+        <v>7480194</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13349,43 +13322,43 @@
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O61" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="Q61">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R61">
         <v>2.2</v>
       </c>
       <c r="S61">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T61">
         <v>1.4</v>
@@ -13406,13 +13379,13 @@
         <v>1.08</v>
       </c>
       <c r="Z61">
-        <v>5.12</v>
+        <v>3.38</v>
       </c>
       <c r="AA61">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AB61">
-        <v>3.07</v>
+        <v>4.48</v>
       </c>
       <c r="AC61">
         <v>1.05</v>
@@ -13427,10 +13400,10 @@
         <v>3.45</v>
       </c>
       <c r="AG61">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AH61">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AI61">
         <v>1.75</v>
@@ -13439,100 +13412,100 @@
         <v>2</v>
       </c>
       <c r="AK61">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AL61">
         <v>1.25</v>
       </c>
       <c r="AM61">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AN61">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO61">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.07</v>
+        <v>1.67</v>
       </c>
       <c r="AQ61">
-        <v>0.62</v>
+        <v>1.8</v>
       </c>
       <c r="AR61">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="AS61">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AT61">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="AU61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW61">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX61">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY61">
+        <v>18</v>
+      </c>
+      <c r="AZ61">
+        <v>10</v>
+      </c>
+      <c r="BA61">
+        <v>11</v>
+      </c>
+      <c r="BB61">
+        <v>3</v>
+      </c>
+      <c r="BC61">
         <v>14</v>
       </c>
-      <c r="AZ61">
-        <v>13</v>
-      </c>
-      <c r="BA61">
-        <v>4</v>
-      </c>
-      <c r="BB61">
-        <v>2</v>
-      </c>
-      <c r="BC61">
-        <v>6</v>
-      </c>
       <c r="BD61">
-        <v>2.18</v>
+        <v>1.71</v>
       </c>
       <c r="BE61">
         <v>6.75</v>
       </c>
       <c r="BF61">
+        <v>2.18</v>
+      </c>
+      <c r="BG61">
+        <v>1.15</v>
+      </c>
+      <c r="BH61">
+        <v>4.6</v>
+      </c>
+      <c r="BI61">
+        <v>1.26</v>
+      </c>
+      <c r="BJ61">
+        <v>3.4</v>
+      </c>
+      <c r="BK61">
+        <v>1.44</v>
+      </c>
+      <c r="BL61">
+        <v>2.55</v>
+      </c>
+      <c r="BM61">
         <v>1.72</v>
       </c>
-      <c r="BG61">
-        <v>1.19</v>
-      </c>
-      <c r="BH61">
-        <v>4.1</v>
-      </c>
-      <c r="BI61">
-        <v>1.32</v>
-      </c>
-      <c r="BJ61">
-        <v>3.05</v>
-      </c>
-      <c r="BK61">
-        <v>1.54</v>
-      </c>
-      <c r="BL61">
-        <v>2.3</v>
-      </c>
-      <c r="BM61">
-        <v>1.92</v>
-      </c>
       <c r="BN61">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="BO61">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="BP61">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13540,7 +13513,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7480197</v>
+        <v>7480193</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13555,190 +13528,190 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H62" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O62" t="s">
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="Q62">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="R62">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="S62">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="T62">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U62">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V62">
+        <v>2.2</v>
+      </c>
+      <c r="W62">
+        <v>1.62</v>
+      </c>
+      <c r="X62">
+        <v>5</v>
+      </c>
+      <c r="Y62">
+        <v>1.17</v>
+      </c>
+      <c r="Z62">
+        <v>1.13</v>
+      </c>
+      <c r="AA62">
+        <v>7.67</v>
+      </c>
+      <c r="AB62">
+        <v>10.02</v>
+      </c>
+      <c r="AC62">
+        <v>1.01</v>
+      </c>
+      <c r="AD62">
+        <v>15</v>
+      </c>
+      <c r="AE62">
+        <v>1.16</v>
+      </c>
+      <c r="AF62">
+        <v>5</v>
+      </c>
+      <c r="AG62">
+        <v>1.56</v>
+      </c>
+      <c r="AH62">
+        <v>2.33</v>
+      </c>
+      <c r="AI62">
+        <v>2.75</v>
+      </c>
+      <c r="AJ62">
+        <v>1.4</v>
+      </c>
+      <c r="AK62">
+        <v>1.01</v>
+      </c>
+      <c r="AL62">
+        <v>1.06</v>
+      </c>
+      <c r="AM62">
+        <v>6.25</v>
+      </c>
+      <c r="AN62">
         <v>2.5</v>
       </c>
-      <c r="W62">
-        <v>1.5</v>
-      </c>
-      <c r="X62">
-        <v>6.5</v>
-      </c>
-      <c r="Y62">
-        <v>1.11</v>
-      </c>
-      <c r="Z62">
-        <v>1.54</v>
-      </c>
-      <c r="AA62">
-        <v>3.7</v>
-      </c>
-      <c r="AB62">
-        <v>5.23</v>
-      </c>
-      <c r="AC62">
-        <v>1.03</v>
-      </c>
-      <c r="AD62">
-        <v>13</v>
-      </c>
-      <c r="AE62">
-        <v>1.22</v>
-      </c>
-      <c r="AF62">
-        <v>4.2</v>
-      </c>
-      <c r="AG62">
-        <v>1.7</v>
-      </c>
-      <c r="AH62">
-        <v>2.08</v>
-      </c>
-      <c r="AI62">
-        <v>1.67</v>
-      </c>
-      <c r="AJ62">
-        <v>2.1</v>
-      </c>
-      <c r="AK62">
-        <v>1.22</v>
-      </c>
-      <c r="AL62">
-        <v>1.2</v>
-      </c>
-      <c r="AM62">
-        <v>2.05</v>
-      </c>
-      <c r="AN62">
-        <v>0.8</v>
-      </c>
       <c r="AO62">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP62">
-        <v>1.29</v>
+        <v>2.6</v>
       </c>
       <c r="AQ62">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="AR62">
-        <v>1.15</v>
+        <v>2.17</v>
       </c>
       <c r="AS62">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT62">
-        <v>2.35</v>
+        <v>3.48</v>
       </c>
       <c r="AU62">
         <v>6</v>
       </c>
       <c r="AV62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW62">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AX62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY62">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AZ62">
+        <v>4</v>
+      </c>
+      <c r="BA62">
         <v>7</v>
       </c>
-      <c r="BA62">
+      <c r="BB62">
+        <v>2</v>
+      </c>
+      <c r="BC62">
         <v>9</v>
       </c>
-      <c r="BB62">
-        <v>2</v>
-      </c>
-      <c r="BC62">
-        <v>11</v>
-      </c>
       <c r="BD62">
-        <v>1.49</v>
+        <v>1.06</v>
       </c>
       <c r="BE62">
-        <v>6.75</v>
+        <v>13</v>
       </c>
       <c r="BF62">
+        <v>9</v>
+      </c>
+      <c r="BG62">
+        <v>1.14</v>
+      </c>
+      <c r="BH62">
+        <v>4.8</v>
+      </c>
+      <c r="BI62">
+        <v>1.24</v>
+      </c>
+      <c r="BJ62">
+        <v>3.55</v>
+      </c>
+      <c r="BK62">
+        <v>1.41</v>
+      </c>
+      <c r="BL62">
         <v>2.65</v>
       </c>
-      <c r="BG62">
-        <v>1.18</v>
-      </c>
-      <c r="BH62">
-        <v>4.1</v>
-      </c>
-      <c r="BI62">
-        <v>1.32</v>
-      </c>
-      <c r="BJ62">
-        <v>3.05</v>
-      </c>
-      <c r="BK62">
-        <v>1.53</v>
-      </c>
-      <c r="BL62">
-        <v>2.32</v>
-      </c>
       <c r="BM62">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="BN62">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="BO62">
-        <v>2.3</v>
+        <v>1.96</v>
       </c>
       <c r="BP62">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -13788,7 +13761,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -13860,25 +13833,25 @@
         <v>1.25</v>
       </c>
       <c r="AN63">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="AO63">
-        <v>2.11</v>
+        <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="AQ63">
-        <v>1.92</v>
+        <v>0.8</v>
       </c>
       <c r="AR63">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AS63">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="AT63">
-        <v>2.81</v>
+        <v>2.53</v>
       </c>
       <c r="AU63">
         <v>7</v>
@@ -13952,7 +13925,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7480203</v>
+        <v>7480202</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13964,46 +13937,46 @@
         <v>45598.5</v>
       </c>
       <c r="F64">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H64" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O64" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="Q64">
-        <v>2.38</v>
+        <v>4.5</v>
       </c>
       <c r="R64">
         <v>2.25</v>
       </c>
       <c r="S64">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="T64">
         <v>1.36</v>
@@ -14012,10 +13985,10 @@
         <v>3</v>
       </c>
       <c r="V64">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W64">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X64">
         <v>7</v>
@@ -14024,13 +13997,13 @@
         <v>1.1</v>
       </c>
       <c r="Z64">
-        <v>1.73</v>
+        <v>3.92</v>
       </c>
       <c r="AA64">
         <v>3.53</v>
       </c>
       <c r="AB64">
-        <v>4.17</v>
+        <v>1.78</v>
       </c>
       <c r="AC64">
         <v>1.04</v>
@@ -14045,85 +14018,85 @@
         <v>3.75</v>
       </c>
       <c r="AG64">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AH64">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="AI64">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AJ64">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AK64">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="AL64">
         <v>1.22</v>
       </c>
       <c r="AM64">
-        <v>2.05</v>
+        <v>1.22</v>
       </c>
       <c r="AN64">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO64">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="AP64">
-        <v>1.29</v>
+        <v>0.6</v>
       </c>
       <c r="AQ64">
-        <v>1.07</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AT64">
-        <v>2.28</v>
+        <v>2.45</v>
       </c>
       <c r="AU64">
+        <v>6</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>5</v>
+      </c>
+      <c r="AX64">
         <v>4</v>
       </c>
-      <c r="AV64">
-        <v>4</v>
-      </c>
-      <c r="AW64">
-        <v>4</v>
-      </c>
-      <c r="AX64">
-        <v>2</v>
-      </c>
       <c r="AY64">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ64">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA64">
         <v>6</v>
       </c>
       <c r="BB64">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC64">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BD64">
-        <v>1.57</v>
+        <v>2.55</v>
       </c>
       <c r="BE64">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF64">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="BG64">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="BH64">
         <v>2.7</v>
@@ -14135,10 +14108,10 @@
         <v>2.07</v>
       </c>
       <c r="BK64">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="BL64">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="BM64">
         <v>2.65</v>
@@ -14158,7 +14131,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7480202</v>
+        <v>7480203</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14170,46 +14143,46 @@
         <v>45598.5</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H65" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="Q65">
-        <v>4.5</v>
+        <v>2.38</v>
       </c>
       <c r="R65">
         <v>2.25</v>
       </c>
       <c r="S65">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="T65">
         <v>1.36</v>
@@ -14218,10 +14191,10 @@
         <v>3</v>
       </c>
       <c r="V65">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W65">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X65">
         <v>7</v>
@@ -14230,13 +14203,13 @@
         <v>1.1</v>
       </c>
       <c r="Z65">
-        <v>3.92</v>
+        <v>1.73</v>
       </c>
       <c r="AA65">
         <v>3.53</v>
       </c>
       <c r="AB65">
-        <v>1.78</v>
+        <v>4.17</v>
       </c>
       <c r="AC65">
         <v>1.04</v>
@@ -14251,85 +14224,85 @@
         <v>3.75</v>
       </c>
       <c r="AG65">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AH65">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AI65">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ65">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AK65">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="AL65">
         <v>1.22</v>
       </c>
       <c r="AM65">
-        <v>1.22</v>
+        <v>2.05</v>
       </c>
       <c r="AN65">
-        <v>0.91</v>
+        <v>1.67</v>
       </c>
       <c r="AO65">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AQ65">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AR65">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AS65">
-        <v>1.32</v>
+        <v>0.77</v>
       </c>
       <c r="AT65">
-        <v>2.49</v>
+        <v>1.9</v>
       </c>
       <c r="AU65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY65">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ65">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BA65">
         <v>6</v>
       </c>
       <c r="BB65">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BC65">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BD65">
+        <v>1.57</v>
+      </c>
+      <c r="BE65">
+        <v>6.4</v>
+      </c>
+      <c r="BF65">
         <v>2.55</v>
       </c>
-      <c r="BE65">
-        <v>6.25</v>
-      </c>
-      <c r="BF65">
-        <v>1.55</v>
-      </c>
       <c r="BG65">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="BH65">
         <v>2.7</v>
@@ -14341,10 +14314,10 @@
         <v>2.07</v>
       </c>
       <c r="BK65">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="BL65">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="BM65">
         <v>2.65</v>
@@ -14406,7 +14379,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14478,25 +14451,25 @@
         <v>1.53</v>
       </c>
       <c r="AN66">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AO66">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AP66">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AQ66">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR66">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AS66">
         <v>1.21</v>
       </c>
       <c r="AT66">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU66">
         <v>6</v>
@@ -14612,7 +14585,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -14684,25 +14657,25 @@
         <v>2</v>
       </c>
       <c r="AN67">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AO67">
+        <v>1.6</v>
+      </c>
+      <c r="AP67">
+        <v>0.86</v>
+      </c>
+      <c r="AQ67">
         <v>1.5</v>
       </c>
-      <c r="AP67">
-        <v>0.62</v>
-      </c>
-      <c r="AQ67">
-        <v>1.54</v>
-      </c>
       <c r="AR67">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AS67">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AT67">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -14890,25 +14863,25 @@
         <v>2.05</v>
       </c>
       <c r="AN68">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AO68">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AP68">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68">
-        <v>1.07</v>
+        <v>0.5</v>
       </c>
       <c r="AR68">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AS68">
-        <v>1.1</v>
+        <v>0.82</v>
       </c>
       <c r="AT68">
-        <v>2.29</v>
+        <v>2.04</v>
       </c>
       <c r="AU68">
         <v>5</v>
@@ -15024,7 +14997,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15096,25 +15069,25 @@
         <v>1.93</v>
       </c>
       <c r="AN69">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AO69">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="AQ69">
-        <v>1.29</v>
+        <v>0.67</v>
       </c>
       <c r="AR69">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AS69">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AT69">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15230,7 +15203,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15302,25 +15275,25 @@
         <v>1.95</v>
       </c>
       <c r="AN70">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AO70">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR70">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AS70">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AT70">
-        <v>2.41</v>
+        <v>2.27</v>
       </c>
       <c r="AU70">
         <v>5</v>
@@ -15436,7 +15409,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15508,25 +15481,25 @@
         <v>2.15</v>
       </c>
       <c r="AN71">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AO71">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="AQ71">
+        <v>0.83</v>
+      </c>
+      <c r="AR71">
+        <v>1.32</v>
+      </c>
+      <c r="AS71">
         <v>1.15</v>
       </c>
-      <c r="AR71">
-        <v>1.25</v>
-      </c>
-      <c r="AS71">
-        <v>1.3</v>
-      </c>
       <c r="AT71">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="AU71">
         <v>9</v>
@@ -15642,7 +15615,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15714,25 +15687,25 @@
         <v>1.07</v>
       </c>
       <c r="AN72">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AO72">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AP72">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="AR72">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AS72">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="AT72">
-        <v>3.41</v>
+        <v>3.38</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -15920,25 +15893,25 @@
         <v>2.88</v>
       </c>
       <c r="AN73">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="AO73">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="AP73">
-        <v>1.92</v>
+        <v>3</v>
       </c>
       <c r="AQ73">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="AS73">
-        <v>1.29</v>
+        <v>1.1</v>
       </c>
       <c r="AT73">
-        <v>2.89</v>
+        <v>2.97</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16005,1242 +15978,6 @@
       </c>
       <c r="BP73">
         <v>1.73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:68">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>7480215</v>
-      </c>
-      <c r="C74" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="2">
-        <v>45618.875</v>
-      </c>
-      <c r="F74">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s">
-        <v>73</v>
-      </c>
-      <c r="H74" t="s">
-        <v>80</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74">
-        <v>2</v>
-      </c>
-      <c r="M74">
-        <v>1</v>
-      </c>
-      <c r="N74">
-        <v>3</v>
-      </c>
-      <c r="O74" t="s">
-        <v>140</v>
-      </c>
-      <c r="P74" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q74">
-        <v>3.6</v>
-      </c>
-      <c r="R74">
-        <v>2.1</v>
-      </c>
-      <c r="S74">
-        <v>3</v>
-      </c>
-      <c r="T74">
-        <v>1.4</v>
-      </c>
-      <c r="U74">
-        <v>2.75</v>
-      </c>
-      <c r="V74">
-        <v>3</v>
-      </c>
-      <c r="W74">
-        <v>1.36</v>
-      </c>
-      <c r="X74">
-        <v>8</v>
-      </c>
-      <c r="Y74">
-        <v>1.08</v>
-      </c>
-      <c r="Z74">
-        <v>2.53</v>
-      </c>
-      <c r="AA74">
-        <v>3.02</v>
-      </c>
-      <c r="AB74">
-        <v>2.62</v>
-      </c>
-      <c r="AC74">
-        <v>1.05</v>
-      </c>
-      <c r="AD74">
-        <v>11</v>
-      </c>
-      <c r="AE74">
-        <v>1.33</v>
-      </c>
-      <c r="AF74">
-        <v>3.3</v>
-      </c>
-      <c r="AG74">
-        <v>1.96</v>
-      </c>
-      <c r="AH74">
-        <v>1.9</v>
-      </c>
-      <c r="AI74">
-        <v>1.75</v>
-      </c>
-      <c r="AJ74">
-        <v>2</v>
-      </c>
-      <c r="AK74">
-        <v>1.63</v>
-      </c>
-      <c r="AL74">
-        <v>1.25</v>
-      </c>
-      <c r="AM74">
-        <v>1.38</v>
-      </c>
-      <c r="AN74">
-        <v>1.15</v>
-      </c>
-      <c r="AO74">
-        <v>2.82</v>
-      </c>
-      <c r="AP74">
-        <v>1.29</v>
-      </c>
-      <c r="AQ74">
-        <v>2.58</v>
-      </c>
-      <c r="AR74">
-        <v>1.19</v>
-      </c>
-      <c r="AS74">
-        <v>1.32</v>
-      </c>
-      <c r="AT74">
-        <v>2.51</v>
-      </c>
-      <c r="AU74">
-        <v>7</v>
-      </c>
-      <c r="AV74">
-        <v>5</v>
-      </c>
-      <c r="AW74">
-        <v>7</v>
-      </c>
-      <c r="AX74">
-        <v>6</v>
-      </c>
-      <c r="AY74">
-        <v>17</v>
-      </c>
-      <c r="AZ74">
-        <v>16</v>
-      </c>
-      <c r="BA74">
-        <v>7</v>
-      </c>
-      <c r="BB74">
-        <v>3</v>
-      </c>
-      <c r="BC74">
-        <v>10</v>
-      </c>
-      <c r="BD74">
-        <v>1.95</v>
-      </c>
-      <c r="BE74">
-        <v>6.75</v>
-      </c>
-      <c r="BF74">
-        <v>1.93</v>
-      </c>
-      <c r="BG74">
-        <v>1.19</v>
-      </c>
-      <c r="BH74">
-        <v>4.1</v>
-      </c>
-      <c r="BI74">
-        <v>1.33</v>
-      </c>
-      <c r="BJ74">
-        <v>2.95</v>
-      </c>
-      <c r="BK74">
-        <v>1.55</v>
-      </c>
-      <c r="BL74">
-        <v>2.28</v>
-      </c>
-      <c r="BM74">
-        <v>1.86</v>
-      </c>
-      <c r="BN74">
-        <v>1.82</v>
-      </c>
-      <c r="BO74">
-        <v>2.3</v>
-      </c>
-      <c r="BP74">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="75" spans="1:68">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>7480214</v>
-      </c>
-      <c r="C75" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" t="s">
-        <v>69</v>
-      </c>
-      <c r="E75" s="2">
-        <v>45619.5</v>
-      </c>
-      <c r="F75">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s">
-        <v>75</v>
-      </c>
-      <c r="H75" t="s">
-        <v>81</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75" t="s">
-        <v>141</v>
-      </c>
-      <c r="P75" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q75">
-        <v>3.5</v>
-      </c>
-      <c r="R75">
-        <v>2.2</v>
-      </c>
-      <c r="S75">
-        <v>3</v>
-      </c>
-      <c r="T75">
-        <v>1.4</v>
-      </c>
-      <c r="U75">
-        <v>2.75</v>
-      </c>
-      <c r="V75">
-        <v>2.75</v>
-      </c>
-      <c r="W75">
-        <v>1.4</v>
-      </c>
-      <c r="X75">
-        <v>8</v>
-      </c>
-      <c r="Y75">
-        <v>1.08</v>
-      </c>
-      <c r="Z75">
-        <v>2.34</v>
-      </c>
-      <c r="AA75">
-        <v>5.16</v>
-      </c>
-      <c r="AB75">
-        <v>2.05</v>
-      </c>
-      <c r="AC75">
-        <v>1.05</v>
-      </c>
-      <c r="AD75">
-        <v>11</v>
-      </c>
-      <c r="AE75">
-        <v>1.3</v>
-      </c>
-      <c r="AF75">
-        <v>3.5</v>
-      </c>
-      <c r="AG75">
-        <v>1.89</v>
-      </c>
-      <c r="AH75">
-        <v>1.93</v>
-      </c>
-      <c r="AI75">
-        <v>1.7</v>
-      </c>
-      <c r="AJ75">
-        <v>2.05</v>
-      </c>
-      <c r="AK75">
-        <v>1.68</v>
-      </c>
-      <c r="AL75">
-        <v>1.25</v>
-      </c>
-      <c r="AM75">
-        <v>1.36</v>
-      </c>
-      <c r="AN75">
-        <v>0.77</v>
-      </c>
-      <c r="AO75">
-        <v>1</v>
-      </c>
-      <c r="AP75">
-        <v>0.93</v>
-      </c>
-      <c r="AQ75">
-        <v>0.92</v>
-      </c>
-      <c r="AR75">
-        <v>1.21</v>
-      </c>
-      <c r="AS75">
-        <v>1.28</v>
-      </c>
-      <c r="AT75">
-        <v>2.49</v>
-      </c>
-      <c r="AU75">
-        <v>5</v>
-      </c>
-      <c r="AV75">
-        <v>2</v>
-      </c>
-      <c r="AW75">
-        <v>4</v>
-      </c>
-      <c r="AX75">
-        <v>5</v>
-      </c>
-      <c r="AY75">
-        <v>11</v>
-      </c>
-      <c r="AZ75">
-        <v>13</v>
-      </c>
-      <c r="BA75">
-        <v>4</v>
-      </c>
-      <c r="BB75">
-        <v>14</v>
-      </c>
-      <c r="BC75">
-        <v>18</v>
-      </c>
-      <c r="BD75">
-        <v>2.3</v>
-      </c>
-      <c r="BE75">
-        <v>6.5</v>
-      </c>
-      <c r="BF75">
-        <v>1.66</v>
-      </c>
-      <c r="BG75">
-        <v>1.23</v>
-      </c>
-      <c r="BH75">
-        <v>3.65</v>
-      </c>
-      <c r="BI75">
-        <v>1.41</v>
-      </c>
-      <c r="BJ75">
-        <v>2.65</v>
-      </c>
-      <c r="BK75">
-        <v>1.66</v>
-      </c>
-      <c r="BL75">
-        <v>2.06</v>
-      </c>
-      <c r="BM75">
-        <v>2.05</v>
-      </c>
-      <c r="BN75">
-        <v>1.67</v>
-      </c>
-      <c r="BO75">
-        <v>2.55</v>
-      </c>
-      <c r="BP75">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="76" spans="1:68">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>7480213</v>
-      </c>
-      <c r="C76" t="s">
-        <v>68</v>
-      </c>
-      <c r="D76" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="2">
-        <v>45619.5</v>
-      </c>
-      <c r="F76">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s">
-        <v>77</v>
-      </c>
-      <c r="H76" t="s">
-        <v>71</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>2</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <v>3</v>
-      </c>
-      <c r="O76" t="s">
-        <v>142</v>
-      </c>
-      <c r="P76" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q76">
-        <v>3.4</v>
-      </c>
-      <c r="R76">
-        <v>2.1</v>
-      </c>
-      <c r="S76">
-        <v>3.25</v>
-      </c>
-      <c r="T76">
-        <v>1.44</v>
-      </c>
-      <c r="U76">
-        <v>2.63</v>
-      </c>
-      <c r="V76">
-        <v>3.25</v>
-      </c>
-      <c r="W76">
-        <v>1.33</v>
-      </c>
-      <c r="X76">
-        <v>9</v>
-      </c>
-      <c r="Y76">
-        <v>1.07</v>
-      </c>
-      <c r="Z76">
-        <v>2.66</v>
-      </c>
-      <c r="AA76">
-        <v>3.08</v>
-      </c>
-      <c r="AB76">
-        <v>2.38</v>
-      </c>
-      <c r="AC76">
-        <v>1.06</v>
-      </c>
-      <c r="AD76">
-        <v>9.5</v>
-      </c>
-      <c r="AE76">
-        <v>1.33</v>
-      </c>
-      <c r="AF76">
-        <v>3.2</v>
-      </c>
-      <c r="AG76">
-        <v>2.06</v>
-      </c>
-      <c r="AH76">
-        <v>1.8</v>
-      </c>
-      <c r="AI76">
-        <v>1.8</v>
-      </c>
-      <c r="AJ76">
-        <v>1.95</v>
-      </c>
-      <c r="AK76">
-        <v>1.52</v>
-      </c>
-      <c r="AL76">
-        <v>1.3</v>
-      </c>
-      <c r="AM76">
-        <v>1.45</v>
-      </c>
-      <c r="AN76">
-        <v>0.92</v>
-      </c>
-      <c r="AO76">
-        <v>1.73</v>
-      </c>
-      <c r="AP76">
-        <v>1.07</v>
-      </c>
-      <c r="AQ76">
-        <v>1.58</v>
-      </c>
-      <c r="AR76">
-        <v>1.07</v>
-      </c>
-      <c r="AS76">
-        <v>1.24</v>
-      </c>
-      <c r="AT76">
-        <v>2.31</v>
-      </c>
-      <c r="AU76">
-        <v>5</v>
-      </c>
-      <c r="AV76">
-        <v>4</v>
-      </c>
-      <c r="AW76">
-        <v>4</v>
-      </c>
-      <c r="AX76">
-        <v>4</v>
-      </c>
-      <c r="AY76">
-        <v>17</v>
-      </c>
-      <c r="AZ76">
-        <v>9</v>
-      </c>
-      <c r="BA76">
-        <v>12</v>
-      </c>
-      <c r="BB76">
-        <v>3</v>
-      </c>
-      <c r="BC76">
-        <v>15</v>
-      </c>
-      <c r="BD76">
-        <v>2.15</v>
-      </c>
-      <c r="BE76">
-        <v>6.4</v>
-      </c>
-      <c r="BF76">
-        <v>1.77</v>
-      </c>
-      <c r="BG76">
-        <v>1.25</v>
-      </c>
-      <c r="BH76">
-        <v>3.45</v>
-      </c>
-      <c r="BI76">
-        <v>1.44</v>
-      </c>
-      <c r="BJ76">
-        <v>2.55</v>
-      </c>
-      <c r="BK76">
-        <v>1.71</v>
-      </c>
-      <c r="BL76">
-        <v>2</v>
-      </c>
-      <c r="BM76">
-        <v>2.1</v>
-      </c>
-      <c r="BN76">
-        <v>1.64</v>
-      </c>
-      <c r="BO76">
-        <v>2.65</v>
-      </c>
-      <c r="BP76">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:68">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>7480212</v>
-      </c>
-      <c r="C77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="2">
-        <v>45619.5</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77" t="s">
-        <v>76</v>
-      </c>
-      <c r="H77" t="s">
-        <v>72</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>2</v>
-      </c>
-      <c r="O77" t="s">
-        <v>143</v>
-      </c>
-      <c r="P77" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q77">
-        <v>1.67</v>
-      </c>
-      <c r="R77">
-        <v>2.75</v>
-      </c>
-      <c r="S77">
-        <v>9</v>
-      </c>
-      <c r="T77">
-        <v>1.25</v>
-      </c>
-      <c r="U77">
-        <v>3.75</v>
-      </c>
-      <c r="V77">
-        <v>2.2</v>
-      </c>
-      <c r="W77">
-        <v>1.62</v>
-      </c>
-      <c r="X77">
-        <v>5</v>
-      </c>
-      <c r="Y77">
-        <v>1.17</v>
-      </c>
-      <c r="Z77">
-        <v>1.62</v>
-      </c>
-      <c r="AA77">
-        <v>5.06</v>
-      </c>
-      <c r="AB77">
-        <v>3.39</v>
-      </c>
-      <c r="AC77">
-        <v>1.01</v>
-      </c>
-      <c r="AD77">
-        <v>19</v>
-      </c>
-      <c r="AE77">
-        <v>1.17</v>
-      </c>
-      <c r="AF77">
-        <v>5</v>
-      </c>
-      <c r="AG77">
-        <v>1.53</v>
-      </c>
-      <c r="AH77">
-        <v>2.35</v>
-      </c>
-      <c r="AI77">
-        <v>1.95</v>
-      </c>
-      <c r="AJ77">
-        <v>1.8</v>
-      </c>
-      <c r="AK77">
-        <v>1.01</v>
-      </c>
-      <c r="AL77">
-        <v>1.1</v>
-      </c>
-      <c r="AM77">
-        <v>3.75</v>
-      </c>
-      <c r="AN77">
-        <v>2</v>
-      </c>
-      <c r="AO77">
-        <v>1.58</v>
-      </c>
-      <c r="AP77">
-        <v>1.92</v>
-      </c>
-      <c r="AQ77">
-        <v>1.54</v>
-      </c>
-      <c r="AR77">
-        <v>1.56</v>
-      </c>
-      <c r="AS77">
-        <v>1.23</v>
-      </c>
-      <c r="AT77">
-        <v>2.79</v>
-      </c>
-      <c r="AU77">
-        <v>10</v>
-      </c>
-      <c r="AV77">
-        <v>2</v>
-      </c>
-      <c r="AW77">
-        <v>12</v>
-      </c>
-      <c r="AX77">
-        <v>3</v>
-      </c>
-      <c r="AY77">
-        <v>31</v>
-      </c>
-      <c r="AZ77">
-        <v>6</v>
-      </c>
-      <c r="BA77">
-        <v>9</v>
-      </c>
-      <c r="BB77">
-        <v>1</v>
-      </c>
-      <c r="BC77">
-        <v>10</v>
-      </c>
-      <c r="BD77">
-        <v>1.14</v>
-      </c>
-      <c r="BE77">
-        <v>9.5</v>
-      </c>
-      <c r="BF77">
-        <v>5.3</v>
-      </c>
-      <c r="BG77">
-        <v>1.17</v>
-      </c>
-      <c r="BH77">
-        <v>4.35</v>
-      </c>
-      <c r="BI77">
-        <v>1.3</v>
-      </c>
-      <c r="BJ77">
-        <v>3.15</v>
-      </c>
-      <c r="BK77">
-        <v>1.49</v>
-      </c>
-      <c r="BL77">
-        <v>2.4</v>
-      </c>
-      <c r="BM77">
-        <v>1.77</v>
-      </c>
-      <c r="BN77">
-        <v>1.92</v>
-      </c>
-      <c r="BO77">
-        <v>2.18</v>
-      </c>
-      <c r="BP77">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:68">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>7480210</v>
-      </c>
-      <c r="C78" t="s">
-        <v>68</v>
-      </c>
-      <c r="D78" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="2">
-        <v>45619.61458333334</v>
-      </c>
-      <c r="F78">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s">
-        <v>78</v>
-      </c>
-      <c r="H78" t="s">
-        <v>79</v>
-      </c>
-      <c r="I78">
-        <v>3</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78">
-        <v>4</v>
-      </c>
-      <c r="L78">
-        <v>4</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <v>5</v>
-      </c>
-      <c r="O78" t="s">
-        <v>144</v>
-      </c>
-      <c r="P78" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q78">
-        <v>3.25</v>
-      </c>
-      <c r="R78">
-        <v>2.2</v>
-      </c>
-      <c r="S78">
-        <v>3.1</v>
-      </c>
-      <c r="T78">
-        <v>1.36</v>
-      </c>
-      <c r="U78">
-        <v>3</v>
-      </c>
-      <c r="V78">
-        <v>2.63</v>
-      </c>
-      <c r="W78">
-        <v>1.44</v>
-      </c>
-      <c r="X78">
-        <v>7</v>
-      </c>
-      <c r="Y78">
-        <v>1.1</v>
-      </c>
-      <c r="Z78">
-        <v>2.68</v>
-      </c>
-      <c r="AA78">
-        <v>3.5</v>
-      </c>
-      <c r="AB78">
-        <v>2.38</v>
-      </c>
-      <c r="AC78">
-        <v>1.04</v>
-      </c>
-      <c r="AD78">
-        <v>12</v>
-      </c>
-      <c r="AE78">
-        <v>1.25</v>
-      </c>
-      <c r="AF78">
-        <v>3.75</v>
-      </c>
-      <c r="AG78">
-        <v>1.86</v>
-      </c>
-      <c r="AH78">
-        <v>2.02</v>
-      </c>
-      <c r="AI78">
-        <v>1.62</v>
-      </c>
-      <c r="AJ78">
-        <v>2.2</v>
-      </c>
-      <c r="AK78">
-        <v>1.53</v>
-      </c>
-      <c r="AL78">
-        <v>1.25</v>
-      </c>
-      <c r="AM78">
-        <v>1.47</v>
-      </c>
-      <c r="AN78">
-        <v>1</v>
-      </c>
-      <c r="AO78">
-        <v>0.67</v>
-      </c>
-      <c r="AP78">
-        <v>1.15</v>
-      </c>
-      <c r="AQ78">
-        <v>0.62</v>
-      </c>
-      <c r="AR78">
-        <v>1.31</v>
-      </c>
-      <c r="AS78">
-        <v>1.35</v>
-      </c>
-      <c r="AT78">
-        <v>2.66</v>
-      </c>
-      <c r="AU78">
-        <v>7</v>
-      </c>
-      <c r="AV78">
-        <v>2</v>
-      </c>
-      <c r="AW78">
-        <v>5</v>
-      </c>
-      <c r="AX78">
-        <v>6</v>
-      </c>
-      <c r="AY78">
-        <v>18</v>
-      </c>
-      <c r="AZ78">
-        <v>13</v>
-      </c>
-      <c r="BA78">
-        <v>8</v>
-      </c>
-      <c r="BB78">
-        <v>2</v>
-      </c>
-      <c r="BC78">
-        <v>10</v>
-      </c>
-      <c r="BD78">
-        <v>1.92</v>
-      </c>
-      <c r="BE78">
-        <v>6.5</v>
-      </c>
-      <c r="BF78">
-        <v>1.95</v>
-      </c>
-      <c r="BG78">
-        <v>1.15</v>
-      </c>
-      <c r="BH78">
-        <v>4.6</v>
-      </c>
-      <c r="BI78">
-        <v>1.27</v>
-      </c>
-      <c r="BJ78">
-        <v>3.3</v>
-      </c>
-      <c r="BK78">
-        <v>1.46</v>
-      </c>
-      <c r="BL78">
-        <v>2.5</v>
-      </c>
-      <c r="BM78">
-        <v>1.72</v>
-      </c>
-      <c r="BN78">
-        <v>1.98</v>
-      </c>
-      <c r="BO78">
-        <v>2.1</v>
-      </c>
-      <c r="BP78">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="79" spans="1:68">
-      <c r="A79" s="1">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>7480211</v>
-      </c>
-      <c r="C79" t="s">
-        <v>68</v>
-      </c>
-      <c r="D79" t="s">
-        <v>69</v>
-      </c>
-      <c r="E79" s="2">
-        <v>45619.69791666666</v>
-      </c>
-      <c r="F79">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s">
-        <v>70</v>
-      </c>
-      <c r="H79" t="s">
-        <v>74</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="M79">
-        <v>4</v>
-      </c>
-      <c r="N79">
-        <v>5</v>
-      </c>
-      <c r="O79" t="s">
-        <v>145</v>
-      </c>
-      <c r="P79" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q79">
-        <v>6.5</v>
-      </c>
-      <c r="R79">
-        <v>2.6</v>
-      </c>
-      <c r="S79">
-        <v>1.83</v>
-      </c>
-      <c r="T79">
-        <v>1.29</v>
-      </c>
-      <c r="U79">
-        <v>3.5</v>
-      </c>
-      <c r="V79">
-        <v>2.25</v>
-      </c>
-      <c r="W79">
-        <v>1.57</v>
-      </c>
-      <c r="X79">
-        <v>5.5</v>
-      </c>
-      <c r="Y79">
-        <v>1.14</v>
-      </c>
-      <c r="Z79">
-        <v>6.6</v>
-      </c>
-      <c r="AA79">
-        <v>5</v>
-      </c>
-      <c r="AB79">
-        <v>1.37</v>
-      </c>
-      <c r="AC79">
-        <v>1.01</v>
-      </c>
-      <c r="AD79">
-        <v>19</v>
-      </c>
-      <c r="AE79">
-        <v>1.16</v>
-      </c>
-      <c r="AF79">
-        <v>5</v>
-      </c>
-      <c r="AG79">
-        <v>1.57</v>
-      </c>
-      <c r="AH79">
-        <v>2.3</v>
-      </c>
-      <c r="AI79">
-        <v>1.75</v>
-      </c>
-      <c r="AJ79">
-        <v>2</v>
-      </c>
-      <c r="AK79">
-        <v>3</v>
-      </c>
-      <c r="AL79">
-        <v>1.12</v>
-      </c>
-      <c r="AM79">
-        <v>1.09</v>
-      </c>
-      <c r="AN79">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AO79">
-        <v>2.82</v>
-      </c>
-      <c r="AP79">
-        <v>0.64</v>
-      </c>
-      <c r="AQ79">
-        <v>2.83</v>
-      </c>
-      <c r="AR79">
-        <v>1.23</v>
-      </c>
-      <c r="AS79">
-        <v>2.11</v>
-      </c>
-      <c r="AT79">
-        <v>3.34</v>
-      </c>
-      <c r="AU79">
-        <v>5</v>
-      </c>
-      <c r="AV79">
-        <v>10</v>
-      </c>
-      <c r="AW79">
-        <v>3</v>
-      </c>
-      <c r="AX79">
-        <v>3</v>
-      </c>
-      <c r="AY79">
-        <v>10</v>
-      </c>
-      <c r="AZ79">
-        <v>14</v>
-      </c>
-      <c r="BA79">
-        <v>1</v>
-      </c>
-      <c r="BB79">
-        <v>6</v>
-      </c>
-      <c r="BC79">
-        <v>7</v>
-      </c>
-      <c r="BD79">
-        <v>3.8</v>
-      </c>
-      <c r="BE79">
-        <v>8</v>
-      </c>
-      <c r="BF79">
-        <v>1.25</v>
-      </c>
-      <c r="BG79">
-        <v>1.14</v>
-      </c>
-      <c r="BH79">
-        <v>4.8</v>
-      </c>
-      <c r="BI79">
-        <v>1.26</v>
-      </c>
-      <c r="BJ79">
-        <v>3.4</v>
-      </c>
-      <c r="BK79">
-        <v>1.43</v>
-      </c>
-      <c r="BL79">
-        <v>2.6</v>
-      </c>
-      <c r="BM79">
-        <v>1.67</v>
-      </c>
-      <c r="BN79">
-        <v>2.05</v>
-      </c>
-      <c r="BO79">
-        <v>2.02</v>
-      </c>
-      <c r="BP79">
-        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -434,6 +434,15 @@
   </si>
   <si>
     <t>['6']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['20', '83']</t>
   </si>
   <si>
     <t>['18', '79']</t>
@@ -936,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1607,7 +1616,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1891,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ5">
         <v>0.4</v>
@@ -2100,7 +2109,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2225,7 +2234,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2303,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2431,7 +2440,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2509,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ8">
         <v>1.8</v>
@@ -2637,7 +2646,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2718,7 +2727,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2843,7 +2852,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3049,7 +3058,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3255,7 +3264,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3461,7 +3470,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3873,7 +3882,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4157,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ16">
         <v>0.5</v>
@@ -4285,7 +4294,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4363,7 +4372,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
         <v>3</v>
@@ -4778,7 +4787,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR19">
         <v>1.1</v>
@@ -4903,7 +4912,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5109,7 +5118,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5187,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1.8</v>
@@ -5315,7 +5324,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5396,7 +5405,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>1.66</v>
@@ -5727,7 +5736,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5808,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR24">
         <v>1.14</v>
@@ -5933,7 +5942,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6963,7 +6972,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7041,10 +7050,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR30">
         <v>0.76</v>
@@ -7169,7 +7178,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7375,7 +7384,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7581,7 +7590,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7659,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
@@ -7787,7 +7796,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7993,7 +8002,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8074,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR35">
         <v>1.32</v>
@@ -8199,7 +8208,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8405,7 +8414,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8486,7 +8495,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ37">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8611,7 +8620,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8689,7 +8698,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>3</v>
@@ -8895,7 +8904,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ39">
         <v>0.4</v>
@@ -9023,7 +9032,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9101,10 +9110,10 @@
         <v>1.67</v>
       </c>
       <c r="AP40">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR40">
         <v>0.9399999999999999</v>
@@ -9229,7 +9238,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9435,7 +9444,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9516,7 +9525,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR42">
         <v>1.64</v>
@@ -9641,7 +9650,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9847,7 +9856,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10131,7 +10140,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ45">
         <v>0.88</v>
@@ -10259,7 +10268,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10340,7 +10349,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ46">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR46">
         <v>2.16</v>
@@ -10465,7 +10474,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10877,7 +10886,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11161,7 +11170,7 @@
         <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
         <v>0.5</v>
@@ -11495,7 +11504,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11701,7 +11710,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -11782,7 +11791,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR53">
         <v>1.34</v>
@@ -11988,7 +11997,7 @@
         <v>3</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR54">
         <v>1.17</v>
@@ -12319,7 +12328,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -12525,7 +12534,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q57">
         <v>1.62</v>
@@ -12603,7 +12612,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ57">
         <v>0.67</v>
@@ -12731,7 +12740,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -12812,7 +12821,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13143,7 +13152,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13221,7 +13230,7 @@
         <v>1.17</v>
       </c>
       <c r="AP60">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ60">
         <v>0.88</v>
@@ -13349,7 +13358,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13761,7 +13770,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -13967,7 +13976,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14045,7 +14054,7 @@
         <v>0.17</v>
       </c>
       <c r="AP64">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14251,7 +14260,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ65">
         <v>0.5</v>
@@ -14379,7 +14388,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14460,7 +14469,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR66">
         <v>1.42</v>
@@ -14585,7 +14594,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -14666,7 +14675,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR67">
         <v>1.3</v>
@@ -14997,7 +15006,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15203,7 +15212,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15409,7 +15418,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15615,7 +15624,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15899,7 +15908,7 @@
         <v>0.57</v>
       </c>
       <c r="AP73">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ73">
         <v>0.5</v>
@@ -15978,6 +15987,624 @@
       </c>
       <c r="BP73">
         <v>1.73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7480214</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45619.51041666666</v>
+      </c>
+      <c r="F74">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>75</v>
+      </c>
+      <c r="H74" t="s">
+        <v>81</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74" t="s">
+        <v>140</v>
+      </c>
+      <c r="P74" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q74">
+        <v>3.5</v>
+      </c>
+      <c r="R74">
+        <v>2.2</v>
+      </c>
+      <c r="S74">
+        <v>3</v>
+      </c>
+      <c r="T74">
+        <v>1.4</v>
+      </c>
+      <c r="U74">
+        <v>2.75</v>
+      </c>
+      <c r="V74">
+        <v>2.75</v>
+      </c>
+      <c r="W74">
+        <v>1.4</v>
+      </c>
+      <c r="X74">
+        <v>8</v>
+      </c>
+      <c r="Y74">
+        <v>1.08</v>
+      </c>
+      <c r="Z74">
+        <v>2.34</v>
+      </c>
+      <c r="AA74">
+        <v>5.16</v>
+      </c>
+      <c r="AB74">
+        <v>2.05</v>
+      </c>
+      <c r="AC74">
+        <v>1.05</v>
+      </c>
+      <c r="AD74">
+        <v>11</v>
+      </c>
+      <c r="AE74">
+        <v>1.3</v>
+      </c>
+      <c r="AF74">
+        <v>3.5</v>
+      </c>
+      <c r="AG74">
+        <v>1.89</v>
+      </c>
+      <c r="AH74">
+        <v>1.93</v>
+      </c>
+      <c r="AI74">
+        <v>1.7</v>
+      </c>
+      <c r="AJ74">
+        <v>2.05</v>
+      </c>
+      <c r="AK74">
+        <v>1.68</v>
+      </c>
+      <c r="AL74">
+        <v>1.25</v>
+      </c>
+      <c r="AM74">
+        <v>1.36</v>
+      </c>
+      <c r="AN74">
+        <v>0.6</v>
+      </c>
+      <c r="AO74">
+        <v>1</v>
+      </c>
+      <c r="AP74">
+        <v>1</v>
+      </c>
+      <c r="AQ74">
+        <v>0.88</v>
+      </c>
+      <c r="AR74">
+        <v>1.37</v>
+      </c>
+      <c r="AS74">
+        <v>1.24</v>
+      </c>
+      <c r="AT74">
+        <v>2.61</v>
+      </c>
+      <c r="AU74">
+        <v>5</v>
+      </c>
+      <c r="AV74">
+        <v>0</v>
+      </c>
+      <c r="AW74">
+        <v>5</v>
+      </c>
+      <c r="AX74">
+        <v>12</v>
+      </c>
+      <c r="AY74">
+        <v>10</v>
+      </c>
+      <c r="AZ74">
+        <v>12</v>
+      </c>
+      <c r="BA74">
+        <v>4</v>
+      </c>
+      <c r="BB74">
+        <v>14</v>
+      </c>
+      <c r="BC74">
+        <v>18</v>
+      </c>
+      <c r="BD74">
+        <v>2.3</v>
+      </c>
+      <c r="BE74">
+        <v>6.5</v>
+      </c>
+      <c r="BF74">
+        <v>1.66</v>
+      </c>
+      <c r="BG74">
+        <v>1.23</v>
+      </c>
+      <c r="BH74">
+        <v>3.65</v>
+      </c>
+      <c r="BI74">
+        <v>1.41</v>
+      </c>
+      <c r="BJ74">
+        <v>2.65</v>
+      </c>
+      <c r="BK74">
+        <v>1.66</v>
+      </c>
+      <c r="BL74">
+        <v>2.06</v>
+      </c>
+      <c r="BM74">
+        <v>2.05</v>
+      </c>
+      <c r="BN74">
+        <v>1.67</v>
+      </c>
+      <c r="BO74">
+        <v>2.55</v>
+      </c>
+      <c r="BP74">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7480212</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45619.53125</v>
+      </c>
+      <c r="F75">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>76</v>
+      </c>
+      <c r="H75" t="s">
+        <v>72</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>141</v>
+      </c>
+      <c r="P75" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q75">
+        <v>1.67</v>
+      </c>
+      <c r="R75">
+        <v>2.75</v>
+      </c>
+      <c r="S75">
+        <v>9</v>
+      </c>
+      <c r="T75">
+        <v>1.25</v>
+      </c>
+      <c r="U75">
+        <v>3.75</v>
+      </c>
+      <c r="V75">
+        <v>2.2</v>
+      </c>
+      <c r="W75">
+        <v>1.62</v>
+      </c>
+      <c r="X75">
+        <v>5</v>
+      </c>
+      <c r="Y75">
+        <v>1.17</v>
+      </c>
+      <c r="Z75">
+        <v>1.62</v>
+      </c>
+      <c r="AA75">
+        <v>5.06</v>
+      </c>
+      <c r="AB75">
+        <v>3.39</v>
+      </c>
+      <c r="AC75">
+        <v>1.01</v>
+      </c>
+      <c r="AD75">
+        <v>19</v>
+      </c>
+      <c r="AE75">
+        <v>1.17</v>
+      </c>
+      <c r="AF75">
+        <v>5</v>
+      </c>
+      <c r="AG75">
+        <v>1.53</v>
+      </c>
+      <c r="AH75">
+        <v>2.35</v>
+      </c>
+      <c r="AI75">
+        <v>1.95</v>
+      </c>
+      <c r="AJ75">
+        <v>1.8</v>
+      </c>
+      <c r="AK75">
+        <v>1.01</v>
+      </c>
+      <c r="AL75">
+        <v>1.1</v>
+      </c>
+      <c r="AM75">
+        <v>3.75</v>
+      </c>
+      <c r="AN75">
+        <v>3</v>
+      </c>
+      <c r="AO75">
+        <v>1.5</v>
+      </c>
+      <c r="AP75">
+        <v>2.71</v>
+      </c>
+      <c r="AQ75">
+        <v>1.43</v>
+      </c>
+      <c r="AR75">
+        <v>1.75</v>
+      </c>
+      <c r="AS75">
+        <v>1.15</v>
+      </c>
+      <c r="AT75">
+        <v>2.9</v>
+      </c>
+      <c r="AU75">
+        <v>12</v>
+      </c>
+      <c r="AV75">
+        <v>2</v>
+      </c>
+      <c r="AW75">
+        <v>20</v>
+      </c>
+      <c r="AX75">
+        <v>5</v>
+      </c>
+      <c r="AY75">
+        <v>32</v>
+      </c>
+      <c r="AZ75">
+        <v>7</v>
+      </c>
+      <c r="BA75">
+        <v>9</v>
+      </c>
+      <c r="BB75">
+        <v>1</v>
+      </c>
+      <c r="BC75">
+        <v>10</v>
+      </c>
+      <c r="BD75">
+        <v>1.14</v>
+      </c>
+      <c r="BE75">
+        <v>9.5</v>
+      </c>
+      <c r="BF75">
+        <v>5.3</v>
+      </c>
+      <c r="BG75">
+        <v>1.17</v>
+      </c>
+      <c r="BH75">
+        <v>4.35</v>
+      </c>
+      <c r="BI75">
+        <v>1.3</v>
+      </c>
+      <c r="BJ75">
+        <v>3.15</v>
+      </c>
+      <c r="BK75">
+        <v>1.49</v>
+      </c>
+      <c r="BL75">
+        <v>2.4</v>
+      </c>
+      <c r="BM75">
+        <v>1.77</v>
+      </c>
+      <c r="BN75">
+        <v>1.92</v>
+      </c>
+      <c r="BO75">
+        <v>2.18</v>
+      </c>
+      <c r="BP75">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7480215</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45619.54166666666</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s">
+        <v>80</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>142</v>
+      </c>
+      <c r="P76" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q76">
+        <v>3.6</v>
+      </c>
+      <c r="R76">
+        <v>2.1</v>
+      </c>
+      <c r="S76">
+        <v>3</v>
+      </c>
+      <c r="T76">
+        <v>1.4</v>
+      </c>
+      <c r="U76">
+        <v>2.75</v>
+      </c>
+      <c r="V76">
+        <v>3</v>
+      </c>
+      <c r="W76">
+        <v>1.36</v>
+      </c>
+      <c r="X76">
+        <v>8</v>
+      </c>
+      <c r="Y76">
+        <v>1.08</v>
+      </c>
+      <c r="Z76">
+        <v>2.53</v>
+      </c>
+      <c r="AA76">
+        <v>3.02</v>
+      </c>
+      <c r="AB76">
+        <v>2.62</v>
+      </c>
+      <c r="AC76">
+        <v>1.05</v>
+      </c>
+      <c r="AD76">
+        <v>11</v>
+      </c>
+      <c r="AE76">
+        <v>1.33</v>
+      </c>
+      <c r="AF76">
+        <v>3.3</v>
+      </c>
+      <c r="AG76">
+        <v>1.96</v>
+      </c>
+      <c r="AH76">
+        <v>1.9</v>
+      </c>
+      <c r="AI76">
+        <v>1.75</v>
+      </c>
+      <c r="AJ76">
+        <v>2</v>
+      </c>
+      <c r="AK76">
+        <v>1.63</v>
+      </c>
+      <c r="AL76">
+        <v>1.25</v>
+      </c>
+      <c r="AM76">
+        <v>1.38</v>
+      </c>
+      <c r="AN76">
+        <v>1.57</v>
+      </c>
+      <c r="AO76">
+        <v>2.5</v>
+      </c>
+      <c r="AP76">
+        <v>1.75</v>
+      </c>
+      <c r="AQ76">
+        <v>2</v>
+      </c>
+      <c r="AR76">
+        <v>1.13</v>
+      </c>
+      <c r="AS76">
+        <v>1.15</v>
+      </c>
+      <c r="AT76">
+        <v>2.28</v>
+      </c>
+      <c r="AU76">
+        <v>6</v>
+      </c>
+      <c r="AV76">
+        <v>5</v>
+      </c>
+      <c r="AW76">
+        <v>10</v>
+      </c>
+      <c r="AX76">
+        <v>11</v>
+      </c>
+      <c r="AY76">
+        <v>16</v>
+      </c>
+      <c r="AZ76">
+        <v>16</v>
+      </c>
+      <c r="BA76">
+        <v>7</v>
+      </c>
+      <c r="BB76">
+        <v>3</v>
+      </c>
+      <c r="BC76">
+        <v>10</v>
+      </c>
+      <c r="BD76">
+        <v>1.95</v>
+      </c>
+      <c r="BE76">
+        <v>6.75</v>
+      </c>
+      <c r="BF76">
+        <v>1.93</v>
+      </c>
+      <c r="BG76">
+        <v>1.19</v>
+      </c>
+      <c r="BH76">
+        <v>4.1</v>
+      </c>
+      <c r="BI76">
+        <v>1.33</v>
+      </c>
+      <c r="BJ76">
+        <v>2.95</v>
+      </c>
+      <c r="BK76">
+        <v>1.55</v>
+      </c>
+      <c r="BL76">
+        <v>2.28</v>
+      </c>
+      <c r="BM76">
+        <v>1.86</v>
+      </c>
+      <c r="BN76">
+        <v>1.82</v>
+      </c>
+      <c r="BO76">
+        <v>2.3</v>
+      </c>
+      <c r="BP76">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,12 +439,24 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['47', '54']</t>
+  </si>
+  <si>
     <t>['66']</t>
   </si>
   <si>
     <t>['20', '83']</t>
   </si>
   <si>
+    <t>['26', '31', '45+2', '90+2']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['40', '90+2', '90+6']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -584,6 +596,18 @@
   </si>
   <si>
     <t>['45+4', '71']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['55', '60', '78', '90+4']</t>
+  </si>
+  <si>
+    <t>['55', '76', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -945,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1282,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ2">
         <v>0.8</v>
@@ -1616,7 +1640,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1903,7 +1927,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ5">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2234,7 +2258,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2315,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2440,7 +2464,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2521,7 +2545,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ8">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2646,7 +2670,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2724,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>1.43</v>
@@ -2852,7 +2876,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2930,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ10">
         <v>0.5</v>
@@ -3058,7 +3082,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3136,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ11">
         <v>3</v>
@@ -3264,7 +3288,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3470,7 +3494,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3882,7 +3906,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -3960,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ15">
         <v>0.83</v>
@@ -4294,7 +4318,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4912,7 +4936,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4990,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ20">
         <v>0.67</v>
@@ -5118,7 +5142,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5199,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>1.39</v>
@@ -5324,7 +5348,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5402,10 +5426,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR22">
         <v>1.66</v>
@@ -5736,7 +5760,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5814,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ24">
         <v>1.43</v>
@@ -5942,7 +5966,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6023,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR25">
         <v>1.41</v>
@@ -6229,7 +6253,7 @@
         <v>3</v>
       </c>
       <c r="AQ26">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.12</v>
@@ -6638,7 +6662,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ28">
         <v>0.88</v>
@@ -6844,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
         <v>0.83</v>
@@ -6972,7 +6996,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7178,7 +7202,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7384,7 +7408,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7462,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>0.88</v>
@@ -7590,7 +7614,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7796,7 +7820,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7874,7 +7898,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ34">
         <v>0.5</v>
@@ -8002,7 +8026,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8208,7 +8232,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8414,7 +8438,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8492,10 +8516,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8620,7 +8644,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8907,7 +8931,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ39">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR39">
         <v>2.01</v>
@@ -9032,7 +9056,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9238,7 +9262,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9316,10 +9340,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ41">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.12</v>
@@ -9444,7 +9468,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9522,7 +9546,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ42">
         <v>0.88</v>
@@ -9650,7 +9674,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9728,7 +9752,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
         <v>3</v>
@@ -9856,7 +9880,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10268,7 +10292,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10349,7 +10373,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ46">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR46">
         <v>2.16</v>
@@ -10474,7 +10498,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10555,7 +10579,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR47">
         <v>1.19</v>
@@ -10758,7 +10782,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ48">
         <v>0.67</v>
@@ -10886,7 +10910,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11504,7 +11528,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11582,7 +11606,7 @@
         <v>0.8</v>
       </c>
       <c r="AP52">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ52">
         <v>0.88</v>
@@ -11710,7 +11734,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -11788,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>0.88</v>
@@ -12200,7 +12224,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ55">
         <v>0.5</v>
@@ -12328,7 +12352,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -12534,7 +12558,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>1.62</v>
@@ -12740,7 +12764,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -12818,7 +12842,7 @@
         <v>0.8</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ58">
         <v>0.88</v>
@@ -13024,10 +13048,10 @@
         <v>0.25</v>
       </c>
       <c r="AP59">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR59">
         <v>1.31</v>
@@ -13152,7 +13176,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13358,7 +13382,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13439,7 +13463,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ61">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.15</v>
@@ -13770,7 +13794,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -13976,7 +14000,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14388,7 +14412,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14466,7 +14490,7 @@
         <v>1.17</v>
       </c>
       <c r="AP66">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ66">
         <v>0.88</v>
@@ -14594,7 +14618,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -14672,7 +14696,7 @@
         <v>1.6</v>
       </c>
       <c r="AP67">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ67">
         <v>1.43</v>
@@ -15006,7 +15030,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15084,7 +15108,7 @@
         <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ69">
         <v>0.67</v>
@@ -15212,7 +15236,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15418,7 +15442,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15624,7 +15648,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -16200,7 +16224,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7480212</v>
+        <v>7480213</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16209,196 +16233,196 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45619.53125</v>
+        <v>45619.51041666666</v>
       </c>
       <c r="F75">
         <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M75">
         <v>1</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O75" t="s">
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="Q75">
-        <v>1.67</v>
+        <v>3.4</v>
       </c>
       <c r="R75">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="S75">
+        <v>3.25</v>
+      </c>
+      <c r="T75">
+        <v>1.44</v>
+      </c>
+      <c r="U75">
+        <v>2.63</v>
+      </c>
+      <c r="V75">
+        <v>3.25</v>
+      </c>
+      <c r="W75">
+        <v>1.33</v>
+      </c>
+      <c r="X75">
         <v>9</v>
       </c>
-      <c r="T75">
+      <c r="Y75">
+        <v>1.07</v>
+      </c>
+      <c r="Z75">
+        <v>2.66</v>
+      </c>
+      <c r="AA75">
+        <v>3.08</v>
+      </c>
+      <c r="AB75">
+        <v>2.38</v>
+      </c>
+      <c r="AC75">
+        <v>1.06</v>
+      </c>
+      <c r="AD75">
+        <v>9.5</v>
+      </c>
+      <c r="AE75">
+        <v>1.33</v>
+      </c>
+      <c r="AF75">
+        <v>3.2</v>
+      </c>
+      <c r="AG75">
+        <v>2.06</v>
+      </c>
+      <c r="AH75">
+        <v>1.8</v>
+      </c>
+      <c r="AI75">
+        <v>1.8</v>
+      </c>
+      <c r="AJ75">
+        <v>1.95</v>
+      </c>
+      <c r="AK75">
+        <v>1.52</v>
+      </c>
+      <c r="AL75">
+        <v>1.3</v>
+      </c>
+      <c r="AM75">
+        <v>1.45</v>
+      </c>
+      <c r="AN75">
+        <v>1.29</v>
+      </c>
+      <c r="AO75">
+        <v>1.8</v>
+      </c>
+      <c r="AP75">
+        <v>1.5</v>
+      </c>
+      <c r="AQ75">
+        <v>1.5</v>
+      </c>
+      <c r="AR75">
+        <v>1.29</v>
+      </c>
+      <c r="AS75">
+        <v>1.23</v>
+      </c>
+      <c r="AT75">
+        <v>2.52</v>
+      </c>
+      <c r="AU75">
+        <v>-1</v>
+      </c>
+      <c r="AV75">
+        <v>-1</v>
+      </c>
+      <c r="AW75">
+        <v>-1</v>
+      </c>
+      <c r="AX75">
+        <v>-1</v>
+      </c>
+      <c r="AY75">
+        <v>-1</v>
+      </c>
+      <c r="AZ75">
+        <v>-1</v>
+      </c>
+      <c r="BA75">
+        <v>12</v>
+      </c>
+      <c r="BB75">
+        <v>3</v>
+      </c>
+      <c r="BC75">
+        <v>15</v>
+      </c>
+      <c r="BD75">
+        <v>2.15</v>
+      </c>
+      <c r="BE75">
+        <v>6.4</v>
+      </c>
+      <c r="BF75">
+        <v>1.77</v>
+      </c>
+      <c r="BG75">
         <v>1.25</v>
       </c>
-      <c r="U75">
-        <v>3.75</v>
-      </c>
-      <c r="V75">
-        <v>2.2</v>
-      </c>
-      <c r="W75">
-        <v>1.62</v>
-      </c>
-      <c r="X75">
-        <v>5</v>
-      </c>
-      <c r="Y75">
-        <v>1.17</v>
-      </c>
-      <c r="Z75">
-        <v>1.62</v>
-      </c>
-      <c r="AA75">
-        <v>5.06</v>
-      </c>
-      <c r="AB75">
-        <v>3.39</v>
-      </c>
-      <c r="AC75">
-        <v>1.01</v>
-      </c>
-      <c r="AD75">
-        <v>19</v>
-      </c>
-      <c r="AE75">
-        <v>1.17</v>
-      </c>
-      <c r="AF75">
-        <v>5</v>
-      </c>
-      <c r="AG75">
-        <v>1.53</v>
-      </c>
-      <c r="AH75">
-        <v>2.35</v>
-      </c>
-      <c r="AI75">
-        <v>1.95</v>
-      </c>
-      <c r="AJ75">
-        <v>1.8</v>
-      </c>
-      <c r="AK75">
-        <v>1.01</v>
-      </c>
-      <c r="AL75">
-        <v>1.1</v>
-      </c>
-      <c r="AM75">
-        <v>3.75</v>
-      </c>
-      <c r="AN75">
-        <v>3</v>
-      </c>
-      <c r="AO75">
-        <v>1.5</v>
-      </c>
-      <c r="AP75">
-        <v>2.71</v>
-      </c>
-      <c r="AQ75">
-        <v>1.43</v>
-      </c>
-      <c r="AR75">
-        <v>1.75</v>
-      </c>
-      <c r="AS75">
-        <v>1.15</v>
-      </c>
-      <c r="AT75">
-        <v>2.9</v>
-      </c>
-      <c r="AU75">
-        <v>12</v>
-      </c>
-      <c r="AV75">
-        <v>2</v>
-      </c>
-      <c r="AW75">
-        <v>20</v>
-      </c>
-      <c r="AX75">
-        <v>5</v>
-      </c>
-      <c r="AY75">
-        <v>32</v>
-      </c>
-      <c r="AZ75">
-        <v>7</v>
-      </c>
-      <c r="BA75">
-        <v>9</v>
-      </c>
-      <c r="BB75">
-        <v>1</v>
-      </c>
-      <c r="BC75">
-        <v>10</v>
-      </c>
-      <c r="BD75">
-        <v>1.14</v>
-      </c>
-      <c r="BE75">
-        <v>9.5</v>
-      </c>
-      <c r="BF75">
-        <v>5.3</v>
-      </c>
-      <c r="BG75">
-        <v>1.17</v>
-      </c>
       <c r="BH75">
-        <v>4.35</v>
+        <v>3.45</v>
       </c>
       <c r="BI75">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="BJ75">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="BK75">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="BL75">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="BM75">
-        <v>1.77</v>
+        <v>2.1</v>
       </c>
       <c r="BN75">
-        <v>1.92</v>
+        <v>1.64</v>
       </c>
       <c r="BO75">
-        <v>2.18</v>
+        <v>2.65</v>
       </c>
       <c r="BP75">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16406,7 +16430,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7480215</v>
+        <v>7480212</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16415,196 +16439,1020 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45619.54166666666</v>
+        <v>45619.53125</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H76" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76">
         <v>1</v>
       </c>
       <c r="L76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M76">
         <v>1</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O76" t="s">
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="Q76">
-        <v>3.6</v>
+        <v>1.67</v>
       </c>
       <c r="R76">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="S76">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T76">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="U76">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="V76">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="W76">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="X76">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y76">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="Z76">
-        <v>2.53</v>
+        <v>1.62</v>
       </c>
       <c r="AA76">
-        <v>3.02</v>
+        <v>5.06</v>
       </c>
       <c r="AB76">
-        <v>2.62</v>
+        <v>3.39</v>
       </c>
       <c r="AC76">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD76">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE76">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AF76">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="AG76">
-        <v>1.96</v>
+        <v>1.53</v>
       </c>
       <c r="AH76">
-        <v>1.9</v>
+        <v>2.35</v>
       </c>
       <c r="AI76">
+        <v>1.95</v>
+      </c>
+      <c r="AJ76">
+        <v>1.8</v>
+      </c>
+      <c r="AK76">
+        <v>1.01</v>
+      </c>
+      <c r="AL76">
+        <v>1.1</v>
+      </c>
+      <c r="AM76">
+        <v>3.75</v>
+      </c>
+      <c r="AN76">
+        <v>3</v>
+      </c>
+      <c r="AO76">
+        <v>1.5</v>
+      </c>
+      <c r="AP76">
+        <v>2.71</v>
+      </c>
+      <c r="AQ76">
+        <v>1.43</v>
+      </c>
+      <c r="AR76">
         <v>1.75</v>
-      </c>
-      <c r="AJ76">
-        <v>2</v>
-      </c>
-      <c r="AK76">
-        <v>1.63</v>
-      </c>
-      <c r="AL76">
-        <v>1.25</v>
-      </c>
-      <c r="AM76">
-        <v>1.38</v>
-      </c>
-      <c r="AN76">
-        <v>1.57</v>
-      </c>
-      <c r="AO76">
-        <v>2.5</v>
-      </c>
-      <c r="AP76">
-        <v>1.75</v>
-      </c>
-      <c r="AQ76">
-        <v>2</v>
-      </c>
-      <c r="AR76">
-        <v>1.13</v>
       </c>
       <c r="AS76">
         <v>1.15</v>
       </c>
       <c r="AT76">
-        <v>2.28</v>
+        <v>2.9</v>
       </c>
       <c r="AU76">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AV76">
+        <v>2</v>
+      </c>
+      <c r="AW76">
+        <v>20</v>
+      </c>
+      <c r="AX76">
         <v>5</v>
       </c>
-      <c r="AW76">
-        <v>10</v>
-      </c>
-      <c r="AX76">
-        <v>11</v>
-      </c>
       <c r="AY76">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AZ76">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BA76">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC76">
         <v>10</v>
       </c>
       <c r="BD76">
+        <v>1.14</v>
+      </c>
+      <c r="BE76">
+        <v>9.5</v>
+      </c>
+      <c r="BF76">
+        <v>5.3</v>
+      </c>
+      <c r="BG76">
+        <v>1.17</v>
+      </c>
+      <c r="BH76">
+        <v>4.35</v>
+      </c>
+      <c r="BI76">
+        <v>1.3</v>
+      </c>
+      <c r="BJ76">
+        <v>3.15</v>
+      </c>
+      <c r="BK76">
+        <v>1.49</v>
+      </c>
+      <c r="BL76">
+        <v>2.4</v>
+      </c>
+      <c r="BM76">
+        <v>1.77</v>
+      </c>
+      <c r="BN76">
+        <v>1.92</v>
+      </c>
+      <c r="BO76">
+        <v>2.18</v>
+      </c>
+      <c r="BP76">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7480215</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45619.54166666666</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>73</v>
+      </c>
+      <c r="H77" t="s">
+        <v>80</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>143</v>
+      </c>
+      <c r="P77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q77">
+        <v>3.6</v>
+      </c>
+      <c r="R77">
+        <v>2.1</v>
+      </c>
+      <c r="S77">
+        <v>3</v>
+      </c>
+      <c r="T77">
+        <v>1.4</v>
+      </c>
+      <c r="U77">
+        <v>2.75</v>
+      </c>
+      <c r="V77">
+        <v>3</v>
+      </c>
+      <c r="W77">
+        <v>1.36</v>
+      </c>
+      <c r="X77">
+        <v>8</v>
+      </c>
+      <c r="Y77">
+        <v>1.08</v>
+      </c>
+      <c r="Z77">
+        <v>2.53</v>
+      </c>
+      <c r="AA77">
+        <v>3.02</v>
+      </c>
+      <c r="AB77">
+        <v>2.62</v>
+      </c>
+      <c r="AC77">
+        <v>1.05</v>
+      </c>
+      <c r="AD77">
+        <v>11</v>
+      </c>
+      <c r="AE77">
+        <v>1.33</v>
+      </c>
+      <c r="AF77">
+        <v>3.3</v>
+      </c>
+      <c r="AG77">
+        <v>1.96</v>
+      </c>
+      <c r="AH77">
+        <v>1.9</v>
+      </c>
+      <c r="AI77">
+        <v>1.75</v>
+      </c>
+      <c r="AJ77">
+        <v>2</v>
+      </c>
+      <c r="AK77">
+        <v>1.63</v>
+      </c>
+      <c r="AL77">
+        <v>1.25</v>
+      </c>
+      <c r="AM77">
+        <v>1.38</v>
+      </c>
+      <c r="AN77">
+        <v>1.57</v>
+      </c>
+      <c r="AO77">
+        <v>2.5</v>
+      </c>
+      <c r="AP77">
+        <v>1.75</v>
+      </c>
+      <c r="AQ77">
+        <v>1.83</v>
+      </c>
+      <c r="AR77">
+        <v>1.13</v>
+      </c>
+      <c r="AS77">
+        <v>1.15</v>
+      </c>
+      <c r="AT77">
+        <v>2.28</v>
+      </c>
+      <c r="AU77">
+        <v>6</v>
+      </c>
+      <c r="AV77">
+        <v>5</v>
+      </c>
+      <c r="AW77">
+        <v>10</v>
+      </c>
+      <c r="AX77">
+        <v>11</v>
+      </c>
+      <c r="AY77">
+        <v>16</v>
+      </c>
+      <c r="AZ77">
+        <v>16</v>
+      </c>
+      <c r="BA77">
+        <v>7</v>
+      </c>
+      <c r="BB77">
+        <v>3</v>
+      </c>
+      <c r="BC77">
+        <v>10</v>
+      </c>
+      <c r="BD77">
         <v>1.95</v>
       </c>
-      <c r="BE76">
+      <c r="BE77">
         <v>6.75</v>
       </c>
-      <c r="BF76">
+      <c r="BF77">
         <v>1.93</v>
       </c>
-      <c r="BG76">
+      <c r="BG77">
         <v>1.19</v>
       </c>
-      <c r="BH76">
+      <c r="BH77">
         <v>4.1</v>
       </c>
-      <c r="BI76">
+      <c r="BI77">
         <v>1.33</v>
       </c>
-      <c r="BJ76">
+      <c r="BJ77">
         <v>2.95</v>
       </c>
-      <c r="BK76">
+      <c r="BK77">
         <v>1.55</v>
       </c>
-      <c r="BL76">
+      <c r="BL77">
         <v>2.28</v>
       </c>
-      <c r="BM76">
+      <c r="BM77">
         <v>1.86</v>
       </c>
-      <c r="BN76">
+      <c r="BN77">
         <v>1.82</v>
       </c>
-      <c r="BO76">
+      <c r="BO77">
         <v>2.3</v>
       </c>
-      <c r="BP76">
+      <c r="BP77">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7480210</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45619.62152777778</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>78</v>
+      </c>
+      <c r="H78" t="s">
+        <v>79</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>4</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>5</v>
+      </c>
+      <c r="O78" t="s">
+        <v>144</v>
+      </c>
+      <c r="P78" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q78">
+        <v>3.25</v>
+      </c>
+      <c r="R78">
+        <v>2.2</v>
+      </c>
+      <c r="S78">
+        <v>3.1</v>
+      </c>
+      <c r="T78">
+        <v>1.36</v>
+      </c>
+      <c r="U78">
+        <v>3</v>
+      </c>
+      <c r="V78">
+        <v>2.63</v>
+      </c>
+      <c r="W78">
+        <v>1.44</v>
+      </c>
+      <c r="X78">
+        <v>7</v>
+      </c>
+      <c r="Y78">
+        <v>1.1</v>
+      </c>
+      <c r="Z78">
+        <v>2.68</v>
+      </c>
+      <c r="AA78">
+        <v>3.5</v>
+      </c>
+      <c r="AB78">
+        <v>2.38</v>
+      </c>
+      <c r="AC78">
+        <v>1.04</v>
+      </c>
+      <c r="AD78">
+        <v>12</v>
+      </c>
+      <c r="AE78">
+        <v>1.25</v>
+      </c>
+      <c r="AF78">
+        <v>3.75</v>
+      </c>
+      <c r="AG78">
+        <v>1.86</v>
+      </c>
+      <c r="AH78">
+        <v>2.02</v>
+      </c>
+      <c r="AI78">
+        <v>1.62</v>
+      </c>
+      <c r="AJ78">
+        <v>2.2</v>
+      </c>
+      <c r="AK78">
+        <v>1.53</v>
+      </c>
+      <c r="AL78">
+        <v>1.25</v>
+      </c>
+      <c r="AM78">
+        <v>1.47</v>
+      </c>
+      <c r="AN78">
+        <v>1.17</v>
+      </c>
+      <c r="AO78">
+        <v>0.4</v>
+      </c>
+      <c r="AP78">
+        <v>1.43</v>
+      </c>
+      <c r="AQ78">
+        <v>0.33</v>
+      </c>
+      <c r="AR78">
+        <v>1.42</v>
+      </c>
+      <c r="AS78">
+        <v>1.39</v>
+      </c>
+      <c r="AT78">
+        <v>2.81</v>
+      </c>
+      <c r="AU78">
+        <v>-1</v>
+      </c>
+      <c r="AV78">
+        <v>-1</v>
+      </c>
+      <c r="AW78">
+        <v>-1</v>
+      </c>
+      <c r="AX78">
+        <v>-1</v>
+      </c>
+      <c r="AY78">
+        <v>-1</v>
+      </c>
+      <c r="AZ78">
+        <v>-1</v>
+      </c>
+      <c r="BA78">
+        <v>8</v>
+      </c>
+      <c r="BB78">
+        <v>2</v>
+      </c>
+      <c r="BC78">
+        <v>10</v>
+      </c>
+      <c r="BD78">
+        <v>1.92</v>
+      </c>
+      <c r="BE78">
+        <v>6.5</v>
+      </c>
+      <c r="BF78">
+        <v>1.95</v>
+      </c>
+      <c r="BG78">
+        <v>1.15</v>
+      </c>
+      <c r="BH78">
+        <v>4.6</v>
+      </c>
+      <c r="BI78">
+        <v>1.27</v>
+      </c>
+      <c r="BJ78">
+        <v>3.3</v>
+      </c>
+      <c r="BK78">
+        <v>1.46</v>
+      </c>
+      <c r="BL78">
+        <v>2.5</v>
+      </c>
+      <c r="BM78">
+        <v>1.72</v>
+      </c>
+      <c r="BN78">
+        <v>1.98</v>
+      </c>
+      <c r="BO78">
+        <v>2.1</v>
+      </c>
+      <c r="BP78">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7480211</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45619.69791666666</v>
+      </c>
+      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>70</v>
+      </c>
+      <c r="H79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>4</v>
+      </c>
+      <c r="N79">
+        <v>5</v>
+      </c>
+      <c r="O79" t="s">
+        <v>145</v>
+      </c>
+      <c r="P79" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q79">
+        <v>6.5</v>
+      </c>
+      <c r="R79">
+        <v>2.6</v>
+      </c>
+      <c r="S79">
+        <v>1.83</v>
+      </c>
+      <c r="T79">
+        <v>1.29</v>
+      </c>
+      <c r="U79">
+        <v>3.5</v>
+      </c>
+      <c r="V79">
+        <v>2.25</v>
+      </c>
+      <c r="W79">
+        <v>1.57</v>
+      </c>
+      <c r="X79">
+        <v>5.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.14</v>
+      </c>
+      <c r="Z79">
+        <v>6.6</v>
+      </c>
+      <c r="AA79">
+        <v>5</v>
+      </c>
+      <c r="AB79">
+        <v>1.37</v>
+      </c>
+      <c r="AC79">
+        <v>1.01</v>
+      </c>
+      <c r="AD79">
+        <v>19</v>
+      </c>
+      <c r="AE79">
+        <v>1.16</v>
+      </c>
+      <c r="AF79">
+        <v>5</v>
+      </c>
+      <c r="AG79">
+        <v>1.57</v>
+      </c>
+      <c r="AH79">
+        <v>2.3</v>
+      </c>
+      <c r="AI79">
+        <v>1.75</v>
+      </c>
+      <c r="AJ79">
+        <v>2</v>
+      </c>
+      <c r="AK79">
+        <v>3</v>
+      </c>
+      <c r="AL79">
+        <v>1.12</v>
+      </c>
+      <c r="AM79">
+        <v>1.09</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
+        <v>3</v>
+      </c>
+      <c r="AP79">
+        <v>0.83</v>
+      </c>
+      <c r="AQ79">
+        <v>3</v>
+      </c>
+      <c r="AR79">
+        <v>1.56</v>
+      </c>
+      <c r="AS79">
+        <v>2.02</v>
+      </c>
+      <c r="AT79">
+        <v>3.58</v>
+      </c>
+      <c r="AU79">
+        <v>-1</v>
+      </c>
+      <c r="AV79">
+        <v>-1</v>
+      </c>
+      <c r="AW79">
+        <v>-1</v>
+      </c>
+      <c r="AX79">
+        <v>-1</v>
+      </c>
+      <c r="AY79">
+        <v>-1</v>
+      </c>
+      <c r="AZ79">
+        <v>-1</v>
+      </c>
+      <c r="BA79">
+        <v>1</v>
+      </c>
+      <c r="BB79">
+        <v>6</v>
+      </c>
+      <c r="BC79">
+        <v>7</v>
+      </c>
+      <c r="BD79">
+        <v>3.8</v>
+      </c>
+      <c r="BE79">
+        <v>8</v>
+      </c>
+      <c r="BF79">
+        <v>1.25</v>
+      </c>
+      <c r="BG79">
+        <v>1.14</v>
+      </c>
+      <c r="BH79">
+        <v>4.8</v>
+      </c>
+      <c r="BI79">
+        <v>1.26</v>
+      </c>
+      <c r="BJ79">
+        <v>3.4</v>
+      </c>
+      <c r="BK79">
+        <v>1.43</v>
+      </c>
+      <c r="BL79">
+        <v>2.6</v>
+      </c>
+      <c r="BM79">
+        <v>1.67</v>
+      </c>
+      <c r="BN79">
+        <v>2.05</v>
+      </c>
+      <c r="BO79">
+        <v>2.02</v>
+      </c>
+      <c r="BP79">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7480200</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45622.69791666666</v>
+      </c>
+      <c r="F80">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s">
+        <v>80</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80">
+        <v>6</v>
+      </c>
+      <c r="O80" t="s">
+        <v>146</v>
+      </c>
+      <c r="P80" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q80">
+        <v>3.4</v>
+      </c>
+      <c r="R80">
+        <v>2.1</v>
+      </c>
+      <c r="S80">
+        <v>3.25</v>
+      </c>
+      <c r="T80">
+        <v>1.44</v>
+      </c>
+      <c r="U80">
+        <v>2.63</v>
+      </c>
+      <c r="V80">
+        <v>3</v>
+      </c>
+      <c r="W80">
+        <v>1.36</v>
+      </c>
+      <c r="X80">
+        <v>9</v>
+      </c>
+      <c r="Y80">
+        <v>1.07</v>
+      </c>
+      <c r="Z80">
+        <v>2.65</v>
+      </c>
+      <c r="AA80">
+        <v>3.3</v>
+      </c>
+      <c r="AB80">
+        <v>2.5</v>
+      </c>
+      <c r="AC80">
+        <v>1.04</v>
+      </c>
+      <c r="AD80">
+        <v>12</v>
+      </c>
+      <c r="AE80">
+        <v>1.28</v>
+      </c>
+      <c r="AF80">
+        <v>3.6</v>
+      </c>
+      <c r="AG80">
+        <v>1.95</v>
+      </c>
+      <c r="AH80">
+        <v>1.75</v>
+      </c>
+      <c r="AI80">
+        <v>1.8</v>
+      </c>
+      <c r="AJ80">
+        <v>1.95</v>
+      </c>
+      <c r="AK80">
+        <v>1.45</v>
+      </c>
+      <c r="AL80">
+        <v>1.25</v>
+      </c>
+      <c r="AM80">
+        <v>1.55</v>
+      </c>
+      <c r="AN80">
+        <v>0.86</v>
+      </c>
+      <c r="AO80">
+        <v>2</v>
+      </c>
+      <c r="AP80">
+        <v>0.88</v>
+      </c>
+      <c r="AQ80">
+        <v>1.83</v>
+      </c>
+      <c r="AR80">
+        <v>1.33</v>
+      </c>
+      <c r="AS80">
+        <v>1.24</v>
+      </c>
+      <c r="AT80">
+        <v>2.57</v>
+      </c>
+      <c r="AU80">
+        <v>5</v>
+      </c>
+      <c r="AV80">
+        <v>7</v>
+      </c>
+      <c r="AW80">
+        <v>10</v>
+      </c>
+      <c r="AX80">
+        <v>1</v>
+      </c>
+      <c r="AY80">
+        <v>22</v>
+      </c>
+      <c r="AZ80">
+        <v>16</v>
+      </c>
+      <c r="BA80">
+        <v>9</v>
+      </c>
+      <c r="BB80">
+        <v>6</v>
+      </c>
+      <c r="BC80">
+        <v>15</v>
+      </c>
+      <c r="BD80">
+        <v>1.66</v>
+      </c>
+      <c r="BE80">
+        <v>7</v>
+      </c>
+      <c r="BF80">
+        <v>2.88</v>
+      </c>
+      <c r="BG80">
+        <v>1.1</v>
+      </c>
+      <c r="BH80">
+        <v>4.85</v>
+      </c>
+      <c r="BI80">
+        <v>1.23</v>
+      </c>
+      <c r="BJ80">
+        <v>3.28</v>
+      </c>
+      <c r="BK80">
+        <v>1.44</v>
+      </c>
+      <c r="BL80">
+        <v>2.42</v>
+      </c>
+      <c r="BM80">
+        <v>1.77</v>
+      </c>
+      <c r="BN80">
+        <v>1.95</v>
+      </c>
+      <c r="BO80">
+        <v>2.24</v>
+      </c>
+      <c r="BP80">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,15 @@
     <t>['40', '90+2', '90+6']</t>
   </si>
   <si>
+    <t>['10', '27', '35', '36', '40']</t>
+  </si>
+  <si>
+    <t>['79', '90+3']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -608,6 +617,12 @@
   </si>
   <si>
     <t>['55', '76', '90+5']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['26', '38', '81']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1512,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1640,7 +1655,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1718,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ4">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1927,7 +1942,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ5">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2130,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ6">
         <v>0.88</v>
@@ -2258,7 +2273,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2464,7 +2479,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2670,7 +2685,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2876,7 +2891,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3082,7 +3097,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3288,7 +3303,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3369,7 +3384,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3494,7 +3509,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3778,7 +3793,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ14">
         <v>0.88</v>
@@ -3906,7 +3921,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -3987,7 +4002,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ15">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR15">
         <v>0.53</v>
@@ -4193,7 +4208,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR16">
         <v>2.02</v>
@@ -4318,7 +4333,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4602,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ18">
         <v>0.5</v>
@@ -4936,7 +4951,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5017,7 +5032,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -5142,7 +5157,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5348,7 +5363,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5632,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ23">
         <v>0.8</v>
@@ -5760,7 +5775,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5966,7 +5981,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6047,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR25">
         <v>1.41</v>
@@ -6456,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -6871,7 +6886,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR29">
         <v>1.33</v>
@@ -6996,7 +7011,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7202,7 +7217,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7280,7 +7295,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ31">
         <v>0.8</v>
@@ -7408,7 +7423,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7614,7 +7629,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7820,7 +7835,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7901,7 +7916,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ34">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR34">
         <v>1.25</v>
@@ -8026,7 +8041,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8232,7 +8247,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8310,10 +8325,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ36">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR36">
         <v>1.45</v>
@@ -8438,7 +8453,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8644,7 +8659,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8931,7 +8946,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ39">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR39">
         <v>2.01</v>
@@ -9056,7 +9071,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9262,7 +9277,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9468,7 +9483,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9674,7 +9689,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9880,7 +9895,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10292,7 +10307,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10370,7 +10385,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ46">
         <v>1.83</v>
@@ -10498,7 +10513,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10576,10 +10591,10 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR47">
         <v>1.19</v>
@@ -10785,7 +10800,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR48">
         <v>1.61</v>
@@ -10910,7 +10925,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -10988,10 +11003,10 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ49">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR49">
         <v>1.3</v>
@@ -11197,7 +11212,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11528,7 +11543,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11734,7 +11749,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12352,7 +12367,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -12430,7 +12445,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ56">
         <v>3</v>
@@ -12558,7 +12573,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>1.62</v>
@@ -12639,7 +12654,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ57">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR57">
         <v>1.86</v>
@@ -12764,7 +12779,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13051,7 +13066,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR59">
         <v>1.31</v>
@@ -13176,7 +13191,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13382,7 +13397,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13460,7 +13475,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -13666,10 +13681,10 @@
         <v>1.25</v>
       </c>
       <c r="AP62">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ62">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR62">
         <v>2.17</v>
@@ -13794,7 +13809,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -14000,7 +14015,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14287,7 +14302,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ65">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR65">
         <v>1.13</v>
@@ -14412,7 +14427,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14618,7 +14633,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -14902,10 +14917,10 @@
         <v>0.6</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ68">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR68">
         <v>1.22</v>
@@ -15030,7 +15045,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15111,7 +15126,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR69">
         <v>1.35</v>
@@ -15236,7 +15251,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15314,7 +15329,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ70">
         <v>0.88</v>
@@ -15442,7 +15457,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15523,7 +15538,7 @@
         <v>3</v>
       </c>
       <c r="AQ71">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR71">
         <v>1.32</v>
@@ -15648,7 +15663,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -16266,7 +16281,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16678,7 +16693,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16884,7 +16899,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -16965,7 +16980,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ78">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -17090,7 +17105,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17296,7 +17311,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17453,6 +17468,830 @@
       </c>
       <c r="BP80">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7480216</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45626.5</v>
+      </c>
+      <c r="F81">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>74</v>
+      </c>
+      <c r="H81" t="s">
+        <v>77</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>5</v>
+      </c>
+      <c r="L81">
+        <v>5</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>5</v>
+      </c>
+      <c r="O81" t="s">
+        <v>147</v>
+      </c>
+      <c r="P81" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q81">
+        <v>1.36</v>
+      </c>
+      <c r="R81">
+        <v>3.6</v>
+      </c>
+      <c r="S81">
+        <v>15</v>
+      </c>
+      <c r="T81">
+        <v>1.17</v>
+      </c>
+      <c r="U81">
+        <v>5</v>
+      </c>
+      <c r="V81">
+        <v>1.8</v>
+      </c>
+      <c r="W81">
+        <v>1.91</v>
+      </c>
+      <c r="X81">
+        <v>3.5</v>
+      </c>
+      <c r="Y81">
+        <v>1.29</v>
+      </c>
+      <c r="Z81">
+        <v>1.08</v>
+      </c>
+      <c r="AA81">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB81">
+        <v>18.5</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>1.06</v>
+      </c>
+      <c r="AF81">
+        <v>9.5</v>
+      </c>
+      <c r="AG81">
+        <v>1.28</v>
+      </c>
+      <c r="AH81">
+        <v>3.47</v>
+      </c>
+      <c r="AI81">
+        <v>2.1</v>
+      </c>
+      <c r="AJ81">
+        <v>1.67</v>
+      </c>
+      <c r="AK81">
+        <v>1.01</v>
+      </c>
+      <c r="AL81">
+        <v>1.04</v>
+      </c>
+      <c r="AM81">
+        <v>7.5</v>
+      </c>
+      <c r="AN81">
+        <v>2.6</v>
+      </c>
+      <c r="AO81">
+        <v>0.5</v>
+      </c>
+      <c r="AP81">
+        <v>2.67</v>
+      </c>
+      <c r="AQ81">
+        <v>0.43</v>
+      </c>
+      <c r="AR81">
+        <v>2.21</v>
+      </c>
+      <c r="AS81">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT81">
+        <v>3.02</v>
+      </c>
+      <c r="AU81">
+        <v>10</v>
+      </c>
+      <c r="AV81">
+        <v>2</v>
+      </c>
+      <c r="AW81">
+        <v>4</v>
+      </c>
+      <c r="AX81">
+        <v>1</v>
+      </c>
+      <c r="AY81">
+        <v>26</v>
+      </c>
+      <c r="AZ81">
+        <v>3</v>
+      </c>
+      <c r="BA81">
+        <v>19</v>
+      </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
+      <c r="BC81">
+        <v>19</v>
+      </c>
+      <c r="BD81">
+        <v>1.05</v>
+      </c>
+      <c r="BE81">
+        <v>15</v>
+      </c>
+      <c r="BF81">
+        <v>10</v>
+      </c>
+      <c r="BG81">
+        <v>1.11</v>
+      </c>
+      <c r="BH81">
+        <v>5.3</v>
+      </c>
+      <c r="BI81">
+        <v>1.21</v>
+      </c>
+      <c r="BJ81">
+        <v>3.8</v>
+      </c>
+      <c r="BK81">
+        <v>1.36</v>
+      </c>
+      <c r="BL81">
+        <v>2.8</v>
+      </c>
+      <c r="BM81">
+        <v>1.57</v>
+      </c>
+      <c r="BN81">
+        <v>2.23</v>
+      </c>
+      <c r="BO81">
+        <v>1.86</v>
+      </c>
+      <c r="BP81">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7480217</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45626.5</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>72</v>
+      </c>
+      <c r="H82" t="s">
+        <v>73</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>148</v>
+      </c>
+      <c r="P82" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q82">
+        <v>2.88</v>
+      </c>
+      <c r="R82">
+        <v>2.1</v>
+      </c>
+      <c r="S82">
+        <v>4</v>
+      </c>
+      <c r="T82">
+        <v>1.44</v>
+      </c>
+      <c r="U82">
+        <v>2.63</v>
+      </c>
+      <c r="V82">
+        <v>3.25</v>
+      </c>
+      <c r="W82">
+        <v>1.33</v>
+      </c>
+      <c r="X82">
+        <v>9</v>
+      </c>
+      <c r="Y82">
+        <v>1.07</v>
+      </c>
+      <c r="Z82">
+        <v>2.28</v>
+      </c>
+      <c r="AA82">
+        <v>3.25</v>
+      </c>
+      <c r="AB82">
+        <v>2.98</v>
+      </c>
+      <c r="AC82">
+        <v>1.06</v>
+      </c>
+      <c r="AD82">
+        <v>10</v>
+      </c>
+      <c r="AE82">
+        <v>1.36</v>
+      </c>
+      <c r="AF82">
+        <v>3.2</v>
+      </c>
+      <c r="AG82">
+        <v>2.05</v>
+      </c>
+      <c r="AH82">
+        <v>1.66</v>
+      </c>
+      <c r="AI82">
+        <v>1.8</v>
+      </c>
+      <c r="AJ82">
+        <v>1.95</v>
+      </c>
+      <c r="AK82">
+        <v>1.33</v>
+      </c>
+      <c r="AL82">
+        <v>1.28</v>
+      </c>
+      <c r="AM82">
+        <v>1.68</v>
+      </c>
+      <c r="AN82">
+        <v>1.67</v>
+      </c>
+      <c r="AO82">
+        <v>0.67</v>
+      </c>
+      <c r="AP82">
+        <v>1.86</v>
+      </c>
+      <c r="AQ82">
+        <v>0.57</v>
+      </c>
+      <c r="AR82">
+        <v>1.31</v>
+      </c>
+      <c r="AS82">
+        <v>1.25</v>
+      </c>
+      <c r="AT82">
+        <v>2.56</v>
+      </c>
+      <c r="AU82">
+        <v>7</v>
+      </c>
+      <c r="AV82">
+        <v>2</v>
+      </c>
+      <c r="AW82">
+        <v>7</v>
+      </c>
+      <c r="AX82">
+        <v>3</v>
+      </c>
+      <c r="AY82">
+        <v>16</v>
+      </c>
+      <c r="AZ82">
+        <v>12</v>
+      </c>
+      <c r="BA82">
+        <v>4</v>
+      </c>
+      <c r="BB82">
+        <v>8</v>
+      </c>
+      <c r="BC82">
+        <v>12</v>
+      </c>
+      <c r="BD82">
+        <v>1.61</v>
+      </c>
+      <c r="BE82">
+        <v>6.4</v>
+      </c>
+      <c r="BF82">
+        <v>2.4</v>
+      </c>
+      <c r="BG82">
+        <v>1.26</v>
+      </c>
+      <c r="BH82">
+        <v>3.4</v>
+      </c>
+      <c r="BI82">
+        <v>1.46</v>
+      </c>
+      <c r="BJ82">
+        <v>2.5</v>
+      </c>
+      <c r="BK82">
+        <v>1.73</v>
+      </c>
+      <c r="BL82">
+        <v>1.96</v>
+      </c>
+      <c r="BM82">
+        <v>2.15</v>
+      </c>
+      <c r="BN82">
+        <v>1.61</v>
+      </c>
+      <c r="BO82">
+        <v>2.7</v>
+      </c>
+      <c r="BP82">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7480219</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45626.5</v>
+      </c>
+      <c r="F83">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>81</v>
+      </c>
+      <c r="H83" t="s">
+        <v>78</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>149</v>
+      </c>
+      <c r="P83" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q83">
+        <v>2.63</v>
+      </c>
+      <c r="R83">
+        <v>2.2</v>
+      </c>
+      <c r="S83">
+        <v>4</v>
+      </c>
+      <c r="T83">
+        <v>1.36</v>
+      </c>
+      <c r="U83">
+        <v>3</v>
+      </c>
+      <c r="V83">
+        <v>2.75</v>
+      </c>
+      <c r="W83">
+        <v>1.4</v>
+      </c>
+      <c r="X83">
+        <v>8</v>
+      </c>
+      <c r="Y83">
+        <v>1.08</v>
+      </c>
+      <c r="Z83">
+        <v>2.12</v>
+      </c>
+      <c r="AA83">
+        <v>3.5</v>
+      </c>
+      <c r="AB83">
+        <v>3.1</v>
+      </c>
+      <c r="AC83">
+        <v>1.04</v>
+      </c>
+      <c r="AD83">
+        <v>12</v>
+      </c>
+      <c r="AE83">
+        <v>1.28</v>
+      </c>
+      <c r="AF83">
+        <v>3.6</v>
+      </c>
+      <c r="AG83">
+        <v>1.94</v>
+      </c>
+      <c r="AH83">
+        <v>1.94</v>
+      </c>
+      <c r="AI83">
+        <v>1.7</v>
+      </c>
+      <c r="AJ83">
+        <v>2.05</v>
+      </c>
+      <c r="AK83">
+        <v>1.3</v>
+      </c>
+      <c r="AL83">
+        <v>1.25</v>
+      </c>
+      <c r="AM83">
+        <v>1.8</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
+        <v>0.83</v>
+      </c>
+      <c r="AP83">
+        <v>1</v>
+      </c>
+      <c r="AQ83">
+        <v>0.86</v>
+      </c>
+      <c r="AR83">
+        <v>1.34</v>
+      </c>
+      <c r="AS83">
+        <v>1.2</v>
+      </c>
+      <c r="AT83">
+        <v>2.54</v>
+      </c>
+      <c r="AU83">
+        <v>6</v>
+      </c>
+      <c r="AV83">
+        <v>5</v>
+      </c>
+      <c r="AW83">
+        <v>8</v>
+      </c>
+      <c r="AX83">
+        <v>5</v>
+      </c>
+      <c r="AY83">
+        <v>21</v>
+      </c>
+      <c r="AZ83">
+        <v>11</v>
+      </c>
+      <c r="BA83">
+        <v>6</v>
+      </c>
+      <c r="BB83">
+        <v>3</v>
+      </c>
+      <c r="BC83">
+        <v>9</v>
+      </c>
+      <c r="BD83">
+        <v>1.58</v>
+      </c>
+      <c r="BE83">
+        <v>6.5</v>
+      </c>
+      <c r="BF83">
+        <v>2.43</v>
+      </c>
+      <c r="BG83">
+        <v>1.21</v>
+      </c>
+      <c r="BH83">
+        <v>3.8</v>
+      </c>
+      <c r="BI83">
+        <v>1.38</v>
+      </c>
+      <c r="BJ83">
+        <v>2.7</v>
+      </c>
+      <c r="BK83">
+        <v>1.64</v>
+      </c>
+      <c r="BL83">
+        <v>2.1</v>
+      </c>
+      <c r="BM83">
+        <v>1.98</v>
+      </c>
+      <c r="BN83">
+        <v>1.72</v>
+      </c>
+      <c r="BO83">
+        <v>2.5</v>
+      </c>
+      <c r="BP83">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7480220</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45626.5</v>
+      </c>
+      <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>71</v>
+      </c>
+      <c r="H84" t="s">
+        <v>79</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>82</v>
+      </c>
+      <c r="P84" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q84">
+        <v>3.25</v>
+      </c>
+      <c r="R84">
+        <v>2.1</v>
+      </c>
+      <c r="S84">
+        <v>3.4</v>
+      </c>
+      <c r="T84">
+        <v>1.44</v>
+      </c>
+      <c r="U84">
+        <v>2.63</v>
+      </c>
+      <c r="V84">
+        <v>3</v>
+      </c>
+      <c r="W84">
+        <v>1.36</v>
+      </c>
+      <c r="X84">
+        <v>9</v>
+      </c>
+      <c r="Y84">
+        <v>1.07</v>
+      </c>
+      <c r="Z84">
+        <v>2.64</v>
+      </c>
+      <c r="AA84">
+        <v>3.55</v>
+      </c>
+      <c r="AB84">
+        <v>2.38</v>
+      </c>
+      <c r="AC84">
+        <v>1.05</v>
+      </c>
+      <c r="AD84">
+        <v>10</v>
+      </c>
+      <c r="AE84">
+        <v>1.33</v>
+      </c>
+      <c r="AF84">
+        <v>3.25</v>
+      </c>
+      <c r="AG84">
+        <v>1.89</v>
+      </c>
+      <c r="AH84">
+        <v>1.99</v>
+      </c>
+      <c r="AI84">
+        <v>1.8</v>
+      </c>
+      <c r="AJ84">
+        <v>1.95</v>
+      </c>
+      <c r="AK84">
+        <v>1.47</v>
+      </c>
+      <c r="AL84">
+        <v>1.25</v>
+      </c>
+      <c r="AM84">
+        <v>1.53</v>
+      </c>
+      <c r="AN84">
+        <v>1.67</v>
+      </c>
+      <c r="AO84">
+        <v>0.33</v>
+      </c>
+      <c r="AP84">
+        <v>1.43</v>
+      </c>
+      <c r="AQ84">
+        <v>0.71</v>
+      </c>
+      <c r="AR84">
+        <v>1.24</v>
+      </c>
+      <c r="AS84">
+        <v>1.39</v>
+      </c>
+      <c r="AT84">
+        <v>2.63</v>
+      </c>
+      <c r="AU84">
+        <v>4</v>
+      </c>
+      <c r="AV84">
+        <v>9</v>
+      </c>
+      <c r="AW84">
+        <v>3</v>
+      </c>
+      <c r="AX84">
+        <v>4</v>
+      </c>
+      <c r="AY84">
+        <v>8</v>
+      </c>
+      <c r="AZ84">
+        <v>18</v>
+      </c>
+      <c r="BA84">
+        <v>3</v>
+      </c>
+      <c r="BB84">
+        <v>4</v>
+      </c>
+      <c r="BC84">
+        <v>7</v>
+      </c>
+      <c r="BD84">
+        <v>1.82</v>
+      </c>
+      <c r="BE84">
+        <v>6.75</v>
+      </c>
+      <c r="BF84">
+        <v>2.05</v>
+      </c>
+      <c r="BG84">
+        <v>1.21</v>
+      </c>
+      <c r="BH84">
+        <v>3.7</v>
+      </c>
+      <c r="BI84">
+        <v>1.38</v>
+      </c>
+      <c r="BJ84">
+        <v>2.7</v>
+      </c>
+      <c r="BK84">
+        <v>1.64</v>
+      </c>
+      <c r="BL84">
+        <v>2.1</v>
+      </c>
+      <c r="BM84">
+        <v>1.98</v>
+      </c>
+      <c r="BN84">
+        <v>1.72</v>
+      </c>
+      <c r="BO84">
+        <v>2.55</v>
+      </c>
+      <c r="BP84">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,9 @@
     <t>['80']</t>
   </si>
   <si>
+    <t>['62']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -623,6 +626,9 @@
   </si>
   <si>
     <t>['26', '38', '81']</t>
+  </si>
+  <si>
+    <t>['37']</t>
   </si>
 </sst>
 </file>
@@ -984,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1321,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ2">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1655,7 +1661,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2273,7 +2279,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2351,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ7">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2479,7 +2485,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2685,7 +2691,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2891,7 +2897,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3097,7 +3103,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3303,7 +3309,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3509,7 +3515,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3921,7 +3927,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4333,7 +4339,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4951,7 +4957,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5157,7 +5163,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5235,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5363,7 +5369,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5444,7 +5450,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR22">
         <v>1.66</v>
@@ -5650,7 +5656,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ23">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR23">
         <v>3.1</v>
@@ -5775,7 +5781,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5853,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ24">
         <v>1.43</v>
@@ -5981,7 +5987,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -7011,7 +7017,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7217,7 +7223,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7298,7 +7304,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ31">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR31">
         <v>1.46</v>
@@ -7423,7 +7429,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7629,7 +7635,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7835,7 +7841,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7913,7 +7919,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ34">
         <v>0.43</v>
@@ -8041,7 +8047,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8247,7 +8253,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8453,7 +8459,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8534,7 +8540,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ37">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8659,7 +8665,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8737,7 +8743,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ38">
         <v>3</v>
@@ -9071,7 +9077,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9277,7 +9283,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9483,7 +9489,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9689,7 +9695,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9895,7 +9901,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10307,7 +10313,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10388,7 +10394,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ46">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR46">
         <v>2.16</v>
@@ -10513,7 +10519,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10797,7 +10803,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ48">
         <v>0.57</v>
@@ -10925,7 +10931,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11209,7 +11215,7 @@
         <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ50">
         <v>0.43</v>
@@ -11418,7 +11424,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11543,7 +11549,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11749,7 +11755,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12367,7 +12373,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -12573,7 +12579,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>1.62</v>
@@ -12779,7 +12785,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -12857,7 +12863,7 @@
         <v>0.8</v>
       </c>
       <c r="AP58">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ58">
         <v>0.88</v>
@@ -13191,7 +13197,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13397,7 +13403,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13809,7 +13815,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -13890,7 +13896,7 @@
         <v>3</v>
       </c>
       <c r="AQ63">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR63">
         <v>1.25</v>
@@ -14015,7 +14021,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14093,7 +14099,7 @@
         <v>0.17</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14427,7 +14433,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14633,7 +14639,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -15045,7 +15051,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15251,7 +15257,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15457,7 +15463,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15663,7 +15669,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -16153,7 +16159,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ74">
         <v>0.88</v>
@@ -16281,7 +16287,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16693,7 +16699,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16774,7 +16780,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ77">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR77">
         <v>1.13</v>
@@ -16899,7 +16905,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17105,7 +17111,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17183,7 +17189,7 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ79">
         <v>3</v>
@@ -17311,7 +17317,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17392,7 +17398,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ80">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR80">
         <v>1.33</v>
@@ -17929,7 +17935,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18135,7 +18141,7 @@
         <v>82</v>
       </c>
       <c r="P84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18292,6 +18298,418 @@
       </c>
       <c r="BP84">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7480221</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45627.375</v>
+      </c>
+      <c r="F85">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>75</v>
+      </c>
+      <c r="H85" t="s">
+        <v>76</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85" t="s">
+        <v>82</v>
+      </c>
+      <c r="P85" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q85">
+        <v>7.5</v>
+      </c>
+      <c r="R85">
+        <v>2.63</v>
+      </c>
+      <c r="S85">
+        <v>1.8</v>
+      </c>
+      <c r="T85">
+        <v>1.29</v>
+      </c>
+      <c r="U85">
+        <v>3.5</v>
+      </c>
+      <c r="V85">
+        <v>2.25</v>
+      </c>
+      <c r="W85">
+        <v>1.57</v>
+      </c>
+      <c r="X85">
+        <v>5.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.14</v>
+      </c>
+      <c r="Z85">
+        <v>8.59</v>
+      </c>
+      <c r="AA85">
+        <v>5.8</v>
+      </c>
+      <c r="AB85">
+        <v>1.28</v>
+      </c>
+      <c r="AC85">
+        <v>1.01</v>
+      </c>
+      <c r="AD85">
+        <v>17</v>
+      </c>
+      <c r="AE85">
+        <v>1.16</v>
+      </c>
+      <c r="AF85">
+        <v>5</v>
+      </c>
+      <c r="AG85">
+        <v>1.55</v>
+      </c>
+      <c r="AH85">
+        <v>2.3</v>
+      </c>
+      <c r="AI85">
+        <v>1.91</v>
+      </c>
+      <c r="AJ85">
+        <v>1.91</v>
+      </c>
+      <c r="AK85">
+        <v>3.4</v>
+      </c>
+      <c r="AL85">
+        <v>1.11</v>
+      </c>
+      <c r="AM85">
+        <v>1.03</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
+        <v>0.8</v>
+      </c>
+      <c r="AP85">
+        <v>0.86</v>
+      </c>
+      <c r="AQ85">
+        <v>1.17</v>
+      </c>
+      <c r="AR85">
+        <v>1.36</v>
+      </c>
+      <c r="AS85">
+        <v>1.33</v>
+      </c>
+      <c r="AT85">
+        <v>2.69</v>
+      </c>
+      <c r="AU85">
+        <v>2</v>
+      </c>
+      <c r="AV85">
+        <v>11</v>
+      </c>
+      <c r="AW85">
+        <v>2</v>
+      </c>
+      <c r="AX85">
+        <v>4</v>
+      </c>
+      <c r="AY85">
+        <v>5</v>
+      </c>
+      <c r="AZ85">
+        <v>18</v>
+      </c>
+      <c r="BA85">
+        <v>3</v>
+      </c>
+      <c r="BB85">
+        <v>5</v>
+      </c>
+      <c r="BC85">
+        <v>8</v>
+      </c>
+      <c r="BD85">
+        <v>4.6</v>
+      </c>
+      <c r="BE85">
+        <v>8.5</v>
+      </c>
+      <c r="BF85">
+        <v>1.18</v>
+      </c>
+      <c r="BG85">
+        <v>1.19</v>
+      </c>
+      <c r="BH85">
+        <v>4.1</v>
+      </c>
+      <c r="BI85">
+        <v>1.32</v>
+      </c>
+      <c r="BJ85">
+        <v>3.05</v>
+      </c>
+      <c r="BK85">
+        <v>1.53</v>
+      </c>
+      <c r="BL85">
+        <v>2.3</v>
+      </c>
+      <c r="BM85">
+        <v>1.83</v>
+      </c>
+      <c r="BN85">
+        <v>1.85</v>
+      </c>
+      <c r="BO85">
+        <v>2.28</v>
+      </c>
+      <c r="BP85">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7480218</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45627.5</v>
+      </c>
+      <c r="F86">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>70</v>
+      </c>
+      <c r="H86" t="s">
+        <v>80</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>150</v>
+      </c>
+      <c r="P86" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q86">
+        <v>2.88</v>
+      </c>
+      <c r="R86">
+        <v>2.25</v>
+      </c>
+      <c r="S86">
+        <v>3.4</v>
+      </c>
+      <c r="T86">
+        <v>1.33</v>
+      </c>
+      <c r="U86">
+        <v>3.25</v>
+      </c>
+      <c r="V86">
+        <v>2.63</v>
+      </c>
+      <c r="W86">
+        <v>1.44</v>
+      </c>
+      <c r="X86">
+        <v>7</v>
+      </c>
+      <c r="Y86">
+        <v>1.1</v>
+      </c>
+      <c r="Z86">
+        <v>2.48</v>
+      </c>
+      <c r="AA86">
+        <v>3.45</v>
+      </c>
+      <c r="AB86">
+        <v>2.73</v>
+      </c>
+      <c r="AC86">
+        <v>1.04</v>
+      </c>
+      <c r="AD86">
+        <v>13</v>
+      </c>
+      <c r="AE86">
+        <v>1.22</v>
+      </c>
+      <c r="AF86">
+        <v>4</v>
+      </c>
+      <c r="AG86">
+        <v>1.8</v>
+      </c>
+      <c r="AH86">
+        <v>1.95</v>
+      </c>
+      <c r="AI86">
+        <v>1.62</v>
+      </c>
+      <c r="AJ86">
+        <v>2.2</v>
+      </c>
+      <c r="AK86">
+        <v>1.42</v>
+      </c>
+      <c r="AL86">
+        <v>1.25</v>
+      </c>
+      <c r="AM86">
+        <v>1.6</v>
+      </c>
+      <c r="AN86">
+        <v>0.83</v>
+      </c>
+      <c r="AO86">
+        <v>1.83</v>
+      </c>
+      <c r="AP86">
+        <v>0.86</v>
+      </c>
+      <c r="AQ86">
+        <v>1.71</v>
+      </c>
+      <c r="AR86">
+        <v>1.56</v>
+      </c>
+      <c r="AS86">
+        <v>1.26</v>
+      </c>
+      <c r="AT86">
+        <v>2.82</v>
+      </c>
+      <c r="AU86">
+        <v>3</v>
+      </c>
+      <c r="AV86">
+        <v>4</v>
+      </c>
+      <c r="AW86">
+        <v>5</v>
+      </c>
+      <c r="AX86">
+        <v>1</v>
+      </c>
+      <c r="AY86">
+        <v>17</v>
+      </c>
+      <c r="AZ86">
+        <v>9</v>
+      </c>
+      <c r="BA86">
+        <v>9</v>
+      </c>
+      <c r="BB86">
+        <v>6</v>
+      </c>
+      <c r="BC86">
+        <v>15</v>
+      </c>
+      <c r="BD86">
+        <v>1.68</v>
+      </c>
+      <c r="BE86">
+        <v>7</v>
+      </c>
+      <c r="BF86">
+        <v>2.23</v>
+      </c>
+      <c r="BG86">
+        <v>1.15</v>
+      </c>
+      <c r="BH86">
+        <v>4.6</v>
+      </c>
+      <c r="BI86">
+        <v>1.27</v>
+      </c>
+      <c r="BJ86">
+        <v>3.3</v>
+      </c>
+      <c r="BK86">
+        <v>1.46</v>
+      </c>
+      <c r="BL86">
+        <v>2.5</v>
+      </c>
+      <c r="BM86">
+        <v>1.72</v>
+      </c>
+      <c r="BN86">
+        <v>1.98</v>
+      </c>
+      <c r="BO86">
+        <v>2.08</v>
+      </c>
+      <c r="BP86">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -18305,7 +18305,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7480221</v>
+        <v>7480218</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18314,196 +18314,196 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45627.375</v>
+        <v>45626.875</v>
       </c>
       <c r="F85">
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H85" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85">
         <v>1</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O85" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="Q85">
-        <v>7.5</v>
+        <v>2.88</v>
       </c>
       <c r="R85">
+        <v>2.25</v>
+      </c>
+      <c r="S85">
+        <v>3.4</v>
+      </c>
+      <c r="T85">
+        <v>1.33</v>
+      </c>
+      <c r="U85">
+        <v>3.25</v>
+      </c>
+      <c r="V85">
         <v>2.63</v>
       </c>
-      <c r="S85">
+      <c r="W85">
+        <v>1.44</v>
+      </c>
+      <c r="X85">
+        <v>7</v>
+      </c>
+      <c r="Y85">
+        <v>1.1</v>
+      </c>
+      <c r="Z85">
+        <v>2.48</v>
+      </c>
+      <c r="AA85">
+        <v>3.45</v>
+      </c>
+      <c r="AB85">
+        <v>2.73</v>
+      </c>
+      <c r="AC85">
+        <v>1.04</v>
+      </c>
+      <c r="AD85">
+        <v>13</v>
+      </c>
+      <c r="AE85">
+        <v>1.22</v>
+      </c>
+      <c r="AF85">
+        <v>4</v>
+      </c>
+      <c r="AG85">
         <v>1.8</v>
       </c>
-      <c r="T85">
-        <v>1.29</v>
-      </c>
-      <c r="U85">
-        <v>3.5</v>
-      </c>
-      <c r="V85">
-        <v>2.25</v>
-      </c>
-      <c r="W85">
-        <v>1.57</v>
-      </c>
-      <c r="X85">
-        <v>5.5</v>
-      </c>
-      <c r="Y85">
-        <v>1.14</v>
-      </c>
-      <c r="Z85">
-        <v>8.59</v>
-      </c>
-      <c r="AA85">
-        <v>5.8</v>
-      </c>
-      <c r="AB85">
-        <v>1.28</v>
-      </c>
-      <c r="AC85">
-        <v>1.01</v>
-      </c>
-      <c r="AD85">
-        <v>17</v>
-      </c>
-      <c r="AE85">
-        <v>1.16</v>
-      </c>
-      <c r="AF85">
-        <v>5</v>
-      </c>
-      <c r="AG85">
-        <v>1.55</v>
-      </c>
       <c r="AH85">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="AI85">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="AJ85">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AK85">
-        <v>3.4</v>
+        <v>1.42</v>
       </c>
       <c r="AL85">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AM85">
-        <v>1.03</v>
+        <v>1.6</v>
       </c>
       <c r="AN85">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AO85">
-        <v>0.8</v>
+        <v>1.83</v>
       </c>
       <c r="AP85">
         <v>0.86</v>
       </c>
       <c r="AQ85">
-        <v>1.17</v>
+        <v>1.71</v>
       </c>
       <c r="AR85">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="AS85">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT85">
-        <v>2.69</v>
+        <v>2.82</v>
       </c>
       <c r="AU85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV85">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AW85">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY85">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AZ85">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="BA85">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BB85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC85">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BD85">
+        <v>1.68</v>
+      </c>
+      <c r="BE85">
+        <v>7</v>
+      </c>
+      <c r="BF85">
+        <v>2.23</v>
+      </c>
+      <c r="BG85">
+        <v>1.15</v>
+      </c>
+      <c r="BH85">
         <v>4.6</v>
       </c>
-      <c r="BE85">
-        <v>8.5</v>
-      </c>
-      <c r="BF85">
-        <v>1.18</v>
-      </c>
-      <c r="BG85">
-        <v>1.19</v>
-      </c>
-      <c r="BH85">
-        <v>4.1</v>
-      </c>
       <c r="BI85">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="BJ85">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="BK85">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="BL85">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="BM85">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="BN85">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="BO85">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="BP85">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18511,7 +18511,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7480218</v>
+        <v>7480221</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18520,196 +18520,196 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45627.5</v>
+        <v>45627.375</v>
       </c>
       <c r="F86">
         <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H86" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86">
         <v>1</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O86" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="Q86">
-        <v>2.88</v>
+        <v>7.5</v>
       </c>
       <c r="R86">
+        <v>2.63</v>
+      </c>
+      <c r="S86">
+        <v>1.8</v>
+      </c>
+      <c r="T86">
+        <v>1.29</v>
+      </c>
+      <c r="U86">
+        <v>3.5</v>
+      </c>
+      <c r="V86">
         <v>2.25</v>
       </c>
-      <c r="S86">
+      <c r="W86">
+        <v>1.57</v>
+      </c>
+      <c r="X86">
+        <v>5.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.14</v>
+      </c>
+      <c r="Z86">
+        <v>8.59</v>
+      </c>
+      <c r="AA86">
+        <v>5.8</v>
+      </c>
+      <c r="AB86">
+        <v>1.28</v>
+      </c>
+      <c r="AC86">
+        <v>1.01</v>
+      </c>
+      <c r="AD86">
+        <v>17</v>
+      </c>
+      <c r="AE86">
+        <v>1.16</v>
+      </c>
+      <c r="AF86">
+        <v>5</v>
+      </c>
+      <c r="AG86">
+        <v>1.55</v>
+      </c>
+      <c r="AH86">
+        <v>2.3</v>
+      </c>
+      <c r="AI86">
+        <v>1.91</v>
+      </c>
+      <c r="AJ86">
+        <v>1.91</v>
+      </c>
+      <c r="AK86">
         <v>3.4</v>
       </c>
-      <c r="T86">
-        <v>1.33</v>
-      </c>
-      <c r="U86">
-        <v>3.25</v>
-      </c>
-      <c r="V86">
-        <v>2.63</v>
-      </c>
-      <c r="W86">
-        <v>1.44</v>
-      </c>
-      <c r="X86">
-        <v>7</v>
-      </c>
-      <c r="Y86">
-        <v>1.1</v>
-      </c>
-      <c r="Z86">
-        <v>2.48</v>
-      </c>
-      <c r="AA86">
-        <v>3.45</v>
-      </c>
-      <c r="AB86">
-        <v>2.73</v>
-      </c>
-      <c r="AC86">
-        <v>1.04</v>
-      </c>
-      <c r="AD86">
-        <v>13</v>
-      </c>
-      <c r="AE86">
-        <v>1.22</v>
-      </c>
-      <c r="AF86">
-        <v>4</v>
-      </c>
-      <c r="AG86">
-        <v>1.8</v>
-      </c>
-      <c r="AH86">
-        <v>1.95</v>
-      </c>
-      <c r="AI86">
-        <v>1.62</v>
-      </c>
-      <c r="AJ86">
-        <v>2.2</v>
-      </c>
-      <c r="AK86">
-        <v>1.42</v>
-      </c>
       <c r="AL86">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AM86">
-        <v>1.6</v>
+        <v>1.03</v>
       </c>
       <c r="AN86">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO86">
-        <v>1.83</v>
+        <v>0.8</v>
       </c>
       <c r="AP86">
         <v>0.86</v>
       </c>
       <c r="AQ86">
-        <v>1.71</v>
+        <v>1.17</v>
       </c>
       <c r="AR86">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="AS86">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AT86">
-        <v>2.82</v>
+        <v>2.69</v>
       </c>
       <c r="AU86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV86">
+        <v>11</v>
+      </c>
+      <c r="AW86">
+        <v>2</v>
+      </c>
+      <c r="AX86">
         <v>4</v>
       </c>
-      <c r="AW86">
+      <c r="AY86">
         <v>5</v>
       </c>
-      <c r="AX86">
-        <v>1</v>
-      </c>
-      <c r="AY86">
-        <v>17</v>
-      </c>
       <c r="AZ86">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BA86">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BB86">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC86">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BD86">
-        <v>1.68</v>
+        <v>4.6</v>
       </c>
       <c r="BE86">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BF86">
-        <v>2.23</v>
+        <v>1.18</v>
       </c>
       <c r="BG86">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="BH86">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="BI86">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="BJ86">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="BK86">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="BL86">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="BM86">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="BN86">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="BO86">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="BP86">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,6 +469,12 @@
     <t>['62']</t>
   </si>
   <si>
+    <t>['37', '53', '55', '61', '69', '77']</t>
+  </si>
+  <si>
+    <t>['14', '60', '63', '67']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -629,6 +635,12 @@
   </si>
   <si>
     <t>['37']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['78']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1661,7 +1673,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2154,7 +2166,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ6">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2279,7 +2291,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2485,7 +2497,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2563,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2691,7 +2703,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2897,7 +2909,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2975,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ10">
         <v>0.5</v>
@@ -3103,7 +3115,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3309,7 +3321,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3387,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ12">
         <v>0.57</v>
@@ -3515,7 +3527,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3927,7 +3939,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4211,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ16">
         <v>0.43</v>
@@ -4339,7 +4351,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4829,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ19">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR19">
         <v>1.1</v>
@@ -4957,7 +4969,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5035,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ20">
         <v>0.57</v>
@@ -5163,7 +5175,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5244,7 +5256,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR21">
         <v>1.39</v>
@@ -5369,7 +5381,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5781,7 +5793,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5987,7 +5999,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6271,10 +6283,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR26">
         <v>1.12</v>
@@ -7017,7 +7029,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7098,7 +7110,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR30">
         <v>0.76</v>
@@ -7223,7 +7235,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7429,7 +7441,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7635,7 +7647,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7841,7 +7853,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8047,7 +8059,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8253,7 +8265,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8459,7 +8471,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8537,7 +8549,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ37">
         <v>1.71</v>
@@ -8665,7 +8677,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8949,7 +8961,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ39">
         <v>0.71</v>
@@ -9077,7 +9089,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9283,7 +9295,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9364,7 +9376,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR41">
         <v>1.12</v>
@@ -9489,7 +9501,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9567,10 +9579,10 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ42">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR42">
         <v>1.64</v>
@@ -9695,7 +9707,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9901,7 +9913,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -9979,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10185,7 +10197,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ45">
         <v>0.88</v>
@@ -10313,7 +10325,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10519,7 +10531,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10931,7 +10943,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11549,7 +11561,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11627,7 +11639,7 @@
         <v>0.8</v>
       </c>
       <c r="AP52">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ52">
         <v>0.88</v>
@@ -11755,7 +11767,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -11836,7 +11848,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR53">
         <v>1.34</v>
@@ -12039,7 +12051,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ54">
         <v>1.43</v>
@@ -12373,7 +12385,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -12579,7 +12591,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q57">
         <v>1.62</v>
@@ -12657,7 +12669,7 @@
         <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ57">
         <v>0.57</v>
@@ -12785,7 +12797,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -12866,7 +12878,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ58">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13197,7 +13209,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13403,7 +13415,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13484,7 +13496,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR61">
         <v>1.15</v>
@@ -13815,7 +13827,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -13893,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ63">
         <v>1.17</v>
@@ -14021,7 +14033,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14433,7 +14445,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14511,10 +14523,10 @@
         <v>1.17</v>
       </c>
       <c r="AP66">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ66">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR66">
         <v>1.42</v>
@@ -14639,7 +14651,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -15051,7 +15063,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15257,7 +15269,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15463,7 +15475,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15541,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ71">
         <v>0.86</v>
@@ -15669,7 +15681,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15953,7 +15965,7 @@
         <v>0.57</v>
       </c>
       <c r="AP73">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ73">
         <v>0.5</v>
@@ -16162,7 +16174,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ74">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -16287,7 +16299,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16368,7 +16380,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR75">
         <v>1.29</v>
@@ -16571,7 +16583,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ76">
         <v>1.43</v>
@@ -16699,7 +16711,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16905,7 +16917,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -16983,7 +16995,7 @@
         <v>0.4</v>
       </c>
       <c r="AP78">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ78">
         <v>0.71</v>
@@ -17111,7 +17123,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17317,7 +17329,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17935,7 +17947,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18141,7 +18153,7 @@
         <v>82</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18305,7 +18317,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7480218</v>
+        <v>7480221</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18314,196 +18326,196 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45626.875</v>
+        <v>45627.375</v>
       </c>
       <c r="F85">
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H85" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <v>1</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O85" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="Q85">
-        <v>2.88</v>
+        <v>7.5</v>
       </c>
       <c r="R85">
+        <v>2.63</v>
+      </c>
+      <c r="S85">
+        <v>1.8</v>
+      </c>
+      <c r="T85">
+        <v>1.29</v>
+      </c>
+      <c r="U85">
+        <v>3.5</v>
+      </c>
+      <c r="V85">
         <v>2.25</v>
       </c>
-      <c r="S85">
+      <c r="W85">
+        <v>1.57</v>
+      </c>
+      <c r="X85">
+        <v>5.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.14</v>
+      </c>
+      <c r="Z85">
+        <v>8.59</v>
+      </c>
+      <c r="AA85">
+        <v>5.8</v>
+      </c>
+      <c r="AB85">
+        <v>1.28</v>
+      </c>
+      <c r="AC85">
+        <v>1.01</v>
+      </c>
+      <c r="AD85">
+        <v>17</v>
+      </c>
+      <c r="AE85">
+        <v>1.16</v>
+      </c>
+      <c r="AF85">
+        <v>5</v>
+      </c>
+      <c r="AG85">
+        <v>1.55</v>
+      </c>
+      <c r="AH85">
+        <v>2.3</v>
+      </c>
+      <c r="AI85">
+        <v>1.91</v>
+      </c>
+      <c r="AJ85">
+        <v>1.91</v>
+      </c>
+      <c r="AK85">
         <v>3.4</v>
       </c>
-      <c r="T85">
-        <v>1.33</v>
-      </c>
-      <c r="U85">
-        <v>3.25</v>
-      </c>
-      <c r="V85">
-        <v>2.63</v>
-      </c>
-      <c r="W85">
-        <v>1.44</v>
-      </c>
-      <c r="X85">
-        <v>7</v>
-      </c>
-      <c r="Y85">
-        <v>1.1</v>
-      </c>
-      <c r="Z85">
-        <v>2.48</v>
-      </c>
-      <c r="AA85">
-        <v>3.45</v>
-      </c>
-      <c r="AB85">
-        <v>2.73</v>
-      </c>
-      <c r="AC85">
-        <v>1.04</v>
-      </c>
-      <c r="AD85">
-        <v>13</v>
-      </c>
-      <c r="AE85">
-        <v>1.22</v>
-      </c>
-      <c r="AF85">
-        <v>4</v>
-      </c>
-      <c r="AG85">
-        <v>1.8</v>
-      </c>
-      <c r="AH85">
-        <v>1.95</v>
-      </c>
-      <c r="AI85">
-        <v>1.62</v>
-      </c>
-      <c r="AJ85">
-        <v>2.2</v>
-      </c>
-      <c r="AK85">
-        <v>1.42</v>
-      </c>
       <c r="AL85">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AM85">
-        <v>1.6</v>
+        <v>1.03</v>
       </c>
       <c r="AN85">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO85">
-        <v>1.83</v>
+        <v>0.8</v>
       </c>
       <c r="AP85">
         <v>0.86</v>
       </c>
       <c r="AQ85">
-        <v>1.71</v>
+        <v>1.17</v>
       </c>
       <c r="AR85">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="AS85">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AT85">
-        <v>2.82</v>
+        <v>2.69</v>
       </c>
       <c r="AU85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV85">
+        <v>11</v>
+      </c>
+      <c r="AW85">
+        <v>2</v>
+      </c>
+      <c r="AX85">
         <v>4</v>
       </c>
-      <c r="AW85">
+      <c r="AY85">
         <v>5</v>
       </c>
-      <c r="AX85">
-        <v>1</v>
-      </c>
-      <c r="AY85">
-        <v>17</v>
-      </c>
       <c r="AZ85">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BA85">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BB85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC85">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BD85">
-        <v>1.68</v>
+        <v>4.6</v>
       </c>
       <c r="BE85">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BF85">
-        <v>2.23</v>
+        <v>1.18</v>
       </c>
       <c r="BG85">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="BH85">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="BI85">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="BJ85">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="BK85">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="BL85">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="BM85">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="BN85">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="BO85">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="BP85">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18511,7 +18523,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7480221</v>
+        <v>7480218</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18520,196 +18532,814 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45627.375</v>
+        <v>45627.5</v>
       </c>
       <c r="F86">
         <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H86" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <v>1</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O86" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="Q86">
-        <v>7.5</v>
+        <v>2.88</v>
       </c>
       <c r="R86">
+        <v>2.25</v>
+      </c>
+      <c r="S86">
+        <v>3.4</v>
+      </c>
+      <c r="T86">
+        <v>1.33</v>
+      </c>
+      <c r="U86">
+        <v>3.25</v>
+      </c>
+      <c r="V86">
         <v>2.63</v>
       </c>
-      <c r="S86">
+      <c r="W86">
+        <v>1.44</v>
+      </c>
+      <c r="X86">
+        <v>7</v>
+      </c>
+      <c r="Y86">
+        <v>1.1</v>
+      </c>
+      <c r="Z86">
+        <v>2.48</v>
+      </c>
+      <c r="AA86">
+        <v>3.45</v>
+      </c>
+      <c r="AB86">
+        <v>2.73</v>
+      </c>
+      <c r="AC86">
+        <v>1.04</v>
+      </c>
+      <c r="AD86">
+        <v>13</v>
+      </c>
+      <c r="AE86">
+        <v>1.22</v>
+      </c>
+      <c r="AF86">
+        <v>4</v>
+      </c>
+      <c r="AG86">
         <v>1.8</v>
       </c>
-      <c r="T86">
-        <v>1.29</v>
-      </c>
-      <c r="U86">
-        <v>3.5</v>
-      </c>
-      <c r="V86">
-        <v>2.25</v>
-      </c>
-      <c r="W86">
-        <v>1.57</v>
-      </c>
-      <c r="X86">
-        <v>5.5</v>
-      </c>
-      <c r="Y86">
-        <v>1.14</v>
-      </c>
-      <c r="Z86">
-        <v>8.59</v>
-      </c>
-      <c r="AA86">
-        <v>5.8</v>
-      </c>
-      <c r="AB86">
-        <v>1.28</v>
-      </c>
-      <c r="AC86">
-        <v>1.01</v>
-      </c>
-      <c r="AD86">
-        <v>17</v>
-      </c>
-      <c r="AE86">
-        <v>1.16</v>
-      </c>
-      <c r="AF86">
-        <v>5</v>
-      </c>
-      <c r="AG86">
-        <v>1.55</v>
-      </c>
       <c r="AH86">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="AI86">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="AJ86">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AK86">
-        <v>3.4</v>
+        <v>1.42</v>
       </c>
       <c r="AL86">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AM86">
-        <v>1.03</v>
+        <v>1.6</v>
       </c>
       <c r="AN86">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AO86">
-        <v>0.8</v>
+        <v>1.83</v>
       </c>
       <c r="AP86">
         <v>0.86</v>
       </c>
       <c r="AQ86">
-        <v>1.17</v>
+        <v>1.71</v>
       </c>
       <c r="AR86">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="AS86">
+        <v>1.26</v>
+      </c>
+      <c r="AT86">
+        <v>2.82</v>
+      </c>
+      <c r="AU86">
+        <v>4</v>
+      </c>
+      <c r="AV86">
+        <v>4</v>
+      </c>
+      <c r="AW86">
+        <v>11</v>
+      </c>
+      <c r="AX86">
+        <v>6</v>
+      </c>
+      <c r="AY86">
+        <v>15</v>
+      </c>
+      <c r="AZ86">
+        <v>10</v>
+      </c>
+      <c r="BA86">
+        <v>9</v>
+      </c>
+      <c r="BB86">
+        <v>6</v>
+      </c>
+      <c r="BC86">
+        <v>15</v>
+      </c>
+      <c r="BD86">
+        <v>1.68</v>
+      </c>
+      <c r="BE86">
+        <v>7</v>
+      </c>
+      <c r="BF86">
+        <v>2.23</v>
+      </c>
+      <c r="BG86">
+        <v>1.15</v>
+      </c>
+      <c r="BH86">
+        <v>4.6</v>
+      </c>
+      <c r="BI86">
+        <v>1.27</v>
+      </c>
+      <c r="BJ86">
+        <v>3.3</v>
+      </c>
+      <c r="BK86">
+        <v>1.46</v>
+      </c>
+      <c r="BL86">
+        <v>2.5</v>
+      </c>
+      <c r="BM86">
+        <v>1.72</v>
+      </c>
+      <c r="BN86">
+        <v>1.98</v>
+      </c>
+      <c r="BO86">
+        <v>2.08</v>
+      </c>
+      <c r="BP86">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7480225</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45630.69791666666</v>
+      </c>
+      <c r="F87">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>76</v>
+      </c>
+      <c r="H87" t="s">
+        <v>81</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>6</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>6</v>
+      </c>
+      <c r="O87" t="s">
+        <v>151</v>
+      </c>
+      <c r="P87" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q87">
+        <v>1.67</v>
+      </c>
+      <c r="R87">
+        <v>2.63</v>
+      </c>
+      <c r="S87">
+        <v>9</v>
+      </c>
+      <c r="T87">
+        <v>1.29</v>
+      </c>
+      <c r="U87">
+        <v>3.5</v>
+      </c>
+      <c r="V87">
+        <v>2.25</v>
+      </c>
+      <c r="W87">
+        <v>1.57</v>
+      </c>
+      <c r="X87">
+        <v>5.5</v>
+      </c>
+      <c r="Y87">
+        <v>1.14</v>
+      </c>
+      <c r="Z87">
+        <v>1.61</v>
+      </c>
+      <c r="AA87">
+        <v>3.92</v>
+      </c>
+      <c r="AB87">
+        <v>4.28</v>
+      </c>
+      <c r="AC87">
+        <v>1.02</v>
+      </c>
+      <c r="AD87">
+        <v>14.4</v>
+      </c>
+      <c r="AE87">
+        <v>1.1</v>
+      </c>
+      <c r="AF87">
+        <v>4.85</v>
+      </c>
+      <c r="AG87">
+        <v>1.53</v>
+      </c>
+      <c r="AH87">
+        <v>2.3</v>
+      </c>
+      <c r="AI87">
+        <v>2</v>
+      </c>
+      <c r="AJ87">
+        <v>1.75</v>
+      </c>
+      <c r="AK87">
+        <v>1.02</v>
+      </c>
+      <c r="AL87">
+        <v>1.09</v>
+      </c>
+      <c r="AM87">
+        <v>3.75</v>
+      </c>
+      <c r="AN87">
+        <v>2.71</v>
+      </c>
+      <c r="AO87">
+        <v>0.88</v>
+      </c>
+      <c r="AP87">
+        <v>2.75</v>
+      </c>
+      <c r="AQ87">
+        <v>0.78</v>
+      </c>
+      <c r="AR87">
+        <v>1.99</v>
+      </c>
+      <c r="AS87">
+        <v>1.23</v>
+      </c>
+      <c r="AT87">
+        <v>3.22</v>
+      </c>
+      <c r="AU87">
+        <v>12</v>
+      </c>
+      <c r="AV87">
+        <v>0</v>
+      </c>
+      <c r="AW87">
+        <v>7</v>
+      </c>
+      <c r="AX87">
+        <v>0</v>
+      </c>
+      <c r="AY87">
+        <v>29</v>
+      </c>
+      <c r="AZ87">
+        <v>1</v>
+      </c>
+      <c r="BA87">
+        <v>7</v>
+      </c>
+      <c r="BB87">
+        <v>4</v>
+      </c>
+      <c r="BC87">
+        <v>11</v>
+      </c>
+      <c r="BD87">
+        <v>1.18</v>
+      </c>
+      <c r="BE87">
+        <v>9</v>
+      </c>
+      <c r="BF87">
+        <v>5.1</v>
+      </c>
+      <c r="BG87">
+        <v>1.18</v>
+      </c>
+      <c r="BH87">
+        <v>4.1</v>
+      </c>
+      <c r="BI87">
+        <v>1.34</v>
+      </c>
+      <c r="BJ87">
+        <v>2.9</v>
+      </c>
+      <c r="BK87">
+        <v>1.55</v>
+      </c>
+      <c r="BL87">
+        <v>2.25</v>
+      </c>
+      <c r="BM87">
+        <v>1.77</v>
+      </c>
+      <c r="BN87">
+        <v>1.95</v>
+      </c>
+      <c r="BO87">
+        <v>2.32</v>
+      </c>
+      <c r="BP87">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7480223</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45630.69791666666</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s">
+        <v>71</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>4</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>5</v>
+      </c>
+      <c r="O88" t="s">
+        <v>152</v>
+      </c>
+      <c r="P88" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q88">
+        <v>2.6</v>
+      </c>
+      <c r="R88">
+        <v>2.3</v>
+      </c>
+      <c r="S88">
+        <v>4</v>
+      </c>
+      <c r="T88">
         <v>1.33</v>
       </c>
-      <c r="AT86">
-        <v>2.69</v>
-      </c>
-      <c r="AU86">
-        <v>2</v>
-      </c>
-      <c r="AV86">
+      <c r="U88">
+        <v>3.25</v>
+      </c>
+      <c r="V88">
+        <v>2.5</v>
+      </c>
+      <c r="W88">
+        <v>1.5</v>
+      </c>
+      <c r="X88">
+        <v>6.5</v>
+      </c>
+      <c r="Y88">
+        <v>1.11</v>
+      </c>
+      <c r="Z88">
+        <v>2.03</v>
+      </c>
+      <c r="AA88">
+        <v>3.53</v>
+      </c>
+      <c r="AB88">
+        <v>3.64</v>
+      </c>
+      <c r="AC88">
+        <v>1.02</v>
+      </c>
+      <c r="AD88">
         <v>11</v>
       </c>
-      <c r="AW86">
-        <v>2</v>
-      </c>
-      <c r="AX86">
+      <c r="AE88">
+        <v>1.19</v>
+      </c>
+      <c r="AF88">
+        <v>3.68</v>
+      </c>
+      <c r="AG88">
+        <v>1.7</v>
+      </c>
+      <c r="AH88">
+        <v>2</v>
+      </c>
+      <c r="AI88">
+        <v>1.57</v>
+      </c>
+      <c r="AJ88">
+        <v>2.25</v>
+      </c>
+      <c r="AK88">
+        <v>1.33</v>
+      </c>
+      <c r="AL88">
+        <v>1.25</v>
+      </c>
+      <c r="AM88">
+        <v>1.75</v>
+      </c>
+      <c r="AN88">
+        <v>1.43</v>
+      </c>
+      <c r="AO88">
+        <v>1.5</v>
+      </c>
+      <c r="AP88">
+        <v>1.63</v>
+      </c>
+      <c r="AQ88">
+        <v>1.29</v>
+      </c>
+      <c r="AR88">
+        <v>1.42</v>
+      </c>
+      <c r="AS88">
+        <v>1.23</v>
+      </c>
+      <c r="AT88">
+        <v>2.65</v>
+      </c>
+      <c r="AU88">
+        <v>5</v>
+      </c>
+      <c r="AV88">
+        <v>7</v>
+      </c>
+      <c r="AW88">
+        <v>1</v>
+      </c>
+      <c r="AX88">
+        <v>12</v>
+      </c>
+      <c r="AY88">
+        <v>10</v>
+      </c>
+      <c r="AZ88">
+        <v>25</v>
+      </c>
+      <c r="BA88">
         <v>4</v>
       </c>
-      <c r="AY86">
+      <c r="BB88">
+        <v>10</v>
+      </c>
+      <c r="BC88">
+        <v>14</v>
+      </c>
+      <c r="BD88">
+        <v>1.68</v>
+      </c>
+      <c r="BE88">
+        <v>6.75</v>
+      </c>
+      <c r="BF88">
+        <v>2.4</v>
+      </c>
+      <c r="BG88">
+        <v>1.19</v>
+      </c>
+      <c r="BH88">
+        <v>4.1</v>
+      </c>
+      <c r="BI88">
+        <v>1.34</v>
+      </c>
+      <c r="BJ88">
+        <v>2.9</v>
+      </c>
+      <c r="BK88">
+        <v>1.56</v>
+      </c>
+      <c r="BL88">
+        <v>2.23</v>
+      </c>
+      <c r="BM88">
+        <v>1.77</v>
+      </c>
+      <c r="BN88">
+        <v>1.95</v>
+      </c>
+      <c r="BO88">
+        <v>2.33</v>
+      </c>
+      <c r="BP88">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7480222</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45630.70833333334</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>80</v>
+      </c>
+      <c r="H89" t="s">
+        <v>74</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89" t="s">
+        <v>82</v>
+      </c>
+      <c r="P89" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q89">
+        <v>6</v>
+      </c>
+      <c r="R89">
+        <v>2.5</v>
+      </c>
+      <c r="S89">
+        <v>1.95</v>
+      </c>
+      <c r="T89">
+        <v>1.29</v>
+      </c>
+      <c r="U89">
+        <v>3.5</v>
+      </c>
+      <c r="V89">
+        <v>2.25</v>
+      </c>
+      <c r="W89">
+        <v>1.57</v>
+      </c>
+      <c r="X89">
+        <v>5.5</v>
+      </c>
+      <c r="Y89">
+        <v>1.14</v>
+      </c>
+      <c r="Z89">
+        <v>3.88</v>
+      </c>
+      <c r="AA89">
+        <v>5.25</v>
+      </c>
+      <c r="AB89">
+        <v>1.51</v>
+      </c>
+      <c r="AC89">
+        <v>1.02</v>
+      </c>
+      <c r="AD89">
+        <v>14.3</v>
+      </c>
+      <c r="AE89">
+        <v>1.12</v>
+      </c>
+      <c r="AF89">
+        <v>4.4</v>
+      </c>
+      <c r="AG89">
+        <v>1.55</v>
+      </c>
+      <c r="AH89">
+        <v>2.3</v>
+      </c>
+      <c r="AI89">
+        <v>1.75</v>
+      </c>
+      <c r="AJ89">
+        <v>2</v>
+      </c>
+      <c r="AK89">
+        <v>2.75</v>
+      </c>
+      <c r="AL89">
+        <v>1.14</v>
+      </c>
+      <c r="AM89">
+        <v>1.11</v>
+      </c>
+      <c r="AN89">
+        <v>3</v>
+      </c>
+      <c r="AO89">
+        <v>3</v>
+      </c>
+      <c r="AP89">
+        <v>2.63</v>
+      </c>
+      <c r="AQ89">
+        <v>3</v>
+      </c>
+      <c r="AR89">
+        <v>1.42</v>
+      </c>
+      <c r="AS89">
+        <v>2.02</v>
+      </c>
+      <c r="AT89">
+        <v>3.44</v>
+      </c>
+      <c r="AU89">
         <v>5</v>
       </c>
-      <c r="AZ86">
-        <v>18</v>
-      </c>
-      <c r="BA86">
-        <v>3</v>
-      </c>
-      <c r="BB86">
+      <c r="AV89">
         <v>5</v>
       </c>
-      <c r="BC86">
+      <c r="AW89">
+        <v>3</v>
+      </c>
+      <c r="AX89">
+        <v>5</v>
+      </c>
+      <c r="AY89">
+        <v>9</v>
+      </c>
+      <c r="AZ89">
+        <v>16</v>
+      </c>
+      <c r="BA89">
+        <v>2</v>
+      </c>
+      <c r="BB89">
+        <v>10</v>
+      </c>
+      <c r="BC89">
+        <v>12</v>
+      </c>
+      <c r="BD89">
+        <v>4.1</v>
+      </c>
+      <c r="BE89">
         <v>8</v>
       </c>
-      <c r="BD86">
-        <v>4.6</v>
-      </c>
-      <c r="BE86">
-        <v>8.5</v>
-      </c>
-      <c r="BF86">
-        <v>1.18</v>
-      </c>
-      <c r="BG86">
-        <v>1.19</v>
-      </c>
-      <c r="BH86">
-        <v>4.1</v>
-      </c>
-      <c r="BI86">
-        <v>1.32</v>
-      </c>
-      <c r="BJ86">
-        <v>3.05</v>
-      </c>
-      <c r="BK86">
-        <v>1.53</v>
-      </c>
-      <c r="BL86">
-        <v>2.3</v>
-      </c>
-      <c r="BM86">
-        <v>1.83</v>
-      </c>
-      <c r="BN86">
-        <v>1.85</v>
-      </c>
-      <c r="BO86">
-        <v>2.28</v>
-      </c>
-      <c r="BP86">
-        <v>1.55</v>
+      <c r="BF89">
+        <v>1.25</v>
+      </c>
+      <c r="BG89">
+        <v>1.16</v>
+      </c>
+      <c r="BH89">
+        <v>4.4</v>
+      </c>
+      <c r="BI89">
+        <v>1.28</v>
+      </c>
+      <c r="BJ89">
+        <v>3.2</v>
+      </c>
+      <c r="BK89">
+        <v>1.46</v>
+      </c>
+      <c r="BL89">
+        <v>2.48</v>
+      </c>
+      <c r="BM89">
+        <v>1.73</v>
+      </c>
+      <c r="BN89">
+        <v>1.96</v>
+      </c>
+      <c r="BO89">
+        <v>2.05</v>
+      </c>
+      <c r="BP89">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="214">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,18 @@
     <t>['14', '60', '63', '67']</t>
   </si>
   <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['6', '54', '84']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['21', '31']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -641,6 +653,9 @@
   </si>
   <si>
     <t>['78']</t>
+  </si>
+  <si>
+    <t>['25']</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ2">
         <v>1.17</v>
@@ -1673,7 +1688,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1751,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1957,10 +1972,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ5">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2163,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ6">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2291,7 +2306,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2497,7 +2512,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2578,7 +2593,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ8">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2703,7 +2718,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2909,7 +2924,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3115,7 +3130,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3321,7 +3336,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3399,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ12">
         <v>0.57</v>
@@ -3527,7 +3542,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3608,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3811,10 +3826,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR14">
         <v>2.04</v>
@@ -3939,7 +3954,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4020,7 +4035,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ15">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR15">
         <v>0.53</v>
@@ -4351,7 +4366,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4429,7 +4444,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
         <v>3</v>
@@ -4841,10 +4856,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ19">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR19">
         <v>1.1</v>
@@ -4969,7 +4984,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5175,7 +5190,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5256,7 +5271,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ21">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>1.39</v>
@@ -5381,7 +5396,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5665,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ23">
         <v>1.17</v>
@@ -5793,7 +5808,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5871,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ24">
         <v>1.43</v>
@@ -5999,7 +6014,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6080,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR25">
         <v>1.41</v>
@@ -6283,10 +6298,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ26">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.12</v>
@@ -6489,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -6698,7 +6713,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ28">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR28">
         <v>0.85</v>
@@ -6904,7 +6919,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR29">
         <v>1.33</v>
@@ -7029,7 +7044,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7107,10 +7122,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ30">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR30">
         <v>0.76</v>
@@ -7235,7 +7250,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7313,7 +7328,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
         <v>1.17</v>
@@ -7441,7 +7456,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7522,7 +7537,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR32">
         <v>1.31</v>
@@ -7647,7 +7662,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7725,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
@@ -7853,7 +7868,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7931,7 +7946,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ34">
         <v>0.43</v>
@@ -8059,7 +8074,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8265,7 +8280,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8471,7 +8486,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8677,7 +8692,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8964,7 +8979,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ39">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR39">
         <v>2.01</v>
@@ -9089,7 +9104,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9167,7 +9182,7 @@
         <v>1.67</v>
       </c>
       <c r="AP40">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ40">
         <v>1.43</v>
@@ -9295,7 +9310,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9376,7 +9391,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ41">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.12</v>
@@ -9501,7 +9516,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9582,7 +9597,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ42">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>1.64</v>
@@ -9707,7 +9722,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9913,7 +9928,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -9991,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10200,7 +10215,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ45">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR45">
         <v>1.85</v>
@@ -10325,7 +10340,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10403,7 +10418,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ46">
         <v>1.71</v>
@@ -10531,7 +10546,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10609,10 +10624,10 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR47">
         <v>1.19</v>
@@ -10815,7 +10830,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ48">
         <v>0.57</v>
@@ -10943,7 +10958,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11024,7 +11039,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ49">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR49">
         <v>1.3</v>
@@ -11561,7 +11576,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11642,7 +11657,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ52">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -11767,7 +11782,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -11848,7 +11863,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR53">
         <v>1.34</v>
@@ -12051,7 +12066,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ54">
         <v>1.43</v>
@@ -12385,7 +12400,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -12591,7 +12606,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>1.62</v>
@@ -12797,7 +12812,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -12875,10 +12890,10 @@
         <v>0.8</v>
       </c>
       <c r="AP58">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ58">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13084,7 +13099,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR59">
         <v>1.31</v>
@@ -13209,7 +13224,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13287,10 +13302,10 @@
         <v>1.17</v>
       </c>
       <c r="AP60">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ60">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR60">
         <v>1.06</v>
@@ -13415,7 +13430,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13493,10 +13508,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ61">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.15</v>
@@ -13699,10 +13714,10 @@
         <v>1.25</v>
       </c>
       <c r="AP62">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ62">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR62">
         <v>2.17</v>
@@ -13827,7 +13842,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -13905,7 +13920,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ63">
         <v>1.17</v>
@@ -14033,7 +14048,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14317,7 +14332,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ65">
         <v>0.43</v>
@@ -14445,7 +14460,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14526,7 +14541,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ66">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR66">
         <v>1.42</v>
@@ -14651,7 +14666,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -14935,7 +14950,7 @@
         <v>0.6</v>
       </c>
       <c r="AP68">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ68">
         <v>0.43</v>
@@ -15063,7 +15078,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15269,7 +15284,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15350,7 +15365,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ70">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15475,7 +15490,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15553,10 +15568,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ71">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR71">
         <v>1.32</v>
@@ -15681,7 +15696,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -16174,7 +16189,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ74">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -16299,7 +16314,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16380,7 +16395,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>1.29</v>
@@ -16711,7 +16726,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16789,7 +16804,7 @@
         <v>2.5</v>
       </c>
       <c r="AP77">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ77">
         <v>1.71</v>
@@ -16917,7 +16932,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -16998,7 +17013,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ78">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -17123,7 +17138,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17201,7 +17216,7 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ79">
         <v>3</v>
@@ -17329,7 +17344,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17613,7 +17628,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ81">
         <v>0.43</v>
@@ -17819,7 +17834,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82">
         <v>0.57</v>
@@ -17947,7 +17962,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18028,7 +18043,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18153,7 +18168,7 @@
         <v>82</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18234,7 +18249,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ84">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR84">
         <v>1.24</v>
@@ -18359,7 +18374,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q85">
         <v>7.5</v>
@@ -18565,7 +18580,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18643,7 +18658,7 @@
         <v>1.83</v>
       </c>
       <c r="AP86">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ86">
         <v>1.71</v>
@@ -18852,7 +18867,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ87">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR87">
         <v>1.99</v>
@@ -18977,7 +18992,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19058,7 +19073,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ88">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
         <v>1.42</v>
@@ -19183,7 +19198,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19261,7 +19276,7 @@
         <v>3</v>
       </c>
       <c r="AP89">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ89">
         <v>3</v>
@@ -19340,6 +19355,1036 @@
       </c>
       <c r="BP89">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7480233</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F90">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>73</v>
+      </c>
+      <c r="H90" t="s">
+        <v>71</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" t="s">
+        <v>82</v>
+      </c>
+      <c r="P90" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q90">
+        <v>2.88</v>
+      </c>
+      <c r="R90">
+        <v>2.2</v>
+      </c>
+      <c r="S90">
+        <v>3.75</v>
+      </c>
+      <c r="T90">
+        <v>1.4</v>
+      </c>
+      <c r="U90">
+        <v>2.75</v>
+      </c>
+      <c r="V90">
+        <v>2.75</v>
+      </c>
+      <c r="W90">
+        <v>1.4</v>
+      </c>
+      <c r="X90">
+        <v>8</v>
+      </c>
+      <c r="Y90">
+        <v>1.08</v>
+      </c>
+      <c r="Z90">
+        <v>2.25</v>
+      </c>
+      <c r="AA90">
+        <v>3.3</v>
+      </c>
+      <c r="AB90">
+        <v>3.2</v>
+      </c>
+      <c r="AC90">
+        <v>1.05</v>
+      </c>
+      <c r="AD90">
+        <v>11</v>
+      </c>
+      <c r="AE90">
+        <v>1.3</v>
+      </c>
+      <c r="AF90">
+        <v>3.5</v>
+      </c>
+      <c r="AG90">
+        <v>1.87</v>
+      </c>
+      <c r="AH90">
+        <v>1.87</v>
+      </c>
+      <c r="AI90">
+        <v>1.75</v>
+      </c>
+      <c r="AJ90">
+        <v>2</v>
+      </c>
+      <c r="AK90">
+        <v>1.35</v>
+      </c>
+      <c r="AL90">
+        <v>1.25</v>
+      </c>
+      <c r="AM90">
+        <v>1.68</v>
+      </c>
+      <c r="AN90">
+        <v>1.75</v>
+      </c>
+      <c r="AO90">
+        <v>1.29</v>
+      </c>
+      <c r="AP90">
+        <v>1.56</v>
+      </c>
+      <c r="AQ90">
+        <v>1.5</v>
+      </c>
+      <c r="AR90">
+        <v>1.21</v>
+      </c>
+      <c r="AS90">
+        <v>1.38</v>
+      </c>
+      <c r="AT90">
+        <v>2.59</v>
+      </c>
+      <c r="AU90">
+        <v>7</v>
+      </c>
+      <c r="AV90">
+        <v>5</v>
+      </c>
+      <c r="AW90">
+        <v>1</v>
+      </c>
+      <c r="AX90">
+        <v>4</v>
+      </c>
+      <c r="AY90">
+        <v>12</v>
+      </c>
+      <c r="AZ90">
+        <v>11</v>
+      </c>
+      <c r="BA90">
+        <v>7</v>
+      </c>
+      <c r="BB90">
+        <v>2</v>
+      </c>
+      <c r="BC90">
+        <v>9</v>
+      </c>
+      <c r="BD90">
+        <v>1.75</v>
+      </c>
+      <c r="BE90">
+        <v>6.75</v>
+      </c>
+      <c r="BF90">
+        <v>2.25</v>
+      </c>
+      <c r="BG90">
+        <v>1.19</v>
+      </c>
+      <c r="BH90">
+        <v>4.1</v>
+      </c>
+      <c r="BI90">
+        <v>1.34</v>
+      </c>
+      <c r="BJ90">
+        <v>2.9</v>
+      </c>
+      <c r="BK90">
+        <v>1.57</v>
+      </c>
+      <c r="BL90">
+        <v>2.23</v>
+      </c>
+      <c r="BM90">
+        <v>1.9</v>
+      </c>
+      <c r="BN90">
+        <v>1.78</v>
+      </c>
+      <c r="BO90">
+        <v>2.35</v>
+      </c>
+      <c r="BP90">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7480228</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F91">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>80</v>
+      </c>
+      <c r="H91" t="s">
+        <v>75</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>153</v>
+      </c>
+      <c r="P91" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q91">
+        <v>2.3</v>
+      </c>
+      <c r="R91">
+        <v>2.1</v>
+      </c>
+      <c r="S91">
+        <v>6</v>
+      </c>
+      <c r="T91">
+        <v>1.44</v>
+      </c>
+      <c r="U91">
+        <v>2.63</v>
+      </c>
+      <c r="V91">
+        <v>3.25</v>
+      </c>
+      <c r="W91">
+        <v>1.33</v>
+      </c>
+      <c r="X91">
+        <v>10</v>
+      </c>
+      <c r="Y91">
+        <v>1.06</v>
+      </c>
+      <c r="Z91">
+        <v>1.62</v>
+      </c>
+      <c r="AA91">
+        <v>3.75</v>
+      </c>
+      <c r="AB91">
+        <v>5.5</v>
+      </c>
+      <c r="AC91">
+        <v>1.06</v>
+      </c>
+      <c r="AD91">
+        <v>10</v>
+      </c>
+      <c r="AE91">
+        <v>1.36</v>
+      </c>
+      <c r="AF91">
+        <v>3.2</v>
+      </c>
+      <c r="AG91">
+        <v>1.82</v>
+      </c>
+      <c r="AH91">
+        <v>1.92</v>
+      </c>
+      <c r="AI91">
+        <v>2.1</v>
+      </c>
+      <c r="AJ91">
+        <v>1.67</v>
+      </c>
+      <c r="AK91">
+        <v>1.12</v>
+      </c>
+      <c r="AL91">
+        <v>1.2</v>
+      </c>
+      <c r="AM91">
+        <v>2.4</v>
+      </c>
+      <c r="AN91">
+        <v>2.63</v>
+      </c>
+      <c r="AO91">
+        <v>0.88</v>
+      </c>
+      <c r="AP91">
+        <v>2.44</v>
+      </c>
+      <c r="AQ91">
+        <v>0.89</v>
+      </c>
+      <c r="AR91">
+        <v>1.37</v>
+      </c>
+      <c r="AS91">
+        <v>1.11</v>
+      </c>
+      <c r="AT91">
+        <v>2.48</v>
+      </c>
+      <c r="AU91">
+        <v>3</v>
+      </c>
+      <c r="AV91">
+        <v>4</v>
+      </c>
+      <c r="AW91">
+        <v>4</v>
+      </c>
+      <c r="AX91">
+        <v>2</v>
+      </c>
+      <c r="AY91">
+        <v>8</v>
+      </c>
+      <c r="AZ91">
+        <v>7</v>
+      </c>
+      <c r="BA91">
+        <v>6</v>
+      </c>
+      <c r="BB91">
+        <v>1</v>
+      </c>
+      <c r="BC91">
+        <v>7</v>
+      </c>
+      <c r="BD91">
+        <v>1.35</v>
+      </c>
+      <c r="BE91">
+        <v>7.5</v>
+      </c>
+      <c r="BF91">
+        <v>3.45</v>
+      </c>
+      <c r="BG91">
+        <v>1.23</v>
+      </c>
+      <c r="BH91">
+        <v>3.65</v>
+      </c>
+      <c r="BI91">
+        <v>1.4</v>
+      </c>
+      <c r="BJ91">
+        <v>2.65</v>
+      </c>
+      <c r="BK91">
+        <v>1.65</v>
+      </c>
+      <c r="BL91">
+        <v>2.08</v>
+      </c>
+      <c r="BM91">
+        <v>1.98</v>
+      </c>
+      <c r="BN91">
+        <v>1.72</v>
+      </c>
+      <c r="BO91">
+        <v>2.48</v>
+      </c>
+      <c r="BP91">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7480229</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>74</v>
+      </c>
+      <c r="H92" t="s">
+        <v>79</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>3</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92" t="s">
+        <v>154</v>
+      </c>
+      <c r="P92" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q92">
+        <v>1.44</v>
+      </c>
+      <c r="R92">
+        <v>3.1</v>
+      </c>
+      <c r="S92">
+        <v>12</v>
+      </c>
+      <c r="T92">
+        <v>1.2</v>
+      </c>
+      <c r="U92">
+        <v>4.33</v>
+      </c>
+      <c r="V92">
+        <v>2</v>
+      </c>
+      <c r="W92">
+        <v>1.73</v>
+      </c>
+      <c r="X92">
+        <v>4.33</v>
+      </c>
+      <c r="Y92">
+        <v>1.2</v>
+      </c>
+      <c r="Z92">
+        <v>1.1</v>
+      </c>
+      <c r="AA92">
+        <v>9</v>
+      </c>
+      <c r="AB92">
+        <v>20</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>1.1</v>
+      </c>
+      <c r="AF92">
+        <v>6.5</v>
+      </c>
+      <c r="AG92">
+        <v>1.36</v>
+      </c>
+      <c r="AH92">
+        <v>2.99</v>
+      </c>
+      <c r="AI92">
+        <v>2.1</v>
+      </c>
+      <c r="AJ92">
+        <v>1.67</v>
+      </c>
+      <c r="AK92">
+        <v>1.02</v>
+      </c>
+      <c r="AL92">
+        <v>1.06</v>
+      </c>
+      <c r="AM92">
+        <v>5.75</v>
+      </c>
+      <c r="AN92">
+        <v>2.67</v>
+      </c>
+      <c r="AO92">
+        <v>0.71</v>
+      </c>
+      <c r="AP92">
+        <v>2.71</v>
+      </c>
+      <c r="AQ92">
+        <v>0.63</v>
+      </c>
+      <c r="AR92">
+        <v>2.19</v>
+      </c>
+      <c r="AS92">
+        <v>1.46</v>
+      </c>
+      <c r="AT92">
+        <v>3.65</v>
+      </c>
+      <c r="AU92">
+        <v>12</v>
+      </c>
+      <c r="AV92">
+        <v>10</v>
+      </c>
+      <c r="AW92">
+        <v>5</v>
+      </c>
+      <c r="AX92">
+        <v>4</v>
+      </c>
+      <c r="AY92">
+        <v>22</v>
+      </c>
+      <c r="AZ92">
+        <v>15</v>
+      </c>
+      <c r="BA92">
+        <v>14</v>
+      </c>
+      <c r="BB92">
+        <v>7</v>
+      </c>
+      <c r="BC92">
+        <v>21</v>
+      </c>
+      <c r="BD92">
+        <v>1.09</v>
+      </c>
+      <c r="BE92">
+        <v>12</v>
+      </c>
+      <c r="BF92">
+        <v>7</v>
+      </c>
+      <c r="BG92">
+        <v>1.17</v>
+      </c>
+      <c r="BH92">
+        <v>4.35</v>
+      </c>
+      <c r="BI92">
+        <v>1.3</v>
+      </c>
+      <c r="BJ92">
+        <v>3.15</v>
+      </c>
+      <c r="BK92">
+        <v>1.49</v>
+      </c>
+      <c r="BL92">
+        <v>2.4</v>
+      </c>
+      <c r="BM92">
+        <v>1.76</v>
+      </c>
+      <c r="BN92">
+        <v>1.94</v>
+      </c>
+      <c r="BO92">
+        <v>2.15</v>
+      </c>
+      <c r="BP92">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7480230</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>72</v>
+      </c>
+      <c r="H93" t="s">
+        <v>81</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>155</v>
+      </c>
+      <c r="P93" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q93">
+        <v>2.88</v>
+      </c>
+      <c r="R93">
+        <v>2.1</v>
+      </c>
+      <c r="S93">
+        <v>4</v>
+      </c>
+      <c r="T93">
+        <v>1.44</v>
+      </c>
+      <c r="U93">
+        <v>2.63</v>
+      </c>
+      <c r="V93">
+        <v>3.25</v>
+      </c>
+      <c r="W93">
+        <v>1.33</v>
+      </c>
+      <c r="X93">
+        <v>9</v>
+      </c>
+      <c r="Y93">
+        <v>1.07</v>
+      </c>
+      <c r="Z93">
+        <v>2.2</v>
+      </c>
+      <c r="AA93">
+        <v>3.4</v>
+      </c>
+      <c r="AB93">
+        <v>3.1</v>
+      </c>
+      <c r="AC93">
+        <v>1.05</v>
+      </c>
+      <c r="AD93">
+        <v>11</v>
+      </c>
+      <c r="AE93">
+        <v>1.33</v>
+      </c>
+      <c r="AF93">
+        <v>3.25</v>
+      </c>
+      <c r="AG93">
+        <v>1.91</v>
+      </c>
+      <c r="AH93">
+        <v>1.83</v>
+      </c>
+      <c r="AI93">
+        <v>1.8</v>
+      </c>
+      <c r="AJ93">
+        <v>1.95</v>
+      </c>
+      <c r="AK93">
+        <v>1.38</v>
+      </c>
+      <c r="AL93">
+        <v>1.25</v>
+      </c>
+      <c r="AM93">
+        <v>1.66</v>
+      </c>
+      <c r="AN93">
+        <v>1.86</v>
+      </c>
+      <c r="AO93">
+        <v>0.78</v>
+      </c>
+      <c r="AP93">
+        <v>1.75</v>
+      </c>
+      <c r="AQ93">
+        <v>0.8</v>
+      </c>
+      <c r="AR93">
+        <v>1.35</v>
+      </c>
+      <c r="AS93">
+        <v>1.12</v>
+      </c>
+      <c r="AT93">
+        <v>2.47</v>
+      </c>
+      <c r="AU93">
+        <v>8</v>
+      </c>
+      <c r="AV93">
+        <v>8</v>
+      </c>
+      <c r="AW93">
+        <v>7</v>
+      </c>
+      <c r="AX93">
+        <v>4</v>
+      </c>
+      <c r="AY93">
+        <v>23</v>
+      </c>
+      <c r="AZ93">
+        <v>15</v>
+      </c>
+      <c r="BA93">
+        <v>9</v>
+      </c>
+      <c r="BB93">
+        <v>1</v>
+      </c>
+      <c r="BC93">
+        <v>10</v>
+      </c>
+      <c r="BD93">
+        <v>1.77</v>
+      </c>
+      <c r="BE93">
+        <v>7</v>
+      </c>
+      <c r="BF93">
+        <v>2.18</v>
+      </c>
+      <c r="BG93">
+        <v>1.14</v>
+      </c>
+      <c r="BH93">
+        <v>4.8</v>
+      </c>
+      <c r="BI93">
+        <v>1.25</v>
+      </c>
+      <c r="BJ93">
+        <v>3.4</v>
+      </c>
+      <c r="BK93">
+        <v>1.43</v>
+      </c>
+      <c r="BL93">
+        <v>2.55</v>
+      </c>
+      <c r="BM93">
+        <v>1.68</v>
+      </c>
+      <c r="BN93">
+        <v>2.04</v>
+      </c>
+      <c r="BO93">
+        <v>2.04</v>
+      </c>
+      <c r="BP93">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7480231</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>70</v>
+      </c>
+      <c r="H94" t="s">
+        <v>78</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>156</v>
+      </c>
+      <c r="P94" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q94">
+        <v>2.6</v>
+      </c>
+      <c r="R94">
+        <v>2.25</v>
+      </c>
+      <c r="S94">
+        <v>4</v>
+      </c>
+      <c r="T94">
+        <v>1.36</v>
+      </c>
+      <c r="U94">
+        <v>3</v>
+      </c>
+      <c r="V94">
+        <v>2.63</v>
+      </c>
+      <c r="W94">
+        <v>1.44</v>
+      </c>
+      <c r="X94">
+        <v>7</v>
+      </c>
+      <c r="Y94">
+        <v>1.1</v>
+      </c>
+      <c r="Z94">
+        <v>2.1</v>
+      </c>
+      <c r="AA94">
+        <v>3.4</v>
+      </c>
+      <c r="AB94">
+        <v>3.3</v>
+      </c>
+      <c r="AC94">
+        <v>1.03</v>
+      </c>
+      <c r="AD94">
+        <v>13</v>
+      </c>
+      <c r="AE94">
+        <v>1.25</v>
+      </c>
+      <c r="AF94">
+        <v>3.75</v>
+      </c>
+      <c r="AG94">
+        <v>1.66</v>
+      </c>
+      <c r="AH94">
+        <v>2.14</v>
+      </c>
+      <c r="AI94">
+        <v>1.67</v>
+      </c>
+      <c r="AJ94">
+        <v>2.1</v>
+      </c>
+      <c r="AK94">
+        <v>1.28</v>
+      </c>
+      <c r="AL94">
+        <v>1.22</v>
+      </c>
+      <c r="AM94">
+        <v>1.87</v>
+      </c>
+      <c r="AN94">
+        <v>0.86</v>
+      </c>
+      <c r="AO94">
+        <v>0.86</v>
+      </c>
+      <c r="AP94">
+        <v>1.13</v>
+      </c>
+      <c r="AQ94">
+        <v>0.75</v>
+      </c>
+      <c r="AR94">
+        <v>1.63</v>
+      </c>
+      <c r="AS94">
+        <v>1.21</v>
+      </c>
+      <c r="AT94">
+        <v>2.84</v>
+      </c>
+      <c r="AU94">
+        <v>9</v>
+      </c>
+      <c r="AV94">
+        <v>0</v>
+      </c>
+      <c r="AW94">
+        <v>8</v>
+      </c>
+      <c r="AX94">
+        <v>5</v>
+      </c>
+      <c r="AY94">
+        <v>20</v>
+      </c>
+      <c r="AZ94">
+        <v>7</v>
+      </c>
+      <c r="BA94">
+        <v>6</v>
+      </c>
+      <c r="BB94">
+        <v>4</v>
+      </c>
+      <c r="BC94">
+        <v>10</v>
+      </c>
+      <c r="BD94">
+        <v>1.58</v>
+      </c>
+      <c r="BE94">
+        <v>7</v>
+      </c>
+      <c r="BF94">
+        <v>2.6</v>
+      </c>
+      <c r="BG94">
+        <v>1.17</v>
+      </c>
+      <c r="BH94">
+        <v>4.35</v>
+      </c>
+      <c r="BI94">
+        <v>1.3</v>
+      </c>
+      <c r="BJ94">
+        <v>3.15</v>
+      </c>
+      <c r="BK94">
+        <v>1.5</v>
+      </c>
+      <c r="BL94">
+        <v>2.35</v>
+      </c>
+      <c r="BM94">
+        <v>1.8</v>
+      </c>
+      <c r="BN94">
+        <v>1.89</v>
+      </c>
+      <c r="BO94">
+        <v>2.2</v>
+      </c>
+      <c r="BP94">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>['25']</t>
+  </si>
+  <si>
+    <t>['6', '37', '86']</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1357,7 +1360,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ2">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2796,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>1.43</v>
@@ -5474,7 +5477,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>1.71</v>
@@ -5683,7 +5686,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ23">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR23">
         <v>3.1</v>
@@ -6916,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
         <v>0.75</v>
@@ -7331,7 +7334,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ31">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR31">
         <v>1.46</v>
@@ -7534,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
         <v>0.89</v>
@@ -9800,7 +9803,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
         <v>3</v>
@@ -11451,7 +11454,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11860,7 +11863,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ53">
         <v>0.8</v>
@@ -13096,7 +13099,7 @@
         <v>0.25</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59">
         <v>0.63</v>
@@ -13923,7 +13926,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ63">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR63">
         <v>1.25</v>
@@ -16392,7 +16395,7 @@
         <v>1.8</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75">
         <v>1.5</v>
@@ -18455,7 +18458,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ85">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -19580,7 +19583,7 @@
         <v>45633.5</v>
       </c>
       <c r="F91">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
         <v>80</v>
@@ -19786,7 +19789,7 @@
         <v>45633.5</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G92" t="s">
         <v>74</v>
@@ -20385,6 +20388,212 @@
       </c>
       <c r="BP94">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7480232</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45634.375</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s">
+        <v>76</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>3</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>82</v>
+      </c>
+      <c r="P95" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q95">
+        <v>10</v>
+      </c>
+      <c r="R95">
+        <v>2.88</v>
+      </c>
+      <c r="S95">
+        <v>1.57</v>
+      </c>
+      <c r="T95">
+        <v>1.22</v>
+      </c>
+      <c r="U95">
+        <v>4</v>
+      </c>
+      <c r="V95">
+        <v>2.1</v>
+      </c>
+      <c r="W95">
+        <v>1.67</v>
+      </c>
+      <c r="X95">
+        <v>4.5</v>
+      </c>
+      <c r="Y95">
+        <v>1.18</v>
+      </c>
+      <c r="Z95">
+        <v>15</v>
+      </c>
+      <c r="AA95">
+        <v>8</v>
+      </c>
+      <c r="AB95">
+        <v>1.14</v>
+      </c>
+      <c r="AC95">
+        <v>1.02</v>
+      </c>
+      <c r="AD95">
+        <v>19</v>
+      </c>
+      <c r="AE95">
+        <v>1.12</v>
+      </c>
+      <c r="AF95">
+        <v>6</v>
+      </c>
+      <c r="AG95">
+        <v>1.37</v>
+      </c>
+      <c r="AH95">
+        <v>2.95</v>
+      </c>
+      <c r="AI95">
+        <v>2.05</v>
+      </c>
+      <c r="AJ95">
+        <v>1.7</v>
+      </c>
+      <c r="AK95">
+        <v>4.5</v>
+      </c>
+      <c r="AL95">
+        <v>1.09</v>
+      </c>
+      <c r="AM95">
+        <v>1.03</v>
+      </c>
+      <c r="AN95">
+        <v>1.5</v>
+      </c>
+      <c r="AO95">
+        <v>1.17</v>
+      </c>
+      <c r="AP95">
+        <v>1.33</v>
+      </c>
+      <c r="AQ95">
+        <v>1.43</v>
+      </c>
+      <c r="AR95">
+        <v>1.29</v>
+      </c>
+      <c r="AS95">
+        <v>1.51</v>
+      </c>
+      <c r="AT95">
+        <v>2.8</v>
+      </c>
+      <c r="AU95">
+        <v>3</v>
+      </c>
+      <c r="AV95">
+        <v>10</v>
+      </c>
+      <c r="AW95">
+        <v>3</v>
+      </c>
+      <c r="AX95">
+        <v>5</v>
+      </c>
+      <c r="AY95">
+        <v>11</v>
+      </c>
+      <c r="AZ95">
+        <v>20</v>
+      </c>
+      <c r="BA95">
+        <v>8</v>
+      </c>
+      <c r="BB95">
+        <v>10</v>
+      </c>
+      <c r="BC95">
+        <v>18</v>
+      </c>
+      <c r="BD95">
+        <v>6.1</v>
+      </c>
+      <c r="BE95">
+        <v>11</v>
+      </c>
+      <c r="BF95">
+        <v>1.12</v>
+      </c>
+      <c r="BG95">
+        <v>1.17</v>
+      </c>
+      <c r="BH95">
+        <v>4.35</v>
+      </c>
+      <c r="BI95">
+        <v>1.3</v>
+      </c>
+      <c r="BJ95">
+        <v>3.15</v>
+      </c>
+      <c r="BK95">
+        <v>1.5</v>
+      </c>
+      <c r="BL95">
+        <v>2.4</v>
+      </c>
+      <c r="BM95">
+        <v>1.8</v>
+      </c>
+      <c r="BN95">
+        <v>1.91</v>
+      </c>
+      <c r="BO95">
+        <v>2.17</v>
+      </c>
+      <c r="BP95">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,15 @@
     <t>['21', '31']</t>
   </si>
   <si>
+    <t>['52', '81']</t>
+  </si>
+  <si>
+    <t>['45+6', '73', '90+4']</t>
+  </si>
+  <si>
+    <t>['1', '33', '40', '67']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -659,6 +668,15 @@
   </si>
   <si>
     <t>['6', '37', '86']</t>
+  </si>
+  <si>
+    <t>['10', '88', '90+9']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['7', '54', '87']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1563,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ3">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1691,7 +1709,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2309,7 +2327,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2387,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ7">
         <v>1.71</v>
@@ -2515,7 +2533,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2721,7 +2739,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2802,7 +2820,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2927,7 +2945,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3133,7 +3151,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3211,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ11">
         <v>3</v>
@@ -3339,7 +3357,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3420,7 +3438,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ12">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3545,7 +3563,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3957,7 +3975,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4035,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ15">
         <v>0.75</v>
@@ -4244,7 +4262,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ16">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR16">
         <v>2.02</v>
@@ -4369,7 +4387,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4653,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ18">
         <v>0.5</v>
@@ -4987,7 +5005,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5068,7 +5086,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ20">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -5193,7 +5211,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5271,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5399,7 +5417,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5811,7 +5829,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5892,7 +5910,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ24">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
         <v>1.14</v>
@@ -6017,7 +6035,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6713,7 +6731,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ28">
         <v>0.89</v>
@@ -7047,7 +7065,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7253,7 +7271,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7459,7 +7477,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7665,7 +7683,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7871,7 +7889,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7952,7 +7970,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ34">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR34">
         <v>1.25</v>
@@ -8077,7 +8095,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8158,7 +8176,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.32</v>
@@ -8283,7 +8301,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8361,10 +8379,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ36">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR36">
         <v>1.45</v>
@@ -8489,7 +8507,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8695,7 +8713,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8773,7 +8791,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ38">
         <v>3</v>
@@ -9107,7 +9125,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9188,7 +9206,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ40">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR40">
         <v>0.9399999999999999</v>
@@ -9313,7 +9331,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9391,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ41">
         <v>1.5</v>
@@ -9519,7 +9537,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9725,7 +9743,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9931,7 +9949,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10343,7 +10361,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10549,7 +10567,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10836,7 +10854,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ48">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR48">
         <v>1.61</v>
@@ -10961,7 +10979,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11039,7 +11057,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ49">
         <v>0.75</v>
@@ -11245,10 +11263,10 @@
         <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ50">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11579,7 +11597,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11785,7 +11803,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12072,7 +12090,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ54">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR54">
         <v>1.17</v>
@@ -12275,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ55">
         <v>0.5</v>
@@ -12403,7 +12421,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -12481,7 +12499,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ56">
         <v>3</v>
@@ -12609,7 +12627,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>1.62</v>
@@ -12690,7 +12708,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ57">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR57">
         <v>1.86</v>
@@ -12815,7 +12833,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13227,7 +13245,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13433,7 +13451,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13845,7 +13863,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -14051,7 +14069,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14129,7 +14147,7 @@
         <v>0.17</v>
       </c>
       <c r="AP64">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14338,7 +14356,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ65">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR65">
         <v>1.13</v>
@@ -14463,7 +14481,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14669,7 +14687,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -14747,10 +14765,10 @@
         <v>1.6</v>
       </c>
       <c r="AP67">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ67">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR67">
         <v>1.3</v>
@@ -14956,7 +14974,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ68">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR68">
         <v>1.22</v>
@@ -15081,7 +15099,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15159,10 +15177,10 @@
         <v>0.2</v>
       </c>
       <c r="AP69">
+        <v>1.11</v>
+      </c>
+      <c r="AQ69">
         <v>0.88</v>
-      </c>
-      <c r="AQ69">
-        <v>0.57</v>
       </c>
       <c r="AR69">
         <v>1.35</v>
@@ -15287,7 +15305,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15365,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ70">
         <v>0.89</v>
@@ -15493,7 +15511,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15699,7 +15717,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -16189,7 +16207,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ74">
         <v>0.8</v>
@@ -16317,7 +16335,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16604,7 +16622,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ76">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR76">
         <v>1.75</v>
@@ -16729,7 +16747,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16935,7 +16953,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17141,7 +17159,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17347,7 +17365,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17425,7 +17443,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ80">
         <v>1.71</v>
@@ -17634,7 +17652,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ81">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR81">
         <v>2.21</v>
@@ -17840,7 +17858,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ82">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -17965,7 +17983,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18171,7 +18189,7 @@
         <v>82</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18249,7 +18267,7 @@
         <v>0.33</v>
       </c>
       <c r="AP84">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ84">
         <v>0.63</v>
@@ -18377,7 +18395,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q85">
         <v>7.5</v>
@@ -18455,7 +18473,7 @@
         <v>0.8</v>
       </c>
       <c r="AP85">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ85">
         <v>1.43</v>
@@ -18583,7 +18601,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18995,7 +19013,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19201,7 +19219,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19613,7 +19631,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>2.3</v>
@@ -20437,7 +20455,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -20594,6 +20612,624 @@
       </c>
       <c r="BP95">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7480239</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F96">
+        <v>17</v>
+      </c>
+      <c r="G96" t="s">
+        <v>75</v>
+      </c>
+      <c r="H96" t="s">
+        <v>73</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>3</v>
+      </c>
+      <c r="N96">
+        <v>5</v>
+      </c>
+      <c r="O96" t="s">
+        <v>157</v>
+      </c>
+      <c r="P96" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q96">
+        <v>3.5</v>
+      </c>
+      <c r="R96">
+        <v>2.1</v>
+      </c>
+      <c r="S96">
+        <v>3.1</v>
+      </c>
+      <c r="T96">
+        <v>1.44</v>
+      </c>
+      <c r="U96">
+        <v>2.63</v>
+      </c>
+      <c r="V96">
+        <v>3.25</v>
+      </c>
+      <c r="W96">
+        <v>1.33</v>
+      </c>
+      <c r="X96">
+        <v>9</v>
+      </c>
+      <c r="Y96">
+        <v>1.07</v>
+      </c>
+      <c r="Z96">
+        <v>2.7</v>
+      </c>
+      <c r="AA96">
+        <v>3.4</v>
+      </c>
+      <c r="AB96">
+        <v>2.38</v>
+      </c>
+      <c r="AC96">
+        <v>1.05</v>
+      </c>
+      <c r="AD96">
+        <v>11</v>
+      </c>
+      <c r="AE96">
+        <v>1.3</v>
+      </c>
+      <c r="AF96">
+        <v>3.4</v>
+      </c>
+      <c r="AG96">
+        <v>1.84</v>
+      </c>
+      <c r="AH96">
+        <v>1.97</v>
+      </c>
+      <c r="AI96">
+        <v>1.8</v>
+      </c>
+      <c r="AJ96">
+        <v>1.95</v>
+      </c>
+      <c r="AK96">
+        <v>1.55</v>
+      </c>
+      <c r="AL96">
+        <v>1.28</v>
+      </c>
+      <c r="AM96">
+        <v>1.45</v>
+      </c>
+      <c r="AN96">
+        <v>0.86</v>
+      </c>
+      <c r="AO96">
+        <v>0.57</v>
+      </c>
+      <c r="AP96">
+        <v>0.75</v>
+      </c>
+      <c r="AQ96">
+        <v>0.88</v>
+      </c>
+      <c r="AR96">
+        <v>1.26</v>
+      </c>
+      <c r="AS96">
+        <v>1.2</v>
+      </c>
+      <c r="AT96">
+        <v>2.46</v>
+      </c>
+      <c r="AU96">
+        <v>4</v>
+      </c>
+      <c r="AV96">
+        <v>5</v>
+      </c>
+      <c r="AW96">
+        <v>5</v>
+      </c>
+      <c r="AX96">
+        <v>3</v>
+      </c>
+      <c r="AY96">
+        <v>10</v>
+      </c>
+      <c r="AZ96">
+        <v>9</v>
+      </c>
+      <c r="BA96">
+        <v>1</v>
+      </c>
+      <c r="BB96">
+        <v>2</v>
+      </c>
+      <c r="BC96">
+        <v>3</v>
+      </c>
+      <c r="BD96">
+        <v>2.07</v>
+      </c>
+      <c r="BE96">
+        <v>6.4</v>
+      </c>
+      <c r="BF96">
+        <v>1.92</v>
+      </c>
+      <c r="BG96">
+        <v>1.24</v>
+      </c>
+      <c r="BH96">
+        <v>3.55</v>
+      </c>
+      <c r="BI96">
+        <v>1.41</v>
+      </c>
+      <c r="BJ96">
+        <v>2.65</v>
+      </c>
+      <c r="BK96">
+        <v>1.68</v>
+      </c>
+      <c r="BL96">
+        <v>2.02</v>
+      </c>
+      <c r="BM96">
+        <v>2.08</v>
+      </c>
+      <c r="BN96">
+        <v>1.65</v>
+      </c>
+      <c r="BO96">
+        <v>2.65</v>
+      </c>
+      <c r="BP96">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7480235</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F97">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s">
+        <v>77</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>3</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97" t="s">
+        <v>158</v>
+      </c>
+      <c r="P97" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q97">
+        <v>2.05</v>
+      </c>
+      <c r="R97">
+        <v>2.3</v>
+      </c>
+      <c r="S97">
+        <v>6</v>
+      </c>
+      <c r="T97">
+        <v>1.36</v>
+      </c>
+      <c r="U97">
+        <v>3</v>
+      </c>
+      <c r="V97">
+        <v>2.63</v>
+      </c>
+      <c r="W97">
+        <v>1.44</v>
+      </c>
+      <c r="X97">
+        <v>7</v>
+      </c>
+      <c r="Y97">
+        <v>1.1</v>
+      </c>
+      <c r="Z97">
+        <v>1.57</v>
+      </c>
+      <c r="AA97">
+        <v>4</v>
+      </c>
+      <c r="AB97">
+        <v>5</v>
+      </c>
+      <c r="AC97">
+        <v>1.03</v>
+      </c>
+      <c r="AD97">
+        <v>13</v>
+      </c>
+      <c r="AE97">
+        <v>1.25</v>
+      </c>
+      <c r="AF97">
+        <v>3.75</v>
+      </c>
+      <c r="AG97">
+        <v>1.83</v>
+      </c>
+      <c r="AH97">
+        <v>2.01</v>
+      </c>
+      <c r="AI97">
+        <v>1.95</v>
+      </c>
+      <c r="AJ97">
+        <v>1.8</v>
+      </c>
+      <c r="AK97">
+        <v>1.12</v>
+      </c>
+      <c r="AL97">
+        <v>1.18</v>
+      </c>
+      <c r="AM97">
+        <v>2.45</v>
+      </c>
+      <c r="AN97">
+        <v>0.88</v>
+      </c>
+      <c r="AO97">
+        <v>0.43</v>
+      </c>
+      <c r="AP97">
+        <v>1.11</v>
+      </c>
+      <c r="AQ97">
+        <v>0.38</v>
+      </c>
+      <c r="AR97">
+        <v>1.38</v>
+      </c>
+      <c r="AS97">
+        <v>0.76</v>
+      </c>
+      <c r="AT97">
+        <v>2.14</v>
+      </c>
+      <c r="AU97">
+        <v>8</v>
+      </c>
+      <c r="AV97">
+        <v>5</v>
+      </c>
+      <c r="AW97">
+        <v>10</v>
+      </c>
+      <c r="AX97">
+        <v>1</v>
+      </c>
+      <c r="AY97">
+        <v>20</v>
+      </c>
+      <c r="AZ97">
+        <v>14</v>
+      </c>
+      <c r="BA97">
+        <v>9</v>
+      </c>
+      <c r="BB97">
+        <v>15</v>
+      </c>
+      <c r="BC97">
+        <v>24</v>
+      </c>
+      <c r="BD97">
+        <v>1.28</v>
+      </c>
+      <c r="BE97">
+        <v>8</v>
+      </c>
+      <c r="BF97">
+        <v>3.95</v>
+      </c>
+      <c r="BG97">
+        <v>1.16</v>
+      </c>
+      <c r="BH97">
+        <v>4.4</v>
+      </c>
+      <c r="BI97">
+        <v>1.29</v>
+      </c>
+      <c r="BJ97">
+        <v>3.2</v>
+      </c>
+      <c r="BK97">
+        <v>1.47</v>
+      </c>
+      <c r="BL97">
+        <v>2.43</v>
+      </c>
+      <c r="BM97">
+        <v>1.75</v>
+      </c>
+      <c r="BN97">
+        <v>1.95</v>
+      </c>
+      <c r="BO97">
+        <v>2.14</v>
+      </c>
+      <c r="BP97">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7480237</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>71</v>
+      </c>
+      <c r="H98" t="s">
+        <v>72</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>4</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <v>7</v>
+      </c>
+      <c r="O98" t="s">
+        <v>159</v>
+      </c>
+      <c r="P98" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q98">
+        <v>3.1</v>
+      </c>
+      <c r="R98">
+        <v>2.1</v>
+      </c>
+      <c r="S98">
+        <v>3.5</v>
+      </c>
+      <c r="T98">
+        <v>1.44</v>
+      </c>
+      <c r="U98">
+        <v>2.63</v>
+      </c>
+      <c r="V98">
+        <v>3.25</v>
+      </c>
+      <c r="W98">
+        <v>1.33</v>
+      </c>
+      <c r="X98">
+        <v>9</v>
+      </c>
+      <c r="Y98">
+        <v>1.07</v>
+      </c>
+      <c r="Z98">
+        <v>2.2</v>
+      </c>
+      <c r="AA98">
+        <v>3.4</v>
+      </c>
+      <c r="AB98">
+        <v>2.9</v>
+      </c>
+      <c r="AC98">
+        <v>1.05</v>
+      </c>
+      <c r="AD98">
+        <v>10</v>
+      </c>
+      <c r="AE98">
+        <v>1.33</v>
+      </c>
+      <c r="AF98">
+        <v>3.25</v>
+      </c>
+      <c r="AG98">
+        <v>1.87</v>
+      </c>
+      <c r="AH98">
+        <v>1.93</v>
+      </c>
+      <c r="AI98">
+        <v>1.8</v>
+      </c>
+      <c r="AJ98">
+        <v>1.95</v>
+      </c>
+      <c r="AK98">
+        <v>1.47</v>
+      </c>
+      <c r="AL98">
+        <v>1.28</v>
+      </c>
+      <c r="AM98">
+        <v>1.52</v>
+      </c>
+      <c r="AN98">
+        <v>1.43</v>
+      </c>
+      <c r="AO98">
+        <v>1.43</v>
+      </c>
+      <c r="AP98">
+        <v>1.63</v>
+      </c>
+      <c r="AQ98">
+        <v>1.25</v>
+      </c>
+      <c r="AR98">
+        <v>1.21</v>
+      </c>
+      <c r="AS98">
+        <v>1.09</v>
+      </c>
+      <c r="AT98">
+        <v>2.3</v>
+      </c>
+      <c r="AU98">
+        <v>7</v>
+      </c>
+      <c r="AV98">
+        <v>10</v>
+      </c>
+      <c r="AW98">
+        <v>3</v>
+      </c>
+      <c r="AX98">
+        <v>6</v>
+      </c>
+      <c r="AY98">
+        <v>13</v>
+      </c>
+      <c r="AZ98">
+        <v>18</v>
+      </c>
+      <c r="BA98">
+        <v>2</v>
+      </c>
+      <c r="BB98">
+        <v>3</v>
+      </c>
+      <c r="BC98">
+        <v>5</v>
+      </c>
+      <c r="BD98">
+        <v>1.74</v>
+      </c>
+      <c r="BE98">
+        <v>6.75</v>
+      </c>
+      <c r="BF98">
+        <v>2.28</v>
+      </c>
+      <c r="BG98">
+        <v>1.22</v>
+      </c>
+      <c r="BH98">
+        <v>3.7</v>
+      </c>
+      <c r="BI98">
+        <v>1.38</v>
+      </c>
+      <c r="BJ98">
+        <v>2.7</v>
+      </c>
+      <c r="BK98">
+        <v>1.65</v>
+      </c>
+      <c r="BL98">
+        <v>2.08</v>
+      </c>
+      <c r="BM98">
+        <v>2</v>
+      </c>
+      <c r="BN98">
+        <v>1.71</v>
+      </c>
+      <c r="BO98">
+        <v>2.55</v>
+      </c>
+      <c r="BP98">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,9 @@
     <t>['1', '33', '40', '67']</t>
   </si>
   <si>
+    <t>['18']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -548,9 +551,6 @@
   </si>
   <si>
     <t>['44', '60', '84']</t>
-  </si>
-  <si>
-    <t>['18']</t>
   </si>
   <si>
     <t>['35']</t>
@@ -1038,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1709,7 +1709,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2327,7 +2327,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2533,7 +2533,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2739,7 +2739,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2945,7 +2945,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3026,7 +3026,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3151,7 +3151,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3357,7 +3357,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3563,7 +3563,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ13">
         <v>0.89</v>
@@ -3975,7 +3975,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4387,7 +4387,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4674,7 +4674,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ18">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR18">
         <v>1.47</v>
@@ -5005,7 +5005,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5211,7 +5211,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5417,7 +5417,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5829,7 +5829,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -6035,7 +6035,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6113,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ25">
         <v>0.63</v>
@@ -6528,7 +6528,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR27">
         <v>2.21</v>
@@ -7065,7 +7065,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7271,7 +7271,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7477,7 +7477,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7683,7 +7683,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7764,7 +7764,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR33">
         <v>0.87</v>
@@ -8173,7 +8173,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
         <v>1.25</v>
@@ -10030,7 +10030,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR44">
         <v>1.19</v>
@@ -11469,7 +11469,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51">
         <v>1.43</v>
@@ -12296,7 +12296,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ55">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR55">
         <v>1.27</v>
@@ -14150,7 +14150,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -15795,7 +15795,7 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ72">
         <v>3</v>
@@ -16004,7 +16004,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR73">
         <v>1.87</v>
@@ -16747,7 +16747,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -18061,7 +18061,7 @@
         <v>0.83</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ83">
         <v>0.75</v>
@@ -21230,6 +21230,212 @@
       </c>
       <c r="BP98">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7480236</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45641.5</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>81</v>
+      </c>
+      <c r="H99" t="s">
+        <v>70</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>160</v>
+      </c>
+      <c r="P99" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q99">
+        <v>3.6</v>
+      </c>
+      <c r="R99">
+        <v>2.1</v>
+      </c>
+      <c r="S99">
+        <v>3</v>
+      </c>
+      <c r="T99">
+        <v>1.4</v>
+      </c>
+      <c r="U99">
+        <v>2.75</v>
+      </c>
+      <c r="V99">
+        <v>3</v>
+      </c>
+      <c r="W99">
+        <v>1.36</v>
+      </c>
+      <c r="X99">
+        <v>8</v>
+      </c>
+      <c r="Y99">
+        <v>1.08</v>
+      </c>
+      <c r="Z99">
+        <v>3</v>
+      </c>
+      <c r="AA99">
+        <v>3.4</v>
+      </c>
+      <c r="AB99">
+        <v>2.25</v>
+      </c>
+      <c r="AC99">
+        <v>1.05</v>
+      </c>
+      <c r="AD99">
+        <v>9</v>
+      </c>
+      <c r="AE99">
+        <v>1.3</v>
+      </c>
+      <c r="AF99">
+        <v>3.4</v>
+      </c>
+      <c r="AG99">
+        <v>2.15</v>
+      </c>
+      <c r="AH99">
+        <v>1.68</v>
+      </c>
+      <c r="AI99">
+        <v>1.8</v>
+      </c>
+      <c r="AJ99">
+        <v>1.95</v>
+      </c>
+      <c r="AK99">
+        <v>1.62</v>
+      </c>
+      <c r="AL99">
+        <v>1.25</v>
+      </c>
+      <c r="AM99">
+        <v>1.35</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
+        <v>0.5</v>
+      </c>
+      <c r="AP99">
+        <v>1.29</v>
+      </c>
+      <c r="AQ99">
+        <v>0.44</v>
+      </c>
+      <c r="AR99">
+        <v>1.4</v>
+      </c>
+      <c r="AS99">
+        <v>1.03</v>
+      </c>
+      <c r="AT99">
+        <v>2.43</v>
+      </c>
+      <c r="AU99">
+        <v>6</v>
+      </c>
+      <c r="AV99">
+        <v>5</v>
+      </c>
+      <c r="AW99">
+        <v>1</v>
+      </c>
+      <c r="AX99">
+        <v>8</v>
+      </c>
+      <c r="AY99">
+        <v>8</v>
+      </c>
+      <c r="AZ99">
+        <v>15</v>
+      </c>
+      <c r="BA99">
+        <v>3</v>
+      </c>
+      <c r="BB99">
+        <v>6</v>
+      </c>
+      <c r="BC99">
+        <v>9</v>
+      </c>
+      <c r="BD99">
+        <v>2.07</v>
+      </c>
+      <c r="BE99">
+        <v>7</v>
+      </c>
+      <c r="BF99">
+        <v>1.89</v>
+      </c>
+      <c r="BG99">
+        <v>1.18</v>
+      </c>
+      <c r="BH99">
+        <v>4.2</v>
+      </c>
+      <c r="BI99">
+        <v>1.3</v>
+      </c>
+      <c r="BJ99">
+        <v>3.05</v>
+      </c>
+      <c r="BK99">
+        <v>1.52</v>
+      </c>
+      <c r="BL99">
+        <v>2.32</v>
+      </c>
+      <c r="BM99">
+        <v>1.82</v>
+      </c>
+      <c r="BN99">
+        <v>1.86</v>
+      </c>
+      <c r="BO99">
+        <v>2.23</v>
+      </c>
+      <c r="BP99">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.13</v>
+        <v>0.76</v>
       </c>
       <c r="AQ2">
-        <v>1.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ3">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1787,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>1.19</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1993,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="AQ5">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2199,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.71</v>
+        <v>2.87</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="AQ7">
-        <v>1.71</v>
+        <v>2.13</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>4.33</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>2.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AU8">
         <v>10</v>
@@ -2811,25 +2811,25 @@
         <v>1.5</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="AQ9">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AU9">
         <v>6</v>
@@ -3017,25 +3017,25 @@
         <v>1.36</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.63</v>
+        <v>1.19</v>
       </c>
       <c r="AQ10">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AU10">
         <v>8</v>
@@ -3226,22 +3226,22 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="AQ11">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>4.57</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3429,25 +3429,25 @@
         <v>1.95</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>2.44</v>
+        <v>2.13</v>
       </c>
       <c r="AQ12">
-        <v>0.88</v>
+        <v>1.24</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3641,19 +3641,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AU13">
         <v>3</v>
@@ -3844,22 +3844,22 @@
         <v>1</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="AR14">
-        <v>2.04</v>
+        <v>1.54</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT14">
-        <v>3.54</v>
+        <v>2.98</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -4050,22 +4050,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP15">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="AQ15">
-        <v>0.75</v>
+        <v>1.19</v>
       </c>
       <c r="AR15">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AT15">
-        <v>2.13</v>
+        <v>2.58</v>
       </c>
       <c r="AU15">
         <v>3</v>
@@ -4253,25 +4253,25 @@
         <v>4.5</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO16">
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>2.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ16">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AR16">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="AS16">
-        <v>1.11</v>
+        <v>1.39</v>
       </c>
       <c r="AT16">
-        <v>3.13</v>
+        <v>2.99</v>
       </c>
       <c r="AU16">
         <v>10</v>
@@ -4459,25 +4459,25 @@
         <v>1.02</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO17">
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="AQ17">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AR17">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AS17">
-        <v>1.65</v>
+        <v>2.38</v>
       </c>
       <c r="AT17">
-        <v>2.72</v>
+        <v>3.53</v>
       </c>
       <c r="AU17">
         <v>2</v>
@@ -4665,25 +4665,25 @@
         <v>1.4</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ18">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
       <c r="AR18">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="AS18">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AT18">
-        <v>2.86</v>
+        <v>2.44</v>
       </c>
       <c r="AU18">
         <v>7</v>
@@ -4877,19 +4877,19 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.44</v>
+        <v>2.13</v>
       </c>
       <c r="AQ19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR19">
-        <v>1.1</v>
+        <v>1.43</v>
       </c>
       <c r="AS19">
-        <v>0.6899999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AT19">
-        <v>1.79</v>
+        <v>2.48</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -5077,25 +5077,25 @@
         <v>1.73</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.63</v>
+        <v>1.19</v>
       </c>
       <c r="AQ20">
-        <v>0.88</v>
+        <v>1.24</v>
       </c>
       <c r="AR20">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="AS20">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AT20">
-        <v>2.78</v>
+        <v>2.36</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5283,25 +5283,25 @@
         <v>1.42</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR21">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="AS21">
-        <v>0.88</v>
+        <v>1.26</v>
       </c>
       <c r="AT21">
-        <v>2.27</v>
+        <v>2.54</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5489,25 +5489,25 @@
         <v>1.3</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO22">
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="AQ22">
-        <v>1.71</v>
+        <v>2.13</v>
       </c>
       <c r="AR22">
-        <v>1.66</v>
+        <v>1.12</v>
       </c>
       <c r="AS22">
-        <v>1.77</v>
+        <v>1.34</v>
       </c>
       <c r="AT22">
-        <v>3.43</v>
+        <v>2.46</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5698,22 +5698,22 @@
         <v>3</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP23">
-        <v>2.71</v>
+        <v>2.87</v>
       </c>
       <c r="AQ23">
-        <v>1.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR23">
-        <v>3.1</v>
+        <v>2.22</v>
       </c>
       <c r="AS23">
-        <v>1.18</v>
+        <v>1.74</v>
       </c>
       <c r="AT23">
-        <v>4.28</v>
+        <v>3.96</v>
       </c>
       <c r="AU23">
         <v>5</v>
@@ -5901,25 +5901,25 @@
         <v>2</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.13</v>
+        <v>0.76</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AS24">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AT24">
-        <v>2.19</v>
+        <v>2.47</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6110,22 +6110,22 @@
         <v>0</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP25">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR25">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="AS25">
-        <v>1.47</v>
+        <v>1.06</v>
       </c>
       <c r="AT25">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6316,22 +6316,22 @@
         <v>3</v>
       </c>
       <c r="AO26">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP26">
-        <v>2.44</v>
+        <v>2.13</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR26">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AS26">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AT26">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6522,22 +6522,22 @@
         <v>3</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP27">
-        <v>2.71</v>
+        <v>2.87</v>
       </c>
       <c r="AQ27">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
       <c r="AR27">
-        <v>2.21</v>
+        <v>1.99</v>
       </c>
       <c r="AS27">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AT27">
-        <v>3.36</v>
+        <v>3.19</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -6728,22 +6728,22 @@
         <v>0.5</v>
       </c>
       <c r="AO28">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP28">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="AQ28">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="AR28">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="AS28">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AT28">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -6934,22 +6934,22 @@
         <v>0.5</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>1.19</v>
       </c>
       <c r="AR29">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AS29">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AT29">
-        <v>2.72</v>
+        <v>2.53</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7137,25 +7137,25 @@
         <v>1.66</v>
       </c>
       <c r="AN30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP30">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR30">
-        <v>0.76</v>
+        <v>1.05</v>
       </c>
       <c r="AS30">
-        <v>0.85</v>
+        <v>1.09</v>
       </c>
       <c r="AT30">
-        <v>1.61</v>
+        <v>2.14</v>
       </c>
       <c r="AU30">
         <v>4</v>
@@ -7346,22 +7346,22 @@
         <v>2</v>
       </c>
       <c r="AO31">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>1.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR31">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AS31">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="AT31">
-        <v>2.72</v>
+        <v>2.91</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7549,25 +7549,25 @@
         <v>1.75</v>
       </c>
       <c r="AN32">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="AQ32">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="AR32">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="AS32">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="AT32">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AU32">
         <v>7</v>
@@ -7755,25 +7755,25 @@
         <v>1.41</v>
       </c>
       <c r="AN33">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AP33">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="AQ33">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
       <c r="AR33">
-        <v>0.87</v>
+        <v>1.06</v>
       </c>
       <c r="AS33">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AT33">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -7961,25 +7961,25 @@
         <v>2.25</v>
       </c>
       <c r="AN34">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AO34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.13</v>
+        <v>0.76</v>
       </c>
       <c r="AQ34">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AR34">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AS34">
-        <v>0.84</v>
+        <v>1.21</v>
       </c>
       <c r="AT34">
-        <v>2.09</v>
+        <v>2.35</v>
       </c>
       <c r="AU34">
         <v>9</v>
@@ -8167,25 +8167,25 @@
         <v>1.66</v>
       </c>
       <c r="AN35">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO35">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="AS35">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="AT35">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8373,25 +8373,25 @@
         <v>1.58</v>
       </c>
       <c r="AN36">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ36">
-        <v>0.88</v>
+        <v>1.24</v>
       </c>
       <c r="AR36">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="AS36">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="AT36">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8579,25 +8579,25 @@
         <v>1.45</v>
       </c>
       <c r="AN37">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AO37">
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.63</v>
+        <v>1.19</v>
       </c>
       <c r="AQ37">
-        <v>1.71</v>
+        <v>2.13</v>
       </c>
       <c r="AR37">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="AS37">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AT37">
-        <v>2.92</v>
+        <v>2.65</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -8785,25 +8785,25 @@
         <v>1.04</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO38">
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="AQ38">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AR38">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="AS38">
-        <v>1.78</v>
+        <v>2.01</v>
       </c>
       <c r="AT38">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -8991,25 +8991,25 @@
         <v>2.9</v>
       </c>
       <c r="AN39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ39">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR39">
-        <v>2.01</v>
+        <v>1.59</v>
       </c>
       <c r="AS39">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AT39">
-        <v>3.33</v>
+        <v>2.79</v>
       </c>
       <c r="AU39">
         <v>5</v>
@@ -9197,25 +9197,25 @@
         <v>1.63</v>
       </c>
       <c r="AN40">
-        <v>1.75</v>
+        <v>1.14</v>
       </c>
       <c r="AO40">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="AQ40">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
-        <v>0.9399999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="AS40">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT40">
-        <v>2.3</v>
+        <v>2.49</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9403,25 +9403,25 @@
         <v>1.77</v>
       </c>
       <c r="AN41">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP41">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR41">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="AS41">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AT41">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="AU41">
         <v>8</v>
@@ -9609,25 +9609,25 @@
         <v>1.62</v>
       </c>
       <c r="AN42">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO42">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.63</v>
+        <v>1.19</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR42">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="AS42">
-        <v>0.99</v>
+        <v>1.15</v>
       </c>
       <c r="AT42">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -9815,25 +9815,25 @@
         <v>1.02</v>
       </c>
       <c r="AN43">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO43">
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="AQ43">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AR43">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="AS43">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT43">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="AU43">
         <v>6</v>
@@ -10024,22 +10024,22 @@
         <v>3</v>
       </c>
       <c r="AO44">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AP44">
-        <v>2.44</v>
+        <v>2.13</v>
       </c>
       <c r="AQ44">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
       <c r="AR44">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AS44">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="AT44">
-        <v>2.27</v>
+        <v>2.52</v>
       </c>
       <c r="AU44">
         <v>4</v>
@@ -10227,25 +10227,25 @@
         <v>5.7</v>
       </c>
       <c r="AN45">
-        <v>3</v>
+        <v>2.17</v>
       </c>
       <c r="AO45">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AP45">
-        <v>2.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ45">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="AR45">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="AS45">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="AT45">
-        <v>2.87</v>
+        <v>2.66</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10439,19 +10439,19 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.71</v>
+        <v>2.87</v>
       </c>
       <c r="AQ46">
-        <v>1.71</v>
+        <v>2.13</v>
       </c>
       <c r="AR46">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="AS46">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AT46">
-        <v>3.39</v>
+        <v>3.33</v>
       </c>
       <c r="AU46">
         <v>8</v>
@@ -10639,25 +10639,25 @@
         <v>1.57</v>
       </c>
       <c r="AN47">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AO47">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR47">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AS47">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="AT47">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AU47">
         <v>5</v>
@@ -10845,25 +10845,25 @@
         <v>2</v>
       </c>
       <c r="AN48">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
       <c r="AO48">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.13</v>
+        <v>0.76</v>
       </c>
       <c r="AQ48">
-        <v>0.88</v>
+        <v>1.24</v>
       </c>
       <c r="AR48">
-        <v>1.61</v>
+        <v>1.31</v>
       </c>
       <c r="AS48">
-        <v>1.6</v>
+        <v>1.26</v>
       </c>
       <c r="AT48">
-        <v>3.21</v>
+        <v>2.57</v>
       </c>
       <c r="AU48">
         <v>5</v>
@@ -11051,25 +11051,25 @@
         <v>1.83</v>
       </c>
       <c r="AN49">
-        <v>2.33</v>
+        <v>1.86</v>
       </c>
       <c r="AO49">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AP49">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ49">
-        <v>0.75</v>
+        <v>1.19</v>
       </c>
       <c r="AR49">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AS49">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AT49">
-        <v>2.58</v>
+        <v>2.69</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11257,25 +11257,25 @@
         <v>1.5</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO50">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AP50">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="AQ50">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AR50">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="AS50">
-        <v>0.84</v>
+        <v>1.15</v>
       </c>
       <c r="AT50">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AU50">
         <v>8</v>
@@ -11463,25 +11463,25 @@
         <v>1.12</v>
       </c>
       <c r="AN51">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AO51">
-        <v>1.33</v>
+        <v>2.29</v>
       </c>
       <c r="AP51">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR51">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AS51">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="AT51">
-        <v>2.61</v>
+        <v>2.88</v>
       </c>
       <c r="AU51">
         <v>4</v>
@@ -11669,25 +11669,25 @@
         <v>2.15</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AO52">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="AP52">
-        <v>1.63</v>
+        <v>1.19</v>
       </c>
       <c r="AQ52">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="AR52">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="AS52">
-        <v>1.02</v>
+        <v>1.16</v>
       </c>
       <c r="AT52">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU52">
         <v>5</v>
@@ -11875,25 +11875,25 @@
         <v>1.36</v>
       </c>
       <c r="AN53">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="AQ53">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR53">
-        <v>1.34</v>
+        <v>1.08</v>
       </c>
       <c r="AS53">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AT53">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="AU53">
         <v>4</v>
@@ -12081,25 +12081,25 @@
         <v>2.2</v>
       </c>
       <c r="AN54">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AO54">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AP54">
-        <v>2.44</v>
+        <v>2.13</v>
       </c>
       <c r="AQ54">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AS54">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AT54">
-        <v>2.49</v>
+        <v>2.39</v>
       </c>
       <c r="AU54">
         <v>6</v>
@@ -12287,25 +12287,25 @@
         <v>1.6</v>
       </c>
       <c r="AN55">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AO55">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP55">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="AQ55">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
       <c r="AR55">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AS55">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="AT55">
-        <v>2.39</v>
+        <v>2.63</v>
       </c>
       <c r="AU55">
         <v>8</v>
@@ -12493,25 +12493,25 @@
         <v>1.02</v>
       </c>
       <c r="AN56">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AO56">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AP56">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ56">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AR56">
         <v>1.24</v>
       </c>
       <c r="AS56">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="AT56">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
       <c r="AU56">
         <v>3</v>
@@ -12699,25 +12699,25 @@
         <v>4</v>
       </c>
       <c r="AN57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO57">
-        <v>0.25</v>
+        <v>0.89</v>
       </c>
       <c r="AP57">
-        <v>2.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ57">
-        <v>0.88</v>
+        <v>1.24</v>
       </c>
       <c r="AR57">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="AS57">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AT57">
-        <v>3.15</v>
+        <v>2.73</v>
       </c>
       <c r="AU57">
         <v>8</v>
@@ -12905,25 +12905,25 @@
         <v>1.93</v>
       </c>
       <c r="AN58">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="AO58">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.13</v>
+        <v>0.76</v>
       </c>
       <c r="AQ58">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR58">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="AS58">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AT58">
-        <v>2.71</v>
+        <v>2.48</v>
       </c>
       <c r="AU58">
         <v>6</v>
@@ -13111,25 +13111,25 @@
         <v>1.33</v>
       </c>
       <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>0.67</v>
+      </c>
+      <c r="AP59">
+        <v>0.88</v>
+      </c>
+      <c r="AQ59">
+        <v>0.88</v>
+      </c>
+      <c r="AR59">
+        <v>1.09</v>
+      </c>
+      <c r="AS59">
         <v>1.33</v>
       </c>
-      <c r="AO59">
-        <v>0.25</v>
-      </c>
-      <c r="AP59">
-        <v>1.33</v>
-      </c>
-      <c r="AQ59">
-        <v>0.63</v>
-      </c>
-      <c r="AR59">
-        <v>1.31</v>
-      </c>
-      <c r="AS59">
-        <v>1.36</v>
-      </c>
       <c r="AT59">
-        <v>2.67</v>
+        <v>2.42</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13317,25 +13317,25 @@
         <v>2.05</v>
       </c>
       <c r="AN60">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AO60">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="AQ60">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="AR60">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="AS60">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AT60">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="AU60">
         <v>6</v>
@@ -13523,25 +13523,25 @@
         <v>1.67</v>
       </c>
       <c r="AN61">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AO61">
+        <v>1.44</v>
+      </c>
+      <c r="AP61">
         <v>1.5</v>
       </c>
-      <c r="AP61">
-        <v>1.75</v>
-      </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR61">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AS61">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AT61">
-        <v>2.39</v>
+        <v>2.38</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -13729,25 +13729,25 @@
         <v>6.25</v>
       </c>
       <c r="AN62">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="AO62">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.71</v>
+        <v>2.87</v>
       </c>
       <c r="AQ62">
-        <v>0.75</v>
+        <v>1.19</v>
       </c>
       <c r="AR62">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="AS62">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AT62">
-        <v>3.48</v>
+        <v>3.53</v>
       </c>
       <c r="AU62">
         <v>6</v>
@@ -13935,25 +13935,25 @@
         <v>1.25</v>
       </c>
       <c r="AN63">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AO63">
-        <v>1</v>
+        <v>2.11</v>
       </c>
       <c r="AP63">
-        <v>2.44</v>
+        <v>2.13</v>
       </c>
       <c r="AQ63">
-        <v>1.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR63">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AS63">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="AT63">
-        <v>2.53</v>
+        <v>2.81</v>
       </c>
       <c r="AU63">
         <v>7</v>
@@ -14141,25 +14141,25 @@
         <v>1.22</v>
       </c>
       <c r="AN64">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="AO64">
-        <v>0.17</v>
+        <v>0.55</v>
       </c>
       <c r="AP64">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="AQ64">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
       <c r="AR64">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AS64">
-        <v>1.12</v>
+        <v>1.32</v>
       </c>
       <c r="AT64">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14347,25 +14347,25 @@
         <v>2.05</v>
       </c>
       <c r="AN65">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="AQ65">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AR65">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AS65">
-        <v>0.77</v>
+        <v>1.1</v>
       </c>
       <c r="AT65">
-        <v>1.9</v>
+        <v>2.28</v>
       </c>
       <c r="AU65">
         <v>4</v>
@@ -14553,25 +14553,25 @@
         <v>1.53</v>
       </c>
       <c r="AN66">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AO66">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AP66">
-        <v>1.63</v>
+        <v>1.19</v>
       </c>
       <c r="AQ66">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR66">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AS66">
         <v>1.21</v>
       </c>
       <c r="AT66">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU66">
         <v>6</v>
@@ -14759,25 +14759,25 @@
         <v>2</v>
       </c>
       <c r="AN67">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO67">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="AQ67">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AS67">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AT67">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -14965,25 +14965,25 @@
         <v>2.05</v>
       </c>
       <c r="AN68">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AO68">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AR68">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS68">
-        <v>0.82</v>
+        <v>1.1</v>
       </c>
       <c r="AT68">
-        <v>2.04</v>
+        <v>2.29</v>
       </c>
       <c r="AU68">
         <v>5</v>
@@ -15171,25 +15171,25 @@
         <v>1.93</v>
       </c>
       <c r="AN69">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AO69">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="AQ69">
-        <v>0.88</v>
+        <v>1.24</v>
       </c>
       <c r="AR69">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AS69">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT69">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15377,25 +15377,25 @@
         <v>1.95</v>
       </c>
       <c r="AN70">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AO70">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP70">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="AR70">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AS70">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AT70">
-        <v>2.27</v>
+        <v>2.41</v>
       </c>
       <c r="AU70">
         <v>5</v>
@@ -15583,25 +15583,25 @@
         <v>2.15</v>
       </c>
       <c r="AN71">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AO71">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AP71">
-        <v>2.44</v>
+        <v>2.13</v>
       </c>
       <c r="AQ71">
-        <v>0.75</v>
+        <v>1.19</v>
       </c>
       <c r="AR71">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AS71">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AT71">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="AU71">
         <v>9</v>
@@ -15789,25 +15789,25 @@
         <v>1.07</v>
       </c>
       <c r="AN72">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AO72">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AP72">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AR72">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AS72">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="AT72">
-        <v>3.38</v>
+        <v>3.41</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -15995,25 +15995,25 @@
         <v>2.88</v>
       </c>
       <c r="AN73">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="AO73">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>2.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ73">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
       <c r="AR73">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="AS73">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="AT73">
-        <v>2.97</v>
+        <v>2.89</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16201,25 +16201,25 @@
         <v>1.36</v>
       </c>
       <c r="AN74">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="AO74">
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="AQ74">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR74">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="AS74">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AT74">
-        <v>2.61</v>
+        <v>2.49</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -16407,25 +16407,25 @@
         <v>1.45</v>
       </c>
       <c r="AN75">
-        <v>1.29</v>
+        <v>0.92</v>
       </c>
       <c r="AO75">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AP75">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR75">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="AS75">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AT75">
-        <v>2.52</v>
+        <v>2.31</v>
       </c>
       <c r="AU75">
         <v>-1</v>
@@ -16613,25 +16613,25 @@
         <v>3.75</v>
       </c>
       <c r="AN76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO76">
+        <v>1.58</v>
+      </c>
+      <c r="AP76">
+        <v>2.13</v>
+      </c>
+      <c r="AQ76">
         <v>1.5</v>
       </c>
-      <c r="AP76">
-        <v>2.75</v>
-      </c>
-      <c r="AQ76">
-        <v>1.25</v>
-      </c>
       <c r="AR76">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AS76">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="AT76">
-        <v>2.9</v>
+        <v>2.79</v>
       </c>
       <c r="AU76">
         <v>12</v>
@@ -16819,25 +16819,25 @@
         <v>1.38</v>
       </c>
       <c r="AN77">
-        <v>1.57</v>
+        <v>1.15</v>
       </c>
       <c r="AO77">
-        <v>2.5</v>
+        <v>2.82</v>
       </c>
       <c r="AP77">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="AQ77">
-        <v>1.71</v>
+        <v>2.13</v>
       </c>
       <c r="AR77">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AS77">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="AT77">
-        <v>2.28</v>
+        <v>2.51</v>
       </c>
       <c r="AU77">
         <v>6</v>
@@ -17025,25 +17025,25 @@
         <v>1.47</v>
       </c>
       <c r="AN78">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO78">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="AP78">
-        <v>1.63</v>
+        <v>1.19</v>
       </c>
       <c r="AQ78">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR78">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AS78">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AT78">
-        <v>2.81</v>
+        <v>2.66</v>
       </c>
       <c r="AU78">
         <v>-1</v>
@@ -17231,25 +17231,25 @@
         <v>1.09</v>
       </c>
       <c r="AN79">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO79">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AP79">
-        <v>1.13</v>
+        <v>0.76</v>
       </c>
       <c r="AQ79">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AR79">
-        <v>1.56</v>
+        <v>1.23</v>
       </c>
       <c r="AS79">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
       <c r="AT79">
-        <v>3.58</v>
+        <v>3.34</v>
       </c>
       <c r="AU79">
         <v>-1</v>
@@ -17437,25 +17437,25 @@
         <v>1.55</v>
       </c>
       <c r="AN80">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="AO80">
-        <v>2</v>
+        <v>2.58</v>
       </c>
       <c r="AP80">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="AQ80">
-        <v>1.71</v>
+        <v>2.13</v>
       </c>
       <c r="AR80">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AS80">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="AT80">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -17643,25 +17643,25 @@
         <v>7.5</v>
       </c>
       <c r="AN81">
-        <v>2.6</v>
+        <v>2.83</v>
       </c>
       <c r="AO81">
-        <v>0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AP81">
-        <v>2.71</v>
+        <v>2.87</v>
       </c>
       <c r="AQ81">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AR81">
-        <v>2.21</v>
+        <v>2.11</v>
       </c>
       <c r="AS81">
-        <v>0.8100000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AT81">
-        <v>3.02</v>
+        <v>3.18</v>
       </c>
       <c r="AU81">
         <v>10</v>
@@ -17849,25 +17849,25 @@
         <v>1.68</v>
       </c>
       <c r="AN82">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AO82">
-        <v>0.67</v>
+        <v>1.29</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>0.88</v>
+        <v>1.24</v>
       </c>
       <c r="AR82">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="AS82">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT82">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU82">
         <v>7</v>
@@ -18055,25 +18055,25 @@
         <v>1.8</v>
       </c>
       <c r="AN83">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AO83">
-        <v>0.83</v>
+        <v>1.15</v>
       </c>
       <c r="AP83">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>0.75</v>
+        <v>1.19</v>
       </c>
       <c r="AR83">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AS83">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT83">
-        <v>2.54</v>
+        <v>2.59</v>
       </c>
       <c r="AU83">
         <v>6</v>
@@ -18261,25 +18261,25 @@
         <v>1.53</v>
       </c>
       <c r="AN84">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AO84">
-        <v>0.33</v>
+        <v>0.64</v>
       </c>
       <c r="AP84">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ84">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR84">
         <v>1.24</v>
       </c>
       <c r="AS84">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AT84">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU84">
         <v>4</v>
@@ -18467,25 +18467,25 @@
         <v>1.03</v>
       </c>
       <c r="AN85">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AO85">
-        <v>0.8</v>
+        <v>1.92</v>
       </c>
       <c r="AP85">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="AQ85">
-        <v>1.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR85">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AS85">
-        <v>1.33</v>
+        <v>1.72</v>
       </c>
       <c r="AT85">
-        <v>2.69</v>
+        <v>2.94</v>
       </c>
       <c r="AU85">
         <v>2</v>
@@ -18673,25 +18673,25 @@
         <v>1.6</v>
       </c>
       <c r="AN86">
-        <v>0.83</v>
+        <v>0.64</v>
       </c>
       <c r="AO86">
-        <v>1.83</v>
+        <v>2.46</v>
       </c>
       <c r="AP86">
-        <v>1.13</v>
+        <v>0.76</v>
       </c>
       <c r="AQ86">
-        <v>1.71</v>
+        <v>2.13</v>
       </c>
       <c r="AR86">
-        <v>1.56</v>
+        <v>1.23</v>
       </c>
       <c r="AS86">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AT86">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="AU86">
         <v>4</v>
@@ -18879,25 +18879,25 @@
         <v>3.75</v>
       </c>
       <c r="AN87">
-        <v>2.71</v>
+        <v>2</v>
       </c>
       <c r="AO87">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AP87">
-        <v>2.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ87">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR87">
-        <v>1.99</v>
+        <v>1.77</v>
       </c>
       <c r="AS87">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AT87">
-        <v>3.22</v>
+        <v>3.07</v>
       </c>
       <c r="AU87">
         <v>12</v>
@@ -19085,25 +19085,25 @@
         <v>1.75</v>
       </c>
       <c r="AN88">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="AO88">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AP88">
-        <v>1.63</v>
+        <v>1.19</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR88">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AS88">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AT88">
-        <v>2.65</v>
+        <v>2.53</v>
       </c>
       <c r="AU88">
         <v>5</v>
@@ -19291,25 +19291,25 @@
         <v>1.11</v>
       </c>
       <c r="AN89">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="AO89">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AP89">
-        <v>2.44</v>
+        <v>2.13</v>
       </c>
       <c r="AQ89">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AR89">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AS89">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="AT89">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -19497,25 +19497,25 @@
         <v>1.68</v>
       </c>
       <c r="AN90">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AO90">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AP90">
+        <v>1.24</v>
+      </c>
+      <c r="AQ90">
         <v>1.56</v>
-      </c>
-      <c r="AQ90">
-        <v>1.5</v>
       </c>
       <c r="AR90">
         <v>1.21</v>
       </c>
       <c r="AS90">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT90">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -19703,25 +19703,25 @@
         <v>2.4</v>
       </c>
       <c r="AN91">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="AO91">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="AP91">
-        <v>2.44</v>
+        <v>2.13</v>
       </c>
       <c r="AQ91">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="AR91">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AS91">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="AT91">
-        <v>2.48</v>
+        <v>2.51</v>
       </c>
       <c r="AU91">
         <v>3</v>
@@ -19909,25 +19909,25 @@
         <v>5.75</v>
       </c>
       <c r="AN92">
-        <v>2.67</v>
+        <v>2.86</v>
       </c>
       <c r="AO92">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>2.71</v>
+        <v>2.87</v>
       </c>
       <c r="AQ92">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="AR92">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AS92">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AT92">
-        <v>3.65</v>
+        <v>3.47</v>
       </c>
       <c r="AU92">
         <v>12</v>
@@ -20115,25 +20115,25 @@
         <v>1.66</v>
       </c>
       <c r="AN93">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="AO93">
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
       <c r="AP93">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR93">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AS93">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="AT93">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AU93">
         <v>8</v>
@@ -20321,25 +20321,25 @@
         <v>1.87</v>
       </c>
       <c r="AN94">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AO94">
-        <v>0.86</v>
+        <v>1.27</v>
       </c>
       <c r="AP94">
-        <v>1.13</v>
+        <v>0.76</v>
       </c>
       <c r="AQ94">
-        <v>0.75</v>
+        <v>1.19</v>
       </c>
       <c r="AR94">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AS94">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AT94">
-        <v>2.84</v>
+        <v>2.58</v>
       </c>
       <c r="AU94">
         <v>9</v>
@@ -20527,25 +20527,25 @@
         <v>1.03</v>
       </c>
       <c r="AN95">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO95">
-        <v>1.17</v>
+        <v>2.07</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="AQ95">
-        <v>1.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR95">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AS95">
-        <v>1.51</v>
+        <v>1.83</v>
       </c>
       <c r="AT95">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="AU95">
         <v>3</v>
@@ -20733,25 +20733,25 @@
         <v>1.45</v>
       </c>
       <c r="AN96">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AO96">
-        <v>0.57</v>
+        <v>1.13</v>
       </c>
       <c r="AP96">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="AQ96">
-        <v>0.88</v>
+        <v>1.24</v>
       </c>
       <c r="AR96">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="AS96">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AT96">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="AU96">
         <v>4</v>
@@ -20939,25 +20939,25 @@
         <v>2.45</v>
       </c>
       <c r="AN97">
+        <v>0.75</v>
+      </c>
+      <c r="AO97">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP97">
         <v>0.88</v>
       </c>
-      <c r="AO97">
-        <v>0.43</v>
-      </c>
-      <c r="AP97">
-        <v>1.11</v>
-      </c>
       <c r="AQ97">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AR97">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AS97">
-        <v>0.76</v>
+        <v>1.02</v>
       </c>
       <c r="AT97">
-        <v>2.14</v>
+        <v>2.46</v>
       </c>
       <c r="AU97">
         <v>8</v>
@@ -21145,25 +21145,25 @@
         <v>1.52</v>
       </c>
       <c r="AN98">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AO98">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AP98">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ98">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AS98">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="AT98">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AU98">
         <v>7</v>
@@ -21351,25 +21351,25 @@
         <v>1.35</v>
       </c>
       <c r="AN99">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO99">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP99">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
       <c r="AR99">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AS99">
-        <v>1.03</v>
+        <v>1.34</v>
       </c>
       <c r="AT99">
-        <v>2.43</v>
+        <v>2.59</v>
       </c>
       <c r="AU99">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,15 +499,15 @@
     <t>['18']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
     <t>['22', '62']</t>
   </si>
   <si>
-    <t>['17']</t>
-  </si>
-  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>['7', '54', '87']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.76</v>
+        <v>1.13</v>
       </c>
       <c r="AQ2">
-        <v>2.13</v>
+        <v>1.43</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1584,7 +1587,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ3">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1709,7 +1712,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1787,10 +1790,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4">
-        <v>1.19</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1993,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="AQ5">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2199,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.87</v>
+        <v>2.71</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2327,7 +2330,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2405,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ7">
-        <v>2.13</v>
+        <v>1.71</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2533,7 +2536,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2605,25 +2608,25 @@
         <v>4.33</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="AQ8">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>10</v>
@@ -2811,25 +2814,25 @@
         <v>1.5</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR9">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>6</v>
@@ -3017,25 +3020,25 @@
         <v>1.36</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.19</v>
+        <v>1.63</v>
       </c>
       <c r="AQ10">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
       <c r="AR10">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>8</v>
@@ -3226,22 +3229,22 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ11">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AR11">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>4.57</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3429,25 +3432,25 @@
         <v>1.95</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.13</v>
+        <v>2.44</v>
       </c>
       <c r="AQ12">
-        <v>1.24</v>
+        <v>0.88</v>
       </c>
       <c r="AR12">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3641,19 +3644,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ13">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="AR13">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>3</v>
@@ -3844,22 +3847,22 @@
         <v>1</v>
       </c>
       <c r="AO14">
+        <v>3</v>
+      </c>
+      <c r="AP14">
+        <v>1.75</v>
+      </c>
+      <c r="AQ14">
+        <v>0.89</v>
+      </c>
+      <c r="AR14">
+        <v>2.04</v>
+      </c>
+      <c r="AS14">
         <v>1.5</v>
       </c>
-      <c r="AP14">
-        <v>1.5</v>
-      </c>
-      <c r="AQ14">
-        <v>0.82</v>
-      </c>
-      <c r="AR14">
-        <v>1.54</v>
-      </c>
-      <c r="AS14">
-        <v>1.44</v>
-      </c>
       <c r="AT14">
-        <v>2.98</v>
+        <v>3.54</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -4050,22 +4053,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ15">
-        <v>1.19</v>
+        <v>0.75</v>
       </c>
       <c r="AR15">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="AS15">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AT15">
-        <v>2.58</v>
+        <v>2.13</v>
       </c>
       <c r="AU15">
         <v>3</v>
@@ -4253,25 +4256,25 @@
         <v>4.5</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO16">
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="AQ16">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AR16">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="AS16">
-        <v>1.39</v>
+        <v>1.11</v>
       </c>
       <c r="AT16">
-        <v>2.99</v>
+        <v>3.13</v>
       </c>
       <c r="AU16">
         <v>10</v>
@@ -4459,25 +4462,25 @@
         <v>1.02</v>
       </c>
       <c r="AN17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO17">
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AR17">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AS17">
-        <v>2.38</v>
+        <v>1.65</v>
       </c>
       <c r="AT17">
-        <v>3.53</v>
+        <v>2.72</v>
       </c>
       <c r="AU17">
         <v>2</v>
@@ -4665,25 +4668,25 @@
         <v>1.4</v>
       </c>
       <c r="AN18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP18">
         <v>1.56</v>
       </c>
       <c r="AQ18">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
       <c r="AR18">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="AS18">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AT18">
-        <v>2.44</v>
+        <v>2.86</v>
       </c>
       <c r="AU18">
         <v>7</v>
@@ -4877,19 +4880,19 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.13</v>
+        <v>2.44</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AR19">
-        <v>1.43</v>
+        <v>1.1</v>
       </c>
       <c r="AS19">
-        <v>1.05</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT19">
-        <v>2.48</v>
+        <v>1.79</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -5077,25 +5080,25 @@
         <v>1.73</v>
       </c>
       <c r="AN20">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.19</v>
+        <v>1.63</v>
       </c>
       <c r="AQ20">
-        <v>1.24</v>
+        <v>0.88</v>
       </c>
       <c r="AR20">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AS20">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="AT20">
-        <v>2.36</v>
+        <v>2.78</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5283,25 +5286,25 @@
         <v>1.42</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ21">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="AS21">
-        <v>1.26</v>
+        <v>0.88</v>
       </c>
       <c r="AT21">
-        <v>2.54</v>
+        <v>2.27</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5489,25 +5492,25 @@
         <v>1.3</v>
       </c>
       <c r="AN22">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO22">
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>2.13</v>
+        <v>1.71</v>
       </c>
       <c r="AR22">
-        <v>1.12</v>
+        <v>1.66</v>
       </c>
       <c r="AS22">
-        <v>1.34</v>
+        <v>1.77</v>
       </c>
       <c r="AT22">
-        <v>2.46</v>
+        <v>3.43</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5698,22 +5701,22 @@
         <v>3</v>
       </c>
       <c r="AO23">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.87</v>
+        <v>2.71</v>
       </c>
       <c r="AQ23">
-        <v>2.13</v>
+        <v>1.43</v>
       </c>
       <c r="AR23">
-        <v>2.22</v>
+        <v>3.1</v>
       </c>
       <c r="AS23">
-        <v>1.74</v>
+        <v>1.18</v>
       </c>
       <c r="AT23">
-        <v>3.96</v>
+        <v>4.28</v>
       </c>
       <c r="AU23">
         <v>5</v>
@@ -5901,25 +5904,25 @@
         <v>2</v>
       </c>
       <c r="AN24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.76</v>
+        <v>1.13</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AS24">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="AT24">
-        <v>2.47</v>
+        <v>2.19</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6110,22 +6113,22 @@
         <v>0</v>
       </c>
       <c r="AO25">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ25">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR25">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="AS25">
-        <v>1.06</v>
+        <v>1.47</v>
       </c>
       <c r="AT25">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6316,22 +6319,22 @@
         <v>3</v>
       </c>
       <c r="AO26">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>2.13</v>
+        <v>2.44</v>
       </c>
       <c r="AQ26">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="AS26">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AT26">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6522,22 +6525,22 @@
         <v>3</v>
       </c>
       <c r="AO27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.87</v>
+        <v>2.71</v>
       </c>
       <c r="AQ27">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
       <c r="AR27">
-        <v>1.99</v>
+        <v>2.21</v>
       </c>
       <c r="AS27">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AT27">
-        <v>3.19</v>
+        <v>3.36</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -6728,22 +6731,22 @@
         <v>0.5</v>
       </c>
       <c r="AO28">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ28">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="AR28">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="AS28">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AT28">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -6934,22 +6937,22 @@
         <v>0.5</v>
       </c>
       <c r="AO29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>1.19</v>
+        <v>0.75</v>
       </c>
       <c r="AR29">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AT29">
-        <v>2.53</v>
+        <v>2.72</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7137,25 +7140,25 @@
         <v>1.66</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AR30">
-        <v>1.05</v>
+        <v>0.76</v>
       </c>
       <c r="AS30">
-        <v>1.09</v>
+        <v>0.85</v>
       </c>
       <c r="AT30">
-        <v>2.14</v>
+        <v>1.61</v>
       </c>
       <c r="AU30">
         <v>4</v>
@@ -7346,22 +7349,22 @@
         <v>2</v>
       </c>
       <c r="AO31">
+        <v>0.5</v>
+      </c>
+      <c r="AP31">
         <v>1.75</v>
       </c>
-      <c r="AP31">
-        <v>1.5</v>
-      </c>
       <c r="AQ31">
-        <v>2.13</v>
+        <v>1.43</v>
       </c>
       <c r="AR31">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AS31">
-        <v>1.63</v>
+        <v>1.26</v>
       </c>
       <c r="AT31">
-        <v>2.91</v>
+        <v>2.72</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7549,25 +7552,25 @@
         <v>1.75</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO32">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="AR32">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="AS32">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="AT32">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU32">
         <v>7</v>
@@ -7755,25 +7758,25 @@
         <v>1.41</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO33">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="AQ33">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
       <c r="AR33">
-        <v>1.06</v>
+        <v>0.87</v>
       </c>
       <c r="AS33">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT33">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -7961,25 +7964,25 @@
         <v>2.25</v>
       </c>
       <c r="AN34">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AO34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0.76</v>
+        <v>1.13</v>
       </c>
       <c r="AQ34">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AR34">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AS34">
-        <v>1.21</v>
+        <v>0.84</v>
       </c>
       <c r="AT34">
-        <v>2.35</v>
+        <v>2.09</v>
       </c>
       <c r="AU34">
         <v>9</v>
@@ -8167,25 +8170,25 @@
         <v>1.66</v>
       </c>
       <c r="AN35">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO35">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
-        <v>1.12</v>
+        <v>1.32</v>
       </c>
       <c r="AS35">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AT35">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8373,25 +8376,25 @@
         <v>1.58</v>
       </c>
       <c r="AN36">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO36">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
         <v>1.56</v>
       </c>
       <c r="AQ36">
-        <v>1.24</v>
+        <v>0.88</v>
       </c>
       <c r="AR36">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="AS36">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="AT36">
-        <v>2.42</v>
+        <v>2.8</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8579,25 +8582,25 @@
         <v>1.45</v>
       </c>
       <c r="AN37">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AO37">
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.19</v>
+        <v>1.63</v>
       </c>
       <c r="AQ37">
-        <v>2.13</v>
+        <v>1.71</v>
       </c>
       <c r="AR37">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AT37">
-        <v>2.65</v>
+        <v>2.92</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -8785,25 +8788,25 @@
         <v>1.04</v>
       </c>
       <c r="AN38">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO38">
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ38">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AR38">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="AS38">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="AT38">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -8991,25 +8994,25 @@
         <v>2.9</v>
       </c>
       <c r="AN39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="AQ39">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR39">
-        <v>1.59</v>
+        <v>2.01</v>
       </c>
       <c r="AS39">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AT39">
-        <v>2.79</v>
+        <v>3.33</v>
       </c>
       <c r="AU39">
         <v>5</v>
@@ -9197,25 +9200,25 @@
         <v>1.63</v>
       </c>
       <c r="AN40">
-        <v>1.14</v>
+        <v>1.75</v>
       </c>
       <c r="AO40">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP40">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR40">
-        <v>1.22</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS40">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AT40">
-        <v>2.49</v>
+        <v>2.3</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9403,25 +9406,25 @@
         <v>1.77</v>
       </c>
       <c r="AN41">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AO41">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ41">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="AS41">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT41">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="AU41">
         <v>8</v>
@@ -9609,25 +9612,25 @@
         <v>1.62</v>
       </c>
       <c r="AN42">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.19</v>
+        <v>1.63</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AR42">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="AS42">
-        <v>1.15</v>
+        <v>0.99</v>
       </c>
       <c r="AT42">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -9815,25 +9818,25 @@
         <v>1.02</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO43">
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AR43">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="AS43">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT43">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="AU43">
         <v>6</v>
@@ -10024,22 +10027,22 @@
         <v>3</v>
       </c>
       <c r="AO44">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AP44">
-        <v>2.13</v>
+        <v>2.44</v>
       </c>
       <c r="AQ44">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
       <c r="AR44">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AS44">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="AT44">
-        <v>2.52</v>
+        <v>2.27</v>
       </c>
       <c r="AU44">
         <v>4</v>
@@ -10227,25 +10230,25 @@
         <v>5.7</v>
       </c>
       <c r="AN45">
-        <v>2.17</v>
+        <v>3</v>
       </c>
       <c r="AO45">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AP45">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="AQ45">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="AR45">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="AS45">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="AT45">
-        <v>2.66</v>
+        <v>2.87</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10439,19 +10442,19 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.87</v>
+        <v>2.71</v>
       </c>
       <c r="AQ46">
-        <v>2.13</v>
+        <v>1.71</v>
       </c>
       <c r="AR46">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="AS46">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AT46">
-        <v>3.33</v>
+        <v>3.39</v>
       </c>
       <c r="AU46">
         <v>8</v>
@@ -10639,25 +10642,25 @@
         <v>1.57</v>
       </c>
       <c r="AN47">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AO47">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR47">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AS47">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AT47">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="AU47">
         <v>5</v>
@@ -10845,25 +10848,25 @@
         <v>2</v>
       </c>
       <c r="AN48">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="AO48">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>0.76</v>
+        <v>1.13</v>
       </c>
       <c r="AQ48">
-        <v>1.24</v>
+        <v>0.88</v>
       </c>
       <c r="AR48">
-        <v>1.31</v>
+        <v>1.61</v>
       </c>
       <c r="AS48">
-        <v>1.26</v>
+        <v>1.6</v>
       </c>
       <c r="AT48">
-        <v>2.57</v>
+        <v>3.21</v>
       </c>
       <c r="AU48">
         <v>5</v>
@@ -11051,25 +11054,25 @@
         <v>1.83</v>
       </c>
       <c r="AN49">
-        <v>1.86</v>
+        <v>2.33</v>
       </c>
       <c r="AO49">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AP49">
         <v>1.56</v>
       </c>
       <c r="AQ49">
-        <v>1.19</v>
+        <v>0.75</v>
       </c>
       <c r="AR49">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AS49">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AT49">
-        <v>2.69</v>
+        <v>2.58</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11257,25 +11260,25 @@
         <v>1.5</v>
       </c>
       <c r="AN50">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO50">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ50">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AR50">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="AS50">
-        <v>1.15</v>
+        <v>0.84</v>
       </c>
       <c r="AT50">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU50">
         <v>8</v>
@@ -11463,25 +11466,25 @@
         <v>1.12</v>
       </c>
       <c r="AN51">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AO51">
-        <v>2.29</v>
+        <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51">
-        <v>2.13</v>
+        <v>1.43</v>
       </c>
       <c r="AR51">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AS51">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="AT51">
-        <v>2.88</v>
+        <v>2.61</v>
       </c>
       <c r="AU51">
         <v>4</v>
@@ -11669,25 +11672,25 @@
         <v>2.15</v>
       </c>
       <c r="AN52">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AO52">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AP52">
-        <v>1.19</v>
+        <v>1.63</v>
       </c>
       <c r="AQ52">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="AR52">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="AS52">
-        <v>1.16</v>
+        <v>1.02</v>
       </c>
       <c r="AT52">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="AU52">
         <v>5</v>
@@ -11875,25 +11878,25 @@
         <v>1.36</v>
       </c>
       <c r="AN53">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AO53">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AR53">
-        <v>1.08</v>
+        <v>1.34</v>
       </c>
       <c r="AS53">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AT53">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AU53">
         <v>4</v>
@@ -12081,25 +12084,25 @@
         <v>2.2</v>
       </c>
       <c r="AN54">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AO54">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.13</v>
+        <v>2.44</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR54">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="AS54">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AT54">
-        <v>2.39</v>
+        <v>2.49</v>
       </c>
       <c r="AU54">
         <v>6</v>
@@ -12287,25 +12290,25 @@
         <v>1.6</v>
       </c>
       <c r="AN55">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AO55">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP55">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ55">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
       <c r="AR55">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AS55">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="AT55">
-        <v>2.63</v>
+        <v>2.39</v>
       </c>
       <c r="AU55">
         <v>8</v>
@@ -12493,25 +12496,25 @@
         <v>1.02</v>
       </c>
       <c r="AN56">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AO56">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AP56">
         <v>1.56</v>
       </c>
       <c r="AQ56">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AR56">
         <v>1.24</v>
       </c>
       <c r="AS56">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="AT56">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="AU56">
         <v>3</v>
@@ -12699,25 +12702,25 @@
         <v>4</v>
       </c>
       <c r="AN57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO57">
-        <v>0.89</v>
+        <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="AQ57">
-        <v>1.24</v>
+        <v>0.88</v>
       </c>
       <c r="AR57">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="AS57">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AT57">
-        <v>2.73</v>
+        <v>3.15</v>
       </c>
       <c r="AU57">
         <v>8</v>
@@ -12905,25 +12908,25 @@
         <v>1.93</v>
       </c>
       <c r="AN58">
-        <v>0.6</v>
+        <v>1.25</v>
       </c>
       <c r="AO58">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP58">
-        <v>0.76</v>
+        <v>1.13</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AR58">
-        <v>1.29</v>
+        <v>1.54</v>
       </c>
       <c r="AS58">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AT58">
-        <v>2.48</v>
+        <v>2.71</v>
       </c>
       <c r="AU58">
         <v>6</v>
@@ -13111,25 +13114,25 @@
         <v>1.33</v>
       </c>
       <c r="AN59">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO59">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
       <c r="AP59">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR59">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AS59">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AT59">
-        <v>2.42</v>
+        <v>2.67</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13317,25 +13320,25 @@
         <v>2.05</v>
       </c>
       <c r="AN60">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AP60">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="AQ60">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="AR60">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="AS60">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AT60">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="AU60">
         <v>6</v>
@@ -13523,25 +13526,25 @@
         <v>1.67</v>
       </c>
       <c r="AN61">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AO61">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AP61">
+        <v>1.75</v>
+      </c>
+      <c r="AQ61">
         <v>1.5</v>
       </c>
-      <c r="AQ61">
-        <v>1.56</v>
-      </c>
       <c r="AR61">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AS61">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AT61">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -13729,25 +13732,25 @@
         <v>6.25</v>
       </c>
       <c r="AN62">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AO62">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP62">
-        <v>2.87</v>
+        <v>2.71</v>
       </c>
       <c r="AQ62">
-        <v>1.19</v>
+        <v>0.75</v>
       </c>
       <c r="AR62">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="AS62">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="AT62">
-        <v>3.53</v>
+        <v>3.48</v>
       </c>
       <c r="AU62">
         <v>6</v>
@@ -13935,25 +13938,25 @@
         <v>1.25</v>
       </c>
       <c r="AN63">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="AO63">
-        <v>2.11</v>
+        <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.13</v>
+        <v>2.44</v>
       </c>
       <c r="AQ63">
-        <v>2.13</v>
+        <v>1.43</v>
       </c>
       <c r="AR63">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AS63">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="AT63">
-        <v>2.81</v>
+        <v>2.53</v>
       </c>
       <c r="AU63">
         <v>7</v>
@@ -14141,25 +14144,25 @@
         <v>1.22</v>
       </c>
       <c r="AN64">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="AO64">
-        <v>0.55</v>
+        <v>0.17</v>
       </c>
       <c r="AP64">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ64">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
       <c r="AR64">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="AT64">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14347,25 +14350,25 @@
         <v>2.05</v>
       </c>
       <c r="AN65">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO65">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="AQ65">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AR65">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AS65">
-        <v>1.1</v>
+        <v>0.77</v>
       </c>
       <c r="AT65">
-        <v>2.28</v>
+        <v>1.9</v>
       </c>
       <c r="AU65">
         <v>4</v>
@@ -14553,25 +14556,25 @@
         <v>1.53</v>
       </c>
       <c r="AN66">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AO66">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AP66">
-        <v>1.19</v>
+        <v>1.63</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AR66">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AS66">
         <v>1.21</v>
       </c>
       <c r="AT66">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU66">
         <v>6</v>
@@ -14759,25 +14762,25 @@
         <v>2</v>
       </c>
       <c r="AN67">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AO67">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP67">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR67">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AS67">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AT67">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -14965,25 +14968,25 @@
         <v>2.05</v>
       </c>
       <c r="AN68">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AO68">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ68">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AR68">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AS68">
-        <v>1.1</v>
+        <v>0.82</v>
       </c>
       <c r="AT68">
-        <v>2.29</v>
+        <v>2.04</v>
       </c>
       <c r="AU68">
         <v>5</v>
@@ -15171,25 +15174,25 @@
         <v>1.93</v>
       </c>
       <c r="AN69">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AO69">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AP69">
+        <v>1.11</v>
+      </c>
+      <c r="AQ69">
         <v>0.88</v>
       </c>
-      <c r="AQ69">
-        <v>1.24</v>
-      </c>
       <c r="AR69">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AS69">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AT69">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15377,25 +15380,25 @@
         <v>1.95</v>
       </c>
       <c r="AN70">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AO70">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP70">
         <v>1.56</v>
       </c>
       <c r="AQ70">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="AR70">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AS70">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AT70">
-        <v>2.41</v>
+        <v>2.27</v>
       </c>
       <c r="AU70">
         <v>5</v>
@@ -15583,25 +15586,25 @@
         <v>2.15</v>
       </c>
       <c r="AN71">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AO71">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.13</v>
+        <v>2.44</v>
       </c>
       <c r="AQ71">
-        <v>1.19</v>
+        <v>0.75</v>
       </c>
       <c r="AR71">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AS71">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AT71">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="AU71">
         <v>9</v>
@@ -15789,25 +15792,25 @@
         <v>1.07</v>
       </c>
       <c r="AN72">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AO72">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ72">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AR72">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AS72">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="AT72">
-        <v>3.41</v>
+        <v>3.38</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -15995,25 +15998,25 @@
         <v>2.88</v>
       </c>
       <c r="AN73">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="AO73">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="AP73">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="AQ73">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
       <c r="AR73">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="AS73">
-        <v>1.29</v>
+        <v>1.1</v>
       </c>
       <c r="AT73">
-        <v>2.89</v>
+        <v>2.97</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16201,25 +16204,25 @@
         <v>1.36</v>
       </c>
       <c r="AN74">
-        <v>0.77</v>
+        <v>0.6</v>
       </c>
       <c r="AO74">
         <v>1</v>
       </c>
       <c r="AP74">
+        <v>0.75</v>
+      </c>
+      <c r="AQ74">
         <v>0.82</v>
       </c>
-      <c r="AQ74">
-        <v>1</v>
-      </c>
       <c r="AR74">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="AS74">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AT74">
-        <v>2.49</v>
+        <v>2.61</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -16407,25 +16410,25 @@
         <v>1.45</v>
       </c>
       <c r="AN75">
-        <v>0.92</v>
+        <v>1.29</v>
       </c>
       <c r="AO75">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AP75">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AS75">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT75">
-        <v>2.31</v>
+        <v>2.52</v>
       </c>
       <c r="AU75">
         <v>-1</v>
@@ -16613,25 +16616,25 @@
         <v>3.75</v>
       </c>
       <c r="AN76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO76">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="AQ76">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR76">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AS76">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="AT76">
-        <v>2.79</v>
+        <v>2.9</v>
       </c>
       <c r="AU76">
         <v>12</v>
@@ -16819,25 +16822,25 @@
         <v>1.38</v>
       </c>
       <c r="AN77">
+        <v>1.57</v>
+      </c>
+      <c r="AO77">
+        <v>2.5</v>
+      </c>
+      <c r="AP77">
+        <v>1.56</v>
+      </c>
+      <c r="AQ77">
+        <v>1.71</v>
+      </c>
+      <c r="AR77">
+        <v>1.13</v>
+      </c>
+      <c r="AS77">
         <v>1.15</v>
       </c>
-      <c r="AO77">
-        <v>2.82</v>
-      </c>
-      <c r="AP77">
-        <v>1.24</v>
-      </c>
-      <c r="AQ77">
-        <v>2.13</v>
-      </c>
-      <c r="AR77">
-        <v>1.19</v>
-      </c>
-      <c r="AS77">
-        <v>1.32</v>
-      </c>
       <c r="AT77">
-        <v>2.51</v>
+        <v>2.28</v>
       </c>
       <c r="AU77">
         <v>6</v>
@@ -17025,25 +17028,25 @@
         <v>1.47</v>
       </c>
       <c r="AN78">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO78">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="AP78">
-        <v>1.19</v>
+        <v>1.63</v>
       </c>
       <c r="AQ78">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR78">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AS78">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AT78">
-        <v>2.66</v>
+        <v>2.81</v>
       </c>
       <c r="AU78">
         <v>-1</v>
@@ -17231,25 +17234,25 @@
         <v>1.09</v>
       </c>
       <c r="AN79">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO79">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="AP79">
-        <v>0.76</v>
+        <v>1.13</v>
       </c>
       <c r="AQ79">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AR79">
-        <v>1.23</v>
+        <v>1.56</v>
       </c>
       <c r="AS79">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="AT79">
-        <v>3.34</v>
+        <v>3.58</v>
       </c>
       <c r="AU79">
         <v>-1</v>
@@ -17437,25 +17440,25 @@
         <v>1.55</v>
       </c>
       <c r="AN80">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="AO80">
-        <v>2.58</v>
+        <v>2</v>
       </c>
       <c r="AP80">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ80">
-        <v>2.13</v>
+        <v>1.71</v>
       </c>
       <c r="AR80">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AS80">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="AT80">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -17643,25 +17646,25 @@
         <v>7.5</v>
       </c>
       <c r="AN81">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="AO81">
-        <v>1.07</v>
+        <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>2.87</v>
+        <v>2.71</v>
       </c>
       <c r="AQ81">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AR81">
-        <v>2.11</v>
+        <v>2.21</v>
       </c>
       <c r="AS81">
-        <v>1.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT81">
-        <v>3.18</v>
+        <v>3.02</v>
       </c>
       <c r="AU81">
         <v>10</v>
@@ -17849,25 +17852,25 @@
         <v>1.68</v>
       </c>
       <c r="AN82">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="AO82">
-        <v>1.29</v>
+        <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82">
-        <v>1.24</v>
+        <v>0.88</v>
       </c>
       <c r="AR82">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="AS82">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AT82">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="AU82">
         <v>7</v>
@@ -18055,25 +18058,25 @@
         <v>1.8</v>
       </c>
       <c r="AN83">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AO83">
-        <v>1.15</v>
+        <v>0.83</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ83">
-        <v>1.19</v>
+        <v>0.75</v>
       </c>
       <c r="AR83">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AS83">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AT83">
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="AU83">
         <v>6</v>
@@ -18261,25 +18264,25 @@
         <v>1.53</v>
       </c>
       <c r="AN84">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AO84">
-        <v>0.64</v>
+        <v>0.33</v>
       </c>
       <c r="AP84">
         <v>1.56</v>
       </c>
       <c r="AQ84">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR84">
         <v>1.24</v>
       </c>
       <c r="AS84">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AT84">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU84">
         <v>4</v>
@@ -18467,25 +18470,25 @@
         <v>1.03</v>
       </c>
       <c r="AN85">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AO85">
-        <v>1.92</v>
+        <v>0.8</v>
       </c>
       <c r="AP85">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ85">
-        <v>2.13</v>
+        <v>1.43</v>
       </c>
       <c r="AR85">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AS85">
-        <v>1.72</v>
+        <v>1.33</v>
       </c>
       <c r="AT85">
-        <v>2.94</v>
+        <v>2.69</v>
       </c>
       <c r="AU85">
         <v>2</v>
@@ -18673,25 +18676,25 @@
         <v>1.6</v>
       </c>
       <c r="AN86">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AO86">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="AP86">
-        <v>0.76</v>
+        <v>1.13</v>
       </c>
       <c r="AQ86">
-        <v>2.13</v>
+        <v>1.71</v>
       </c>
       <c r="AR86">
-        <v>1.23</v>
+        <v>1.56</v>
       </c>
       <c r="AS86">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AT86">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="AU86">
         <v>4</v>
@@ -18879,25 +18882,25 @@
         <v>3.75</v>
       </c>
       <c r="AN87">
-        <v>2</v>
+        <v>2.71</v>
       </c>
       <c r="AO87">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AP87">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AR87">
-        <v>1.77</v>
+        <v>1.99</v>
       </c>
       <c r="AS87">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AT87">
-        <v>3.07</v>
+        <v>3.22</v>
       </c>
       <c r="AU87">
         <v>12</v>
@@ -19085,25 +19088,25 @@
         <v>1.75</v>
       </c>
       <c r="AN88">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="AO88">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>1.19</v>
+        <v>1.63</v>
       </c>
       <c r="AQ88">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AS88">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AT88">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="AU88">
         <v>5</v>
@@ -19291,25 +19294,25 @@
         <v>1.11</v>
       </c>
       <c r="AN89">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="AO89">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AP89">
-        <v>2.13</v>
+        <v>2.44</v>
       </c>
       <c r="AQ89">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AR89">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AS89">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="AT89">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -19497,25 +19500,25 @@
         <v>1.68</v>
       </c>
       <c r="AN90">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AO90">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AP90">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="AQ90">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR90">
         <v>1.21</v>
       </c>
       <c r="AS90">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AT90">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -19703,25 +19706,25 @@
         <v>2.4</v>
       </c>
       <c r="AN91">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AO91">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AP91">
-        <v>2.13</v>
+        <v>2.44</v>
       </c>
       <c r="AQ91">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="AR91">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AS91">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT91">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
       <c r="AU91">
         <v>3</v>
@@ -19909,25 +19912,25 @@
         <v>5.75</v>
       </c>
       <c r="AN92">
-        <v>2.86</v>
+        <v>2.67</v>
       </c>
       <c r="AO92">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="AP92">
-        <v>2.87</v>
+        <v>2.71</v>
       </c>
       <c r="AQ92">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AR92">
-        <v>2.06</v>
+        <v>2.19</v>
       </c>
       <c r="AS92">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AT92">
-        <v>3.47</v>
+        <v>3.65</v>
       </c>
       <c r="AU92">
         <v>12</v>
@@ -20115,25 +20118,25 @@
         <v>1.66</v>
       </c>
       <c r="AN93">
-        <v>1.64</v>
+        <v>1.86</v>
       </c>
       <c r="AO93">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AR93">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AS93">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="AT93">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AU93">
         <v>8</v>
@@ -20321,25 +20324,25 @@
         <v>1.87</v>
       </c>
       <c r="AN94">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AO94">
-        <v>1.27</v>
+        <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>0.76</v>
+        <v>1.13</v>
       </c>
       <c r="AQ94">
-        <v>1.19</v>
+        <v>0.75</v>
       </c>
       <c r="AR94">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AS94">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AT94">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="AU94">
         <v>9</v>
@@ -20527,25 +20530,25 @@
         <v>1.03</v>
       </c>
       <c r="AN95">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO95">
-        <v>2.07</v>
+        <v>1.17</v>
       </c>
       <c r="AP95">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AQ95">
-        <v>2.13</v>
+        <v>1.43</v>
       </c>
       <c r="AR95">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AS95">
-        <v>1.83</v>
+        <v>1.51</v>
       </c>
       <c r="AT95">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="AU95">
         <v>3</v>
@@ -20733,25 +20736,25 @@
         <v>1.45</v>
       </c>
       <c r="AN96">
+        <v>0.86</v>
+      </c>
+      <c r="AO96">
+        <v>0.57</v>
+      </c>
+      <c r="AP96">
+        <v>0.75</v>
+      </c>
+      <c r="AQ96">
         <v>0.88</v>
       </c>
-      <c r="AO96">
-        <v>1.13</v>
-      </c>
-      <c r="AP96">
-        <v>0.82</v>
-      </c>
-      <c r="AQ96">
-        <v>1.24</v>
-      </c>
       <c r="AR96">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AS96">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT96">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="AU96">
         <v>4</v>
@@ -20939,25 +20942,25 @@
         <v>2.45</v>
       </c>
       <c r="AN97">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AO97">
-        <v>0.9399999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ97">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AR97">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AS97">
-        <v>1.02</v>
+        <v>0.76</v>
       </c>
       <c r="AT97">
-        <v>2.46</v>
+        <v>2.14</v>
       </c>
       <c r="AU97">
         <v>8</v>
@@ -21145,25 +21148,25 @@
         <v>1.52</v>
       </c>
       <c r="AN98">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="AO98">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AP98">
         <v>1.56</v>
       </c>
       <c r="AQ98">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR98">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AS98">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="AT98">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="AU98">
         <v>7</v>
@@ -21351,25 +21354,25 @@
         <v>1.35</v>
       </c>
       <c r="AN99">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO99">
-        <v>0.8100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ99">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
       <c r="AR99">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AS99">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="AT99">
-        <v>2.59</v>
+        <v>2.43</v>
       </c>
       <c r="AU99">
         <v>6</v>
@@ -21436,6 +21439,212 @@
       </c>
       <c r="BP99">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7480243</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45646.69791666666</v>
+      </c>
+      <c r="F100">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s">
+        <v>71</v>
+      </c>
+      <c r="H100" t="s">
+        <v>81</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+      <c r="O100" t="s">
+        <v>161</v>
+      </c>
+      <c r="P100" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q100">
+        <v>3.1</v>
+      </c>
+      <c r="R100">
+        <v>2.1</v>
+      </c>
+      <c r="S100">
+        <v>3.6</v>
+      </c>
+      <c r="T100">
+        <v>1.44</v>
+      </c>
+      <c r="U100">
+        <v>2.63</v>
+      </c>
+      <c r="V100">
+        <v>3.25</v>
+      </c>
+      <c r="W100">
+        <v>1.33</v>
+      </c>
+      <c r="X100">
+        <v>9</v>
+      </c>
+      <c r="Y100">
+        <v>1.07</v>
+      </c>
+      <c r="Z100">
+        <v>2.4</v>
+      </c>
+      <c r="AA100">
+        <v>3.5</v>
+      </c>
+      <c r="AB100">
+        <v>2.75</v>
+      </c>
+      <c r="AC100">
+        <v>1.06</v>
+      </c>
+      <c r="AD100">
+        <v>8.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.35</v>
+      </c>
+      <c r="AF100">
+        <v>3.1</v>
+      </c>
+      <c r="AG100">
+        <v>1.75</v>
+      </c>
+      <c r="AH100">
+        <v>2</v>
+      </c>
+      <c r="AI100">
+        <v>1.8</v>
+      </c>
+      <c r="AJ100">
+        <v>1.95</v>
+      </c>
+      <c r="AK100">
+        <v>1.38</v>
+      </c>
+      <c r="AL100">
+        <v>1.28</v>
+      </c>
+      <c r="AM100">
+        <v>1.57</v>
+      </c>
+      <c r="AN100">
+        <v>1.63</v>
+      </c>
+      <c r="AO100">
+        <v>0.8</v>
+      </c>
+      <c r="AP100">
+        <v>1.56</v>
+      </c>
+      <c r="AQ100">
+        <v>0.82</v>
+      </c>
+      <c r="AR100">
+        <v>1.24</v>
+      </c>
+      <c r="AS100">
+        <v>1.17</v>
+      </c>
+      <c r="AT100">
+        <v>2.41</v>
+      </c>
+      <c r="AU100">
+        <v>2</v>
+      </c>
+      <c r="AV100">
+        <v>6</v>
+      </c>
+      <c r="AW100">
+        <v>3</v>
+      </c>
+      <c r="AX100">
+        <v>3</v>
+      </c>
+      <c r="AY100">
+        <v>5</v>
+      </c>
+      <c r="AZ100">
+        <v>13</v>
+      </c>
+      <c r="BA100">
+        <v>2</v>
+      </c>
+      <c r="BB100">
+        <v>8</v>
+      </c>
+      <c r="BC100">
+        <v>10</v>
+      </c>
+      <c r="BD100">
+        <v>1.79</v>
+      </c>
+      <c r="BE100">
+        <v>6.75</v>
+      </c>
+      <c r="BF100">
+        <v>2.18</v>
+      </c>
+      <c r="BG100">
+        <v>1.15</v>
+      </c>
+      <c r="BH100">
+        <v>4.6</v>
+      </c>
+      <c r="BI100">
+        <v>1.28</v>
+      </c>
+      <c r="BJ100">
+        <v>3.2</v>
+      </c>
+      <c r="BK100">
+        <v>1.47</v>
+      </c>
+      <c r="BL100">
+        <v>2.43</v>
+      </c>
+      <c r="BM100">
+        <v>1.9</v>
+      </c>
+      <c r="BN100">
+        <v>1.9</v>
+      </c>
+      <c r="BO100">
+        <v>2.15</v>
+      </c>
+      <c r="BP100">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,12 @@
     <t>['17']</t>
   </si>
   <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -680,6 +686,12 @@
   </si>
   <si>
     <t>['74']</t>
+  </si>
+  <si>
+    <t>['27', '89']</t>
+  </si>
+  <si>
+    <t>['18', '35', '49']</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1712,7 +1724,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1793,7 +1805,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1999,7 +2011,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ5">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2330,7 +2342,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2614,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ8">
         <v>1.5</v>
@@ -2742,7 +2754,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2820,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ9">
         <v>1.25</v>
@@ -2948,7 +2960,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3154,7 +3166,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3360,7 +3372,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3438,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ12">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3566,7 +3578,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3978,7 +3990,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4059,7 +4071,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ15">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>0.53</v>
@@ -4262,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ16">
         <v>0.38</v>
@@ -4390,7 +4402,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4880,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ19">
         <v>0.82</v>
@@ -5008,7 +5020,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5089,7 +5101,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ20">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -5214,7 +5226,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5420,7 +5432,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5498,7 +5510,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22">
         <v>1.71</v>
@@ -5832,7 +5844,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -6038,7 +6050,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6119,7 +6131,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ25">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR25">
         <v>1.41</v>
@@ -6322,7 +6334,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ26">
         <v>1.5</v>
@@ -6940,10 +6952,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR29">
         <v>1.33</v>
@@ -7068,7 +7080,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7274,7 +7286,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7480,7 +7492,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7558,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ32">
         <v>0.89</v>
@@ -7892,7 +7904,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8098,7 +8110,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8304,7 +8316,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8385,7 +8397,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ36">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR36">
         <v>1.45</v>
@@ -8510,7 +8522,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8716,7 +8728,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -9000,10 +9012,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ39">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR39">
         <v>2.01</v>
@@ -9128,7 +9140,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9334,7 +9346,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9540,7 +9552,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9746,7 +9758,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9824,7 +9836,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ43">
         <v>3</v>
@@ -9952,7 +9964,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10030,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ44">
         <v>0.44</v>
@@ -10236,7 +10248,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ45">
         <v>0.89</v>
@@ -10364,7 +10376,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10570,7 +10582,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10651,7 +10663,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ47">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR47">
         <v>1.19</v>
@@ -10857,7 +10869,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ48">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR48">
         <v>1.61</v>
@@ -10982,7 +10994,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11063,7 +11075,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ49">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>1.3</v>
@@ -11600,7 +11612,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11806,7 +11818,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -11884,7 +11896,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ53">
         <v>0.82</v>
@@ -12090,7 +12102,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ54">
         <v>1.25</v>
@@ -12424,7 +12436,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -12630,7 +12642,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>1.62</v>
@@ -12708,10 +12720,10 @@
         <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ57">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR57">
         <v>1.86</v>
@@ -12836,7 +12848,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13120,10 +13132,10 @@
         <v>0.25</v>
       </c>
       <c r="AP59">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ59">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR59">
         <v>1.31</v>
@@ -13248,7 +13260,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13454,7 +13466,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13741,7 +13753,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ62">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR62">
         <v>2.17</v>
@@ -13866,7 +13878,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -13944,7 +13956,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ63">
         <v>1.43</v>
@@ -14072,7 +14084,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14484,7 +14496,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14690,7 +14702,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -15102,7 +15114,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15183,7 +15195,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ69">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR69">
         <v>1.35</v>
@@ -15308,7 +15320,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15514,7 +15526,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15592,10 +15604,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ71">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR71">
         <v>1.32</v>
@@ -15720,7 +15732,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -16004,7 +16016,7 @@
         <v>0.57</v>
       </c>
       <c r="AP73">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ73">
         <v>0.44</v>
@@ -16338,7 +16350,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16416,7 +16428,7 @@
         <v>1.8</v>
       </c>
       <c r="AP75">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ75">
         <v>1.5</v>
@@ -16622,7 +16634,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ76">
         <v>1.25</v>
@@ -16750,7 +16762,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16956,7 +16968,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17037,7 +17049,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ78">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -17162,7 +17174,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17368,7 +17380,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17861,7 +17873,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ82">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -17986,7 +17998,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18067,7 +18079,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ83">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18192,7 +18204,7 @@
         <v>82</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18273,7 +18285,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ84">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR84">
         <v>1.24</v>
@@ -18398,7 +18410,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q85">
         <v>7.5</v>
@@ -18604,7 +18616,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18888,7 +18900,7 @@
         <v>0.88</v>
       </c>
       <c r="AP87">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ87">
         <v>0.82</v>
@@ -19016,7 +19028,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19222,7 +19234,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19300,7 +19312,7 @@
         <v>3</v>
       </c>
       <c r="AP89">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ89">
         <v>3</v>
@@ -19634,7 +19646,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>2.3</v>
@@ -19712,7 +19724,7 @@
         <v>0.88</v>
       </c>
       <c r="AP91">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ91">
         <v>0.89</v>
@@ -19921,7 +19933,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ92">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR92">
         <v>2.19</v>
@@ -20333,7 +20345,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ94">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR94">
         <v>1.63</v>
@@ -20458,7 +20470,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -20536,7 +20548,7 @@
         <v>1.17</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ95">
         <v>1.43</v>
@@ -20664,7 +20676,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20745,7 +20757,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ96">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR96">
         <v>1.26</v>
@@ -20870,7 +20882,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q97">
         <v>2.05</v>
@@ -21076,7 +21088,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21455,7 +21467,7 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45646.69791666666</v>
+        <v>45645.875</v>
       </c>
       <c r="F100">
         <v>18</v>
@@ -21488,7 +21500,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21645,6 +21657,624 @@
       </c>
       <c r="BP100">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7480245</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F101">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s">
+        <v>77</v>
+      </c>
+      <c r="H101" t="s">
+        <v>73</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101" t="s">
+        <v>162</v>
+      </c>
+      <c r="P101" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q101">
+        <v>4</v>
+      </c>
+      <c r="R101">
+        <v>2.05</v>
+      </c>
+      <c r="S101">
+        <v>3</v>
+      </c>
+      <c r="T101">
+        <v>1.44</v>
+      </c>
+      <c r="U101">
+        <v>2.63</v>
+      </c>
+      <c r="V101">
+        <v>3.4</v>
+      </c>
+      <c r="W101">
+        <v>1.3</v>
+      </c>
+      <c r="X101">
+        <v>10</v>
+      </c>
+      <c r="Y101">
+        <v>1.06</v>
+      </c>
+      <c r="Z101">
+        <v>3.44</v>
+      </c>
+      <c r="AA101">
+        <v>2.38</v>
+      </c>
+      <c r="AB101">
+        <v>2.51</v>
+      </c>
+      <c r="AC101">
+        <v>1.07</v>
+      </c>
+      <c r="AD101">
+        <v>8</v>
+      </c>
+      <c r="AE101">
+        <v>1.38</v>
+      </c>
+      <c r="AF101">
+        <v>3</v>
+      </c>
+      <c r="AG101">
+        <v>2.1</v>
+      </c>
+      <c r="AH101">
+        <v>1.65</v>
+      </c>
+      <c r="AI101">
+        <v>1.95</v>
+      </c>
+      <c r="AJ101">
+        <v>1.8</v>
+      </c>
+      <c r="AK101">
+        <v>1.57</v>
+      </c>
+      <c r="AL101">
+        <v>1.28</v>
+      </c>
+      <c r="AM101">
+        <v>1.36</v>
+      </c>
+      <c r="AN101">
+        <v>1.33</v>
+      </c>
+      <c r="AO101">
+        <v>0.88</v>
+      </c>
+      <c r="AP101">
+        <v>1.2</v>
+      </c>
+      <c r="AQ101">
+        <v>1.11</v>
+      </c>
+      <c r="AR101">
+        <v>1.24</v>
+      </c>
+      <c r="AS101">
+        <v>1.2</v>
+      </c>
+      <c r="AT101">
+        <v>2.44</v>
+      </c>
+      <c r="AU101">
+        <v>2</v>
+      </c>
+      <c r="AV101">
+        <v>6</v>
+      </c>
+      <c r="AW101">
+        <v>10</v>
+      </c>
+      <c r="AX101">
+        <v>5</v>
+      </c>
+      <c r="AY101">
+        <v>14</v>
+      </c>
+      <c r="AZ101">
+        <v>15</v>
+      </c>
+      <c r="BA101">
+        <v>4</v>
+      </c>
+      <c r="BB101">
+        <v>2</v>
+      </c>
+      <c r="BC101">
+        <v>6</v>
+      </c>
+      <c r="BD101">
+        <v>2.15</v>
+      </c>
+      <c r="BE101">
+        <v>6.5</v>
+      </c>
+      <c r="BF101">
+        <v>1.84</v>
+      </c>
+      <c r="BG101">
+        <v>1.24</v>
+      </c>
+      <c r="BH101">
+        <v>3.55</v>
+      </c>
+      <c r="BI101">
+        <v>1.41</v>
+      </c>
+      <c r="BJ101">
+        <v>2.65</v>
+      </c>
+      <c r="BK101">
+        <v>1.68</v>
+      </c>
+      <c r="BL101">
+        <v>2.04</v>
+      </c>
+      <c r="BM101">
+        <v>1.9</v>
+      </c>
+      <c r="BN101">
+        <v>1.9</v>
+      </c>
+      <c r="BO101">
+        <v>2.6</v>
+      </c>
+      <c r="BP101">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7480244</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>76</v>
+      </c>
+      <c r="H102" t="s">
+        <v>78</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102" t="s">
+        <v>162</v>
+      </c>
+      <c r="P102" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q102">
+        <v>1.53</v>
+      </c>
+      <c r="R102">
+        <v>3</v>
+      </c>
+      <c r="S102">
+        <v>10</v>
+      </c>
+      <c r="T102">
+        <v>1.22</v>
+      </c>
+      <c r="U102">
+        <v>4</v>
+      </c>
+      <c r="V102">
+        <v>2</v>
+      </c>
+      <c r="W102">
+        <v>1.73</v>
+      </c>
+      <c r="X102">
+        <v>4.33</v>
+      </c>
+      <c r="Y102">
+        <v>1.2</v>
+      </c>
+      <c r="Z102">
+        <v>1.26</v>
+      </c>
+      <c r="AA102">
+        <v>4.79</v>
+      </c>
+      <c r="AB102">
+        <v>8.83</v>
+      </c>
+      <c r="AC102">
+        <v>1.03</v>
+      </c>
+      <c r="AD102">
+        <v>11</v>
+      </c>
+      <c r="AE102">
+        <v>1.11</v>
+      </c>
+      <c r="AF102">
+        <v>6.25</v>
+      </c>
+      <c r="AG102">
+        <v>1.73</v>
+      </c>
+      <c r="AH102">
+        <v>2.1</v>
+      </c>
+      <c r="AI102">
+        <v>1.95</v>
+      </c>
+      <c r="AJ102">
+        <v>1.8</v>
+      </c>
+      <c r="AK102">
+        <v>1.03</v>
+      </c>
+      <c r="AL102">
+        <v>1.09</v>
+      </c>
+      <c r="AM102">
+        <v>4.5</v>
+      </c>
+      <c r="AN102">
+        <v>2.75</v>
+      </c>
+      <c r="AO102">
+        <v>0.75</v>
+      </c>
+      <c r="AP102">
+        <v>2.78</v>
+      </c>
+      <c r="AQ102">
+        <v>0.67</v>
+      </c>
+      <c r="AR102">
+        <v>2.07</v>
+      </c>
+      <c r="AS102">
+        <v>1.14</v>
+      </c>
+      <c r="AT102">
+        <v>3.21</v>
+      </c>
+      <c r="AU102">
+        <v>5</v>
+      </c>
+      <c r="AV102">
+        <v>2</v>
+      </c>
+      <c r="AW102">
+        <v>10</v>
+      </c>
+      <c r="AX102">
+        <v>4</v>
+      </c>
+      <c r="AY102">
+        <v>22</v>
+      </c>
+      <c r="AZ102">
+        <v>6</v>
+      </c>
+      <c r="BA102">
+        <v>6</v>
+      </c>
+      <c r="BB102">
+        <v>3</v>
+      </c>
+      <c r="BC102">
+        <v>9</v>
+      </c>
+      <c r="BD102">
+        <v>1.12</v>
+      </c>
+      <c r="BE102">
+        <v>10.5</v>
+      </c>
+      <c r="BF102">
+        <v>6.4</v>
+      </c>
+      <c r="BG102">
+        <v>1.17</v>
+      </c>
+      <c r="BH102">
+        <v>4.3</v>
+      </c>
+      <c r="BI102">
+        <v>1.3</v>
+      </c>
+      <c r="BJ102">
+        <v>3.15</v>
+      </c>
+      <c r="BK102">
+        <v>1.49</v>
+      </c>
+      <c r="BL102">
+        <v>2.4</v>
+      </c>
+      <c r="BM102">
+        <v>1.88</v>
+      </c>
+      <c r="BN102">
+        <v>1.92</v>
+      </c>
+      <c r="BO102">
+        <v>2.17</v>
+      </c>
+      <c r="BP102">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7480240</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F103">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s">
+        <v>80</v>
+      </c>
+      <c r="H103" t="s">
+        <v>79</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103">
+        <v>3</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103" t="s">
+        <v>163</v>
+      </c>
+      <c r="P103" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q103">
+        <v>2.88</v>
+      </c>
+      <c r="R103">
+        <v>2.2</v>
+      </c>
+      <c r="S103">
+        <v>3.6</v>
+      </c>
+      <c r="T103">
+        <v>1.36</v>
+      </c>
+      <c r="U103">
+        <v>3</v>
+      </c>
+      <c r="V103">
+        <v>2.63</v>
+      </c>
+      <c r="W103">
+        <v>1.44</v>
+      </c>
+      <c r="X103">
+        <v>7</v>
+      </c>
+      <c r="Y103">
+        <v>1.1</v>
+      </c>
+      <c r="Z103">
+        <v>2.34</v>
+      </c>
+      <c r="AA103">
+        <v>2.62</v>
+      </c>
+      <c r="AB103">
+        <v>3.34</v>
+      </c>
+      <c r="AC103">
+        <v>1.05</v>
+      </c>
+      <c r="AD103">
+        <v>9.5</v>
+      </c>
+      <c r="AE103">
+        <v>1.25</v>
+      </c>
+      <c r="AF103">
+        <v>3.75</v>
+      </c>
+      <c r="AG103">
+        <v>1.78</v>
+      </c>
+      <c r="AH103">
+        <v>1.96</v>
+      </c>
+      <c r="AI103">
+        <v>1.62</v>
+      </c>
+      <c r="AJ103">
+        <v>2.2</v>
+      </c>
+      <c r="AK103">
+        <v>1.35</v>
+      </c>
+      <c r="AL103">
+        <v>1.25</v>
+      </c>
+      <c r="AM103">
+        <v>1.65</v>
+      </c>
+      <c r="AN103">
+        <v>2.44</v>
+      </c>
+      <c r="AO103">
+        <v>0.63</v>
+      </c>
+      <c r="AP103">
+        <v>2.2</v>
+      </c>
+      <c r="AQ103">
+        <v>0.89</v>
+      </c>
+      <c r="AR103">
+        <v>1.34</v>
+      </c>
+      <c r="AS103">
+        <v>1.52</v>
+      </c>
+      <c r="AT103">
+        <v>2.86</v>
+      </c>
+      <c r="AU103">
+        <v>3</v>
+      </c>
+      <c r="AV103">
+        <v>5</v>
+      </c>
+      <c r="AW103">
+        <v>10</v>
+      </c>
+      <c r="AX103">
+        <v>1</v>
+      </c>
+      <c r="AY103">
+        <v>18</v>
+      </c>
+      <c r="AZ103">
+        <v>8</v>
+      </c>
+      <c r="BA103">
+        <v>5</v>
+      </c>
+      <c r="BB103">
+        <v>6</v>
+      </c>
+      <c r="BC103">
+        <v>11</v>
+      </c>
+      <c r="BD103">
+        <v>1.76</v>
+      </c>
+      <c r="BE103">
+        <v>6.75</v>
+      </c>
+      <c r="BF103">
+        <v>2.23</v>
+      </c>
+      <c r="BG103">
+        <v>1.18</v>
+      </c>
+      <c r="BH103">
+        <v>4.1</v>
+      </c>
+      <c r="BI103">
+        <v>1.32</v>
+      </c>
+      <c r="BJ103">
+        <v>3.05</v>
+      </c>
+      <c r="BK103">
+        <v>1.53</v>
+      </c>
+      <c r="BL103">
+        <v>2.3</v>
+      </c>
+      <c r="BM103">
+        <v>1.95</v>
+      </c>
+      <c r="BN103">
+        <v>1.85</v>
+      </c>
+      <c r="BO103">
+        <v>2.28</v>
+      </c>
+      <c r="BP103">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>['14']</t>
+  </si>
+  <si>
+    <t>['16', '58']</t>
   </si>
   <si>
     <t>['18', '79']</t>
@@ -1053,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1390,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>1.43</v>
@@ -1724,7 +1727,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1802,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4">
         <v>0.67</v>
@@ -2342,7 +2345,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2754,7 +2757,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2960,7 +2963,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3166,7 +3169,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3247,7 +3250,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ11">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3372,7 +3375,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3578,7 +3581,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3659,7 +3662,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ13">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3862,10 +3865,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ14">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR14">
         <v>2.04</v>
@@ -3990,7 +3993,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4402,7 +4405,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4483,7 +4486,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AR17">
         <v>1.07</v>
@@ -5020,7 +5023,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5226,7 +5229,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5432,7 +5435,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5844,7 +5847,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5922,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1.25</v>
@@ -6050,7 +6053,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6749,7 +6752,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ28">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR28">
         <v>0.85</v>
@@ -7080,7 +7083,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7286,7 +7289,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7364,7 +7367,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
         <v>1.43</v>
@@ -7492,7 +7495,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7573,7 +7576,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ32">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR32">
         <v>1.31</v>
@@ -7904,7 +7907,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7982,7 +7985,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34">
         <v>0.38</v>
@@ -8110,7 +8113,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8316,7 +8319,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8522,7 +8525,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8728,7 +8731,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8809,7 +8812,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ38">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AR38">
         <v>1.42</v>
@@ -9140,7 +9143,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9346,7 +9349,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9552,7 +9555,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9758,7 +9761,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9839,7 +9842,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ43">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AR43">
         <v>1.4</v>
@@ -9964,7 +9967,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10251,7 +10254,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ45">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR45">
         <v>1.85</v>
@@ -10376,7 +10379,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10582,7 +10585,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10660,7 +10663,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47">
         <v>0.89</v>
@@ -10866,7 +10869,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
         <v>1.11</v>
@@ -10994,7 +10997,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11612,7 +11615,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11693,7 +11696,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ52">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -11818,7 +11821,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12436,7 +12439,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -12517,7 +12520,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ56">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AR56">
         <v>1.24</v>
@@ -12642,7 +12645,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q57">
         <v>1.62</v>
@@ -12848,7 +12851,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -12926,7 +12929,7 @@
         <v>0.8</v>
       </c>
       <c r="AP58">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
         <v>0.82</v>
@@ -13260,7 +13263,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13341,7 +13344,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ60">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR60">
         <v>1.06</v>
@@ -13466,7 +13469,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13544,7 +13547,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -13878,7 +13881,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -14084,7 +14087,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14496,7 +14499,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14702,7 +14705,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -14986,7 +14989,7 @@
         <v>0.6</v>
       </c>
       <c r="AP68">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68">
         <v>0.38</v>
@@ -15114,7 +15117,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15320,7 +15323,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15401,7 +15404,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ70">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15526,7 +15529,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15732,7 +15735,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15813,7 +15816,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ72">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AR72">
         <v>1.22</v>
@@ -16350,7 +16353,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16762,7 +16765,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16968,7 +16971,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17174,7 +17177,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17252,10 +17255,10 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AR79">
         <v>1.56</v>
@@ -17380,7 +17383,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17870,7 +17873,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ82">
         <v>1.11</v>
@@ -17998,7 +18001,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18204,7 +18207,7 @@
         <v>82</v>
       </c>
       <c r="P84" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18410,7 +18413,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q85">
         <v>7.5</v>
@@ -18616,7 +18619,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18694,7 +18697,7 @@
         <v>1.83</v>
       </c>
       <c r="AP86">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ86">
         <v>1.71</v>
@@ -19028,7 +19031,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19234,7 +19237,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19315,7 +19318,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ89">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19646,7 +19649,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>2.3</v>
@@ -19727,7 +19730,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ91">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR91">
         <v>1.37</v>
@@ -20136,7 +20139,7 @@
         <v>0.78</v>
       </c>
       <c r="AP93">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ93">
         <v>0.82</v>
@@ -20342,7 +20345,7 @@
         <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ94">
         <v>0.67</v>
@@ -20470,7 +20473,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -20676,7 +20679,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20882,7 +20885,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q97">
         <v>2.05</v>
@@ -21088,7 +21091,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21467,7 +21470,7 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45645.875</v>
+        <v>45646.69791666666</v>
       </c>
       <c r="F100">
         <v>18</v>
@@ -21500,7 +21503,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21608,7 +21611,7 @@
         <v>5</v>
       </c>
       <c r="AZ100">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA100">
         <v>2</v>
@@ -21706,7 +21709,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -21882,7 +21885,7 @@
         <v>45647.5</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G102" t="s">
         <v>76</v>
@@ -22118,7 +22121,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22275,6 +22278,418 @@
       </c>
       <c r="BP103">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7480241</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45648.375</v>
+      </c>
+      <c r="F104">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>72</v>
+      </c>
+      <c r="H104" t="s">
+        <v>74</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104" t="s">
+        <v>82</v>
+      </c>
+      <c r="P104" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q104">
+        <v>8.5</v>
+      </c>
+      <c r="R104">
+        <v>2.75</v>
+      </c>
+      <c r="S104">
+        <v>1.67</v>
+      </c>
+      <c r="T104">
+        <v>1.25</v>
+      </c>
+      <c r="U104">
+        <v>3.75</v>
+      </c>
+      <c r="V104">
+        <v>2.2</v>
+      </c>
+      <c r="W104">
+        <v>1.62</v>
+      </c>
+      <c r="X104">
+        <v>5</v>
+      </c>
+      <c r="Y104">
+        <v>1.17</v>
+      </c>
+      <c r="Z104">
+        <v>9.1</v>
+      </c>
+      <c r="AA104">
+        <v>5.8</v>
+      </c>
+      <c r="AB104">
+        <v>1.27</v>
+      </c>
+      <c r="AC104">
+        <v>1.01</v>
+      </c>
+      <c r="AD104">
+        <v>19</v>
+      </c>
+      <c r="AE104">
+        <v>1.14</v>
+      </c>
+      <c r="AF104">
+        <v>5.5</v>
+      </c>
+      <c r="AG104">
+        <v>1.65</v>
+      </c>
+      <c r="AH104">
+        <v>2.15</v>
+      </c>
+      <c r="AI104">
+        <v>1.95</v>
+      </c>
+      <c r="AJ104">
+        <v>1.8</v>
+      </c>
+      <c r="AK104">
+        <v>3.75</v>
+      </c>
+      <c r="AL104">
+        <v>1.09</v>
+      </c>
+      <c r="AM104">
+        <v>1.01</v>
+      </c>
+      <c r="AN104">
+        <v>1.75</v>
+      </c>
+      <c r="AO104">
+        <v>3</v>
+      </c>
+      <c r="AP104">
+        <v>1.67</v>
+      </c>
+      <c r="AQ104">
+        <v>2.78</v>
+      </c>
+      <c r="AR104">
+        <v>1.42</v>
+      </c>
+      <c r="AS104">
+        <v>1.95</v>
+      </c>
+      <c r="AT104">
+        <v>3.37</v>
+      </c>
+      <c r="AU104">
+        <v>3</v>
+      </c>
+      <c r="AV104">
+        <v>4</v>
+      </c>
+      <c r="AW104">
+        <v>0</v>
+      </c>
+      <c r="AX104">
+        <v>9</v>
+      </c>
+      <c r="AY104">
+        <v>3</v>
+      </c>
+      <c r="AZ104">
+        <v>18</v>
+      </c>
+      <c r="BA104">
+        <v>3</v>
+      </c>
+      <c r="BB104">
+        <v>9</v>
+      </c>
+      <c r="BC104">
+        <v>12</v>
+      </c>
+      <c r="BD104">
+        <v>5.6</v>
+      </c>
+      <c r="BE104">
+        <v>10</v>
+      </c>
+      <c r="BF104">
+        <v>1.15</v>
+      </c>
+      <c r="BG104">
+        <v>1.19</v>
+      </c>
+      <c r="BH104">
+        <v>4.1</v>
+      </c>
+      <c r="BI104">
+        <v>1.34</v>
+      </c>
+      <c r="BJ104">
+        <v>2.9</v>
+      </c>
+      <c r="BK104">
+        <v>1.55</v>
+      </c>
+      <c r="BL104">
+        <v>2.25</v>
+      </c>
+      <c r="BM104">
+        <v>1.85</v>
+      </c>
+      <c r="BN104">
+        <v>1.83</v>
+      </c>
+      <c r="BO104">
+        <v>2.28</v>
+      </c>
+      <c r="BP104">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7480242</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45648.5</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>70</v>
+      </c>
+      <c r="H105" t="s">
+        <v>75</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>164</v>
+      </c>
+      <c r="P105" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q105">
+        <v>2.05</v>
+      </c>
+      <c r="R105">
+        <v>2.3</v>
+      </c>
+      <c r="S105">
+        <v>6</v>
+      </c>
+      <c r="T105">
+        <v>1.36</v>
+      </c>
+      <c r="U105">
+        <v>3</v>
+      </c>
+      <c r="V105">
+        <v>2.63</v>
+      </c>
+      <c r="W105">
+        <v>1.44</v>
+      </c>
+      <c r="X105">
+        <v>7</v>
+      </c>
+      <c r="Y105">
+        <v>1.1</v>
+      </c>
+      <c r="Z105">
+        <v>1.53</v>
+      </c>
+      <c r="AA105">
+        <v>4.2</v>
+      </c>
+      <c r="AB105">
+        <v>5.7</v>
+      </c>
+      <c r="AC105">
+        <v>1.03</v>
+      </c>
+      <c r="AD105">
+        <v>13</v>
+      </c>
+      <c r="AE105">
+        <v>1.25</v>
+      </c>
+      <c r="AF105">
+        <v>3.75</v>
+      </c>
+      <c r="AG105">
+        <v>1.79</v>
+      </c>
+      <c r="AH105">
+        <v>1.95</v>
+      </c>
+      <c r="AI105">
+        <v>1.91</v>
+      </c>
+      <c r="AJ105">
+        <v>1.91</v>
+      </c>
+      <c r="AK105">
+        <v>1.12</v>
+      </c>
+      <c r="AL105">
+        <v>1.18</v>
+      </c>
+      <c r="AM105">
+        <v>2.55</v>
+      </c>
+      <c r="AN105">
+        <v>1.13</v>
+      </c>
+      <c r="AO105">
+        <v>0.89</v>
+      </c>
+      <c r="AP105">
+        <v>1.33</v>
+      </c>
+      <c r="AQ105">
+        <v>0.8</v>
+      </c>
+      <c r="AR105">
+        <v>1.69</v>
+      </c>
+      <c r="AS105">
+        <v>1.09</v>
+      </c>
+      <c r="AT105">
+        <v>2.78</v>
+      </c>
+      <c r="AU105">
+        <v>7</v>
+      </c>
+      <c r="AV105">
+        <v>4</v>
+      </c>
+      <c r="AW105">
+        <v>3</v>
+      </c>
+      <c r="AX105">
+        <v>6</v>
+      </c>
+      <c r="AY105">
+        <v>12</v>
+      </c>
+      <c r="AZ105">
+        <v>10</v>
+      </c>
+      <c r="BA105">
+        <v>8</v>
+      </c>
+      <c r="BB105">
+        <v>0</v>
+      </c>
+      <c r="BC105">
+        <v>8</v>
+      </c>
+      <c r="BD105">
+        <v>1.25</v>
+      </c>
+      <c r="BE105">
+        <v>8.5</v>
+      </c>
+      <c r="BF105">
+        <v>4.1</v>
+      </c>
+      <c r="BG105">
+        <v>1.19</v>
+      </c>
+      <c r="BH105">
+        <v>4.1</v>
+      </c>
+      <c r="BI105">
+        <v>1.33</v>
+      </c>
+      <c r="BJ105">
+        <v>2.95</v>
+      </c>
+      <c r="BK105">
+        <v>1.54</v>
+      </c>
+      <c r="BL105">
+        <v>2.3</v>
+      </c>
+      <c r="BM105">
+        <v>1.86</v>
+      </c>
+      <c r="BN105">
+        <v>1.82</v>
+      </c>
+      <c r="BO105">
+        <v>2.3</v>
+      </c>
+      <c r="BP105">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -22285,7 +22285,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7480241</v>
+        <v>7480242</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
@@ -22294,166 +22294,166 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45648.375</v>
+        <v>45647.875</v>
       </c>
       <c r="F104">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H104" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O104" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="Q104">
-        <v>8.5</v>
+        <v>2.05</v>
       </c>
       <c r="R104">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="S104">
-        <v>1.67</v>
+        <v>6</v>
       </c>
       <c r="T104">
+        <v>1.36</v>
+      </c>
+      <c r="U104">
+        <v>3</v>
+      </c>
+      <c r="V104">
+        <v>2.63</v>
+      </c>
+      <c r="W104">
+        <v>1.44</v>
+      </c>
+      <c r="X104">
+        <v>7</v>
+      </c>
+      <c r="Y104">
+        <v>1.1</v>
+      </c>
+      <c r="Z104">
+        <v>1.53</v>
+      </c>
+      <c r="AA104">
+        <v>4.2</v>
+      </c>
+      <c r="AB104">
+        <v>5.7</v>
+      </c>
+      <c r="AC104">
+        <v>1.03</v>
+      </c>
+      <c r="AD104">
+        <v>13</v>
+      </c>
+      <c r="AE104">
         <v>1.25</v>
       </c>
-      <c r="U104">
+      <c r="AF104">
         <v>3.75</v>
       </c>
-      <c r="V104">
-        <v>2.2</v>
-      </c>
-      <c r="W104">
-        <v>1.62</v>
-      </c>
-      <c r="X104">
-        <v>5</v>
-      </c>
-      <c r="Y104">
-        <v>1.17</v>
-      </c>
-      <c r="Z104">
-        <v>9.1</v>
-      </c>
-      <c r="AA104">
-        <v>5.8</v>
-      </c>
-      <c r="AB104">
-        <v>1.27</v>
-      </c>
-      <c r="AC104">
-        <v>1.01</v>
-      </c>
-      <c r="AD104">
-        <v>19</v>
-      </c>
-      <c r="AE104">
-        <v>1.14</v>
-      </c>
-      <c r="AF104">
-        <v>5.5</v>
-      </c>
       <c r="AG104">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="AH104">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="AI104">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AJ104">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AK104">
-        <v>3.75</v>
+        <v>1.12</v>
       </c>
       <c r="AL104">
+        <v>1.18</v>
+      </c>
+      <c r="AM104">
+        <v>2.55</v>
+      </c>
+      <c r="AN104">
+        <v>1.13</v>
+      </c>
+      <c r="AO104">
+        <v>0.89</v>
+      </c>
+      <c r="AP104">
+        <v>1.33</v>
+      </c>
+      <c r="AQ104">
+        <v>0.8</v>
+      </c>
+      <c r="AR104">
+        <v>1.69</v>
+      </c>
+      <c r="AS104">
         <v>1.09</v>
       </c>
-      <c r="AM104">
-        <v>1.01</v>
-      </c>
-      <c r="AN104">
-        <v>1.75</v>
-      </c>
-      <c r="AO104">
-        <v>3</v>
-      </c>
-      <c r="AP104">
-        <v>1.67</v>
-      </c>
-      <c r="AQ104">
+      <c r="AT104">
         <v>2.78</v>
       </c>
-      <c r="AR104">
-        <v>1.42</v>
-      </c>
-      <c r="AS104">
-        <v>1.95</v>
-      </c>
-      <c r="AT104">
-        <v>3.37</v>
-      </c>
       <c r="AU104">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV104">
         <v>4</v>
       </c>
       <c r="AW104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX104">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AY104">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AZ104">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="BA104">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB104">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BC104">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD104">
-        <v>5.6</v>
+        <v>1.25</v>
       </c>
       <c r="BE104">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF104">
-        <v>1.15</v>
+        <v>4.1</v>
       </c>
       <c r="BG104">
         <v>1.19</v>
@@ -22462,28 +22462,28 @@
         <v>4.1</v>
       </c>
       <c r="BI104">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="BJ104">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="BK104">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="BL104">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="BM104">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="BN104">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="BO104">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="BP104">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="105" spans="1:68">
@@ -22491,7 +22491,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7480242</v>
+        <v>7480241</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22500,166 +22500,166 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45648.5</v>
+        <v>45648.375</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G105" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O105" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="P105" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="Q105">
-        <v>2.05</v>
+        <v>8.5</v>
       </c>
       <c r="R105">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="S105">
-        <v>6</v>
+        <v>1.67</v>
       </c>
       <c r="T105">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="U105">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V105">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W105">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="X105">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y105">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="Z105">
-        <v>1.53</v>
+        <v>9.1</v>
       </c>
       <c r="AA105">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="AB105">
-        <v>5.7</v>
+        <v>1.27</v>
       </c>
       <c r="AC105">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD105">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE105">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AF105">
+        <v>5.5</v>
+      </c>
+      <c r="AG105">
+        <v>1.65</v>
+      </c>
+      <c r="AH105">
+        <v>2.15</v>
+      </c>
+      <c r="AI105">
+        <v>1.95</v>
+      </c>
+      <c r="AJ105">
+        <v>1.8</v>
+      </c>
+      <c r="AK105">
         <v>3.75</v>
       </c>
-      <c r="AG105">
-        <v>1.79</v>
-      </c>
-      <c r="AH105">
+      <c r="AL105">
+        <v>1.09</v>
+      </c>
+      <c r="AM105">
+        <v>1.01</v>
+      </c>
+      <c r="AN105">
+        <v>1.75</v>
+      </c>
+      <c r="AO105">
+        <v>3</v>
+      </c>
+      <c r="AP105">
+        <v>1.67</v>
+      </c>
+      <c r="AQ105">
+        <v>2.78</v>
+      </c>
+      <c r="AR105">
+        <v>1.42</v>
+      </c>
+      <c r="AS105">
         <v>1.95</v>
       </c>
-      <c r="AI105">
-        <v>1.91</v>
-      </c>
-      <c r="AJ105">
-        <v>1.91</v>
-      </c>
-      <c r="AK105">
-        <v>1.12</v>
-      </c>
-      <c r="AL105">
-        <v>1.18</v>
-      </c>
-      <c r="AM105">
-        <v>2.55</v>
-      </c>
-      <c r="AN105">
-        <v>1.13</v>
-      </c>
-      <c r="AO105">
-        <v>0.89</v>
-      </c>
-      <c r="AP105">
-        <v>1.33</v>
-      </c>
-      <c r="AQ105">
-        <v>0.8</v>
-      </c>
-      <c r="AR105">
-        <v>1.69</v>
-      </c>
-      <c r="AS105">
-        <v>1.09</v>
-      </c>
       <c r="AT105">
-        <v>2.78</v>
+        <v>3.37</v>
       </c>
       <c r="AU105">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV105">
         <v>4</v>
       </c>
       <c r="AW105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX105">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY105">
+        <v>3</v>
+      </c>
+      <c r="AZ105">
+        <v>18</v>
+      </c>
+      <c r="BA105">
+        <v>3</v>
+      </c>
+      <c r="BB105">
+        <v>9</v>
+      </c>
+      <c r="BC105">
         <v>12</v>
       </c>
-      <c r="AZ105">
+      <c r="BD105">
+        <v>5.6</v>
+      </c>
+      <c r="BE105">
         <v>10</v>
       </c>
-      <c r="BA105">
-        <v>8</v>
-      </c>
-      <c r="BB105">
-        <v>0</v>
-      </c>
-      <c r="BC105">
-        <v>8</v>
-      </c>
-      <c r="BD105">
-        <v>1.25</v>
-      </c>
-      <c r="BE105">
-        <v>8.5</v>
-      </c>
       <c r="BF105">
-        <v>4.1</v>
+        <v>1.15</v>
       </c>
       <c r="BG105">
         <v>1.19</v>
@@ -22668,28 +22668,28 @@
         <v>4.1</v>
       </c>
       <c r="BI105">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BJ105">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BK105">
+        <v>1.55</v>
+      </c>
+      <c r="BL105">
+        <v>2.25</v>
+      </c>
+      <c r="BM105">
+        <v>1.85</v>
+      </c>
+      <c r="BN105">
+        <v>1.83</v>
+      </c>
+      <c r="BO105">
+        <v>2.28</v>
+      </c>
+      <c r="BP105">
         <v>1.54</v>
-      </c>
-      <c r="BL105">
-        <v>2.3</v>
-      </c>
-      <c r="BM105">
-        <v>1.86</v>
-      </c>
-      <c r="BN105">
-        <v>1.82</v>
-      </c>
-      <c r="BO105">
-        <v>2.3</v>
-      </c>
-      <c r="BP105">
-        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -22285,7 +22285,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7480242</v>
+        <v>7480241</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
@@ -22294,166 +22294,166 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45647.875</v>
+        <v>45648.375</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H104" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O104" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="P104" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="Q104">
-        <v>2.05</v>
+        <v>8.5</v>
       </c>
       <c r="R104">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="S104">
-        <v>6</v>
+        <v>1.67</v>
       </c>
       <c r="T104">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="U104">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V104">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W104">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="X104">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y104">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="Z104">
-        <v>1.53</v>
+        <v>9.1</v>
       </c>
       <c r="AA104">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="AB104">
-        <v>5.7</v>
+        <v>1.27</v>
       </c>
       <c r="AC104">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD104">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE104">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AF104">
+        <v>5.5</v>
+      </c>
+      <c r="AG104">
+        <v>1.65</v>
+      </c>
+      <c r="AH104">
+        <v>2.15</v>
+      </c>
+      <c r="AI104">
+        <v>1.95</v>
+      </c>
+      <c r="AJ104">
+        <v>1.8</v>
+      </c>
+      <c r="AK104">
         <v>3.75</v>
       </c>
-      <c r="AG104">
-        <v>1.79</v>
-      </c>
-      <c r="AH104">
+      <c r="AL104">
+        <v>1.09</v>
+      </c>
+      <c r="AM104">
+        <v>1.01</v>
+      </c>
+      <c r="AN104">
+        <v>1.75</v>
+      </c>
+      <c r="AO104">
+        <v>3</v>
+      </c>
+      <c r="AP104">
+        <v>1.67</v>
+      </c>
+      <c r="AQ104">
+        <v>2.78</v>
+      </c>
+      <c r="AR104">
+        <v>1.42</v>
+      </c>
+      <c r="AS104">
         <v>1.95</v>
       </c>
-      <c r="AI104">
-        <v>1.91</v>
-      </c>
-      <c r="AJ104">
-        <v>1.91</v>
-      </c>
-      <c r="AK104">
-        <v>1.12</v>
-      </c>
-      <c r="AL104">
-        <v>1.18</v>
-      </c>
-      <c r="AM104">
-        <v>2.55</v>
-      </c>
-      <c r="AN104">
-        <v>1.13</v>
-      </c>
-      <c r="AO104">
-        <v>0.89</v>
-      </c>
-      <c r="AP104">
-        <v>1.33</v>
-      </c>
-      <c r="AQ104">
-        <v>0.8</v>
-      </c>
-      <c r="AR104">
-        <v>1.69</v>
-      </c>
-      <c r="AS104">
-        <v>1.09</v>
-      </c>
       <c r="AT104">
-        <v>2.78</v>
+        <v>3.37</v>
       </c>
       <c r="AU104">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV104">
         <v>4</v>
       </c>
       <c r="AW104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX104">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY104">
+        <v>3</v>
+      </c>
+      <c r="AZ104">
+        <v>18</v>
+      </c>
+      <c r="BA104">
+        <v>3</v>
+      </c>
+      <c r="BB104">
+        <v>9</v>
+      </c>
+      <c r="BC104">
         <v>12</v>
       </c>
-      <c r="AZ104">
+      <c r="BD104">
+        <v>5.6</v>
+      </c>
+      <c r="BE104">
         <v>10</v>
       </c>
-      <c r="BA104">
-        <v>8</v>
-      </c>
-      <c r="BB104">
-        <v>0</v>
-      </c>
-      <c r="BC104">
-        <v>8</v>
-      </c>
-      <c r="BD104">
-        <v>1.25</v>
-      </c>
-      <c r="BE104">
-        <v>8.5</v>
-      </c>
       <c r="BF104">
-        <v>4.1</v>
+        <v>1.15</v>
       </c>
       <c r="BG104">
         <v>1.19</v>
@@ -22462,28 +22462,28 @@
         <v>4.1</v>
       </c>
       <c r="BI104">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BJ104">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BK104">
+        <v>1.55</v>
+      </c>
+      <c r="BL104">
+        <v>2.25</v>
+      </c>
+      <c r="BM104">
+        <v>1.85</v>
+      </c>
+      <c r="BN104">
+        <v>1.83</v>
+      </c>
+      <c r="BO104">
+        <v>2.28</v>
+      </c>
+      <c r="BP104">
         <v>1.54</v>
-      </c>
-      <c r="BL104">
-        <v>2.3</v>
-      </c>
-      <c r="BM104">
-        <v>1.86</v>
-      </c>
-      <c r="BN104">
-        <v>1.82</v>
-      </c>
-      <c r="BO104">
-        <v>2.3</v>
-      </c>
-      <c r="BP104">
-        <v>1.53</v>
       </c>
     </row>
     <row r="105" spans="1:68">
@@ -22491,7 +22491,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7480241</v>
+        <v>7480242</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22500,166 +22500,166 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45648.375</v>
+        <v>45648.5</v>
       </c>
       <c r="F105">
         <v>18</v>
       </c>
       <c r="G105" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H105" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O105" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="Q105">
-        <v>8.5</v>
+        <v>2.05</v>
       </c>
       <c r="R105">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="S105">
-        <v>1.67</v>
+        <v>6</v>
       </c>
       <c r="T105">
+        <v>1.36</v>
+      </c>
+      <c r="U105">
+        <v>3</v>
+      </c>
+      <c r="V105">
+        <v>2.63</v>
+      </c>
+      <c r="W105">
+        <v>1.44</v>
+      </c>
+      <c r="X105">
+        <v>7</v>
+      </c>
+      <c r="Y105">
+        <v>1.1</v>
+      </c>
+      <c r="Z105">
+        <v>1.53</v>
+      </c>
+      <c r="AA105">
+        <v>4.2</v>
+      </c>
+      <c r="AB105">
+        <v>5.7</v>
+      </c>
+      <c r="AC105">
+        <v>1.03</v>
+      </c>
+      <c r="AD105">
+        <v>13</v>
+      </c>
+      <c r="AE105">
         <v>1.25</v>
       </c>
-      <c r="U105">
+      <c r="AF105">
         <v>3.75</v>
       </c>
-      <c r="V105">
-        <v>2.2</v>
-      </c>
-      <c r="W105">
-        <v>1.62</v>
-      </c>
-      <c r="X105">
-        <v>5</v>
-      </c>
-      <c r="Y105">
-        <v>1.17</v>
-      </c>
-      <c r="Z105">
-        <v>9.1</v>
-      </c>
-      <c r="AA105">
-        <v>5.8</v>
-      </c>
-      <c r="AB105">
-        <v>1.27</v>
-      </c>
-      <c r="AC105">
-        <v>1.01</v>
-      </c>
-      <c r="AD105">
-        <v>19</v>
-      </c>
-      <c r="AE105">
-        <v>1.14</v>
-      </c>
-      <c r="AF105">
-        <v>5.5</v>
-      </c>
       <c r="AG105">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="AH105">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="AI105">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AJ105">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AK105">
-        <v>3.75</v>
+        <v>1.12</v>
       </c>
       <c r="AL105">
+        <v>1.18</v>
+      </c>
+      <c r="AM105">
+        <v>2.55</v>
+      </c>
+      <c r="AN105">
+        <v>1.13</v>
+      </c>
+      <c r="AO105">
+        <v>0.89</v>
+      </c>
+      <c r="AP105">
+        <v>1.33</v>
+      </c>
+      <c r="AQ105">
+        <v>0.8</v>
+      </c>
+      <c r="AR105">
+        <v>1.69</v>
+      </c>
+      <c r="AS105">
         <v>1.09</v>
       </c>
-      <c r="AM105">
-        <v>1.01</v>
-      </c>
-      <c r="AN105">
-        <v>1.75</v>
-      </c>
-      <c r="AO105">
-        <v>3</v>
-      </c>
-      <c r="AP105">
-        <v>1.67</v>
-      </c>
-      <c r="AQ105">
+      <c r="AT105">
         <v>2.78</v>
       </c>
-      <c r="AR105">
-        <v>1.42</v>
-      </c>
-      <c r="AS105">
-        <v>1.95</v>
-      </c>
-      <c r="AT105">
-        <v>3.37</v>
-      </c>
       <c r="AU105">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV105">
         <v>4</v>
       </c>
       <c r="AW105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX105">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AY105">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AZ105">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="BA105">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB105">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BC105">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD105">
-        <v>5.6</v>
+        <v>1.25</v>
       </c>
       <c r="BE105">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF105">
-        <v>1.15</v>
+        <v>4.1</v>
       </c>
       <c r="BG105">
         <v>1.19</v>
@@ -22668,28 +22668,28 @@
         <v>4.1</v>
       </c>
       <c r="BI105">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="BJ105">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="BK105">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="BL105">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="BM105">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="BN105">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="BO105">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="BP105">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,18 @@
     <t>['16', '58']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['45+1', '57', '74', '81']</t>
+  </si>
+  <si>
+    <t>['18', '59', '87', '90+3']</t>
+  </si>
+  <si>
+    <t>['30', '90+3']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -695,6 +707,15 @@
   </si>
   <si>
     <t>['18', '35', '49']</t>
+  </si>
+  <si>
+    <t>['9', '78']</t>
+  </si>
+  <si>
+    <t>['23', '70', '78']</t>
+  </si>
+  <si>
+    <t>['51', '60']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1393,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ2">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1602,7 +1623,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ3">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1727,7 +1748,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2011,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ5">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2217,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ6">
         <v>0.82</v>
@@ -2345,7 +2366,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2423,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ7">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2632,7 +2653,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2757,7 +2778,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2838,7 +2859,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ9">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2963,7 +2984,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3041,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ10">
         <v>0.44</v>
@@ -3169,7 +3190,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3375,7 +3396,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3581,7 +3602,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3659,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>0.8</v>
@@ -3993,7 +4014,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4280,7 +4301,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ16">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR16">
         <v>2.02</v>
@@ -4405,7 +4426,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4483,7 +4504,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ17">
         <v>2.78</v>
@@ -5023,7 +5044,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5101,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ20">
         <v>1.11</v>
@@ -5229,7 +5250,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5307,10 +5328,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>1.39</v>
@@ -5435,7 +5456,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5516,7 +5537,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ22">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>1.66</v>
@@ -5719,10 +5740,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ23">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR23">
         <v>3.1</v>
@@ -5847,7 +5868,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5925,10 +5946,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR24">
         <v>1.14</v>
@@ -6053,7 +6074,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6131,10 +6152,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR25">
         <v>1.41</v>
@@ -6340,7 +6361,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.12</v>
@@ -6543,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ27">
         <v>0.44</v>
@@ -7083,7 +7104,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7161,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ30">
         <v>0.82</v>
@@ -7289,7 +7310,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7370,7 +7391,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ31">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR31">
         <v>1.46</v>
@@ -7495,7 +7516,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7779,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ33">
         <v>0.44</v>
@@ -7907,7 +7928,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7985,10 +8006,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ34">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
         <v>1.25</v>
@@ -8113,7 +8134,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8191,10 +8212,10 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR35">
         <v>1.32</v>
@@ -8319,7 +8340,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8525,7 +8546,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8603,10 +8624,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ37">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8731,7 +8752,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8809,7 +8830,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ38">
         <v>2.78</v>
@@ -9018,7 +9039,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ39">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR39">
         <v>2.01</v>
@@ -9143,7 +9164,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9221,10 +9242,10 @@
         <v>1.67</v>
       </c>
       <c r="AP40">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ40">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR40">
         <v>0.9399999999999999</v>
@@ -9349,7 +9370,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9430,7 +9451,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
         <v>1.12</v>
@@ -9555,7 +9576,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9633,7 +9654,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ42">
         <v>0.82</v>
@@ -9761,7 +9782,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9967,7 +9988,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10379,7 +10400,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10457,10 +10478,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ46">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
         <v>2.16</v>
@@ -10585,7 +10606,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10666,7 +10687,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR47">
         <v>1.19</v>
@@ -10869,7 +10890,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ48">
         <v>1.11</v>
@@ -10997,7 +11018,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11281,10 +11302,10 @@
         <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ50">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11487,10 +11508,10 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11615,7 +11636,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11693,7 +11714,7 @@
         <v>0.8</v>
       </c>
       <c r="AP52">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ52">
         <v>0.8</v>
@@ -11821,7 +11842,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12108,7 +12129,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ54">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR54">
         <v>1.17</v>
@@ -12439,7 +12460,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -12645,7 +12666,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>1.62</v>
@@ -12851,7 +12872,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -12929,7 +12950,7 @@
         <v>0.8</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ58">
         <v>0.82</v>
@@ -13138,7 +13159,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ59">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR59">
         <v>1.31</v>
@@ -13263,7 +13284,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13341,7 +13362,7 @@
         <v>1.17</v>
       </c>
       <c r="AP60">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ60">
         <v>0.8</v>
@@ -13469,7 +13490,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13550,7 +13571,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR61">
         <v>1.15</v>
@@ -13753,7 +13774,7 @@
         <v>1.25</v>
       </c>
       <c r="AP62">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ62">
         <v>0.67</v>
@@ -13881,7 +13902,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -13962,7 +13983,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ63">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR63">
         <v>1.25</v>
@@ -14087,7 +14108,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14165,7 +14186,7 @@
         <v>0.17</v>
       </c>
       <c r="AP64">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ64">
         <v>0.44</v>
@@ -14371,10 +14392,10 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ65">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR65">
         <v>1.13</v>
@@ -14499,7 +14520,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14577,7 +14598,7 @@
         <v>1.17</v>
       </c>
       <c r="AP66">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ66">
         <v>0.82</v>
@@ -14705,7 +14726,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -14786,7 +14807,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ67">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR67">
         <v>1.3</v>
@@ -14992,7 +15013,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ68">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR68">
         <v>1.22</v>
@@ -15117,7 +15138,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15323,7 +15344,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15529,7 +15550,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15735,7 +15756,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15813,7 +15834,7 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
         <v>2.78</v>
@@ -16225,7 +16246,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ74">
         <v>0.82</v>
@@ -16353,7 +16374,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16434,7 +16455,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR75">
         <v>1.29</v>
@@ -16640,7 +16661,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR76">
         <v>1.75</v>
@@ -16765,7 +16786,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16843,10 +16864,10 @@
         <v>2.5</v>
       </c>
       <c r="AP77">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ77">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
         <v>1.13</v>
@@ -16971,7 +16992,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17049,10 +17070,10 @@
         <v>0.4</v>
       </c>
       <c r="AP78">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ78">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -17177,7 +17198,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17255,7 +17276,7 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ79">
         <v>2.78</v>
@@ -17383,7 +17404,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17464,7 +17485,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ80">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
         <v>1.33</v>
@@ -17667,10 +17688,10 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ81">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR81">
         <v>2.21</v>
@@ -18001,7 +18022,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18079,7 +18100,7 @@
         <v>0.83</v>
       </c>
       <c r="AP83">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
         <v>0.67</v>
@@ -18207,7 +18228,7 @@
         <v>82</v>
       </c>
       <c r="P84" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18288,7 +18309,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ84">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR84">
         <v>1.24</v>
@@ -18413,7 +18434,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q85">
         <v>7.5</v>
@@ -18491,10 +18512,10 @@
         <v>0.8</v>
       </c>
       <c r="AP85">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ85">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -18619,7 +18640,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18697,10 +18718,10 @@
         <v>1.83</v>
       </c>
       <c r="AP86">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ86">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR86">
         <v>1.56</v>
@@ -19031,7 +19052,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19109,10 +19130,10 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR88">
         <v>1.42</v>
@@ -19237,7 +19258,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19521,10 +19542,10 @@
         <v>1.29</v>
       </c>
       <c r="AP90">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ90">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
         <v>1.21</v>
@@ -19649,7 +19670,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>2.3</v>
@@ -19933,10 +19954,10 @@
         <v>0.71</v>
       </c>
       <c r="AP92">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ92">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR92">
         <v>2.19</v>
@@ -20345,7 +20366,7 @@
         <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ94">
         <v>0.67</v>
@@ -20473,7 +20494,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -20554,7 +20575,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ95">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR95">
         <v>1.29</v>
@@ -20679,7 +20700,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20757,7 +20778,7 @@
         <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ96">
         <v>1.11</v>
@@ -20885,7 +20906,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q97">
         <v>2.05</v>
@@ -20966,7 +20987,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ97">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR97">
         <v>1.38</v>
@@ -21091,7 +21112,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21172,7 +21193,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ98">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR98">
         <v>1.21</v>
@@ -21375,7 +21396,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
         <v>0.44</v>
@@ -21503,7 +21524,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21709,7 +21730,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22121,7 +22142,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22202,7 +22223,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ103">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR103">
         <v>1.34</v>
@@ -22611,7 +22632,7 @@
         <v>0.89</v>
       </c>
       <c r="AP105">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ105">
         <v>0.8</v>
@@ -22690,6 +22711,1242 @@
       </c>
       <c r="BP105">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7480246</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45652.39583333334</v>
+      </c>
+      <c r="F106">
+        <v>19</v>
+      </c>
+      <c r="G106" t="s">
+        <v>70</v>
+      </c>
+      <c r="H106" t="s">
+        <v>79</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>165</v>
+      </c>
+      <c r="P106" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q106">
+        <v>2.75</v>
+      </c>
+      <c r="R106">
+        <v>2.2</v>
+      </c>
+      <c r="S106">
+        <v>4</v>
+      </c>
+      <c r="T106">
+        <v>1.4</v>
+      </c>
+      <c r="U106">
+        <v>2.75</v>
+      </c>
+      <c r="V106">
+        <v>2.75</v>
+      </c>
+      <c r="W106">
+        <v>1.4</v>
+      </c>
+      <c r="X106">
+        <v>8</v>
+      </c>
+      <c r="Y106">
+        <v>1.08</v>
+      </c>
+      <c r="Z106">
+        <v>2.15</v>
+      </c>
+      <c r="AA106">
+        <v>3.5</v>
+      </c>
+      <c r="AB106">
+        <v>3.25</v>
+      </c>
+      <c r="AC106">
+        <v>1.03</v>
+      </c>
+      <c r="AD106">
+        <v>9</v>
+      </c>
+      <c r="AE106">
+        <v>1.25</v>
+      </c>
+      <c r="AF106">
+        <v>3.4</v>
+      </c>
+      <c r="AG106">
+        <v>1.83</v>
+      </c>
+      <c r="AH106">
+        <v>1.95</v>
+      </c>
+      <c r="AI106">
+        <v>1.7</v>
+      </c>
+      <c r="AJ106">
+        <v>2.05</v>
+      </c>
+      <c r="AK106">
+        <v>1.32</v>
+      </c>
+      <c r="AL106">
+        <v>1.3</v>
+      </c>
+      <c r="AM106">
+        <v>1.74</v>
+      </c>
+      <c r="AN106">
+        <v>1.33</v>
+      </c>
+      <c r="AO106">
+        <v>0.89</v>
+      </c>
+      <c r="AP106">
+        <v>1.2</v>
+      </c>
+      <c r="AQ106">
+        <v>1.1</v>
+      </c>
+      <c r="AR106">
+        <v>1.67</v>
+      </c>
+      <c r="AS106">
+        <v>1.47</v>
+      </c>
+      <c r="AT106">
+        <v>3.14</v>
+      </c>
+      <c r="AU106">
+        <v>6</v>
+      </c>
+      <c r="AV106">
+        <v>7</v>
+      </c>
+      <c r="AW106">
+        <v>5</v>
+      </c>
+      <c r="AX106">
+        <v>4</v>
+      </c>
+      <c r="AY106">
+        <v>16</v>
+      </c>
+      <c r="AZ106">
+        <v>13</v>
+      </c>
+      <c r="BA106">
+        <v>6</v>
+      </c>
+      <c r="BB106">
+        <v>3</v>
+      </c>
+      <c r="BC106">
+        <v>9</v>
+      </c>
+      <c r="BD106">
+        <v>1.59</v>
+      </c>
+      <c r="BE106">
+        <v>7.5</v>
+      </c>
+      <c r="BF106">
+        <v>2.92</v>
+      </c>
+      <c r="BG106">
+        <v>1.18</v>
+      </c>
+      <c r="BH106">
+        <v>4</v>
+      </c>
+      <c r="BI106">
+        <v>1.34</v>
+      </c>
+      <c r="BJ106">
+        <v>2.9</v>
+      </c>
+      <c r="BK106">
+        <v>1.56</v>
+      </c>
+      <c r="BL106">
+        <v>2.23</v>
+      </c>
+      <c r="BM106">
+        <v>1.95</v>
+      </c>
+      <c r="BN106">
+        <v>1.85</v>
+      </c>
+      <c r="BO106">
+        <v>2.33</v>
+      </c>
+      <c r="BP106">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7480247</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F107">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H107" t="s">
+        <v>71</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>4</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>4</v>
+      </c>
+      <c r="O107" t="s">
+        <v>166</v>
+      </c>
+      <c r="P107" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q107">
+        <v>1.44</v>
+      </c>
+      <c r="R107">
+        <v>3.2</v>
+      </c>
+      <c r="S107">
+        <v>12</v>
+      </c>
+      <c r="T107">
+        <v>1.2</v>
+      </c>
+      <c r="U107">
+        <v>4.33</v>
+      </c>
+      <c r="V107">
+        <v>2</v>
+      </c>
+      <c r="W107">
+        <v>1.73</v>
+      </c>
+      <c r="X107">
+        <v>4</v>
+      </c>
+      <c r="Y107">
+        <v>1.22</v>
+      </c>
+      <c r="Z107">
+        <v>1.1</v>
+      </c>
+      <c r="AA107">
+        <v>8.5</v>
+      </c>
+      <c r="AB107">
+        <v>17</v>
+      </c>
+      <c r="AC107">
+        <v>1.01</v>
+      </c>
+      <c r="AD107">
+        <v>21</v>
+      </c>
+      <c r="AE107">
+        <v>1.06</v>
+      </c>
+      <c r="AF107">
+        <v>6.05</v>
+      </c>
+      <c r="AG107">
+        <v>1.3</v>
+      </c>
+      <c r="AH107">
+        <v>3.2</v>
+      </c>
+      <c r="AI107">
+        <v>2.1</v>
+      </c>
+      <c r="AJ107">
+        <v>1.67</v>
+      </c>
+      <c r="AK107">
+        <v>1</v>
+      </c>
+      <c r="AL107">
+        <v>1.06</v>
+      </c>
+      <c r="AM107">
+        <v>6.1</v>
+      </c>
+      <c r="AN107">
+        <v>2.71</v>
+      </c>
+      <c r="AO107">
+        <v>1.5</v>
+      </c>
+      <c r="AP107">
+        <v>2.75</v>
+      </c>
+      <c r="AQ107">
+        <v>1.33</v>
+      </c>
+      <c r="AR107">
+        <v>2.23</v>
+      </c>
+      <c r="AS107">
+        <v>1.36</v>
+      </c>
+      <c r="AT107">
+        <v>3.59</v>
+      </c>
+      <c r="AU107">
+        <v>8</v>
+      </c>
+      <c r="AV107">
+        <v>0</v>
+      </c>
+      <c r="AW107">
+        <v>8</v>
+      </c>
+      <c r="AX107">
+        <v>2</v>
+      </c>
+      <c r="AY107">
+        <v>24</v>
+      </c>
+      <c r="AZ107">
+        <v>3</v>
+      </c>
+      <c r="BA107">
+        <v>6</v>
+      </c>
+      <c r="BB107">
+        <v>3</v>
+      </c>
+      <c r="BC107">
+        <v>9</v>
+      </c>
+      <c r="BD107">
+        <v>1.07</v>
+      </c>
+      <c r="BE107">
+        <v>13</v>
+      </c>
+      <c r="BF107">
+        <v>9.5</v>
+      </c>
+      <c r="BG107">
+        <v>1.13</v>
+      </c>
+      <c r="BH107">
+        <v>4.9</v>
+      </c>
+      <c r="BI107">
+        <v>1.24</v>
+      </c>
+      <c r="BJ107">
+        <v>3.55</v>
+      </c>
+      <c r="BK107">
+        <v>1.4</v>
+      </c>
+      <c r="BL107">
+        <v>2.65</v>
+      </c>
+      <c r="BM107">
+        <v>1.64</v>
+      </c>
+      <c r="BN107">
+        <v>2.1</v>
+      </c>
+      <c r="BO107">
+        <v>1.92</v>
+      </c>
+      <c r="BP107">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7480248</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F108">
+        <v>19</v>
+      </c>
+      <c r="G108" t="s">
+        <v>78</v>
+      </c>
+      <c r="H108" t="s">
+        <v>77</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>3</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>82</v>
+      </c>
+      <c r="P108" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q108">
+        <v>2.38</v>
+      </c>
+      <c r="R108">
+        <v>2.25</v>
+      </c>
+      <c r="S108">
+        <v>4.5</v>
+      </c>
+      <c r="T108">
+        <v>1.36</v>
+      </c>
+      <c r="U108">
+        <v>3</v>
+      </c>
+      <c r="V108">
+        <v>2.63</v>
+      </c>
+      <c r="W108">
+        <v>1.44</v>
+      </c>
+      <c r="X108">
+        <v>7</v>
+      </c>
+      <c r="Y108">
+        <v>1.1</v>
+      </c>
+      <c r="Z108">
+        <v>1.83</v>
+      </c>
+      <c r="AA108">
+        <v>3.65</v>
+      </c>
+      <c r="AB108">
+        <v>3.75</v>
+      </c>
+      <c r="AC108">
+        <v>1.05</v>
+      </c>
+      <c r="AD108">
+        <v>9.5</v>
+      </c>
+      <c r="AE108">
+        <v>1.28</v>
+      </c>
+      <c r="AF108">
+        <v>3.65</v>
+      </c>
+      <c r="AG108">
+        <v>1.75</v>
+      </c>
+      <c r="AH108">
+        <v>1.95</v>
+      </c>
+      <c r="AI108">
+        <v>1.7</v>
+      </c>
+      <c r="AJ108">
+        <v>2.05</v>
+      </c>
+      <c r="AK108">
+        <v>1.18</v>
+      </c>
+      <c r="AL108">
+        <v>1.22</v>
+      </c>
+      <c r="AM108">
+        <v>2</v>
+      </c>
+      <c r="AN108">
+        <v>1.63</v>
+      </c>
+      <c r="AO108">
+        <v>0.38</v>
+      </c>
+      <c r="AP108">
+        <v>1.44</v>
+      </c>
+      <c r="AQ108">
+        <v>0.67</v>
+      </c>
+      <c r="AR108">
+        <v>1.38</v>
+      </c>
+      <c r="AS108">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT108">
+        <v>2.19</v>
+      </c>
+      <c r="AU108">
+        <v>3</v>
+      </c>
+      <c r="AV108">
+        <v>8</v>
+      </c>
+      <c r="AW108">
+        <v>5</v>
+      </c>
+      <c r="AX108">
+        <v>9</v>
+      </c>
+      <c r="AY108">
+        <v>11</v>
+      </c>
+      <c r="AZ108">
+        <v>23</v>
+      </c>
+      <c r="BA108">
+        <v>5</v>
+      </c>
+      <c r="BB108">
+        <v>5</v>
+      </c>
+      <c r="BC108">
+        <v>10</v>
+      </c>
+      <c r="BD108">
+        <v>1.41</v>
+      </c>
+      <c r="BE108">
+        <v>8</v>
+      </c>
+      <c r="BF108">
+        <v>3.61</v>
+      </c>
+      <c r="BG108">
+        <v>1.2</v>
+      </c>
+      <c r="BH108">
+        <v>3.9</v>
+      </c>
+      <c r="BI108">
+        <v>1.36</v>
+      </c>
+      <c r="BJ108">
+        <v>2.8</v>
+      </c>
+      <c r="BK108">
+        <v>1.6</v>
+      </c>
+      <c r="BL108">
+        <v>2.17</v>
+      </c>
+      <c r="BM108">
+        <v>1.8</v>
+      </c>
+      <c r="BN108">
+        <v>2</v>
+      </c>
+      <c r="BO108">
+        <v>2.4</v>
+      </c>
+      <c r="BP108">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7480249</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F109">
+        <v>19</v>
+      </c>
+      <c r="G109" t="s">
+        <v>81</v>
+      </c>
+      <c r="H109" t="s">
+        <v>80</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>167</v>
+      </c>
+      <c r="P109" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q109">
+        <v>3.25</v>
+      </c>
+      <c r="R109">
+        <v>2.2</v>
+      </c>
+      <c r="S109">
+        <v>3.25</v>
+      </c>
+      <c r="T109">
+        <v>1.4</v>
+      </c>
+      <c r="U109">
+        <v>2.75</v>
+      </c>
+      <c r="V109">
+        <v>2.75</v>
+      </c>
+      <c r="W109">
+        <v>1.4</v>
+      </c>
+      <c r="X109">
+        <v>8</v>
+      </c>
+      <c r="Y109">
+        <v>1.08</v>
+      </c>
+      <c r="Z109">
+        <v>2.55</v>
+      </c>
+      <c r="AA109">
+        <v>3.25</v>
+      </c>
+      <c r="AB109">
+        <v>2.6</v>
+      </c>
+      <c r="AC109">
+        <v>1.05</v>
+      </c>
+      <c r="AD109">
+        <v>9</v>
+      </c>
+      <c r="AE109">
+        <v>1.3</v>
+      </c>
+      <c r="AF109">
+        <v>3.45</v>
+      </c>
+      <c r="AG109">
+        <v>1.9</v>
+      </c>
+      <c r="AH109">
+        <v>1.8</v>
+      </c>
+      <c r="AI109">
+        <v>1.7</v>
+      </c>
+      <c r="AJ109">
+        <v>2.05</v>
+      </c>
+      <c r="AK109">
+        <v>1.48</v>
+      </c>
+      <c r="AL109">
+        <v>1.25</v>
+      </c>
+      <c r="AM109">
+        <v>1.48</v>
+      </c>
+      <c r="AN109">
+        <v>1.29</v>
+      </c>
+      <c r="AO109">
+        <v>1.71</v>
+      </c>
+      <c r="AP109">
+        <v>1.5</v>
+      </c>
+      <c r="AQ109">
+        <v>1.5</v>
+      </c>
+      <c r="AR109">
+        <v>1.35</v>
+      </c>
+      <c r="AS109">
+        <v>1.28</v>
+      </c>
+      <c r="AT109">
+        <v>2.63</v>
+      </c>
+      <c r="AU109">
+        <v>9</v>
+      </c>
+      <c r="AV109">
+        <v>4</v>
+      </c>
+      <c r="AW109">
+        <v>5</v>
+      </c>
+      <c r="AX109">
+        <v>4</v>
+      </c>
+      <c r="AY109">
+        <v>23</v>
+      </c>
+      <c r="AZ109">
+        <v>9</v>
+      </c>
+      <c r="BA109">
+        <v>7</v>
+      </c>
+      <c r="BB109">
+        <v>3</v>
+      </c>
+      <c r="BC109">
+        <v>10</v>
+      </c>
+      <c r="BD109">
+        <v>1.79</v>
+      </c>
+      <c r="BE109">
+        <v>6.75</v>
+      </c>
+      <c r="BF109">
+        <v>2.18</v>
+      </c>
+      <c r="BG109">
+        <v>1.2</v>
+      </c>
+      <c r="BH109">
+        <v>3.9</v>
+      </c>
+      <c r="BI109">
+        <v>1.37</v>
+      </c>
+      <c r="BJ109">
+        <v>2.8</v>
+      </c>
+      <c r="BK109">
+        <v>1.6</v>
+      </c>
+      <c r="BL109">
+        <v>2.17</v>
+      </c>
+      <c r="BM109">
+        <v>1.9</v>
+      </c>
+      <c r="BN109">
+        <v>1.9</v>
+      </c>
+      <c r="BO109">
+        <v>2.43</v>
+      </c>
+      <c r="BP109">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7480250</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45652.5</v>
+      </c>
+      <c r="F110">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>75</v>
+      </c>
+      <c r="H110" t="s">
+        <v>72</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110" t="s">
+        <v>127</v>
+      </c>
+      <c r="P110" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q110">
+        <v>3.4</v>
+      </c>
+      <c r="R110">
+        <v>2.2</v>
+      </c>
+      <c r="S110">
+        <v>3</v>
+      </c>
+      <c r="T110">
+        <v>1.36</v>
+      </c>
+      <c r="U110">
+        <v>3</v>
+      </c>
+      <c r="V110">
+        <v>2.63</v>
+      </c>
+      <c r="W110">
+        <v>1.44</v>
+      </c>
+      <c r="X110">
+        <v>7</v>
+      </c>
+      <c r="Y110">
+        <v>1.1</v>
+      </c>
+      <c r="Z110">
+        <v>2.8</v>
+      </c>
+      <c r="AA110">
+        <v>3.15</v>
+      </c>
+      <c r="AB110">
+        <v>2.45</v>
+      </c>
+      <c r="AC110">
+        <v>1.05</v>
+      </c>
+      <c r="AD110">
+        <v>9</v>
+      </c>
+      <c r="AE110">
+        <v>1.25</v>
+      </c>
+      <c r="AF110">
+        <v>3.7</v>
+      </c>
+      <c r="AG110">
+        <v>1.9</v>
+      </c>
+      <c r="AH110">
+        <v>1.8</v>
+      </c>
+      <c r="AI110">
+        <v>1.62</v>
+      </c>
+      <c r="AJ110">
+        <v>2.2</v>
+      </c>
+      <c r="AK110">
+        <v>1.55</v>
+      </c>
+      <c r="AL110">
+        <v>1.25</v>
+      </c>
+      <c r="AM110">
+        <v>1.4</v>
+      </c>
+      <c r="AN110">
+        <v>0.75</v>
+      </c>
+      <c r="AO110">
+        <v>1.25</v>
+      </c>
+      <c r="AP110">
+        <v>0.67</v>
+      </c>
+      <c r="AQ110">
+        <v>1.44</v>
+      </c>
+      <c r="AR110">
+        <v>1.25</v>
+      </c>
+      <c r="AS110">
+        <v>1.21</v>
+      </c>
+      <c r="AT110">
+        <v>2.46</v>
+      </c>
+      <c r="AU110">
+        <v>5</v>
+      </c>
+      <c r="AV110">
+        <v>5</v>
+      </c>
+      <c r="AW110">
+        <v>5</v>
+      </c>
+      <c r="AX110">
+        <v>4</v>
+      </c>
+      <c r="AY110">
+        <v>12</v>
+      </c>
+      <c r="AZ110">
+        <v>14</v>
+      </c>
+      <c r="BA110">
+        <v>4</v>
+      </c>
+      <c r="BB110">
+        <v>11</v>
+      </c>
+      <c r="BC110">
+        <v>15</v>
+      </c>
+      <c r="BD110">
+        <v>2</v>
+      </c>
+      <c r="BE110">
+        <v>7.5</v>
+      </c>
+      <c r="BF110">
+        <v>2</v>
+      </c>
+      <c r="BG110">
+        <v>1.25</v>
+      </c>
+      <c r="BH110">
+        <v>3.45</v>
+      </c>
+      <c r="BI110">
+        <v>1.44</v>
+      </c>
+      <c r="BJ110">
+        <v>2.55</v>
+      </c>
+      <c r="BK110">
+        <v>1.72</v>
+      </c>
+      <c r="BL110">
+        <v>1.98</v>
+      </c>
+      <c r="BM110">
+        <v>2.08</v>
+      </c>
+      <c r="BN110">
+        <v>1.65</v>
+      </c>
+      <c r="BO110">
+        <v>2.65</v>
+      </c>
+      <c r="BP110">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7480251</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45652.61458333334</v>
+      </c>
+      <c r="F111">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>73</v>
+      </c>
+      <c r="H111" t="s">
+        <v>76</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>168</v>
+      </c>
+      <c r="P111" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q111">
+        <v>7</v>
+      </c>
+      <c r="R111">
+        <v>2.4</v>
+      </c>
+      <c r="S111">
+        <v>1.91</v>
+      </c>
+      <c r="T111">
+        <v>1.33</v>
+      </c>
+      <c r="U111">
+        <v>3.25</v>
+      </c>
+      <c r="V111">
+        <v>2.5</v>
+      </c>
+      <c r="W111">
+        <v>1.5</v>
+      </c>
+      <c r="X111">
+        <v>6</v>
+      </c>
+      <c r="Y111">
+        <v>1.13</v>
+      </c>
+      <c r="Z111">
+        <v>7.25</v>
+      </c>
+      <c r="AA111">
+        <v>4.5</v>
+      </c>
+      <c r="AB111">
+        <v>1.36</v>
+      </c>
+      <c r="AC111">
+        <v>1.01</v>
+      </c>
+      <c r="AD111">
+        <v>12.5</v>
+      </c>
+      <c r="AE111">
+        <v>1.19</v>
+      </c>
+      <c r="AF111">
+        <v>3.94</v>
+      </c>
+      <c r="AG111">
+        <v>1.7</v>
+      </c>
+      <c r="AH111">
+        <v>2</v>
+      </c>
+      <c r="AI111">
+        <v>1.95</v>
+      </c>
+      <c r="AJ111">
+        <v>1.8</v>
+      </c>
+      <c r="AK111">
+        <v>2.99</v>
+      </c>
+      <c r="AL111">
+        <v>1.18</v>
+      </c>
+      <c r="AM111">
+        <v>1.08</v>
+      </c>
+      <c r="AN111">
+        <v>1.56</v>
+      </c>
+      <c r="AO111">
+        <v>1.43</v>
+      </c>
+      <c r="AP111">
+        <v>1.7</v>
+      </c>
+      <c r="AQ111">
+        <v>1.25</v>
+      </c>
+      <c r="AR111">
+        <v>1.24</v>
+      </c>
+      <c r="AS111">
+        <v>1.59</v>
+      </c>
+      <c r="AT111">
+        <v>2.83</v>
+      </c>
+      <c r="AU111">
+        <v>4</v>
+      </c>
+      <c r="AV111">
+        <v>6</v>
+      </c>
+      <c r="AW111">
+        <v>2</v>
+      </c>
+      <c r="AX111">
+        <v>9</v>
+      </c>
+      <c r="AY111">
+        <v>8</v>
+      </c>
+      <c r="AZ111">
+        <v>22</v>
+      </c>
+      <c r="BA111">
+        <v>7</v>
+      </c>
+      <c r="BB111">
+        <v>6</v>
+      </c>
+      <c r="BC111">
+        <v>13</v>
+      </c>
+      <c r="BD111">
+        <v>4.35</v>
+      </c>
+      <c r="BE111">
+        <v>8.5</v>
+      </c>
+      <c r="BF111">
+        <v>1.24</v>
+      </c>
+      <c r="BG111">
+        <v>1.2</v>
+      </c>
+      <c r="BH111">
+        <v>3.9</v>
+      </c>
+      <c r="BI111">
+        <v>1.35</v>
+      </c>
+      <c r="BJ111">
+        <v>2.88</v>
+      </c>
+      <c r="BK111">
+        <v>1.58</v>
+      </c>
+      <c r="BL111">
+        <v>2.2</v>
+      </c>
+      <c r="BM111">
+        <v>1.9</v>
+      </c>
+      <c r="BN111">
+        <v>1.9</v>
+      </c>
+      <c r="BO111">
+        <v>2.38</v>
+      </c>
+      <c r="BP111">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -23477,13 +23477,13 @@
         <v>4</v>
       </c>
       <c r="AW109">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX109">
         <v>4</v>
       </c>
       <c r="AY109">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ109">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -523,6 +523,21 @@
     <t>['30', '90+3']</t>
   </si>
   <si>
+    <t>['90+7', '90+9']</t>
+  </si>
+  <si>
+    <t>['30', '59', '64', '73']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['16', '35']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -685,9 +700,6 @@
     <t>['78']</t>
   </si>
   <si>
-    <t>['25']</t>
-  </si>
-  <si>
     <t>['6', '37', '86']</t>
   </si>
   <si>
@@ -716,6 +728,15 @@
   </si>
   <si>
     <t>['51', '60']</t>
+  </si>
+  <si>
+    <t>['2', '48']</t>
+  </si>
+  <si>
+    <t>['50', '68']</t>
+  </si>
+  <si>
+    <t>['29', '66']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,7 +1438,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1620,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
         <v>0.67</v>
@@ -1748,7 +1769,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1826,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2032,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ5">
         <v>1.1</v>
@@ -2238,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ6">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2366,7 +2387,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2447,7 +2468,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2778,7 +2799,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2856,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ9">
         <v>1.44</v>
@@ -2984,7 +3005,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3065,7 +3086,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ10">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3190,7 +3211,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3268,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ11">
         <v>2.78</v>
@@ -3396,7 +3417,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3602,7 +3623,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3683,7 +3704,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3886,10 +3907,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ14">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR14">
         <v>2.04</v>
@@ -4014,7 +4035,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4092,10 +4113,10 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR15">
         <v>0.53</v>
@@ -4426,7 +4447,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4504,7 +4525,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ17">
         <v>2.78</v>
@@ -4710,10 +4731,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR18">
         <v>1.47</v>
@@ -4919,7 +4940,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ19">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>1.1</v>
@@ -5044,7 +5065,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5250,7 +5271,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5456,7 +5477,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5534,10 +5555,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.66</v>
@@ -5740,10 +5761,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ23">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR23">
         <v>3.1</v>
@@ -5868,7 +5889,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -6074,7 +6095,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6564,10 +6585,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ27">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>2.21</v>
@@ -6770,10 +6791,10 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ28">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR28">
         <v>0.85</v>
@@ -6976,10 +6997,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ29">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR29">
         <v>1.33</v>
@@ -7104,7 +7125,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7182,10 +7203,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ30">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR30">
         <v>0.76</v>
@@ -7310,7 +7331,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7388,10 +7409,10 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR31">
         <v>1.46</v>
@@ -7516,7 +7537,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7594,10 +7615,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ32">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR32">
         <v>1.31</v>
@@ -7800,10 +7821,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ33">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>0.87</v>
@@ -7928,7 +7949,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8134,7 +8155,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8340,7 +8361,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8418,7 +8439,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>1.11</v>
@@ -8546,7 +8567,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8627,7 +8648,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8752,7 +8773,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -9164,7 +9185,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9242,7 +9263,7 @@
         <v>1.67</v>
       </c>
       <c r="AP40">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ40">
         <v>1.44</v>
@@ -9370,7 +9391,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9448,7 +9469,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ41">
         <v>1.33</v>
@@ -9576,7 +9597,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9657,7 +9678,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ42">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
         <v>1.64</v>
@@ -9782,7 +9803,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9860,7 +9881,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ43">
         <v>2.78</v>
@@ -9988,7 +10009,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10069,7 +10090,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ44">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>1.19</v>
@@ -10275,7 +10296,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ45">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR45">
         <v>1.85</v>
@@ -10400,7 +10421,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10478,10 +10499,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>2.16</v>
@@ -10606,7 +10627,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10684,7 +10705,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ47">
         <v>1.1</v>
@@ -11018,7 +11039,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11096,10 +11117,10 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR49">
         <v>1.3</v>
@@ -11511,7 +11532,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11636,7 +11657,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11717,7 +11738,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ52">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -11842,7 +11863,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -11920,10 +11941,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ53">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR53">
         <v>1.34</v>
@@ -12332,10 +12353,10 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ55">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
         <v>1.27</v>
@@ -12460,7 +12481,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -12538,7 +12559,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
         <v>2.78</v>
@@ -12666,7 +12687,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>1.62</v>
@@ -12872,7 +12893,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -12953,7 +12974,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ58">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13156,7 +13177,7 @@
         <v>0.25</v>
       </c>
       <c r="AP59">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ59">
         <v>1.1</v>
@@ -13284,7 +13305,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13362,10 +13383,10 @@
         <v>1.17</v>
       </c>
       <c r="AP60">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ60">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR60">
         <v>1.06</v>
@@ -13490,7 +13511,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13568,7 +13589,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ61">
         <v>1.33</v>
@@ -13774,10 +13795,10 @@
         <v>1.25</v>
       </c>
       <c r="AP62">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR62">
         <v>2.17</v>
@@ -13902,7 +13923,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -13983,7 +14004,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ63">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR63">
         <v>1.25</v>
@@ -14108,7 +14129,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14189,7 +14210,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ64">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14392,7 +14413,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ65">
         <v>0.67</v>
@@ -14520,7 +14541,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14601,7 +14622,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ66">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR66">
         <v>1.42</v>
@@ -14726,7 +14747,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -14804,7 +14825,7 @@
         <v>1.6</v>
       </c>
       <c r="AP67">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ67">
         <v>1.44</v>
@@ -15010,7 +15031,7 @@
         <v>0.6</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ68">
         <v>0.67</v>
@@ -15138,7 +15159,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15216,7 +15237,7 @@
         <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ69">
         <v>1.11</v>
@@ -15344,7 +15365,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15422,10 +15443,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15550,7 +15571,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15631,7 +15652,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ71">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR71">
         <v>1.32</v>
@@ -15756,7 +15777,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -16043,7 +16064,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ73">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
         <v>1.87</v>
@@ -16249,7 +16270,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ74">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -16374,7 +16395,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16452,7 +16473,7 @@
         <v>1.8</v>
       </c>
       <c r="AP75">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ75">
         <v>1.33</v>
@@ -16786,7 +16807,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16864,10 +16885,10 @@
         <v>2.5</v>
       </c>
       <c r="AP77">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ77">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
         <v>1.13</v>
@@ -16992,7 +17013,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17198,7 +17219,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17404,7 +17425,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17482,10 +17503,10 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR80">
         <v>1.33</v>
@@ -17688,7 +17709,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ81">
         <v>0.67</v>
@@ -17894,7 +17915,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ82">
         <v>1.11</v>
@@ -18022,7 +18043,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18103,7 +18124,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18228,7 +18249,7 @@
         <v>82</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18306,7 +18327,7 @@
         <v>0.33</v>
       </c>
       <c r="AP84">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
         <v>1.1</v>
@@ -18434,7 +18455,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q85">
         <v>7.5</v>
@@ -18515,7 +18536,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ85">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -18640,7 +18661,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18721,7 +18742,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
         <v>1.56</v>
@@ -18927,7 +18948,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ87">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR87">
         <v>1.99</v>
@@ -19052,7 +19073,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19258,7 +19279,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19542,7 +19563,7 @@
         <v>1.29</v>
       </c>
       <c r="AP90">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ90">
         <v>1.33</v>
@@ -19670,7 +19691,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="Q91">
         <v>2.3</v>
@@ -19751,7 +19772,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ91">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR91">
         <v>1.37</v>
@@ -19954,7 +19975,7 @@
         <v>0.71</v>
       </c>
       <c r="AP92">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ92">
         <v>1.1</v>
@@ -20160,10 +20181,10 @@
         <v>0.78</v>
       </c>
       <c r="AP93">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ93">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR93">
         <v>1.35</v>
@@ -20369,7 +20390,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ94">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR94">
         <v>1.63</v>
@@ -20494,7 +20515,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -20572,10 +20593,10 @@
         <v>1.17</v>
       </c>
       <c r="AP95">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ95">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR95">
         <v>1.29</v>
@@ -20700,7 +20721,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20906,7 +20927,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q97">
         <v>2.05</v>
@@ -20984,7 +21005,7 @@
         <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ97">
         <v>0.67</v>
@@ -21112,7 +21133,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21190,7 +21211,7 @@
         <v>1.43</v>
       </c>
       <c r="AP98">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>1.44</v>
@@ -21399,7 +21420,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR99">
         <v>1.4</v>
@@ -21524,7 +21545,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21602,10 +21623,10 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR100">
         <v>1.24</v>
@@ -21730,7 +21751,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -21808,7 +21829,7 @@
         <v>0.88</v>
       </c>
       <c r="AP101">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ101">
         <v>1.11</v>
@@ -22017,7 +22038,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ102">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR102">
         <v>2.07</v>
@@ -22142,7 +22163,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22426,7 +22447,7 @@
         <v>3</v>
       </c>
       <c r="AP104">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ104">
         <v>2.78</v>
@@ -22635,7 +22656,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ105">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR105">
         <v>1.69</v>
@@ -22760,7 +22781,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -23044,7 +23065,7 @@
         <v>1.5</v>
       </c>
       <c r="AP107">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ107">
         <v>1.33</v>
@@ -23172,7 +23193,7 @@
         <v>82</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q108">
         <v>2.38</v>
@@ -23459,7 +23480,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ109">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR109">
         <v>1.35</v>
@@ -23584,7 +23605,7 @@
         <v>127</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23790,7 +23811,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -23868,10 +23889,10 @@
         <v>1.43</v>
       </c>
       <c r="AP111">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ111">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR111">
         <v>1.24</v>
@@ -23947,6 +23968,1242 @@
       </c>
       <c r="BP111">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7480256</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F112">
+        <v>20</v>
+      </c>
+      <c r="G112" t="s">
+        <v>77</v>
+      </c>
+      <c r="H112" t="s">
+        <v>70</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+      <c r="O112" t="s">
+        <v>169</v>
+      </c>
+      <c r="P112" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q112">
+        <v>4</v>
+      </c>
+      <c r="R112">
+        <v>2.1</v>
+      </c>
+      <c r="S112">
+        <v>2.45</v>
+      </c>
+      <c r="T112">
+        <v>1.37</v>
+      </c>
+      <c r="U112">
+        <v>2.8</v>
+      </c>
+      <c r="V112">
+        <v>2.7</v>
+      </c>
+      <c r="W112">
+        <v>1.4</v>
+      </c>
+      <c r="X112">
+        <v>6.75</v>
+      </c>
+      <c r="Y112">
+        <v>1.09</v>
+      </c>
+      <c r="Z112">
+        <v>3.75</v>
+      </c>
+      <c r="AA112">
+        <v>3.6</v>
+      </c>
+      <c r="AB112">
+        <v>1.95</v>
+      </c>
+      <c r="AC112">
+        <v>1.05</v>
+      </c>
+      <c r="AD112">
+        <v>11</v>
+      </c>
+      <c r="AE112">
+        <v>1.3</v>
+      </c>
+      <c r="AF112">
+        <v>3.4</v>
+      </c>
+      <c r="AG112">
+        <v>2</v>
+      </c>
+      <c r="AH112">
+        <v>1.8</v>
+      </c>
+      <c r="AI112">
+        <v>1.78</v>
+      </c>
+      <c r="AJ112">
+        <v>1.9</v>
+      </c>
+      <c r="AK112">
+        <v>1.75</v>
+      </c>
+      <c r="AL112">
+        <v>1.22</v>
+      </c>
+      <c r="AM112">
+        <v>1.22</v>
+      </c>
+      <c r="AN112">
+        <v>1.2</v>
+      </c>
+      <c r="AO112">
+        <v>0.44</v>
+      </c>
+      <c r="AP112">
+        <v>1.18</v>
+      </c>
+      <c r="AQ112">
+        <v>0.5</v>
+      </c>
+      <c r="AR112">
+        <v>1.24</v>
+      </c>
+      <c r="AS112">
+        <v>1.11</v>
+      </c>
+      <c r="AT112">
+        <v>2.35</v>
+      </c>
+      <c r="AU112">
+        <v>5</v>
+      </c>
+      <c r="AV112">
+        <v>6</v>
+      </c>
+      <c r="AW112">
+        <v>5</v>
+      </c>
+      <c r="AX112">
+        <v>4</v>
+      </c>
+      <c r="AY112">
+        <v>15</v>
+      </c>
+      <c r="AZ112">
+        <v>12</v>
+      </c>
+      <c r="BA112">
+        <v>10</v>
+      </c>
+      <c r="BB112">
+        <v>5</v>
+      </c>
+      <c r="BC112">
+        <v>15</v>
+      </c>
+      <c r="BD112">
+        <v>2.99</v>
+      </c>
+      <c r="BE112">
+        <v>9.5</v>
+      </c>
+      <c r="BF112">
+        <v>1.53</v>
+      </c>
+      <c r="BG112">
+        <v>1.1</v>
+      </c>
+      <c r="BH112">
+        <v>5.05</v>
+      </c>
+      <c r="BI112">
+        <v>1.24</v>
+      </c>
+      <c r="BJ112">
+        <v>3.34</v>
+      </c>
+      <c r="BK112">
+        <v>1.52</v>
+      </c>
+      <c r="BL112">
+        <v>2.46</v>
+      </c>
+      <c r="BM112">
+        <v>1.84</v>
+      </c>
+      <c r="BN112">
+        <v>1.95</v>
+      </c>
+      <c r="BO112">
+        <v>2.27</v>
+      </c>
+      <c r="BP112">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7480252</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F113">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>74</v>
+      </c>
+      <c r="H113" t="s">
+        <v>75</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>4</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>170</v>
+      </c>
+      <c r="P113" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q113">
+        <v>1.4</v>
+      </c>
+      <c r="R113">
+        <v>3.2</v>
+      </c>
+      <c r="S113">
+        <v>12</v>
+      </c>
+      <c r="T113">
+        <v>1.2</v>
+      </c>
+      <c r="U113">
+        <v>4.1</v>
+      </c>
+      <c r="V113">
+        <v>1.9</v>
+      </c>
+      <c r="W113">
+        <v>1.78</v>
+      </c>
+      <c r="X113">
+        <v>3.8</v>
+      </c>
+      <c r="Y113">
+        <v>1.22</v>
+      </c>
+      <c r="Z113">
+        <v>1.11</v>
+      </c>
+      <c r="AA113">
+        <v>9</v>
+      </c>
+      <c r="AB113">
+        <v>21</v>
+      </c>
+      <c r="AC113">
+        <v>1.01</v>
+      </c>
+      <c r="AD113">
+        <v>19</v>
+      </c>
+      <c r="AE113">
+        <v>1.09</v>
+      </c>
+      <c r="AF113">
+        <v>7</v>
+      </c>
+      <c r="AG113">
+        <v>1.36</v>
+      </c>
+      <c r="AH113">
+        <v>2.9</v>
+      </c>
+      <c r="AI113">
+        <v>2.37</v>
+      </c>
+      <c r="AJ113">
+        <v>1.51</v>
+      </c>
+      <c r="AK113">
+        <v>1.01</v>
+      </c>
+      <c r="AL113">
+        <v>1.06</v>
+      </c>
+      <c r="AM113">
+        <v>6.75</v>
+      </c>
+      <c r="AN113">
+        <v>2.75</v>
+      </c>
+      <c r="AO113">
+        <v>0.8</v>
+      </c>
+      <c r="AP113">
+        <v>2.78</v>
+      </c>
+      <c r="AQ113">
+        <v>0.73</v>
+      </c>
+      <c r="AR113">
+        <v>2.24</v>
+      </c>
+      <c r="AS113">
+        <v>1.11</v>
+      </c>
+      <c r="AT113">
+        <v>3.35</v>
+      </c>
+      <c r="AU113">
+        <v>12</v>
+      </c>
+      <c r="AV113">
+        <v>0</v>
+      </c>
+      <c r="AW113">
+        <v>14</v>
+      </c>
+      <c r="AX113">
+        <v>2</v>
+      </c>
+      <c r="AY113">
+        <v>31</v>
+      </c>
+      <c r="AZ113">
+        <v>2</v>
+      </c>
+      <c r="BA113">
+        <v>12</v>
+      </c>
+      <c r="BB113">
+        <v>2</v>
+      </c>
+      <c r="BC113">
+        <v>14</v>
+      </c>
+      <c r="BD113">
+        <v>1.06</v>
+      </c>
+      <c r="BE113">
+        <v>15</v>
+      </c>
+      <c r="BF113">
+        <v>10</v>
+      </c>
+      <c r="BG113">
+        <v>1.14</v>
+      </c>
+      <c r="BH113">
+        <v>4.8</v>
+      </c>
+      <c r="BI113">
+        <v>1.13</v>
+      </c>
+      <c r="BJ113">
+        <v>4.5</v>
+      </c>
+      <c r="BK113">
+        <v>1.28</v>
+      </c>
+      <c r="BL113">
+        <v>3.08</v>
+      </c>
+      <c r="BM113">
+        <v>1.5</v>
+      </c>
+      <c r="BN113">
+        <v>2.47</v>
+      </c>
+      <c r="BO113">
+        <v>1.85</v>
+      </c>
+      <c r="BP113">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7480254</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F114">
+        <v>20</v>
+      </c>
+      <c r="G114" t="s">
+        <v>79</v>
+      </c>
+      <c r="H114" t="s">
+        <v>81</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114" t="s">
+        <v>171</v>
+      </c>
+      <c r="P114" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q114">
+        <v>2.45</v>
+      </c>
+      <c r="R114">
+        <v>2.25</v>
+      </c>
+      <c r="S114">
+        <v>3.7</v>
+      </c>
+      <c r="T114">
+        <v>1.31</v>
+      </c>
+      <c r="U114">
+        <v>3.2</v>
+      </c>
+      <c r="V114">
+        <v>2.4</v>
+      </c>
+      <c r="W114">
+        <v>1.5</v>
+      </c>
+      <c r="X114">
+        <v>5.75</v>
+      </c>
+      <c r="Y114">
+        <v>1.12</v>
+      </c>
+      <c r="Z114">
+        <v>1.87</v>
+      </c>
+      <c r="AA114">
+        <v>3.75</v>
+      </c>
+      <c r="AB114">
+        <v>3.75</v>
+      </c>
+      <c r="AC114">
+        <v>1.02</v>
+      </c>
+      <c r="AD114">
+        <v>15</v>
+      </c>
+      <c r="AE114">
+        <v>1.22</v>
+      </c>
+      <c r="AF114">
+        <v>4.2</v>
+      </c>
+      <c r="AG114">
+        <v>1.75</v>
+      </c>
+      <c r="AH114">
+        <v>2.05</v>
+      </c>
+      <c r="AI114">
+        <v>1.61</v>
+      </c>
+      <c r="AJ114">
+        <v>2.15</v>
+      </c>
+      <c r="AK114">
+        <v>1.25</v>
+      </c>
+      <c r="AL114">
+        <v>1.22</v>
+      </c>
+      <c r="AM114">
+        <v>1.73</v>
+      </c>
+      <c r="AN114">
+        <v>1.11</v>
+      </c>
+      <c r="AO114">
+        <v>0.82</v>
+      </c>
+      <c r="AP114">
+        <v>1.3</v>
+      </c>
+      <c r="AQ114">
+        <v>0.75</v>
+      </c>
+      <c r="AR114">
+        <v>1.47</v>
+      </c>
+      <c r="AS114">
+        <v>1.18</v>
+      </c>
+      <c r="AT114">
+        <v>2.65</v>
+      </c>
+      <c r="AU114">
+        <v>3</v>
+      </c>
+      <c r="AV114">
+        <v>4</v>
+      </c>
+      <c r="AW114">
+        <v>2</v>
+      </c>
+      <c r="AX114">
+        <v>2</v>
+      </c>
+      <c r="AY114">
+        <v>8</v>
+      </c>
+      <c r="AZ114">
+        <v>7</v>
+      </c>
+      <c r="BA114">
+        <v>5</v>
+      </c>
+      <c r="BB114">
+        <v>10</v>
+      </c>
+      <c r="BC114">
+        <v>15</v>
+      </c>
+      <c r="BD114">
+        <v>1.59</v>
+      </c>
+      <c r="BE114">
+        <v>9.4</v>
+      </c>
+      <c r="BF114">
+        <v>2.79</v>
+      </c>
+      <c r="BG114">
+        <v>1.1</v>
+      </c>
+      <c r="BH114">
+        <v>5.2</v>
+      </c>
+      <c r="BI114">
+        <v>1.22</v>
+      </c>
+      <c r="BJ114">
+        <v>3.5</v>
+      </c>
+      <c r="BK114">
+        <v>1.49</v>
+      </c>
+      <c r="BL114">
+        <v>2.53</v>
+      </c>
+      <c r="BM114">
+        <v>1.81</v>
+      </c>
+      <c r="BN114">
+        <v>1.98</v>
+      </c>
+      <c r="BO114">
+        <v>2.25</v>
+      </c>
+      <c r="BP114">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7480255</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F115">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>71</v>
+      </c>
+      <c r="H115" t="s">
+        <v>76</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>4</v>
+      </c>
+      <c r="O115" t="s">
+        <v>172</v>
+      </c>
+      <c r="P115" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q115">
+        <v>7</v>
+      </c>
+      <c r="R115">
+        <v>2.4</v>
+      </c>
+      <c r="S115">
+        <v>1.78</v>
+      </c>
+      <c r="T115">
+        <v>1.32</v>
+      </c>
+      <c r="U115">
+        <v>3.1</v>
+      </c>
+      <c r="V115">
+        <v>2.45</v>
+      </c>
+      <c r="W115">
+        <v>1.49</v>
+      </c>
+      <c r="X115">
+        <v>5.75</v>
+      </c>
+      <c r="Y115">
+        <v>1.11</v>
+      </c>
+      <c r="Z115">
+        <v>9</v>
+      </c>
+      <c r="AA115">
+        <v>5</v>
+      </c>
+      <c r="AB115">
+        <v>1.33</v>
+      </c>
+      <c r="AC115">
+        <v>1.03</v>
+      </c>
+      <c r="AD115">
+        <v>13</v>
+      </c>
+      <c r="AE115">
+        <v>1.22</v>
+      </c>
+      <c r="AF115">
+        <v>4.2</v>
+      </c>
+      <c r="AG115">
+        <v>1.6</v>
+      </c>
+      <c r="AH115">
+        <v>2.35</v>
+      </c>
+      <c r="AI115">
+        <v>2.05</v>
+      </c>
+      <c r="AJ115">
+        <v>1.66</v>
+      </c>
+      <c r="AK115">
+        <v>3.2</v>
+      </c>
+      <c r="AL115">
+        <v>1.16</v>
+      </c>
+      <c r="AM115">
+        <v>1.07</v>
+      </c>
+      <c r="AN115">
+        <v>1.56</v>
+      </c>
+      <c r="AO115">
+        <v>1.25</v>
+      </c>
+      <c r="AP115">
+        <v>1.5</v>
+      </c>
+      <c r="AQ115">
+        <v>1.22</v>
+      </c>
+      <c r="AR115">
+        <v>1.18</v>
+      </c>
+      <c r="AS115">
+        <v>1.63</v>
+      </c>
+      <c r="AT115">
+        <v>2.81</v>
+      </c>
+      <c r="AU115">
+        <v>6</v>
+      </c>
+      <c r="AV115">
+        <v>10</v>
+      </c>
+      <c r="AW115">
+        <v>2</v>
+      </c>
+      <c r="AX115">
+        <v>11</v>
+      </c>
+      <c r="AY115">
+        <v>10</v>
+      </c>
+      <c r="AZ115">
+        <v>24</v>
+      </c>
+      <c r="BA115">
+        <v>3</v>
+      </c>
+      <c r="BB115">
+        <v>6</v>
+      </c>
+      <c r="BC115">
+        <v>9</v>
+      </c>
+      <c r="BD115">
+        <v>4.85</v>
+      </c>
+      <c r="BE115">
+        <v>12.5</v>
+      </c>
+      <c r="BF115">
+        <v>1.24</v>
+      </c>
+      <c r="BG115">
+        <v>1.11</v>
+      </c>
+      <c r="BH115">
+        <v>5</v>
+      </c>
+      <c r="BI115">
+        <v>1.24</v>
+      </c>
+      <c r="BJ115">
+        <v>3.34</v>
+      </c>
+      <c r="BK115">
+        <v>1.46</v>
+      </c>
+      <c r="BL115">
+        <v>2.45</v>
+      </c>
+      <c r="BM115">
+        <v>1.79</v>
+      </c>
+      <c r="BN115">
+        <v>1.92</v>
+      </c>
+      <c r="BO115">
+        <v>2.23</v>
+      </c>
+      <c r="BP115">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7480257</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45655.5</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>73</v>
+      </c>
+      <c r="H116" t="s">
+        <v>78</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>173</v>
+      </c>
+      <c r="P116" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q116">
+        <v>2.65</v>
+      </c>
+      <c r="R116">
+        <v>2.15</v>
+      </c>
+      <c r="S116">
+        <v>3.6</v>
+      </c>
+      <c r="T116">
+        <v>1.36</v>
+      </c>
+      <c r="U116">
+        <v>2.87</v>
+      </c>
+      <c r="V116">
+        <v>2.65</v>
+      </c>
+      <c r="W116">
+        <v>1.42</v>
+      </c>
+      <c r="X116">
+        <v>6.75</v>
+      </c>
+      <c r="Y116">
+        <v>1.09</v>
+      </c>
+      <c r="Z116">
+        <v>1.9</v>
+      </c>
+      <c r="AA116">
+        <v>3.75</v>
+      </c>
+      <c r="AB116">
+        <v>3.75</v>
+      </c>
+      <c r="AC116">
+        <v>1.04</v>
+      </c>
+      <c r="AD116">
+        <v>12</v>
+      </c>
+      <c r="AE116">
+        <v>1.3</v>
+      </c>
+      <c r="AF116">
+        <v>3.5</v>
+      </c>
+      <c r="AG116">
+        <v>1.9</v>
+      </c>
+      <c r="AH116">
+        <v>1.87</v>
+      </c>
+      <c r="AI116">
+        <v>1.71</v>
+      </c>
+      <c r="AJ116">
+        <v>1.98</v>
+      </c>
+      <c r="AK116">
+        <v>1.33</v>
+      </c>
+      <c r="AL116">
+        <v>1.29</v>
+      </c>
+      <c r="AM116">
+        <v>1.68</v>
+      </c>
+      <c r="AN116">
+        <v>1.7</v>
+      </c>
+      <c r="AO116">
+        <v>0.67</v>
+      </c>
+      <c r="AP116">
+        <v>1.55</v>
+      </c>
+      <c r="AQ116">
+        <v>0.9</v>
+      </c>
+      <c r="AR116">
+        <v>1.2</v>
+      </c>
+      <c r="AS116">
+        <v>1.09</v>
+      </c>
+      <c r="AT116">
+        <v>2.29</v>
+      </c>
+      <c r="AU116">
+        <v>6</v>
+      </c>
+      <c r="AV116">
+        <v>6</v>
+      </c>
+      <c r="AW116">
+        <v>5</v>
+      </c>
+      <c r="AX116">
+        <v>2</v>
+      </c>
+      <c r="AY116">
+        <v>15</v>
+      </c>
+      <c r="AZ116">
+        <v>9</v>
+      </c>
+      <c r="BA116">
+        <v>5</v>
+      </c>
+      <c r="BB116">
+        <v>9</v>
+      </c>
+      <c r="BC116">
+        <v>14</v>
+      </c>
+      <c r="BD116">
+        <v>1.65</v>
+      </c>
+      <c r="BE116">
+        <v>7</v>
+      </c>
+      <c r="BF116">
+        <v>2.9</v>
+      </c>
+      <c r="BG116">
+        <v>1.12</v>
+      </c>
+      <c r="BH116">
+        <v>4.7</v>
+      </c>
+      <c r="BI116">
+        <v>1.27</v>
+      </c>
+      <c r="BJ116">
+        <v>3.14</v>
+      </c>
+      <c r="BK116">
+        <v>1.5</v>
+      </c>
+      <c r="BL116">
+        <v>2.35</v>
+      </c>
+      <c r="BM116">
+        <v>1.86</v>
+      </c>
+      <c r="BN116">
+        <v>1.84</v>
+      </c>
+      <c r="BO116">
+        <v>2.38</v>
+      </c>
+      <c r="BP116">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7480253</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45655.59375</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>72</v>
+      </c>
+      <c r="H117" t="s">
+        <v>80</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117" t="s">
+        <v>136</v>
+      </c>
+      <c r="P117" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q117">
+        <v>3.2</v>
+      </c>
+      <c r="R117">
+        <v>2.15</v>
+      </c>
+      <c r="S117">
+        <v>2.9</v>
+      </c>
+      <c r="T117">
+        <v>1.34</v>
+      </c>
+      <c r="U117">
+        <v>3</v>
+      </c>
+      <c r="V117">
+        <v>2.55</v>
+      </c>
+      <c r="W117">
+        <v>1.44</v>
+      </c>
+      <c r="X117">
+        <v>6.25</v>
+      </c>
+      <c r="Y117">
+        <v>1.1</v>
+      </c>
+      <c r="Z117">
+        <v>2.28</v>
+      </c>
+      <c r="AA117">
+        <v>3.5</v>
+      </c>
+      <c r="AB117">
+        <v>2.85</v>
+      </c>
+      <c r="AC117">
+        <v>1.03</v>
+      </c>
+      <c r="AD117">
+        <v>13</v>
+      </c>
+      <c r="AE117">
+        <v>1.25</v>
+      </c>
+      <c r="AF117">
+        <v>3.75</v>
+      </c>
+      <c r="AG117">
+        <v>1.88</v>
+      </c>
+      <c r="AH117">
+        <v>1.87</v>
+      </c>
+      <c r="AI117">
+        <v>1.65</v>
+      </c>
+      <c r="AJ117">
+        <v>2.1</v>
+      </c>
+      <c r="AK117">
+        <v>1.53</v>
+      </c>
+      <c r="AL117">
+        <v>1.29</v>
+      </c>
+      <c r="AM117">
+        <v>1.44</v>
+      </c>
+      <c r="AN117">
+        <v>1.67</v>
+      </c>
+      <c r="AO117">
+        <v>1.5</v>
+      </c>
+      <c r="AP117">
+        <v>1.8</v>
+      </c>
+      <c r="AQ117">
+        <v>1.33</v>
+      </c>
+      <c r="AR117">
+        <v>1.33</v>
+      </c>
+      <c r="AS117">
+        <v>1.25</v>
+      </c>
+      <c r="AT117">
+        <v>2.58</v>
+      </c>
+      <c r="AU117">
+        <v>7</v>
+      </c>
+      <c r="AV117">
+        <v>3</v>
+      </c>
+      <c r="AW117">
+        <v>5</v>
+      </c>
+      <c r="AX117">
+        <v>3</v>
+      </c>
+      <c r="AY117">
+        <v>20</v>
+      </c>
+      <c r="AZ117">
+        <v>10</v>
+      </c>
+      <c r="BA117">
+        <v>9</v>
+      </c>
+      <c r="BB117">
+        <v>1</v>
+      </c>
+      <c r="BC117">
+        <v>10</v>
+      </c>
+      <c r="BD117">
+        <v>2</v>
+      </c>
+      <c r="BE117">
+        <v>6.7</v>
+      </c>
+      <c r="BF117">
+        <v>2.25</v>
+      </c>
+      <c r="BG117">
+        <v>1.12</v>
+      </c>
+      <c r="BH117">
+        <v>4.65</v>
+      </c>
+      <c r="BI117">
+        <v>1.27</v>
+      </c>
+      <c r="BJ117">
+        <v>3.14</v>
+      </c>
+      <c r="BK117">
+        <v>1.6</v>
+      </c>
+      <c r="BL117">
+        <v>2.26</v>
+      </c>
+      <c r="BM117">
+        <v>1.95</v>
+      </c>
+      <c r="BN117">
+        <v>1.85</v>
+      </c>
+      <c r="BO117">
+        <v>2.4</v>
+      </c>
+      <c r="BP117">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -24737,13 +24737,13 @@
         <v>2</v>
       </c>
       <c r="AX115">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY115">
         <v>10</v>
       </c>
       <c r="AZ115">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA115">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,24 @@
     <t>['40']</t>
   </si>
   <si>
+    <t>['8', '65']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['7', '66', '81']</t>
+  </si>
+  <si>
+    <t>['45+11']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -545,9 +563,6 @@
   </si>
   <si>
     <t>['48']</t>
-  </si>
-  <si>
-    <t>['61']</t>
   </si>
   <si>
     <t>['3', '19']</t>
@@ -581,9 +596,6 @@
   </si>
   <si>
     <t>['11', '71']</t>
-  </si>
-  <si>
-    <t>['7']</t>
   </si>
   <si>
     <t>['44', '60', '84']</t>
@@ -737,6 +749,12 @@
   </si>
   <si>
     <t>['29', '66']</t>
+  </si>
+  <si>
+    <t>['24', '60']</t>
+  </si>
+  <si>
+    <t>['65', '88']</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1435,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ2">
         <v>1.22</v>
@@ -1644,7 +1662,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1769,7 +1787,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2056,7 +2074,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ5">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2387,7 +2405,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2465,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ7">
         <v>1.33</v>
@@ -2671,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2799,7 +2817,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2880,7 +2898,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ9">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3005,7 +3023,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3083,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ10">
         <v>0.5</v>
@@ -3211,7 +3229,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3292,7 +3310,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ11">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3417,7 +3435,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3495,10 +3513,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3623,7 +3641,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3701,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13">
         <v>0.73</v>
@@ -4035,7 +4053,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4319,10 +4337,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR16">
         <v>2.02</v>
@@ -4447,7 +4465,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4528,7 +4546,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ17">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AR17">
         <v>1.07</v>
@@ -4937,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>0.75</v>
@@ -5065,7 +5083,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5143,10 +5161,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ20">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -5271,7 +5289,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5349,10 +5367,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR21">
         <v>1.39</v>
@@ -5477,7 +5495,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5889,7 +5907,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5967,10 +5985,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ24">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR24">
         <v>1.14</v>
@@ -6095,7 +6113,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6173,10 +6191,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR25">
         <v>1.41</v>
@@ -6379,10 +6397,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR26">
         <v>1.12</v>
@@ -7125,7 +7143,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7331,7 +7349,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7537,7 +7555,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7949,7 +7967,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8027,10 +8045,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR34">
         <v>1.25</v>
@@ -8155,7 +8173,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8233,10 +8251,10 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR35">
         <v>1.32</v>
@@ -8361,7 +8379,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8442,7 +8460,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.45</v>
@@ -8567,7 +8585,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8645,7 +8663,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -8773,7 +8791,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8851,10 +8869,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ38">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AR38">
         <v>1.42</v>
@@ -9057,10 +9075,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ39">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR39">
         <v>2.01</v>
@@ -9185,7 +9203,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9266,7 +9284,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ40">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR40">
         <v>0.9399999999999999</v>
@@ -9391,7 +9409,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9472,7 +9490,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR41">
         <v>1.12</v>
@@ -9597,7 +9615,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9675,7 +9693,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -9803,7 +9821,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9884,7 +9902,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ43">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AR43">
         <v>1.4</v>
@@ -10009,7 +10027,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10087,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10293,7 +10311,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ45">
         <v>0.73</v>
@@ -10421,7 +10439,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10627,7 +10645,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10708,7 +10726,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ47">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR47">
         <v>1.19</v>
@@ -10911,10 +10929,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ48">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.61</v>
@@ -11039,7 +11057,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11323,10 +11341,10 @@
         <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ50">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11529,7 +11547,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51">
         <v>1.22</v>
@@ -11657,7 +11675,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11735,7 +11753,7 @@
         <v>0.8</v>
       </c>
       <c r="AP52">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ52">
         <v>0.73</v>
@@ -11863,7 +11881,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12147,10 +12165,10 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR54">
         <v>1.17</v>
@@ -12481,7 +12499,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -12562,7 +12580,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AR56">
         <v>1.24</v>
@@ -12687,7 +12705,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q57">
         <v>1.62</v>
@@ -12765,10 +12783,10 @@
         <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ57">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.86</v>
@@ -12893,7 +12911,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -12971,7 +12989,7 @@
         <v>0.8</v>
       </c>
       <c r="AP58">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ58">
         <v>0.75</v>
@@ -13180,7 +13198,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ59">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR59">
         <v>1.31</v>
@@ -13305,7 +13323,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13511,7 +13529,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13592,7 +13610,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ61">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR61">
         <v>1.15</v>
@@ -13923,7 +13941,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -14001,7 +14019,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>1.22</v>
@@ -14129,7 +14147,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14207,7 +14225,7 @@
         <v>0.17</v>
       </c>
       <c r="AP64">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14416,7 +14434,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ65">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR65">
         <v>1.13</v>
@@ -14541,7 +14559,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14619,7 +14637,7 @@
         <v>1.17</v>
       </c>
       <c r="AP66">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ66">
         <v>0.75</v>
@@ -14747,7 +14765,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -14828,7 +14846,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ67">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR67">
         <v>1.3</v>
@@ -15034,7 +15052,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ68">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR68">
         <v>1.22</v>
@@ -15159,7 +15177,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15240,7 +15258,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ69">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.35</v>
@@ -15365,7 +15383,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15571,7 +15589,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15649,7 +15667,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>0.9</v>
@@ -15777,7 +15795,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15855,10 +15873,10 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AR72">
         <v>1.22</v>
@@ -16061,7 +16079,7 @@
         <v>0.57</v>
       </c>
       <c r="AP73">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ73">
         <v>0.5</v>
@@ -16267,7 +16285,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ74">
         <v>0.75</v>
@@ -16395,7 +16413,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16476,7 +16494,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ75">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR75">
         <v>1.29</v>
@@ -16679,10 +16697,10 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ76">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR76">
         <v>1.75</v>
@@ -16807,7 +16825,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17013,7 +17031,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17091,10 +17109,10 @@
         <v>0.4</v>
       </c>
       <c r="AP78">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ78">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -17219,7 +17237,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17297,10 +17315,10 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ79">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AR79">
         <v>1.56</v>
@@ -17425,7 +17443,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17712,7 +17730,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR81">
         <v>2.21</v>
@@ -17918,7 +17936,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ82">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -18043,7 +18061,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18121,7 +18139,7 @@
         <v>0.83</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83">
         <v>0.9</v>
@@ -18249,7 +18267,7 @@
         <v>82</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18330,7 +18348,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ84">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR84">
         <v>1.24</v>
@@ -18455,7 +18473,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q85">
         <v>7.5</v>
@@ -18533,7 +18551,7 @@
         <v>0.8</v>
       </c>
       <c r="AP85">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ85">
         <v>1.22</v>
@@ -18661,7 +18679,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18739,7 +18757,7 @@
         <v>1.83</v>
       </c>
       <c r="AP86">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ86">
         <v>1.33</v>
@@ -18945,7 +18963,7 @@
         <v>0.88</v>
       </c>
       <c r="AP87">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ87">
         <v>0.75</v>
@@ -19073,7 +19091,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19151,10 +19169,10 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ88">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR88">
         <v>1.42</v>
@@ -19279,7 +19297,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19357,10 +19375,10 @@
         <v>3</v>
       </c>
       <c r="AP89">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19566,7 +19584,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR90">
         <v>1.21</v>
@@ -19769,7 +19787,7 @@
         <v>0.88</v>
       </c>
       <c r="AP91">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
         <v>0.73</v>
@@ -19978,7 +19996,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ92">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR92">
         <v>2.19</v>
@@ -20387,7 +20405,7 @@
         <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ94">
         <v>0.9</v>
@@ -20515,7 +20533,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -20721,7 +20739,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20799,10 +20817,10 @@
         <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ96">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.26</v>
@@ -20927,7 +20945,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>2.05</v>
@@ -21008,7 +21026,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ97">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR97">
         <v>1.38</v>
@@ -21133,7 +21151,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21214,7 +21232,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR98">
         <v>1.21</v>
@@ -21417,7 +21435,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ99">
         <v>0.5</v>
@@ -21545,7 +21563,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21751,7 +21769,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -21832,7 +21850,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ101">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.24</v>
@@ -22035,7 +22053,7 @@
         <v>0.75</v>
       </c>
       <c r="AP102">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ102">
         <v>0.9</v>
@@ -22163,7 +22181,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22241,10 +22259,10 @@
         <v>0.63</v>
       </c>
       <c r="AP103">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR103">
         <v>1.34</v>
@@ -22450,7 +22468,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ104">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AR104">
         <v>1.42</v>
@@ -22653,7 +22671,7 @@
         <v>0.89</v>
       </c>
       <c r="AP105">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ105">
         <v>0.73</v>
@@ -22781,7 +22799,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -22859,10 +22877,10 @@
         <v>0.89</v>
       </c>
       <c r="AP106">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ106">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23068,7 +23086,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ107">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR107">
         <v>2.23</v>
@@ -23193,7 +23211,7 @@
         <v>82</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>2.38</v>
@@ -23271,10 +23289,10 @@
         <v>0.38</v>
       </c>
       <c r="AP108">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ108">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR108">
         <v>1.38</v>
@@ -23477,7 +23495,7 @@
         <v>1.71</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ109">
         <v>1.33</v>
@@ -23605,7 +23623,7 @@
         <v>127</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23683,10 +23701,10 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ110">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR110">
         <v>1.25</v>
@@ -23811,7 +23829,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -24017,7 +24035,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24635,7 +24653,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -24841,7 +24859,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>2.65</v>
@@ -25204,6 +25222,1242 @@
       </c>
       <c r="BP117">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7480260</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45659.5</v>
+      </c>
+      <c r="F118">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>81</v>
+      </c>
+      <c r="H118" t="s">
+        <v>73</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>174</v>
+      </c>
+      <c r="P118" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q118">
+        <v>2.63</v>
+      </c>
+      <c r="R118">
+        <v>2.3</v>
+      </c>
+      <c r="S118">
+        <v>3.75</v>
+      </c>
+      <c r="T118">
+        <v>1.33</v>
+      </c>
+      <c r="U118">
+        <v>3.25</v>
+      </c>
+      <c r="V118">
+        <v>2.5</v>
+      </c>
+      <c r="W118">
+        <v>1.5</v>
+      </c>
+      <c r="X118">
+        <v>6.5</v>
+      </c>
+      <c r="Y118">
+        <v>1.11</v>
+      </c>
+      <c r="Z118">
+        <v>2.12</v>
+      </c>
+      <c r="AA118">
+        <v>3.13</v>
+      </c>
+      <c r="AB118">
+        <v>3.03</v>
+      </c>
+      <c r="AC118">
+        <v>1.05</v>
+      </c>
+      <c r="AD118">
+        <v>9.5</v>
+      </c>
+      <c r="AE118">
+        <v>1.22</v>
+      </c>
+      <c r="AF118">
+        <v>4.2</v>
+      </c>
+      <c r="AG118">
+        <v>2</v>
+      </c>
+      <c r="AH118">
+        <v>1.82</v>
+      </c>
+      <c r="AI118">
+        <v>1.57</v>
+      </c>
+      <c r="AJ118">
+        <v>2.25</v>
+      </c>
+      <c r="AK118">
+        <v>1.29</v>
+      </c>
+      <c r="AL118">
+        <v>1.3</v>
+      </c>
+      <c r="AM118">
+        <v>1.73</v>
+      </c>
+      <c r="AN118">
+        <v>1.5</v>
+      </c>
+      <c r="AO118">
+        <v>1.11</v>
+      </c>
+      <c r="AP118">
+        <v>1.67</v>
+      </c>
+      <c r="AQ118">
+        <v>1</v>
+      </c>
+      <c r="AR118">
+        <v>1.44</v>
+      </c>
+      <c r="AS118">
+        <v>1.22</v>
+      </c>
+      <c r="AT118">
+        <v>2.66</v>
+      </c>
+      <c r="AU118">
+        <v>6</v>
+      </c>
+      <c r="AV118">
+        <v>2</v>
+      </c>
+      <c r="AW118">
+        <v>3</v>
+      </c>
+      <c r="AX118">
+        <v>1</v>
+      </c>
+      <c r="AY118">
+        <v>15</v>
+      </c>
+      <c r="AZ118">
+        <v>9</v>
+      </c>
+      <c r="BA118">
+        <v>4</v>
+      </c>
+      <c r="BB118">
+        <v>2</v>
+      </c>
+      <c r="BC118">
+        <v>6</v>
+      </c>
+      <c r="BD118">
+        <v>1.58</v>
+      </c>
+      <c r="BE118">
+        <v>6.75</v>
+      </c>
+      <c r="BF118">
+        <v>2.55</v>
+      </c>
+      <c r="BG118">
+        <v>1.19</v>
+      </c>
+      <c r="BH118">
+        <v>4</v>
+      </c>
+      <c r="BI118">
+        <v>1.35</v>
+      </c>
+      <c r="BJ118">
+        <v>2.9</v>
+      </c>
+      <c r="BK118">
+        <v>1.57</v>
+      </c>
+      <c r="BL118">
+        <v>2.23</v>
+      </c>
+      <c r="BM118">
+        <v>1.98</v>
+      </c>
+      <c r="BN118">
+        <v>1.82</v>
+      </c>
+      <c r="BO118">
+        <v>2.33</v>
+      </c>
+      <c r="BP118">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7480262</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45659.5</v>
+      </c>
+      <c r="F119">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>75</v>
+      </c>
+      <c r="H119" t="s">
+        <v>79</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>175</v>
+      </c>
+      <c r="P119" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q119">
+        <v>4</v>
+      </c>
+      <c r="R119">
+        <v>2.3</v>
+      </c>
+      <c r="S119">
+        <v>2.6</v>
+      </c>
+      <c r="T119">
+        <v>1.33</v>
+      </c>
+      <c r="U119">
+        <v>3.25</v>
+      </c>
+      <c r="V119">
+        <v>2.63</v>
+      </c>
+      <c r="W119">
+        <v>1.44</v>
+      </c>
+      <c r="X119">
+        <v>6.5</v>
+      </c>
+      <c r="Y119">
+        <v>1.11</v>
+      </c>
+      <c r="Z119">
+        <v>3.34</v>
+      </c>
+      <c r="AA119">
+        <v>3.23</v>
+      </c>
+      <c r="AB119">
+        <v>1.95</v>
+      </c>
+      <c r="AC119">
+        <v>1.05</v>
+      </c>
+      <c r="AD119">
+        <v>9.5</v>
+      </c>
+      <c r="AE119">
+        <v>1.25</v>
+      </c>
+      <c r="AF119">
+        <v>3.95</v>
+      </c>
+      <c r="AG119">
+        <v>1.92</v>
+      </c>
+      <c r="AH119">
+        <v>1.9</v>
+      </c>
+      <c r="AI119">
+        <v>1.62</v>
+      </c>
+      <c r="AJ119">
+        <v>2.2</v>
+      </c>
+      <c r="AK119">
+        <v>1.8</v>
+      </c>
+      <c r="AL119">
+        <v>1.28</v>
+      </c>
+      <c r="AM119">
+        <v>1.27</v>
+      </c>
+      <c r="AN119">
+        <v>0.67</v>
+      </c>
+      <c r="AO119">
+        <v>1.1</v>
+      </c>
+      <c r="AP119">
+        <v>0.7</v>
+      </c>
+      <c r="AQ119">
+        <v>1.09</v>
+      </c>
+      <c r="AR119">
+        <v>1.24</v>
+      </c>
+      <c r="AS119">
+        <v>1.46</v>
+      </c>
+      <c r="AT119">
+        <v>2.7</v>
+      </c>
+      <c r="AU119">
+        <v>3</v>
+      </c>
+      <c r="AV119">
+        <v>6</v>
+      </c>
+      <c r="AW119">
+        <v>3</v>
+      </c>
+      <c r="AX119">
+        <v>8</v>
+      </c>
+      <c r="AY119">
+        <v>6</v>
+      </c>
+      <c r="AZ119">
+        <v>19</v>
+      </c>
+      <c r="BA119">
+        <v>4</v>
+      </c>
+      <c r="BB119">
+        <v>9</v>
+      </c>
+      <c r="BC119">
+        <v>13</v>
+      </c>
+      <c r="BD119">
+        <v>2.55</v>
+      </c>
+      <c r="BE119">
+        <v>6.75</v>
+      </c>
+      <c r="BF119">
+        <v>1.61</v>
+      </c>
+      <c r="BG119">
+        <v>1.23</v>
+      </c>
+      <c r="BH119">
+        <v>3.65</v>
+      </c>
+      <c r="BI119">
+        <v>1.41</v>
+      </c>
+      <c r="BJ119">
+        <v>2.65</v>
+      </c>
+      <c r="BK119">
+        <v>1.66</v>
+      </c>
+      <c r="BL119">
+        <v>2.06</v>
+      </c>
+      <c r="BM119">
+        <v>2.05</v>
+      </c>
+      <c r="BN119">
+        <v>1.67</v>
+      </c>
+      <c r="BO119">
+        <v>2.55</v>
+      </c>
+      <c r="BP119">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7480259</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45659.5</v>
+      </c>
+      <c r="F120">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>70</v>
+      </c>
+      <c r="H120" t="s">
+        <v>71</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>176</v>
+      </c>
+      <c r="P120" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q120">
+        <v>2.4</v>
+      </c>
+      <c r="R120">
+        <v>2.25</v>
+      </c>
+      <c r="S120">
+        <v>4.5</v>
+      </c>
+      <c r="T120">
+        <v>1.36</v>
+      </c>
+      <c r="U120">
+        <v>3</v>
+      </c>
+      <c r="V120">
+        <v>2.75</v>
+      </c>
+      <c r="W120">
+        <v>1.4</v>
+      </c>
+      <c r="X120">
+        <v>7</v>
+      </c>
+      <c r="Y120">
+        <v>1.1</v>
+      </c>
+      <c r="Z120">
+        <v>1.86</v>
+      </c>
+      <c r="AA120">
+        <v>3.21</v>
+      </c>
+      <c r="AB120">
+        <v>3.68</v>
+      </c>
+      <c r="AC120">
+        <v>1.05</v>
+      </c>
+      <c r="AD120">
+        <v>9.5</v>
+      </c>
+      <c r="AE120">
+        <v>1.25</v>
+      </c>
+      <c r="AF120">
+        <v>3.7</v>
+      </c>
+      <c r="AG120">
+        <v>1.92</v>
+      </c>
+      <c r="AH120">
+        <v>1.9</v>
+      </c>
+      <c r="AI120">
+        <v>1.75</v>
+      </c>
+      <c r="AJ120">
+        <v>2</v>
+      </c>
+      <c r="AK120">
+        <v>1.21</v>
+      </c>
+      <c r="AL120">
+        <v>1.27</v>
+      </c>
+      <c r="AM120">
+        <v>1.98</v>
+      </c>
+      <c r="AN120">
+        <v>1.2</v>
+      </c>
+      <c r="AO120">
+        <v>1.33</v>
+      </c>
+      <c r="AP120">
+        <v>1.36</v>
+      </c>
+      <c r="AQ120">
+        <v>1.2</v>
+      </c>
+      <c r="AR120">
+        <v>1.65</v>
+      </c>
+      <c r="AS120">
+        <v>1.22</v>
+      </c>
+      <c r="AT120">
+        <v>2.87</v>
+      </c>
+      <c r="AU120">
+        <v>7</v>
+      </c>
+      <c r="AV120">
+        <v>4</v>
+      </c>
+      <c r="AW120">
+        <v>6</v>
+      </c>
+      <c r="AX120">
+        <v>2</v>
+      </c>
+      <c r="AY120">
+        <v>19</v>
+      </c>
+      <c r="AZ120">
+        <v>7</v>
+      </c>
+      <c r="BA120">
+        <v>12</v>
+      </c>
+      <c r="BB120">
+        <v>4</v>
+      </c>
+      <c r="BC120">
+        <v>16</v>
+      </c>
+      <c r="BD120">
+        <v>1.46</v>
+      </c>
+      <c r="BE120">
+        <v>7.5</v>
+      </c>
+      <c r="BF120">
+        <v>2.95</v>
+      </c>
+      <c r="BG120">
+        <v>1.15</v>
+      </c>
+      <c r="BH120">
+        <v>4.6</v>
+      </c>
+      <c r="BI120">
+        <v>1.28</v>
+      </c>
+      <c r="BJ120">
+        <v>3.3</v>
+      </c>
+      <c r="BK120">
+        <v>1.46</v>
+      </c>
+      <c r="BL120">
+        <v>2.48</v>
+      </c>
+      <c r="BM120">
+        <v>1.74</v>
+      </c>
+      <c r="BN120">
+        <v>1.96</v>
+      </c>
+      <c r="BO120">
+        <v>2.12</v>
+      </c>
+      <c r="BP120">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7480261</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45659.5</v>
+      </c>
+      <c r="F121">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H121" t="s">
+        <v>74</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121" t="s">
+        <v>177</v>
+      </c>
+      <c r="P121" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q121">
+        <v>3.25</v>
+      </c>
+      <c r="R121">
+        <v>2.25</v>
+      </c>
+      <c r="S121">
+        <v>3.1</v>
+      </c>
+      <c r="T121">
+        <v>1.36</v>
+      </c>
+      <c r="U121">
+        <v>3</v>
+      </c>
+      <c r="V121">
+        <v>2.63</v>
+      </c>
+      <c r="W121">
+        <v>1.44</v>
+      </c>
+      <c r="X121">
+        <v>7</v>
+      </c>
+      <c r="Y121">
+        <v>1.1</v>
+      </c>
+      <c r="Z121">
+        <v>2.82</v>
+      </c>
+      <c r="AA121">
+        <v>3.26</v>
+      </c>
+      <c r="AB121">
+        <v>2.17</v>
+      </c>
+      <c r="AC121">
+        <v>1.05</v>
+      </c>
+      <c r="AD121">
+        <v>9.5</v>
+      </c>
+      <c r="AE121">
+        <v>1.25</v>
+      </c>
+      <c r="AF121">
+        <v>3.7</v>
+      </c>
+      <c r="AG121">
+        <v>1.79</v>
+      </c>
+      <c r="AH121">
+        <v>1.99</v>
+      </c>
+      <c r="AI121">
+        <v>1.62</v>
+      </c>
+      <c r="AJ121">
+        <v>2.2</v>
+      </c>
+      <c r="AK121">
+        <v>1.47</v>
+      </c>
+      <c r="AL121">
+        <v>1.3</v>
+      </c>
+      <c r="AM121">
+        <v>1.47</v>
+      </c>
+      <c r="AN121">
+        <v>2.78</v>
+      </c>
+      <c r="AO121">
+        <v>2.78</v>
+      </c>
+      <c r="AP121">
+        <v>2.8</v>
+      </c>
+      <c r="AQ121">
+        <v>2.5</v>
+      </c>
+      <c r="AR121">
+        <v>2.04</v>
+      </c>
+      <c r="AS121">
+        <v>1.92</v>
+      </c>
+      <c r="AT121">
+        <v>3.96</v>
+      </c>
+      <c r="AU121">
+        <v>10</v>
+      </c>
+      <c r="AV121">
+        <v>2</v>
+      </c>
+      <c r="AW121">
+        <v>7</v>
+      </c>
+      <c r="AX121">
+        <v>3</v>
+      </c>
+      <c r="AY121">
+        <v>26</v>
+      </c>
+      <c r="AZ121">
+        <v>5</v>
+      </c>
+      <c r="BA121">
+        <v>8</v>
+      </c>
+      <c r="BB121">
+        <v>4</v>
+      </c>
+      <c r="BC121">
+        <v>12</v>
+      </c>
+      <c r="BD121">
+        <v>2.18</v>
+      </c>
+      <c r="BE121">
+        <v>7</v>
+      </c>
+      <c r="BF121">
+        <v>1.79</v>
+      </c>
+      <c r="BG121">
+        <v>1.14</v>
+      </c>
+      <c r="BH121">
+        <v>4.8</v>
+      </c>
+      <c r="BI121">
+        <v>1.26</v>
+      </c>
+      <c r="BJ121">
+        <v>3.4</v>
+      </c>
+      <c r="BK121">
+        <v>1.44</v>
+      </c>
+      <c r="BL121">
+        <v>2.55</v>
+      </c>
+      <c r="BM121">
+        <v>1.68</v>
+      </c>
+      <c r="BN121">
+        <v>2.02</v>
+      </c>
+      <c r="BO121">
+        <v>2.04</v>
+      </c>
+      <c r="BP121">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7480258</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45659.5</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H122" t="s">
+        <v>77</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>178</v>
+      </c>
+      <c r="P122" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q122">
+        <v>2</v>
+      </c>
+      <c r="R122">
+        <v>2.4</v>
+      </c>
+      <c r="S122">
+        <v>6</v>
+      </c>
+      <c r="T122">
+        <v>1.3</v>
+      </c>
+      <c r="U122">
+        <v>3.4</v>
+      </c>
+      <c r="V122">
+        <v>2.5</v>
+      </c>
+      <c r="W122">
+        <v>1.5</v>
+      </c>
+      <c r="X122">
+        <v>6</v>
+      </c>
+      <c r="Y122">
+        <v>1.13</v>
+      </c>
+      <c r="Z122">
+        <v>1.5</v>
+      </c>
+      <c r="AA122">
+        <v>3.73</v>
+      </c>
+      <c r="AB122">
+        <v>5.3</v>
+      </c>
+      <c r="AC122">
+        <v>1.04</v>
+      </c>
+      <c r="AD122">
+        <v>10</v>
+      </c>
+      <c r="AE122">
+        <v>1.22</v>
+      </c>
+      <c r="AF122">
+        <v>4.2</v>
+      </c>
+      <c r="AG122">
+        <v>1.89</v>
+      </c>
+      <c r="AH122">
+        <v>1.93</v>
+      </c>
+      <c r="AI122">
+        <v>1.8</v>
+      </c>
+      <c r="AJ122">
+        <v>1.95</v>
+      </c>
+      <c r="AK122">
+        <v>1.12</v>
+      </c>
+      <c r="AL122">
+        <v>1.21</v>
+      </c>
+      <c r="AM122">
+        <v>2.5</v>
+      </c>
+      <c r="AN122">
+        <v>2.2</v>
+      </c>
+      <c r="AO122">
+        <v>0.67</v>
+      </c>
+      <c r="AP122">
+        <v>2</v>
+      </c>
+      <c r="AQ122">
+        <v>0.9</v>
+      </c>
+      <c r="AR122">
+        <v>1.36</v>
+      </c>
+      <c r="AS122">
+        <v>0.95</v>
+      </c>
+      <c r="AT122">
+        <v>2.31</v>
+      </c>
+      <c r="AU122">
+        <v>5</v>
+      </c>
+      <c r="AV122">
+        <v>5</v>
+      </c>
+      <c r="AW122">
+        <v>6</v>
+      </c>
+      <c r="AX122">
+        <v>2</v>
+      </c>
+      <c r="AY122">
+        <v>21</v>
+      </c>
+      <c r="AZ122">
+        <v>10</v>
+      </c>
+      <c r="BA122">
+        <v>9</v>
+      </c>
+      <c r="BB122">
+        <v>4</v>
+      </c>
+      <c r="BC122">
+        <v>13</v>
+      </c>
+      <c r="BD122">
+        <v>1.35</v>
+      </c>
+      <c r="BE122">
+        <v>8</v>
+      </c>
+      <c r="BF122">
+        <v>3.45</v>
+      </c>
+      <c r="BG122">
+        <v>1.19</v>
+      </c>
+      <c r="BH122">
+        <v>4.1</v>
+      </c>
+      <c r="BI122">
+        <v>1.34</v>
+      </c>
+      <c r="BJ122">
+        <v>2.9</v>
+      </c>
+      <c r="BK122">
+        <v>1.56</v>
+      </c>
+      <c r="BL122">
+        <v>2.23</v>
+      </c>
+      <c r="BM122">
+        <v>1.82</v>
+      </c>
+      <c r="BN122">
+        <v>1.98</v>
+      </c>
+      <c r="BO122">
+        <v>2.33</v>
+      </c>
+      <c r="BP122">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7480263</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45659.60416666666</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>78</v>
+      </c>
+      <c r="H123" t="s">
+        <v>72</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>179</v>
+      </c>
+      <c r="P123" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q123">
+        <v>3.2</v>
+      </c>
+      <c r="R123">
+        <v>2.2</v>
+      </c>
+      <c r="S123">
+        <v>3.2</v>
+      </c>
+      <c r="T123">
+        <v>1.36</v>
+      </c>
+      <c r="U123">
+        <v>3</v>
+      </c>
+      <c r="V123">
+        <v>2.75</v>
+      </c>
+      <c r="W123">
+        <v>1.4</v>
+      </c>
+      <c r="X123">
+        <v>7</v>
+      </c>
+      <c r="Y123">
+        <v>1.1</v>
+      </c>
+      <c r="Z123">
+        <v>2.45</v>
+      </c>
+      <c r="AA123">
+        <v>3.04</v>
+      </c>
+      <c r="AB123">
+        <v>2.42</v>
+      </c>
+      <c r="AC123">
+        <v>1.05</v>
+      </c>
+      <c r="AD123">
+        <v>9.5</v>
+      </c>
+      <c r="AE123">
+        <v>1.25</v>
+      </c>
+      <c r="AF123">
+        <v>3.7</v>
+      </c>
+      <c r="AG123">
+        <v>1.79</v>
+      </c>
+      <c r="AH123">
+        <v>1.99</v>
+      </c>
+      <c r="AI123">
+        <v>1.62</v>
+      </c>
+      <c r="AJ123">
+        <v>2.2</v>
+      </c>
+      <c r="AK123">
+        <v>1.47</v>
+      </c>
+      <c r="AL123">
+        <v>1.29</v>
+      </c>
+      <c r="AM123">
+        <v>1.5</v>
+      </c>
+      <c r="AN123">
+        <v>1.44</v>
+      </c>
+      <c r="AO123">
+        <v>1.44</v>
+      </c>
+      <c r="AP123">
+        <v>1.3</v>
+      </c>
+      <c r="AQ123">
+        <v>1.6</v>
+      </c>
+      <c r="AR123">
+        <v>1.36</v>
+      </c>
+      <c r="AS123">
+        <v>1.22</v>
+      </c>
+      <c r="AT123">
+        <v>2.58</v>
+      </c>
+      <c r="AU123">
+        <v>5</v>
+      </c>
+      <c r="AV123">
+        <v>7</v>
+      </c>
+      <c r="AW123">
+        <v>6</v>
+      </c>
+      <c r="AX123">
+        <v>3</v>
+      </c>
+      <c r="AY123">
+        <v>14</v>
+      </c>
+      <c r="AZ123">
+        <v>16</v>
+      </c>
+      <c r="BA123">
+        <v>6</v>
+      </c>
+      <c r="BB123">
+        <v>4</v>
+      </c>
+      <c r="BC123">
+        <v>10</v>
+      </c>
+      <c r="BD123">
+        <v>1.81</v>
+      </c>
+      <c r="BE123">
+        <v>6.75</v>
+      </c>
+      <c r="BF123">
+        <v>2.17</v>
+      </c>
+      <c r="BG123">
+        <v>1.2</v>
+      </c>
+      <c r="BH123">
+        <v>3.9</v>
+      </c>
+      <c r="BI123">
+        <v>1.37</v>
+      </c>
+      <c r="BJ123">
+        <v>2.8</v>
+      </c>
+      <c r="BK123">
+        <v>1.6</v>
+      </c>
+      <c r="BL123">
+        <v>2.17</v>
+      </c>
+      <c r="BM123">
+        <v>1.9</v>
+      </c>
+      <c r="BN123">
+        <v>1.9</v>
+      </c>
+      <c r="BO123">
+        <v>2.43</v>
+      </c>
+      <c r="BP123">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,18 @@
     <t>['61']</t>
   </si>
   <si>
+    <t>['32', '61', '83']</t>
+  </si>
+  <si>
+    <t>['34', '45']</t>
+  </si>
+  <si>
+    <t>['33', '43', '68']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -755,6 +767,18 @@
   </si>
   <si>
     <t>['65', '88']</t>
+  </si>
+  <si>
+    <t>['4', '19', '74']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['3', '10', '22']</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1456,7 +1480,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ2">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1659,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ3">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1787,7 +1811,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1865,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ4">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2277,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ6">
         <v>0.75</v>
@@ -2405,7 +2429,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2483,10 +2507,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2817,7 +2841,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -3104,7 +3128,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3229,7 +3253,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3307,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ11">
         <v>2.5</v>
@@ -3435,7 +3459,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3516,7 +3540,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3641,7 +3665,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3719,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>0.73</v>
@@ -3925,7 +3949,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ14">
         <v>0.73</v>
@@ -4053,7 +4077,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4131,10 +4155,10 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ15">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR15">
         <v>0.53</v>
@@ -4340,7 +4364,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ16">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR16">
         <v>2.02</v>
@@ -4465,7 +4489,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4749,10 +4773,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ18">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR18">
         <v>1.47</v>
@@ -5083,7 +5107,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5164,7 +5188,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -5289,7 +5313,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5367,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ21">
         <v>1.2</v>
@@ -5495,7 +5519,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5576,7 +5600,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR22">
         <v>1.66</v>
@@ -5779,10 +5803,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ23">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR23">
         <v>3.1</v>
@@ -5907,7 +5931,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -6113,7 +6137,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6191,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>1.09</v>
@@ -6603,10 +6627,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR27">
         <v>2.21</v>
@@ -6809,7 +6833,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ28">
         <v>0.73</v>
@@ -7018,7 +7042,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ29">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR29">
         <v>1.33</v>
@@ -7143,7 +7167,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7427,10 +7451,10 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ31">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR31">
         <v>1.46</v>
@@ -7555,7 +7579,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7842,7 +7866,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR33">
         <v>0.87</v>
@@ -7967,7 +7991,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8048,7 +8072,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ34">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR34">
         <v>1.25</v>
@@ -8173,7 +8197,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8251,7 +8275,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>1.6</v>
@@ -8379,7 +8403,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8457,10 +8481,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR36">
         <v>1.45</v>
@@ -8585,7 +8609,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8666,7 +8690,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8791,7 +8815,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8869,7 +8893,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ38">
         <v>2.5</v>
@@ -9203,7 +9227,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9409,7 +9433,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9487,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ41">
         <v>1.2</v>
@@ -9615,7 +9639,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9821,7 +9845,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -10027,7 +10051,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10108,7 +10132,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR44">
         <v>1.19</v>
@@ -10439,7 +10463,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10517,10 +10541,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR46">
         <v>2.16</v>
@@ -10645,7 +10669,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10723,7 +10747,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ47">
         <v>1.09</v>
@@ -10932,7 +10956,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR48">
         <v>1.61</v>
@@ -11057,7 +11081,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11135,10 +11159,10 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ49">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR49">
         <v>1.3</v>
@@ -11341,10 +11365,10 @@
         <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ50">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11547,10 +11571,10 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11675,7 +11699,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11881,7 +11905,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12371,10 +12395,10 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ55">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR55">
         <v>1.27</v>
@@ -12499,7 +12523,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -12577,7 +12601,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ56">
         <v>2.5</v>
@@ -12705,7 +12729,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>1.62</v>
@@ -12786,7 +12810,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR57">
         <v>1.86</v>
@@ -12911,7 +12935,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13323,7 +13347,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13529,7 +13553,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13607,7 +13631,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ61">
         <v>1.2</v>
@@ -13813,10 +13837,10 @@
         <v>1.25</v>
       </c>
       <c r="AP62">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ62">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR62">
         <v>2.17</v>
@@ -13941,7 +13965,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -14022,7 +14046,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR63">
         <v>1.25</v>
@@ -14147,7 +14171,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14225,10 +14249,10 @@
         <v>0.17</v>
       </c>
       <c r="AP64">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14434,7 +14458,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ65">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR65">
         <v>1.13</v>
@@ -14559,7 +14583,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14765,7 +14789,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -14843,7 +14867,7 @@
         <v>1.6</v>
       </c>
       <c r="AP67">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ67">
         <v>1.6</v>
@@ -15049,10 +15073,10 @@
         <v>0.6</v>
       </c>
       <c r="AP68">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ68">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR68">
         <v>1.22</v>
@@ -15177,7 +15201,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15255,10 +15279,10 @@
         <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR69">
         <v>1.35</v>
@@ -15383,7 +15407,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15461,7 +15485,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ70">
         <v>0.73</v>
@@ -15589,7 +15613,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15670,7 +15694,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR71">
         <v>1.32</v>
@@ -15795,7 +15819,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15873,7 +15897,7 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
         <v>2.5</v>
@@ -16082,7 +16106,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR73">
         <v>1.87</v>
@@ -16285,7 +16309,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ74">
         <v>0.75</v>
@@ -16413,7 +16437,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16825,7 +16849,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16906,7 +16930,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR77">
         <v>1.13</v>
@@ -17031,7 +17055,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17237,7 +17261,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17443,7 +17467,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17521,10 +17545,10 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ80">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR80">
         <v>1.33</v>
@@ -17727,10 +17751,10 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ81">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR81">
         <v>2.21</v>
@@ -17933,10 +17957,10 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -18061,7 +18085,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18139,10 +18163,10 @@
         <v>0.83</v>
       </c>
       <c r="AP83">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18267,7 +18291,7 @@
         <v>82</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18345,7 +18369,7 @@
         <v>0.33</v>
       </c>
       <c r="AP84">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ84">
         <v>1.09</v>
@@ -18473,7 +18497,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q85">
         <v>7.5</v>
@@ -18551,10 +18575,10 @@
         <v>0.8</v>
       </c>
       <c r="AP85">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ85">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -18679,7 +18703,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18760,7 +18784,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR86">
         <v>1.56</v>
@@ -19091,7 +19115,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19297,7 +19321,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19993,7 +20017,7 @@
         <v>0.71</v>
       </c>
       <c r="AP92">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ92">
         <v>1.09</v>
@@ -20199,7 +20223,7 @@
         <v>0.78</v>
       </c>
       <c r="AP93">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ93">
         <v>0.75</v>
@@ -20408,7 +20432,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ94">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR94">
         <v>1.63</v>
@@ -20533,7 +20557,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -20614,7 +20638,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ95">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR95">
         <v>1.29</v>
@@ -20739,7 +20763,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20817,10 +20841,10 @@
         <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR96">
         <v>1.26</v>
@@ -20945,7 +20969,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q97">
         <v>2.05</v>
@@ -21023,10 +21047,10 @@
         <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ97">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR97">
         <v>1.38</v>
@@ -21151,7 +21175,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21229,7 +21253,7 @@
         <v>1.43</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ98">
         <v>1.6</v>
@@ -21435,10 +21459,10 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR99">
         <v>1.4</v>
@@ -21563,7 +21587,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21641,7 +21665,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ100">
         <v>0.75</v>
@@ -21769,7 +21793,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -21850,7 +21874,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR101">
         <v>1.24</v>
@@ -22056,7 +22080,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ102">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR102">
         <v>2.07</v>
@@ -22181,7 +22205,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22465,7 +22489,7 @@
         <v>3</v>
       </c>
       <c r="AP104">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ104">
         <v>2.5</v>
@@ -22799,7 +22823,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -23083,7 +23107,7 @@
         <v>1.5</v>
       </c>
       <c r="AP107">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ107">
         <v>1.2</v>
@@ -23211,7 +23235,7 @@
         <v>82</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>2.38</v>
@@ -23292,7 +23316,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ108">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR108">
         <v>1.38</v>
@@ -23495,10 +23519,10 @@
         <v>1.71</v>
       </c>
       <c r="AP109">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ109">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR109">
         <v>1.35</v>
@@ -23623,7 +23647,7 @@
         <v>127</v>
       </c>
       <c r="P110" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23701,7 +23725,7 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ110">
         <v>1.6</v>
@@ -23910,7 +23934,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ111">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR111">
         <v>1.24</v>
@@ -24035,7 +24059,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24116,7 +24140,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ112">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR112">
         <v>1.24</v>
@@ -24319,7 +24343,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ113">
         <v>0.73</v>
@@ -24525,7 +24549,7 @@
         <v>0.82</v>
       </c>
       <c r="AP114">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ114">
         <v>0.75</v>
@@ -24653,7 +24677,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -24731,10 +24755,10 @@
         <v>1.25</v>
       </c>
       <c r="AP115">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ115">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR115">
         <v>1.18</v>
@@ -24859,7 +24883,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q116">
         <v>2.65</v>
@@ -24940,7 +24964,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ116">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR116">
         <v>1.2</v>
@@ -25143,10 +25167,10 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ117">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR117">
         <v>1.33</v>
@@ -25349,10 +25373,10 @@
         <v>1.11</v>
       </c>
       <c r="AP118">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR118">
         <v>1.44</v>
@@ -25555,7 +25579,7 @@
         <v>1.1</v>
       </c>
       <c r="AP119">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ119">
         <v>1.09</v>
@@ -26095,7 +26119,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>2</v>
@@ -26176,7 +26200,7 @@
         <v>2</v>
       </c>
       <c r="AQ122">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR122">
         <v>1.36</v>
@@ -26301,7 +26325,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26458,6 +26482,1242 @@
       </c>
       <c r="BP123">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7480266</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45662.375</v>
+      </c>
+      <c r="F124">
+        <v>22</v>
+      </c>
+      <c r="G124" t="s">
+        <v>79</v>
+      </c>
+      <c r="H124" t="s">
+        <v>76</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124">
+        <v>3</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+      <c r="N124">
+        <v>6</v>
+      </c>
+      <c r="O124" t="s">
+        <v>180</v>
+      </c>
+      <c r="P124" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q124">
+        <v>6.5</v>
+      </c>
+      <c r="R124">
+        <v>2.5</v>
+      </c>
+      <c r="S124">
+        <v>1.95</v>
+      </c>
+      <c r="T124">
+        <v>1.3</v>
+      </c>
+      <c r="U124">
+        <v>3.4</v>
+      </c>
+      <c r="V124">
+        <v>2.38</v>
+      </c>
+      <c r="W124">
+        <v>1.53</v>
+      </c>
+      <c r="X124">
+        <v>6</v>
+      </c>
+      <c r="Y124">
+        <v>1.13</v>
+      </c>
+      <c r="Z124">
+        <v>5.5</v>
+      </c>
+      <c r="AA124">
+        <v>4.3</v>
+      </c>
+      <c r="AB124">
+        <v>1.57</v>
+      </c>
+      <c r="AC124">
+        <v>1.04</v>
+      </c>
+      <c r="AD124">
+        <v>10</v>
+      </c>
+      <c r="AE124">
+        <v>1.2</v>
+      </c>
+      <c r="AF124">
+        <v>4.33</v>
+      </c>
+      <c r="AG124">
+        <v>1.58</v>
+      </c>
+      <c r="AH124">
+        <v>2.2</v>
+      </c>
+      <c r="AI124">
+        <v>1.8</v>
+      </c>
+      <c r="AJ124">
+        <v>1.95</v>
+      </c>
+      <c r="AK124">
+        <v>2.7</v>
+      </c>
+      <c r="AL124">
+        <v>1.19</v>
+      </c>
+      <c r="AM124">
+        <v>1.11</v>
+      </c>
+      <c r="AN124">
+        <v>1.3</v>
+      </c>
+      <c r="AO124">
+        <v>1.22</v>
+      </c>
+      <c r="AP124">
+        <v>1.27</v>
+      </c>
+      <c r="AQ124">
+        <v>1.2</v>
+      </c>
+      <c r="AR124">
+        <v>1.42</v>
+      </c>
+      <c r="AS124">
+        <v>1.74</v>
+      </c>
+      <c r="AT124">
+        <v>3.16</v>
+      </c>
+      <c r="AU124">
+        <v>7</v>
+      </c>
+      <c r="AV124">
+        <v>10</v>
+      </c>
+      <c r="AW124">
+        <v>4</v>
+      </c>
+      <c r="AX124">
+        <v>2</v>
+      </c>
+      <c r="AY124">
+        <v>14</v>
+      </c>
+      <c r="AZ124">
+        <v>18</v>
+      </c>
+      <c r="BA124">
+        <v>10</v>
+      </c>
+      <c r="BB124">
+        <v>8</v>
+      </c>
+      <c r="BC124">
+        <v>18</v>
+      </c>
+      <c r="BD124">
+        <v>3.55</v>
+      </c>
+      <c r="BE124">
+        <v>7.5</v>
+      </c>
+      <c r="BF124">
+        <v>1.34</v>
+      </c>
+      <c r="BG124">
+        <v>1.19</v>
+      </c>
+      <c r="BH124">
+        <v>4</v>
+      </c>
+      <c r="BI124">
+        <v>1.34</v>
+      </c>
+      <c r="BJ124">
+        <v>2.9</v>
+      </c>
+      <c r="BK124">
+        <v>1.57</v>
+      </c>
+      <c r="BL124">
+        <v>2.23</v>
+      </c>
+      <c r="BM124">
+        <v>1.9</v>
+      </c>
+      <c r="BN124">
+        <v>1.79</v>
+      </c>
+      <c r="BO124">
+        <v>2.33</v>
+      </c>
+      <c r="BP124">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7480268</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45662.47916666666</v>
+      </c>
+      <c r="F125">
+        <v>22</v>
+      </c>
+      <c r="G125" t="s">
+        <v>71</v>
+      </c>
+      <c r="H125" t="s">
+        <v>80</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>181</v>
+      </c>
+      <c r="P125" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q125">
+        <v>3.1</v>
+      </c>
+      <c r="R125">
+        <v>2.3</v>
+      </c>
+      <c r="S125">
+        <v>3</v>
+      </c>
+      <c r="T125">
+        <v>1.3</v>
+      </c>
+      <c r="U125">
+        <v>3.4</v>
+      </c>
+      <c r="V125">
+        <v>2.5</v>
+      </c>
+      <c r="W125">
+        <v>1.5</v>
+      </c>
+      <c r="X125">
+        <v>6</v>
+      </c>
+      <c r="Y125">
+        <v>1.13</v>
+      </c>
+      <c r="Z125">
+        <v>2.62</v>
+      </c>
+      <c r="AA125">
+        <v>3.68</v>
+      </c>
+      <c r="AB125">
+        <v>2.49</v>
+      </c>
+      <c r="AC125">
+        <v>1.04</v>
+      </c>
+      <c r="AD125">
+        <v>10</v>
+      </c>
+      <c r="AE125">
+        <v>1.2</v>
+      </c>
+      <c r="AF125">
+        <v>4.33</v>
+      </c>
+      <c r="AG125">
+        <v>1.91</v>
+      </c>
+      <c r="AH125">
+        <v>1.8</v>
+      </c>
+      <c r="AI125">
+        <v>1.53</v>
+      </c>
+      <c r="AJ125">
+        <v>2.38</v>
+      </c>
+      <c r="AK125">
+        <v>1.51</v>
+      </c>
+      <c r="AL125">
+        <v>1.27</v>
+      </c>
+      <c r="AM125">
+        <v>1.47</v>
+      </c>
+      <c r="AN125">
+        <v>1.5</v>
+      </c>
+      <c r="AO125">
+        <v>1.33</v>
+      </c>
+      <c r="AP125">
+        <v>1.64</v>
+      </c>
+      <c r="AQ125">
+        <v>1.2</v>
+      </c>
+      <c r="AR125">
+        <v>1.17</v>
+      </c>
+      <c r="AS125">
+        <v>1.22</v>
+      </c>
+      <c r="AT125">
+        <v>2.39</v>
+      </c>
+      <c r="AU125">
+        <v>4</v>
+      </c>
+      <c r="AV125">
+        <v>3</v>
+      </c>
+      <c r="AW125">
+        <v>2</v>
+      </c>
+      <c r="AX125">
+        <v>5</v>
+      </c>
+      <c r="AY125">
+        <v>12</v>
+      </c>
+      <c r="AZ125">
+        <v>13</v>
+      </c>
+      <c r="BA125">
+        <v>3</v>
+      </c>
+      <c r="BB125">
+        <v>8</v>
+      </c>
+      <c r="BC125">
+        <v>11</v>
+      </c>
+      <c r="BD125">
+        <v>1.88</v>
+      </c>
+      <c r="BE125">
+        <v>6.75</v>
+      </c>
+      <c r="BF125">
+        <v>2.08</v>
+      </c>
+      <c r="BG125">
+        <v>1.14</v>
+      </c>
+      <c r="BH125">
+        <v>4.8</v>
+      </c>
+      <c r="BI125">
+        <v>1.26</v>
+      </c>
+      <c r="BJ125">
+        <v>3.4</v>
+      </c>
+      <c r="BK125">
+        <v>1.44</v>
+      </c>
+      <c r="BL125">
+        <v>2.55</v>
+      </c>
+      <c r="BM125">
+        <v>1.71</v>
+      </c>
+      <c r="BN125">
+        <v>2</v>
+      </c>
+      <c r="BO125">
+        <v>2.07</v>
+      </c>
+      <c r="BP125">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7480264</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45662.5</v>
+      </c>
+      <c r="F126">
+        <v>22</v>
+      </c>
+      <c r="G126" t="s">
+        <v>74</v>
+      </c>
+      <c r="H126" t="s">
+        <v>73</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>182</v>
+      </c>
+      <c r="P126" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q126">
+        <v>1.53</v>
+      </c>
+      <c r="R126">
+        <v>2.88</v>
+      </c>
+      <c r="S126">
+        <v>13</v>
+      </c>
+      <c r="T126">
+        <v>1.29</v>
+      </c>
+      <c r="U126">
+        <v>3.5</v>
+      </c>
+      <c r="V126">
+        <v>2.25</v>
+      </c>
+      <c r="W126">
+        <v>1.57</v>
+      </c>
+      <c r="X126">
+        <v>5.5</v>
+      </c>
+      <c r="Y126">
+        <v>1.14</v>
+      </c>
+      <c r="Z126">
+        <v>1.1</v>
+      </c>
+      <c r="AA126">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB126">
+        <v>17.48</v>
+      </c>
+      <c r="AC126">
+        <v>1.03</v>
+      </c>
+      <c r="AD126">
+        <v>11</v>
+      </c>
+      <c r="AE126">
+        <v>1.17</v>
+      </c>
+      <c r="AF126">
+        <v>5</v>
+      </c>
+      <c r="AG126">
+        <v>1.42</v>
+      </c>
+      <c r="AH126">
+        <v>2.74</v>
+      </c>
+      <c r="AI126">
+        <v>2.63</v>
+      </c>
+      <c r="AJ126">
+        <v>1.44</v>
+      </c>
+      <c r="AK126">
+        <v>1.02</v>
+      </c>
+      <c r="AL126">
+        <v>1.08</v>
+      </c>
+      <c r="AM126">
+        <v>5.25</v>
+      </c>
+      <c r="AN126">
+        <v>2.78</v>
+      </c>
+      <c r="AO126">
+        <v>1</v>
+      </c>
+      <c r="AP126">
+        <v>2.8</v>
+      </c>
+      <c r="AQ126">
+        <v>0.91</v>
+      </c>
+      <c r="AR126">
+        <v>2.36</v>
+      </c>
+      <c r="AS126">
+        <v>1.16</v>
+      </c>
+      <c r="AT126">
+        <v>3.52</v>
+      </c>
+      <c r="AU126">
+        <v>7</v>
+      </c>
+      <c r="AV126">
+        <v>2</v>
+      </c>
+      <c r="AW126">
+        <v>4</v>
+      </c>
+      <c r="AX126">
+        <v>2</v>
+      </c>
+      <c r="AY126">
+        <v>12</v>
+      </c>
+      <c r="AZ126">
+        <v>8</v>
+      </c>
+      <c r="BA126">
+        <v>8</v>
+      </c>
+      <c r="BB126">
+        <v>3</v>
+      </c>
+      <c r="BC126">
+        <v>11</v>
+      </c>
+      <c r="BD126">
+        <v>1.06</v>
+      </c>
+      <c r="BE126">
+        <v>14</v>
+      </c>
+      <c r="BF126">
+        <v>8.5</v>
+      </c>
+      <c r="BG126">
+        <v>1.14</v>
+      </c>
+      <c r="BH126">
+        <v>4.6</v>
+      </c>
+      <c r="BI126">
+        <v>1.27</v>
+      </c>
+      <c r="BJ126">
+        <v>3.3</v>
+      </c>
+      <c r="BK126">
+        <v>1.46</v>
+      </c>
+      <c r="BL126">
+        <v>2.5</v>
+      </c>
+      <c r="BM126">
+        <v>1.72</v>
+      </c>
+      <c r="BN126">
+        <v>1.98</v>
+      </c>
+      <c r="BO126">
+        <v>2.05</v>
+      </c>
+      <c r="BP126">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7480265</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45662.5</v>
+      </c>
+      <c r="F127">
+        <v>22</v>
+      </c>
+      <c r="G127" t="s">
+        <v>72</v>
+      </c>
+      <c r="H127" t="s">
+        <v>70</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>82</v>
+      </c>
+      <c r="P127" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q127">
+        <v>3</v>
+      </c>
+      <c r="R127">
+        <v>2.2</v>
+      </c>
+      <c r="S127">
+        <v>3.5</v>
+      </c>
+      <c r="T127">
+        <v>1.4</v>
+      </c>
+      <c r="U127">
+        <v>2.75</v>
+      </c>
+      <c r="V127">
+        <v>2.75</v>
+      </c>
+      <c r="W127">
+        <v>1.4</v>
+      </c>
+      <c r="X127">
+        <v>8</v>
+      </c>
+      <c r="Y127">
+        <v>1.08</v>
+      </c>
+      <c r="Z127">
+        <v>2.3</v>
+      </c>
+      <c r="AA127">
+        <v>3.4</v>
+      </c>
+      <c r="AB127">
+        <v>2.89</v>
+      </c>
+      <c r="AC127">
+        <v>1.05</v>
+      </c>
+      <c r="AD127">
+        <v>9.5</v>
+      </c>
+      <c r="AE127">
+        <v>1.28</v>
+      </c>
+      <c r="AF127">
+        <v>3.55</v>
+      </c>
+      <c r="AG127">
+        <v>1.85</v>
+      </c>
+      <c r="AH127">
+        <v>1.89</v>
+      </c>
+      <c r="AI127">
+        <v>1.75</v>
+      </c>
+      <c r="AJ127">
+        <v>2</v>
+      </c>
+      <c r="AK127">
+        <v>1.39</v>
+      </c>
+      <c r="AL127">
+        <v>1.3</v>
+      </c>
+      <c r="AM127">
+        <v>1.58</v>
+      </c>
+      <c r="AN127">
+        <v>1.8</v>
+      </c>
+      <c r="AO127">
+        <v>0.5</v>
+      </c>
+      <c r="AP127">
+        <v>1.64</v>
+      </c>
+      <c r="AQ127">
+        <v>0.73</v>
+      </c>
+      <c r="AR127">
+        <v>1.36</v>
+      </c>
+      <c r="AS127">
+        <v>1.13</v>
+      </c>
+      <c r="AT127">
+        <v>2.49</v>
+      </c>
+      <c r="AU127">
+        <v>2</v>
+      </c>
+      <c r="AV127">
+        <v>6</v>
+      </c>
+      <c r="AW127">
+        <v>3</v>
+      </c>
+      <c r="AX127">
+        <v>4</v>
+      </c>
+      <c r="AY127">
+        <v>8</v>
+      </c>
+      <c r="AZ127">
+        <v>17</v>
+      </c>
+      <c r="BA127">
+        <v>5</v>
+      </c>
+      <c r="BB127">
+        <v>5</v>
+      </c>
+      <c r="BC127">
+        <v>10</v>
+      </c>
+      <c r="BD127">
+        <v>1.9</v>
+      </c>
+      <c r="BE127">
+        <v>6.75</v>
+      </c>
+      <c r="BF127">
+        <v>2.07</v>
+      </c>
+      <c r="BG127">
+        <v>1.19</v>
+      </c>
+      <c r="BH127">
+        <v>4.1</v>
+      </c>
+      <c r="BI127">
+        <v>1.33</v>
+      </c>
+      <c r="BJ127">
+        <v>2.95</v>
+      </c>
+      <c r="BK127">
+        <v>1.55</v>
+      </c>
+      <c r="BL127">
+        <v>2.28</v>
+      </c>
+      <c r="BM127">
+        <v>1.88</v>
+      </c>
+      <c r="BN127">
+        <v>1.81</v>
+      </c>
+      <c r="BO127">
+        <v>2.32</v>
+      </c>
+      <c r="BP127">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7480267</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45662.5</v>
+      </c>
+      <c r="F128">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>81</v>
+      </c>
+      <c r="H128" t="s">
+        <v>77</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>82</v>
+      </c>
+      <c r="P128" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q128">
+        <v>2.05</v>
+      </c>
+      <c r="R128">
+        <v>2.4</v>
+      </c>
+      <c r="S128">
+        <v>5.5</v>
+      </c>
+      <c r="T128">
+        <v>1.3</v>
+      </c>
+      <c r="U128">
+        <v>3.4</v>
+      </c>
+      <c r="V128">
+        <v>2.5</v>
+      </c>
+      <c r="W128">
+        <v>1.5</v>
+      </c>
+      <c r="X128">
+        <v>6</v>
+      </c>
+      <c r="Y128">
+        <v>1.13</v>
+      </c>
+      <c r="Z128">
+        <v>1.65</v>
+      </c>
+      <c r="AA128">
+        <v>3.8</v>
+      </c>
+      <c r="AB128">
+        <v>4.86</v>
+      </c>
+      <c r="AC128">
+        <v>1.04</v>
+      </c>
+      <c r="AD128">
+        <v>10</v>
+      </c>
+      <c r="AE128">
+        <v>1.2</v>
+      </c>
+      <c r="AF128">
+        <v>4.33</v>
+      </c>
+      <c r="AG128">
+        <v>1.82</v>
+      </c>
+      <c r="AH128">
+        <v>1.92</v>
+      </c>
+      <c r="AI128">
+        <v>1.75</v>
+      </c>
+      <c r="AJ128">
+        <v>2</v>
+      </c>
+      <c r="AK128">
+        <v>1.14</v>
+      </c>
+      <c r="AL128">
+        <v>1.21</v>
+      </c>
+      <c r="AM128">
+        <v>2.4</v>
+      </c>
+      <c r="AN128">
+        <v>1.67</v>
+      </c>
+      <c r="AO128">
+        <v>0.9</v>
+      </c>
+      <c r="AP128">
+        <v>1.5</v>
+      </c>
+      <c r="AQ128">
+        <v>1.09</v>
+      </c>
+      <c r="AR128">
+        <v>1.42</v>
+      </c>
+      <c r="AS128">
+        <v>0.96</v>
+      </c>
+      <c r="AT128">
+        <v>2.38</v>
+      </c>
+      <c r="AU128">
+        <v>4</v>
+      </c>
+      <c r="AV128">
+        <v>4</v>
+      </c>
+      <c r="AW128">
+        <v>2</v>
+      </c>
+      <c r="AX128">
+        <v>4</v>
+      </c>
+      <c r="AY128">
+        <v>13</v>
+      </c>
+      <c r="AZ128">
+        <v>11</v>
+      </c>
+      <c r="BA128">
+        <v>7</v>
+      </c>
+      <c r="BB128">
+        <v>6</v>
+      </c>
+      <c r="BC128">
+        <v>13</v>
+      </c>
+      <c r="BD128">
+        <v>1.33</v>
+      </c>
+      <c r="BE128">
+        <v>7.5</v>
+      </c>
+      <c r="BF128">
+        <v>3.55</v>
+      </c>
+      <c r="BG128">
+        <v>1.16</v>
+      </c>
+      <c r="BH128">
+        <v>4.4</v>
+      </c>
+      <c r="BI128">
+        <v>1.29</v>
+      </c>
+      <c r="BJ128">
+        <v>3.2</v>
+      </c>
+      <c r="BK128">
+        <v>1.47</v>
+      </c>
+      <c r="BL128">
+        <v>2.43</v>
+      </c>
+      <c r="BM128">
+        <v>1.76</v>
+      </c>
+      <c r="BN128">
+        <v>1.94</v>
+      </c>
+      <c r="BO128">
+        <v>2.15</v>
+      </c>
+      <c r="BP128">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7480269</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45662.5</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>75</v>
+      </c>
+      <c r="H129" t="s">
+        <v>78</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>3</v>
+      </c>
+      <c r="K129">
+        <v>3</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>3</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129" t="s">
+        <v>183</v>
+      </c>
+      <c r="P129" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q129">
+        <v>3.2</v>
+      </c>
+      <c r="R129">
+        <v>2.4</v>
+      </c>
+      <c r="S129">
+        <v>2.88</v>
+      </c>
+      <c r="T129">
+        <v>1.25</v>
+      </c>
+      <c r="U129">
+        <v>3.75</v>
+      </c>
+      <c r="V129">
+        <v>2.25</v>
+      </c>
+      <c r="W129">
+        <v>1.57</v>
+      </c>
+      <c r="X129">
+        <v>5.5</v>
+      </c>
+      <c r="Y129">
+        <v>1.14</v>
+      </c>
+      <c r="Z129">
+        <v>2.75</v>
+      </c>
+      <c r="AA129">
+        <v>3.15</v>
+      </c>
+      <c r="AB129">
+        <v>2.54</v>
+      </c>
+      <c r="AC129">
+        <v>1.01</v>
+      </c>
+      <c r="AD129">
+        <v>13</v>
+      </c>
+      <c r="AE129">
+        <v>1.17</v>
+      </c>
+      <c r="AF129">
+        <v>5</v>
+      </c>
+      <c r="AG129">
+        <v>1.8</v>
+      </c>
+      <c r="AH129">
+        <v>1.95</v>
+      </c>
+      <c r="AI129">
+        <v>1.44</v>
+      </c>
+      <c r="AJ129">
+        <v>2.63</v>
+      </c>
+      <c r="AK129">
+        <v>1.58</v>
+      </c>
+      <c r="AL129">
+        <v>1.28</v>
+      </c>
+      <c r="AM129">
+        <v>1.41</v>
+      </c>
+      <c r="AN129">
+        <v>0.7</v>
+      </c>
+      <c r="AO129">
+        <v>0.9</v>
+      </c>
+      <c r="AP129">
+        <v>0.64</v>
+      </c>
+      <c r="AQ129">
+        <v>1.09</v>
+      </c>
+      <c r="AR129">
+        <v>1.19</v>
+      </c>
+      <c r="AS129">
+        <v>1.1</v>
+      </c>
+      <c r="AT129">
+        <v>2.29</v>
+      </c>
+      <c r="AU129">
+        <v>6</v>
+      </c>
+      <c r="AV129">
+        <v>6</v>
+      </c>
+      <c r="AW129">
+        <v>15</v>
+      </c>
+      <c r="AX129">
+        <v>3</v>
+      </c>
+      <c r="AY129">
+        <v>27</v>
+      </c>
+      <c r="AZ129">
+        <v>12</v>
+      </c>
+      <c r="BA129">
+        <v>3</v>
+      </c>
+      <c r="BB129">
+        <v>5</v>
+      </c>
+      <c r="BC129">
+        <v>8</v>
+      </c>
+      <c r="BD129">
+        <v>2.18</v>
+      </c>
+      <c r="BE129">
+        <v>6.75</v>
+      </c>
+      <c r="BF129">
+        <v>1.79</v>
+      </c>
+      <c r="BG129">
+        <v>1.19</v>
+      </c>
+      <c r="BH129">
+        <v>4.1</v>
+      </c>
+      <c r="BI129">
+        <v>1.33</v>
+      </c>
+      <c r="BJ129">
+        <v>2.95</v>
+      </c>
+      <c r="BK129">
+        <v>1.55</v>
+      </c>
+      <c r="BL129">
+        <v>2.28</v>
+      </c>
+      <c r="BM129">
+        <v>1.88</v>
+      </c>
+      <c r="BN129">
+        <v>1.81</v>
+      </c>
+      <c r="BO129">
+        <v>2.33</v>
+      </c>
+      <c r="BP129">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>['67']</t>
+  </si>
+  <si>
+    <t>['23', '83']</t>
   </si>
   <si>
     <t>['18', '79']</t>
@@ -1140,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1811,7 +1814,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2301,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ6">
         <v>0.75</v>
@@ -2429,7 +2432,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2716,7 +2719,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ8">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2841,7 +2844,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2922,7 +2925,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ9">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3253,7 +3256,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3459,7 +3462,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3665,7 +3668,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3743,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ13">
         <v>0.73</v>
@@ -4077,7 +4080,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4489,7 +4492,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -5107,7 +5110,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5313,7 +5316,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5394,7 +5397,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ21">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR21">
         <v>1.39</v>
@@ -5519,7 +5522,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5803,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ23">
         <v>1.2</v>
@@ -5931,7 +5934,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -6012,7 +6015,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ24">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR24">
         <v>1.14</v>
@@ -6137,7 +6140,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6215,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ25">
         <v>1.09</v>
@@ -6424,7 +6427,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR26">
         <v>1.12</v>
@@ -6627,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ27">
         <v>0.73</v>
@@ -7167,7 +7170,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7579,7 +7582,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7991,7 +7994,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -8197,7 +8200,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8275,10 +8278,10 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ35">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR35">
         <v>1.32</v>
@@ -8403,7 +8406,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8609,7 +8612,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8815,7 +8818,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -9227,7 +9230,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9308,7 +9311,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ40">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR40">
         <v>0.9399999999999999</v>
@@ -9433,7 +9436,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9514,7 +9517,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ41">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR41">
         <v>1.12</v>
@@ -9639,7 +9642,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9845,7 +9848,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -10051,7 +10054,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10463,7 +10466,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10541,7 +10544,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ46">
         <v>1.2</v>
@@ -10669,7 +10672,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11081,7 +11084,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11571,7 +11574,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ51">
         <v>1.2</v>
@@ -11699,7 +11702,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11905,7 +11908,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12192,7 +12195,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR54">
         <v>1.17</v>
@@ -12523,7 +12526,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>7.5</v>
@@ -12729,7 +12732,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>1.62</v>
@@ -12935,7 +12938,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13347,7 +13350,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>2.38</v>
@@ -13553,7 +13556,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13634,7 +13637,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ61">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR61">
         <v>1.15</v>
@@ -13837,7 +13840,7 @@
         <v>1.25</v>
       </c>
       <c r="AP62">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ62">
         <v>1.09</v>
@@ -13965,7 +13968,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -14171,7 +14174,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14583,7 +14586,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14789,7 +14792,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -14870,7 +14873,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ67">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR67">
         <v>1.3</v>
@@ -15201,7 +15204,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15407,7 +15410,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15613,7 +15616,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15819,7 +15822,7 @@
         <v>82</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15897,7 +15900,7 @@
         <v>3</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ72">
         <v>2.5</v>
@@ -16437,7 +16440,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16518,7 +16521,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ75">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR75">
         <v>1.29</v>
@@ -16724,7 +16727,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ76">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR76">
         <v>1.75</v>
@@ -16849,7 +16852,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17055,7 +17058,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q78">
         <v>3.25</v>
@@ -17261,7 +17264,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17467,7 +17470,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17751,7 +17754,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ81">
         <v>1.09</v>
@@ -18085,7 +18088,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>2.63</v>
@@ -18163,7 +18166,7 @@
         <v>0.83</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ83">
         <v>1.09</v>
@@ -18291,7 +18294,7 @@
         <v>82</v>
       </c>
       <c r="P84" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>3.25</v>
@@ -18497,7 +18500,7 @@
         <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>7.5</v>
@@ -18703,7 +18706,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19115,7 +19118,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19196,7 +19199,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ88">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR88">
         <v>1.42</v>
@@ -19321,7 +19324,7 @@
         <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19608,7 +19611,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ90">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR90">
         <v>1.21</v>
@@ -20017,7 +20020,7 @@
         <v>0.71</v>
       </c>
       <c r="AP92">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ92">
         <v>1.09</v>
@@ -20557,7 +20560,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -20763,7 +20766,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>3.5</v>
@@ -20969,7 +20972,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q97">
         <v>2.05</v>
@@ -21175,7 +21178,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21256,7 +21259,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ98">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR98">
         <v>1.21</v>
@@ -21459,7 +21462,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ99">
         <v>0.73</v>
@@ -21587,7 +21590,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21793,7 +21796,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22205,7 +22208,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22823,7 +22826,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>2.75</v>
@@ -23107,10 +23110,10 @@
         <v>1.5</v>
       </c>
       <c r="AP107">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ107">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR107">
         <v>2.23</v>
@@ -23235,7 +23238,7 @@
         <v>82</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>2.38</v>
@@ -23519,7 +23522,7 @@
         <v>1.71</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ109">
         <v>1.2</v>
@@ -23647,7 +23650,7 @@
         <v>127</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>3.4</v>
@@ -23728,7 +23731,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ110">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR110">
         <v>1.25</v>
@@ -24059,7 +24062,7 @@
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24343,7 +24346,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ113">
         <v>0.73</v>
@@ -24677,7 +24680,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -24883,7 +24886,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q116">
         <v>2.65</v>
@@ -25373,7 +25376,7 @@
         <v>1.11</v>
       </c>
       <c r="AP118">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ118">
         <v>0.91</v>
@@ -25788,7 +25791,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ120">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR120">
         <v>1.65</v>
@@ -26119,7 +26122,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>2</v>
@@ -26325,7 +26328,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q123">
         <v>3.2</v>
@@ -26406,7 +26409,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ123">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR123">
         <v>1.36</v>
@@ -26531,7 +26534,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q124">
         <v>6.5</v>
@@ -27021,7 +27024,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ126">
         <v>0.91</v>
@@ -27149,7 +27152,7 @@
         <v>82</v>
       </c>
       <c r="P127" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27355,7 +27358,7 @@
         <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q128">
         <v>2.05</v>
@@ -27433,7 +27436,7 @@
         <v>0.9</v>
       </c>
       <c r="AP128">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ128">
         <v>1.09</v>
@@ -27561,7 +27564,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q129">
         <v>3.2</v>
@@ -27718,6 +27721,418 @@
       </c>
       <c r="BP129">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7480201</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45665.69791666666</v>
+      </c>
+      <c r="F130">
+        <v>11</v>
+      </c>
+      <c r="G130" t="s">
+        <v>81</v>
+      </c>
+      <c r="H130" t="s">
+        <v>71</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130" t="s">
+        <v>82</v>
+      </c>
+      <c r="P130" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q130">
+        <v>2.63</v>
+      </c>
+      <c r="R130">
+        <v>2.2</v>
+      </c>
+      <c r="S130">
+        <v>4</v>
+      </c>
+      <c r="T130">
+        <v>1.4</v>
+      </c>
+      <c r="U130">
+        <v>2.75</v>
+      </c>
+      <c r="V130">
+        <v>2.75</v>
+      </c>
+      <c r="W130">
+        <v>1.4</v>
+      </c>
+      <c r="X130">
+        <v>8</v>
+      </c>
+      <c r="Y130">
+        <v>1.08</v>
+      </c>
+      <c r="Z130">
+        <v>2</v>
+      </c>
+      <c r="AA130">
+        <v>3.5</v>
+      </c>
+      <c r="AB130">
+        <v>3.6</v>
+      </c>
+      <c r="AC130">
+        <v>1.05</v>
+      </c>
+      <c r="AD130">
+        <v>9.5</v>
+      </c>
+      <c r="AE130">
+        <v>1.28</v>
+      </c>
+      <c r="AF130">
+        <v>3.55</v>
+      </c>
+      <c r="AG130">
+        <v>1.86</v>
+      </c>
+      <c r="AH130">
+        <v>1.86</v>
+      </c>
+      <c r="AI130">
+        <v>1.75</v>
+      </c>
+      <c r="AJ130">
+        <v>2</v>
+      </c>
+      <c r="AK130">
+        <v>1.25</v>
+      </c>
+      <c r="AL130">
+        <v>1.22</v>
+      </c>
+      <c r="AM130">
+        <v>1.73</v>
+      </c>
+      <c r="AN130">
+        <v>1.5</v>
+      </c>
+      <c r="AO130">
+        <v>1.2</v>
+      </c>
+      <c r="AP130">
+        <v>1.45</v>
+      </c>
+      <c r="AQ130">
+        <v>1.18</v>
+      </c>
+      <c r="AR130">
+        <v>1.4</v>
+      </c>
+      <c r="AS130">
+        <v>1.18</v>
+      </c>
+      <c r="AT130">
+        <v>2.58</v>
+      </c>
+      <c r="AU130">
+        <v>4</v>
+      </c>
+      <c r="AV130">
+        <v>3</v>
+      </c>
+      <c r="AW130">
+        <v>10</v>
+      </c>
+      <c r="AX130">
+        <v>3</v>
+      </c>
+      <c r="AY130">
+        <v>19</v>
+      </c>
+      <c r="AZ130">
+        <v>8</v>
+      </c>
+      <c r="BA130">
+        <v>15</v>
+      </c>
+      <c r="BB130">
+        <v>2</v>
+      </c>
+      <c r="BC130">
+        <v>17</v>
+      </c>
+      <c r="BD130">
+        <v>1.64</v>
+      </c>
+      <c r="BE130">
+        <v>8.5</v>
+      </c>
+      <c r="BF130">
+        <v>2.64</v>
+      </c>
+      <c r="BG130">
+        <v>1.21</v>
+      </c>
+      <c r="BH130">
+        <v>3.8</v>
+      </c>
+      <c r="BI130">
+        <v>1.37</v>
+      </c>
+      <c r="BJ130">
+        <v>2.8</v>
+      </c>
+      <c r="BK130">
+        <v>1.51</v>
+      </c>
+      <c r="BL130">
+        <v>2.46</v>
+      </c>
+      <c r="BM130">
+        <v>1.73</v>
+      </c>
+      <c r="BN130">
+        <v>1.95</v>
+      </c>
+      <c r="BO130">
+        <v>2.27</v>
+      </c>
+      <c r="BP130">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7480198</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45665.69791666666</v>
+      </c>
+      <c r="F131">
+        <v>11</v>
+      </c>
+      <c r="G131" t="s">
+        <v>74</v>
+      </c>
+      <c r="H131" t="s">
+        <v>72</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>184</v>
+      </c>
+      <c r="P131" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q131">
+        <v>1.57</v>
+      </c>
+      <c r="R131">
+        <v>2.88</v>
+      </c>
+      <c r="S131">
+        <v>9.5</v>
+      </c>
+      <c r="T131">
+        <v>1.22</v>
+      </c>
+      <c r="U131">
+        <v>4</v>
+      </c>
+      <c r="V131">
+        <v>2.1</v>
+      </c>
+      <c r="W131">
+        <v>1.67</v>
+      </c>
+      <c r="X131">
+        <v>4.5</v>
+      </c>
+      <c r="Y131">
+        <v>1.18</v>
+      </c>
+      <c r="Z131">
+        <v>1.17</v>
+      </c>
+      <c r="AA131">
+        <v>7</v>
+      </c>
+      <c r="AB131">
+        <v>14</v>
+      </c>
+      <c r="AC131">
+        <v>0</v>
+      </c>
+      <c r="AD131">
+        <v>0</v>
+      </c>
+      <c r="AE131">
+        <v>1.09</v>
+      </c>
+      <c r="AF131">
+        <v>7</v>
+      </c>
+      <c r="AG131">
+        <v>1.36</v>
+      </c>
+      <c r="AH131">
+        <v>2.9</v>
+      </c>
+      <c r="AI131">
+        <v>1.91</v>
+      </c>
+      <c r="AJ131">
+        <v>1.91</v>
+      </c>
+      <c r="AK131">
+        <v>1.03</v>
+      </c>
+      <c r="AL131">
+        <v>1.07</v>
+      </c>
+      <c r="AM131">
+        <v>4.75</v>
+      </c>
+      <c r="AN131">
+        <v>2.8</v>
+      </c>
+      <c r="AO131">
+        <v>1.6</v>
+      </c>
+      <c r="AP131">
+        <v>2.82</v>
+      </c>
+      <c r="AQ131">
+        <v>1.45</v>
+      </c>
+      <c r="AR131">
+        <v>2.28</v>
+      </c>
+      <c r="AS131">
+        <v>1.24</v>
+      </c>
+      <c r="AT131">
+        <v>3.52</v>
+      </c>
+      <c r="AU131">
+        <v>7</v>
+      </c>
+      <c r="AV131">
+        <v>4</v>
+      </c>
+      <c r="AW131">
+        <v>5</v>
+      </c>
+      <c r="AX131">
+        <v>2</v>
+      </c>
+      <c r="AY131">
+        <v>20</v>
+      </c>
+      <c r="AZ131">
+        <v>7</v>
+      </c>
+      <c r="BA131">
+        <v>12</v>
+      </c>
+      <c r="BB131">
+        <v>4</v>
+      </c>
+      <c r="BC131">
+        <v>16</v>
+      </c>
+      <c r="BD131">
+        <v>1.05</v>
+      </c>
+      <c r="BE131">
+        <v>16</v>
+      </c>
+      <c r="BF131">
+        <v>10.5</v>
+      </c>
+      <c r="BG131">
+        <v>1.11</v>
+      </c>
+      <c r="BH131">
+        <v>5.4</v>
+      </c>
+      <c r="BI131">
+        <v>1.2</v>
+      </c>
+      <c r="BJ131">
+        <v>3.9</v>
+      </c>
+      <c r="BK131">
+        <v>1.42</v>
+      </c>
+      <c r="BL131">
+        <v>2.73</v>
+      </c>
+      <c r="BM131">
+        <v>1.68</v>
+      </c>
+      <c r="BN131">
+        <v>2.11</v>
+      </c>
+      <c r="BO131">
+        <v>2.05</v>
+      </c>
+      <c r="BP131">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1143,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1483,7 +1483,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ2">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ10">
         <v>0.73</v>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ20">
         <v>0.91</v>
@@ -5809,7 +5809,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ23">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR23">
         <v>3.1</v>
@@ -7457,7 +7457,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ31">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR31">
         <v>1.46</v>
@@ -8690,7 +8690,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ37">
         <v>1.2</v>
@@ -9720,7 +9720,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -11577,7 +11577,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ51">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11780,7 +11780,7 @@
         <v>0.8</v>
       </c>
       <c r="AP52">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ52">
         <v>0.73</v>
@@ -14049,7 +14049,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR63">
         <v>1.25</v>
@@ -14664,7 +14664,7 @@
         <v>1.17</v>
       </c>
       <c r="AP66">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ66">
         <v>0.75</v>
@@ -17136,7 +17136,7 @@
         <v>0.4</v>
       </c>
       <c r="AP78">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ78">
         <v>1.09</v>
@@ -18581,7 +18581,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ85">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -19196,7 +19196,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ88">
         <v>1.18</v>
@@ -20641,7 +20641,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ95">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR95">
         <v>1.29</v>
@@ -23316,7 +23316,7 @@
         <v>0.38</v>
       </c>
       <c r="AP108">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ108">
         <v>1.09</v>
@@ -23937,7 +23937,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ111">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR111">
         <v>1.24</v>
@@ -24761,7 +24761,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ115">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR115">
         <v>1.18</v>
@@ -26406,7 +26406,7 @@
         <v>1.44</v>
       </c>
       <c r="AP123">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ123">
         <v>1.45</v>
@@ -26615,7 +26615,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ124">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR124">
         <v>1.42</v>
@@ -28133,6 +28133,212 @@
       </c>
       <c r="BP131">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7480199</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45666.70833333334</v>
+      </c>
+      <c r="F132">
+        <v>11</v>
+      </c>
+      <c r="G132" t="s">
+        <v>78</v>
+      </c>
+      <c r="H132" t="s">
+        <v>76</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>139</v>
+      </c>
+      <c r="P132" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q132">
+        <v>7.5</v>
+      </c>
+      <c r="R132">
+        <v>2.63</v>
+      </c>
+      <c r="S132">
+        <v>1.73</v>
+      </c>
+      <c r="T132">
+        <v>1.25</v>
+      </c>
+      <c r="U132">
+        <v>3.75</v>
+      </c>
+      <c r="V132">
+        <v>2.2</v>
+      </c>
+      <c r="W132">
+        <v>1.62</v>
+      </c>
+      <c r="X132">
+        <v>5</v>
+      </c>
+      <c r="Y132">
+        <v>1.17</v>
+      </c>
+      <c r="Z132">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AA132">
+        <v>5.8</v>
+      </c>
+      <c r="AB132">
+        <v>1.29</v>
+      </c>
+      <c r="AC132">
+        <v>1.03</v>
+      </c>
+      <c r="AD132">
+        <v>11</v>
+      </c>
+      <c r="AE132">
+        <v>1.15</v>
+      </c>
+      <c r="AF132">
+        <v>5.25</v>
+      </c>
+      <c r="AG132">
+        <v>1.42</v>
+      </c>
+      <c r="AH132">
+        <v>2.74</v>
+      </c>
+      <c r="AI132">
+        <v>1.8</v>
+      </c>
+      <c r="AJ132">
+        <v>1.95</v>
+      </c>
+      <c r="AK132">
+        <v>3.45</v>
+      </c>
+      <c r="AL132">
+        <v>1.13</v>
+      </c>
+      <c r="AM132">
+        <v>1.05</v>
+      </c>
+      <c r="AN132">
+        <v>1.3</v>
+      </c>
+      <c r="AO132">
+        <v>1.2</v>
+      </c>
+      <c r="AP132">
+        <v>1.27</v>
+      </c>
+      <c r="AQ132">
+        <v>1.18</v>
+      </c>
+      <c r="AR132">
+        <v>1.37</v>
+      </c>
+      <c r="AS132">
+        <v>1.74</v>
+      </c>
+      <c r="AT132">
+        <v>3.11</v>
+      </c>
+      <c r="AU132">
+        <v>4</v>
+      </c>
+      <c r="AV132">
+        <v>5</v>
+      </c>
+      <c r="AW132">
+        <v>8</v>
+      </c>
+      <c r="AX132">
+        <v>9</v>
+      </c>
+      <c r="AY132">
+        <v>16</v>
+      </c>
+      <c r="AZ132">
+        <v>17</v>
+      </c>
+      <c r="BA132">
+        <v>3</v>
+      </c>
+      <c r="BB132">
+        <v>7</v>
+      </c>
+      <c r="BC132">
+        <v>10</v>
+      </c>
+      <c r="BD132">
+        <v>5.67</v>
+      </c>
+      <c r="BE132">
+        <v>11</v>
+      </c>
+      <c r="BF132">
+        <v>1.19</v>
+      </c>
+      <c r="BG132">
+        <v>1.11</v>
+      </c>
+      <c r="BH132">
+        <v>5.75</v>
+      </c>
+      <c r="BI132">
+        <v>1.23</v>
+      </c>
+      <c r="BJ132">
+        <v>3.6</v>
+      </c>
+      <c r="BK132">
+        <v>1.51</v>
+      </c>
+      <c r="BL132">
+        <v>2.46</v>
+      </c>
+      <c r="BM132">
+        <v>1.77</v>
+      </c>
+      <c r="BN132">
+        <v>1.95</v>
+      </c>
+      <c r="BO132">
+        <v>2.27</v>
+      </c>
+      <c r="BP132">
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>
